--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO-PC\OneDrive\Documents\Work_For_\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE7487-A707-4014-8472-55E6CB14A9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161D6F0-521F-454A-9D14-60CFC429C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="134">
   <si>
     <t>UnSettled</t>
   </si>
@@ -416,9 +416,6 @@
     <t>TBS</t>
   </si>
   <si>
-    <t>Food - SS MgX</t>
-  </si>
-  <si>
     <t>pp</t>
   </si>
   <si>
@@ -435,6 +432,12 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Food - Cheat</t>
+  </si>
+  <si>
+    <t>Zee 24 Taas</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,6 +1441,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,97 +1474,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1830,7 +1840,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1874,7 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="132">
+      <c r="C2" s="137">
         <f>B3+B4</f>
         <v>2175</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>68</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>83</v>
@@ -1910,23 +1920,23 @@
       </c>
       <c r="T2" s="100">
         <f ca="1">TODAY()</f>
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="135" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>2000</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="35">
         <v>175</v>
       </c>
@@ -1934,15 +1944,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="34">
-        <v>15</v>
-      </c>
-      <c r="F4" s="39">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="109" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="120" t="s">
@@ -1961,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="P4" s="80">
         <v>0.78472222222222221</v>
@@ -1975,15 +1983,13 @@
         <v>-2</v>
       </c>
       <c r="E5" s="34">
-        <v>25</v>
-      </c>
-      <c r="F5" s="157">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F5" s="128"/>
       <c r="G5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="109" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="85" t="s">
@@ -1996,13 +2002,13 @@
         <v>119</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>86</v>
       </c>
       <c r="N5" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="P5" s="80">
         <v>0.53472222222222221</v>
@@ -2013,13 +2019,11 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="34">
-        <v>40</v>
-      </c>
-      <c r="F6" s="158">
         <v>10</v>
       </c>
+      <c r="F6" s="129"/>
       <c r="G6" s="28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H6" s="122" t="s">
         <v>17</v>
@@ -2034,16 +2038,16 @@
         <v>120</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N6" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P6" s="80">
         <v>0.5083333333333333</v>
@@ -2059,12 +2063,8 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-      <c r="F7" s="158">
-        <v>10</v>
-      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2081,16 +2081,16 @@
         <v>121</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>90</v>
       </c>
       <c r="N7" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="P7" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>112</v>
@@ -2098,9 +2098,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="34"/>
-      <c r="F8" s="39">
-        <v>50</v>
-      </c>
+      <c r="F8" s="39"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2141,13 +2139,11 @@
         <v>4825</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="157">
-        <v>10</v>
-      </c>
+      <c r="F9" s="128"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="160" t="s">
+      <c r="H9" s="131" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="120" t="s">
@@ -2169,22 +2165,18 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" s="80">
         <v>0.78472222222222221</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34">
-        <v>49</v>
-      </c>
-      <c r="F10" s="39">
-        <v>70</v>
-      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2213,7 +2205,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2224,12 +2216,10 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="39">
-        <v>55</v>
-      </c>
+      <c r="E11" s="130"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="109" t="s">
         <v>17</v>
@@ -2240,8 +2230,8 @@
       <c r="J11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="154" t="s">
-        <v>130</v>
+      <c r="K11" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="L11" s="24" t="s">
         <v>62</v>
@@ -2252,15 +2242,18 @@
       <c r="N11" s="80">
         <v>0.78472222222222221</v>
       </c>
+      <c r="R11" s="25" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="156"/>
+      <c r="F12" s="140"/>
       <c r="G12" s="9">
-        <f>SUM(E4:E10)</f>
-        <v>130</v>
+        <f>SUM(E4:F11)</f>
+        <v>40</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2277,12 +2270,12 @@
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="128"/>
+      <c r="J13" s="133"/>
       <c r="K13" s="25"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2290,11 +2283,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="128"/>
+      <c r="J14" s="133"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2308,11 +2301,11 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="128"/>
+      <c r="J15" s="133"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2331,8 +2324,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2345,14 +2338,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="128"/>
+      <c r="J18" s="133"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="128"/>
+      <c r="J19" s="133"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2374,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,18 +2393,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="141"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="141"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2422,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="136">
+      <c r="B2" s="143">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2456,15 +2449,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="144">
+      <c r="K2" s="151">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="146">
+      <c r="L2" s="153">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="138">
+      <c r="M2" s="146">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2475,7 +2468,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="137"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2490,13 +2483,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="139"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="147"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="143"/>
+      <c r="B4" s="144"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2511,9 +2504,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="139"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2595,7 +2588,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="155">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2612,22 +2605,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="148">
+      <c r="K7" s="157">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="150">
+      <c r="L7" s="159">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="152">
+      <c r="M7" s="161">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="135"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2648,9 +2641,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="153"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="162"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2730,7 +2723,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="134">
+      <c r="B11" s="155">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2757,7 +2750,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="135"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2814,7 +2807,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="134">
+      <c r="B14" s="155">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2837,7 +2830,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="135"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2861,7 +2854,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="136">
+      <c r="B16" s="143">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -2892,7 +2885,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -2910,7 +2903,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="136">
+      <c r="B18" s="143">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -2939,7 +2932,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="143"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -2964,7 +2957,7 @@
       <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="161">
+      <c r="B20" s="132">
         <v>13</v>
       </c>
       <c r="C20" s="13"/>
@@ -2999,7 +2992,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="165">
+      <c r="B21" s="141">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3027,32 +3020,56 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="166"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163">
+      <c r="B22" s="142"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164">
         <v>235</v>
       </c>
-      <c r="E22" s="163">
+      <c r="E22" s="164">
         <v>50</v>
       </c>
-      <c r="F22" s="163">
+      <c r="F22" s="164">
         <v>55</v>
       </c>
-      <c r="G22" s="163">
+      <c r="G22" s="164">
         <v>70</v>
       </c>
-      <c r="H22" s="157">
+      <c r="H22" s="165">
         <v>20</v>
       </c>
-      <c r="I22" s="163">
+      <c r="I22" s="164">
         <v>20</v>
       </c>
-      <c r="J22" s="158">
+      <c r="J22" s="166">
         <v>20</v>
       </c>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="167"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="79">
+        <v>15</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="169">
+        <v>40</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="168">
+        <v>20</v>
+      </c>
+      <c r="I23" s="168">
+        <v>10</v>
+      </c>
+      <c r="J23" s="168">
+        <v>10</v>
+      </c>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4630,7 +4647,7 @@
       </c>
       <c r="AD14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161D6F0-521F-454A-9D14-60CFC429C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCCF9F-4355-449F-B8E2-5F8D97615034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="136">
   <si>
     <t>UnSettled</t>
   </si>
@@ -438,13 +438,19 @@
   </si>
   <si>
     <t>Zee 24 Taas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food </t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +547,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1160,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1456,96 +1470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,8 +1479,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,7 +1888,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,9 +1922,9 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="142">
         <f>B3+B4</f>
-        <v>2175</v>
+        <v>1930</v>
       </c>
       <c r="E2" s="101" t="s">
         <v>44</v>
@@ -1920,30 +1968,30 @@
       </c>
       <c r="T2" s="100">
         <f ca="1">TODAY()</f>
-        <v>45275</v>
+        <v>45276</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="140" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
-        <v>2000</v>
-      </c>
-      <c r="C3" s="138"/>
+        <v>1500</v>
+      </c>
+      <c r="C3" s="143"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="35">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="135">
         <v>10</v>
       </c>
       <c r="F4" s="39"/>
@@ -1969,21 +2017,21 @@
         <v>30</v>
       </c>
       <c r="N4" s="80">
-        <v>0.38125000000000003</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="P4" s="80">
         <v>0.78472222222222221</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="33">
         <v>-2</v>
       </c>
-      <c r="E5" s="34">
-        <v>20</v>
+      <c r="E5" s="135">
+        <v>10</v>
       </c>
       <c r="F5" s="128"/>
       <c r="G5" s="9" t="s">
@@ -2008,22 +2056,22 @@
         <v>86</v>
       </c>
       <c r="N5" s="80">
-        <v>0.38125000000000003</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="P5" s="80">
         <v>0.53472222222222221</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="34">
+      <c r="E6" s="135">
         <v>10</v>
       </c>
       <c r="F6" s="129"/>
       <c r="G6" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H6" s="122" t="s">
         <v>17</v>
@@ -2044,7 +2092,7 @@
         <v>64</v>
       </c>
       <c r="N6" s="80">
-        <v>0.38125000000000003</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>130</v>
@@ -2053,7 +2101,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2063,7 +2111,9 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="183">
+        <v>3</v>
+      </c>
       <c r="F7" s="129"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
@@ -2078,26 +2128,28 @@
         <v>125</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>90</v>
       </c>
       <c r="N7" s="80">
-        <v>0.38125000000000003</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="P7" s="80">
-        <v>0.38125000000000003</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="34"/>
+      <c r="E8" s="34">
+        <v>75</v>
+      </c>
       <c r="F8" s="39"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
@@ -2112,7 +2164,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>22</v>
@@ -2121,13 +2173,13 @@
         <v>69</v>
       </c>
       <c r="N8" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="P8" s="80">
-        <v>0.53472222222222221</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2136,24 +2188,26 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>4825</v>
-      </c>
-      <c r="E9" s="34"/>
+        <v>5070</v>
+      </c>
+      <c r="E9" s="34">
+        <v>25</v>
+      </c>
       <c r="F9" s="128"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="120" t="s">
-        <v>116</v>
+      <c r="H9" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>115</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="L9" s="30" t="s">
         <v>78</v>
@@ -2162,7 +2216,7 @@
         <v>64</v>
       </c>
       <c r="N9" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>126</v>
@@ -2175,7 +2229,9 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34"/>
+      <c r="E10" s="34">
+        <v>70</v>
+      </c>
       <c r="F10" s="39"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
@@ -2193,13 +2249,13 @@
         <v>122</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>66</v>
       </c>
       <c r="N10" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="P10" s="80">
         <v>0.78472222222222221</v>
@@ -2216,7 +2272,9 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="183">
+        <v>2</v>
+      </c>
       <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
@@ -2224,36 +2282,39 @@
       <c r="H11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="85" t="s">
-        <v>115</v>
+      <c r="I11" s="120" t="s">
+        <v>116</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N11" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="P11" s="80">
+        <v>0.56458333333333333</v>
       </c>
       <c r="R11" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="140"/>
+      <c r="F12" s="145"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2266,16 +2327,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>4825</v>
+        <v>5070</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="138"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2283,11 +2343,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="133"/>
+      <c r="J14" s="138"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2301,11 +2361,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="133"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2324,8 +2385,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2338,14 +2399,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="133"/>
+      <c r="J18" s="138"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="133"/>
+      <c r="J19" s="138"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2367,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,18 +2454,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="149"/>
+      <c r="F1" s="154"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="150"/>
-      <c r="J1" s="149"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2483,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="148">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2449,26 +2510,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="151">
+      <c r="K2" s="156">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="153">
+      <c r="L2" s="158">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="146">
+      <c r="M2" s="151">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J22)</f>
-        <v>4785</v>
+        <f>SUM(E2:J24)</f>
+        <v>5030</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="145"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2483,13 +2544,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="147"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="152"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="144"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2504,9 +2565,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="147"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="152"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2588,7 +2649,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="155">
+      <c r="B7" s="160">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2605,22 +2666,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="157">
+      <c r="K7" s="162">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="159">
+      <c r="L7" s="164">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="161">
+      <c r="M7" s="166">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="156"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2641,9 +2702,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="162"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="167"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2723,7 +2784,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="160">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2750,7 +2811,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2807,7 +2868,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155">
+      <c r="B14" s="160">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2830,7 +2891,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2854,7 +2915,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="143">
+      <c r="B16" s="148">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -2885,7 +2946,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="145"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -2903,7 +2964,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="143">
+      <c r="B18" s="148">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -2932,7 +2993,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="144"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -2992,7 +3053,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="141">
+      <c r="B21" s="146">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3020,56 +3081,82 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="142"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164">
+      <c r="B22" s="147"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="134">
         <v>235</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="134">
         <v>50</v>
       </c>
-      <c r="F22" s="164">
+      <c r="F22" s="134">
         <v>55</v>
       </c>
-      <c r="G22" s="164">
+      <c r="G22" s="134">
         <v>70</v>
       </c>
-      <c r="H22" s="165">
+      <c r="H22" s="135">
         <v>20</v>
       </c>
-      <c r="I22" s="164">
+      <c r="I22" s="134">
         <v>20</v>
       </c>
-      <c r="J22" s="166">
+      <c r="J22" s="136">
         <v>20</v>
       </c>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="167"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="137"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="79">
         <v>15</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="169">
+      <c r="C23" s="70"/>
+      <c r="D23" s="180">
         <v>40</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="168">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71">
         <v>20</v>
       </c>
-      <c r="I23" s="168">
+      <c r="I23" s="71">
         <v>10</v>
       </c>
-      <c r="J23" s="168">
+      <c r="J23" s="71">
         <v>10</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="72"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="132">
+        <v>16</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="181">
+        <v>75</v>
+      </c>
+      <c r="G24" s="181">
+        <v>70</v>
+      </c>
+      <c r="H24" s="181">
+        <v>30</v>
+      </c>
+      <c r="I24" s="182">
+        <v>5</v>
+      </c>
+      <c r="J24" s="59">
+        <v>25</v>
+      </c>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3095,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:BV23"/>
+  <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="AC6" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,6 +3199,7 @@
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -4635,7 +4723,7 @@
       <c r="X14" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="61"/>
       <c r="Z14" s="91" t="s">
         <v>83</v>
       </c>
@@ -4645,9 +4733,54 @@
       <c r="AB14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" s="100">
+      <c r="AC14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45275</v>
+        <v>45276</v>
+      </c>
+      <c r="AG14" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK14" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO14" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ14" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR14" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="100">
+        <f ca="1">TODAY()</f>
+        <v>45276</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4667,16 +4800,35 @@
       <c r="L15" s="25"/>
       <c r="M15" s="24"/>
       <c r="N15" s="103"/>
-      <c r="P15" s="1"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="2"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="25"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="172"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="173"/>
+      <c r="Y15" s="173"/>
+      <c r="Z15" s="169"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="103"/>
+      <c r="AG15" s="168"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="169"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="171"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="169"/>
+      <c r="AN15" s="173"/>
+      <c r="AO15" s="173"/>
+      <c r="AP15" s="173"/>
+      <c r="AQ15" s="173"/>
+      <c r="AR15" s="169"/>
+      <c r="AS15" s="173"/>
+      <c r="AT15" s="170"/>
+      <c r="AU15" s="169"/>
+      <c r="AV15" s="51"/>
     </row>
     <row r="16" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="112"/>
@@ -4733,25 +4885,63 @@
       <c r="U16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="30" t="s">
+      <c r="W16" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="80">
+      <c r="X16" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="80">
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="175">
         <v>0.61805555555555558</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="25" t="s">
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG16" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK16" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN16" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO16" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP16" s="175">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="AQ16" s="173"/>
+      <c r="AR16" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AS16" s="173"/>
+      <c r="AT16" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU16" s="169"/>
+      <c r="AV16" s="51"/>
+    </row>
+    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107">
         <v>-2</v>
       </c>
@@ -4808,25 +4998,63 @@
       <c r="U17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="V17" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="W17" s="30" t="s">
+      <c r="W17" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="80">
+      <c r="X17" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="80">
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="175">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="25" t="s">
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG17" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK17" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN17" s="174" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO17" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP17" s="175">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="AQ17" s="173"/>
+      <c r="AR17" s="175">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="AS17" s="173"/>
+      <c r="AT17" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU17" s="169"/>
+      <c r="AV17" s="51"/>
+    </row>
+    <row r="18" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
       <c r="B18" s="38">
         <v>20</v>
@@ -4866,7 +5094,7 @@
       <c r="P18" s="38">
         <v>5</v>
       </c>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="176" t="s">
         <v>9</v>
       </c>
       <c r="R18" s="122" t="s">
@@ -4881,25 +5109,65 @@
       <c r="U18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="30" t="s">
+      <c r="W18" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="80">
+      <c r="X18" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="80">
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="25" t="s">
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG18" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="176" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ18" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK18" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL18" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN18" s="174" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO18" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP18" s="175">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="AQ18" s="173" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR18" s="175">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AS18" s="173"/>
+      <c r="AT18" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU18" s="169"/>
+      <c r="AV18" s="51"/>
+    </row>
+    <row r="19" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="112"/>
       <c r="B19" s="38">
         <v>10</v>
@@ -4954,25 +5222,61 @@
       <c r="U19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V19" s="30" t="s">
+      <c r="V19" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="80">
+      <c r="X19" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="80">
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="25" t="s">
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ19" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK19" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL19" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN19" s="174" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO19" s="174" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP19" s="175">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="AQ19" s="173"/>
+      <c r="AR19" s="175">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="AS19" s="173"/>
+      <c r="AT19" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU19" s="169"/>
+      <c r="AV19" s="51"/>
+    </row>
+    <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="112"/>
       <c r="B20" s="38">
         <v>25</v>
@@ -5027,25 +5331,61 @@
       <c r="U20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="30" t="s">
+      <c r="V20" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="30" t="s">
+      <c r="W20" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="X20" s="80">
+      <c r="X20" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="80">
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="175">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="25" t="s">
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ20" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN20" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO20" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP20" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AQ20" s="173"/>
+      <c r="AR20" s="175">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="AS20" s="173"/>
+      <c r="AT20" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU20" s="169"/>
+      <c r="AV20" s="51"/>
+    </row>
+    <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="112"/>
       <c r="B21" s="38">
         <v>95</v>
@@ -5100,25 +5440,63 @@
       <c r="U21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="30" t="s">
+      <c r="V21" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="W21" s="30" t="s">
+      <c r="W21" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="80">
+      <c r="X21" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="80">
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="25" t="s">
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="103" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ21" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK21" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN21" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO21" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AQ21" s="173" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR21" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AS21" s="173"/>
+      <c r="AT21" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU21" s="169"/>
+      <c r="AV21" s="51"/>
+    </row>
+    <row r="22" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="112"/>
       <c r="B22" s="38">
         <v>70</v>
@@ -5173,25 +5551,61 @@
       <c r="U22" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="V22" s="30" t="s">
+      <c r="V22" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="W22" s="30" t="s">
+      <c r="W22" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="X22" s="80">
+      <c r="X22" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="80">
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="175">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="25" t="s">
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ22" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK22" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL22" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM22" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN22" s="174" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO22" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP22" s="175">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AQ22" s="173"/>
+      <c r="AR22" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AS22" s="173"/>
+      <c r="AT22" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU22" s="169"/>
+      <c r="AV22" s="51"/>
+    </row>
+    <row r="23" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115"/>
       <c r="B23" s="34" t="s">
         <v>4</v>
@@ -5218,17 +5632,79 @@
         <f>SUM(P16:P22)</f>
         <v>60</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="2"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="25"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="104"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ23" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK23" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN23" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO23" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP23" s="175">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AQ23" s="173"/>
+      <c r="AR23" s="169"/>
+      <c r="AS23" s="173"/>
+      <c r="AT23" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU23" s="169"/>
+      <c r="AV23" s="51"/>
+    </row>
+    <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG24" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="9">
+        <f>SUM(AG16:AH23)</f>
+        <v>40</v>
+      </c>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="179"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AG24:AH24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCCF9F-4355-449F-B8E2-5F8D97615034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B95AC-1FF1-4B26-B32B-A8E6F153A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="137">
   <si>
     <t>UnSettled</t>
   </si>
@@ -440,10 +440,13 @@
     <t>Zee 24 Taas</t>
   </si>
   <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food </t>
   </si>
   <si>
-    <t>17/12/2023</t>
+    <t>Food- SS MgX</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1479,6 +1482,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,42 +1584,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1888,7 +1869,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +1903,7 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="142">
+      <c r="C2" s="148">
         <f>B3+B4</f>
         <v>1930</v>
       </c>
@@ -1972,19 +1953,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="146" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="143"/>
+      <c r="C3" s="149"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
+      <c r="A4" s="147"/>
       <c r="B4" s="35">
         <v>430</v>
       </c>
@@ -2035,7 +2016,7 @@
       </c>
       <c r="F5" s="128"/>
       <c r="G5" s="9" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="H5" s="109" t="s">
         <v>17</v>
@@ -2071,7 +2052,7 @@
       </c>
       <c r="F6" s="129"/>
       <c r="G6" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" s="122" t="s">
         <v>17</v>
@@ -2111,7 +2092,7 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="183">
+      <c r="E7" s="143">
         <v>3</v>
       </c>
       <c r="F7" s="129"/>
@@ -2179,7 +2160,7 @@
         <v>0.55625000000000002</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,7 +2253,7 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="183">
+      <c r="E11" s="143">
         <v>2</v>
       </c>
       <c r="F11" s="39"/>
@@ -2308,10 +2289,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>205</v>
@@ -2331,11 +2312,11 @@
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="138"/>
+      <c r="J13" s="144"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2343,11 +2324,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="138"/>
+      <c r="J14" s="144"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2361,12 +2342,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="138"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2385,8 +2366,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2399,14 +2380,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="138"/>
+      <c r="J18" s="144"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="138"/>
+      <c r="J19" s="144"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2454,18 +2435,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="154"/>
+      <c r="F1" s="160"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="154"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2464,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="148">
+      <c r="B2" s="154">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2510,15 +2491,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="156">
+      <c r="K2" s="162">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="158">
+      <c r="L2" s="164">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="151">
+      <c r="M2" s="157">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2529,7 +2510,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="150"/>
+      <c r="B3" s="156"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2544,13 +2525,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="152"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="149"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2565,9 +2546,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="152"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2649,7 +2630,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="160">
+      <c r="B7" s="166">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2666,22 +2647,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="162">
+      <c r="K7" s="168">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="164">
+      <c r="L7" s="170">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="166">
+      <c r="M7" s="172">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="161"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2702,9 +2683,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="163"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="167"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2784,7 +2765,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="160">
+      <c r="B11" s="166">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2811,7 +2792,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161"/>
+      <c r="B12" s="167"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2868,7 +2849,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="160">
+      <c r="B14" s="166">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2891,7 +2872,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="161"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2915,7 +2896,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="148">
+      <c r="B16" s="154">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -2946,7 +2927,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="150"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -2964,7 +2945,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="148">
+      <c r="B18" s="154">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -2993,7 +2974,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="149"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3053,7 +3034,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="146">
+      <c r="B21" s="152">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3081,7 +3062,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="147"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3113,7 +3094,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="70"/>
-      <c r="D23" s="180">
+      <c r="D23" s="141">
         <v>40</v>
       </c>
       <c r="E23" s="71"/>
@@ -3139,16 +3120,16 @@
       <c r="C24" s="58"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
-      <c r="F24" s="181">
+      <c r="F24" s="59">
         <v>75</v>
       </c>
-      <c r="G24" s="181">
+      <c r="G24" s="59">
         <v>70</v>
       </c>
-      <c r="H24" s="181">
+      <c r="H24" s="59">
         <v>30</v>
       </c>
-      <c r="I24" s="182">
+      <c r="I24" s="142">
         <v>5</v>
       </c>
       <c r="J24" s="59">
@@ -4800,34 +4781,27 @@
       <c r="L15" s="25"/>
       <c r="M15" s="24"/>
       <c r="N15" s="103"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="173"/>
+      <c r="P15" s="138"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="103"/>
-      <c r="AG15" s="168"/>
-      <c r="AH15" s="172"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="170"/>
-      <c r="AK15" s="171"/>
-      <c r="AL15" s="172"/>
-      <c r="AM15" s="169"/>
-      <c r="AN15" s="173"/>
-      <c r="AO15" s="173"/>
-      <c r="AP15" s="173"/>
-      <c r="AQ15" s="173"/>
-      <c r="AR15" s="169"/>
-      <c r="AS15" s="173"/>
-      <c r="AT15" s="170"/>
-      <c r="AU15" s="169"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="2"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="2"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="25"/>
       <c r="AV15" s="51"/>
     </row>
     <row r="16" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4885,20 +4859,20 @@
       <c r="U16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="174" t="s">
+      <c r="V16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="174" t="s">
+      <c r="W16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="175">
+      <c r="X16" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="175">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="80">
         <v>0.61805555555555558</v>
       </c>
-      <c r="AA16" s="173"/>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="103" t="s">
         <v>106</v>
       </c>
@@ -4921,24 +4895,23 @@
       <c r="AM16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AN16" s="174" t="s">
+      <c r="AN16" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AO16" s="174" t="s">
+      <c r="AO16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AP16" s="175">
+      <c r="AP16" s="80">
         <v>0.38125000000000003</v>
       </c>
-      <c r="AQ16" s="173"/>
-      <c r="AR16" s="175">
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AS16" s="173"/>
-      <c r="AT16" s="170" t="s">
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AU16" s="169"/>
       <c r="AV16" s="51"/>
     </row>
     <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4998,20 +4971,20 @@
       <c r="U17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="V17" s="174" t="s">
+      <c r="V17" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="W17" s="174" t="s">
+      <c r="W17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="175">
+      <c r="X17" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="175">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="80">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AA17" s="173"/>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="103" t="s">
         <v>106</v>
       </c>
@@ -5034,24 +5007,23 @@
       <c r="AM17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AN17" s="174" t="s">
+      <c r="AN17" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AO17" s="174" t="s">
+      <c r="AO17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AP17" s="175">
+      <c r="AP17" s="80">
         <v>0.38125000000000003</v>
       </c>
-      <c r="AQ17" s="173"/>
-      <c r="AR17" s="175">
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="80">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AS17" s="173"/>
-      <c r="AT17" s="170" t="s">
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AU17" s="169"/>
       <c r="AV17" s="51"/>
     </row>
     <row r="18" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5094,7 +5066,7 @@
       <c r="P18" s="38">
         <v>5</v>
       </c>
-      <c r="Q18" s="176" t="s">
+      <c r="Q18" s="28" t="s">
         <v>9</v>
       </c>
       <c r="R18" s="122" t="s">
@@ -5109,20 +5081,20 @@
       <c r="U18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="V18" s="174" t="s">
+      <c r="V18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="174" t="s">
+      <c r="W18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="175">
+      <c r="X18" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="175">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA18" s="173"/>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="103" t="s">
         <v>106</v>
       </c>
@@ -5130,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="AH18" s="129"/>
-      <c r="AI18" s="176" t="s">
+      <c r="AI18" s="28" t="s">
         <v>132</v>
       </c>
       <c r="AJ18" s="122" t="s">
@@ -5145,26 +5117,25 @@
       <c r="AM18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AN18" s="174" t="s">
+      <c r="AN18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AO18" s="174" t="s">
+      <c r="AO18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AP18" s="175">
+      <c r="AP18" s="80">
         <v>0.38125000000000003</v>
       </c>
-      <c r="AQ18" s="173" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AR18" s="175">
+      <c r="AR18" s="80">
         <v>0.5083333333333333</v>
       </c>
-      <c r="AS18" s="173"/>
-      <c r="AT18" s="170" t="s">
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AU18" s="169"/>
       <c r="AV18" s="51"/>
     </row>
     <row r="19" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,20 +5193,20 @@
       <c r="U19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V19" s="174" t="s">
+      <c r="V19" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="W19" s="174" t="s">
+      <c r="W19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="175">
+      <c r="X19" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="175">
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA19" s="173"/>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="103" t="s">
         <v>106</v>
       </c>
@@ -5256,24 +5227,23 @@
       <c r="AM19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AN19" s="174" t="s">
+      <c r="AN19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AO19" s="174" t="s">
+      <c r="AO19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AP19" s="175">
+      <c r="AP19" s="80">
         <v>0.38125000000000003</v>
       </c>
-      <c r="AQ19" s="173"/>
-      <c r="AR19" s="175">
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="80">
         <v>0.38125000000000003</v>
       </c>
-      <c r="AS19" s="173"/>
-      <c r="AT19" s="170" t="s">
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AU19" s="169"/>
       <c r="AV19" s="51"/>
     </row>
     <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5331,20 +5301,20 @@
       <c r="U20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="174" t="s">
+      <c r="V20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="174" t="s">
+      <c r="W20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="X20" s="175">
+      <c r="X20" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="175">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="80">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AA20" s="173"/>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="103" t="s">
         <v>106</v>
       </c>
@@ -5365,24 +5335,23 @@
       <c r="AM20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AN20" s="174" t="s">
+      <c r="AN20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AO20" s="174" t="s">
+      <c r="AO20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AP20" s="175">
+      <c r="AP20" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AQ20" s="173"/>
-      <c r="AR20" s="175">
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="80">
         <v>0.53472222222222221</v>
       </c>
-      <c r="AS20" s="173"/>
-      <c r="AT20" s="170" t="s">
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AU20" s="169"/>
       <c r="AV20" s="51"/>
     </row>
     <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5440,20 +5409,20 @@
       <c r="U21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="174" t="s">
+      <c r="V21" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="W21" s="174" t="s">
+      <c r="W21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="175">
+      <c r="X21" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="175">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA21" s="173"/>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="103" t="s">
         <v>112</v>
       </c>
@@ -5474,26 +5443,25 @@
       <c r="AM21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AN21" s="174" t="s">
+      <c r="AN21" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AO21" s="174" t="s">
+      <c r="AO21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AP21" s="175">
+      <c r="AP21" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AQ21" s="173" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AR21" s="175">
+      <c r="AR21" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AS21" s="173"/>
-      <c r="AT21" s="170" t="s">
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AU21" s="169"/>
       <c r="AV21" s="51"/>
     </row>
     <row r="22" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5551,20 +5519,20 @@
       <c r="U22" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="V22" s="174" t="s">
+      <c r="V22" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="W22" s="174" t="s">
+      <c r="W22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="X22" s="175">
+      <c r="X22" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="175">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="80">
         <v>0.85763888888888884</v>
       </c>
-      <c r="AA22" s="173"/>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="103" t="s">
         <v>106</v>
       </c>
@@ -5585,24 +5553,23 @@
       <c r="AM22" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="AN22" s="174" t="s">
+      <c r="AN22" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="AO22" s="174" t="s">
+      <c r="AO22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AP22" s="175">
+      <c r="AP22" s="80">
         <v>0.5083333333333333</v>
       </c>
-      <c r="AQ22" s="173"/>
-      <c r="AR22" s="175">
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AS22" s="173"/>
-      <c r="AT22" s="170" t="s">
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AU22" s="169"/>
       <c r="AV22" s="51"/>
     </row>
     <row r="23" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5633,7 +5600,7 @@
         <v>60</v>
       </c>
       <c r="R23" s="116"/>
-      <c r="S23" s="177"/>
+      <c r="S23" s="139"/>
       <c r="T23" s="81"/>
       <c r="U23" s="52"/>
       <c r="V23" s="67"/>
@@ -5660,38 +5627,36 @@
       <c r="AM23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN23" s="178" t="s">
+      <c r="AN23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AO23" s="174" t="s">
+      <c r="AO23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AP23" s="175">
+      <c r="AP23" s="80">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AQ23" s="173"/>
-      <c r="AR23" s="169"/>
-      <c r="AS23" s="173"/>
-      <c r="AT23" s="170" t="s">
+      <c r="AQ23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AU23" s="169"/>
       <c r="AV23" s="51"/>
     </row>
     <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="144" t="s">
+      <c r="AG24" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="145"/>
+      <c r="AH24" s="151"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
       </c>
       <c r="AJ24" s="116"/>
-      <c r="AK24" s="177"/>
+      <c r="AK24" s="139"/>
       <c r="AL24" s="81"/>
       <c r="AM24" s="52"/>
-      <c r="AN24" s="179"/>
+      <c r="AN24" s="140"/>
       <c r="AO24" s="52"/>
       <c r="AP24" s="117"/>
       <c r="AQ24" s="117"/>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B95AC-1FF1-4B26-B32B-A8E6F153A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF66DF-CB01-40F2-9A95-D5D2E432374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="140">
   <si>
     <t>UnSettled</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>Food- SS MgX</t>
+  </si>
+  <si>
+    <t>CNN Turk</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>Al Jazeera E</t>
   </si>
 </sst>
 </file>
@@ -627,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1173,11 +1182,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1492,7 +1512,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,6 +1603,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1869,7 +1936,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,9 +1953,9 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="184" customWidth="1"/>
     <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
@@ -1903,9 +1970,9 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="148">
+      <c r="C2" s="147">
         <f>B3+B4</f>
-        <v>1930</v>
+        <v>1800</v>
       </c>
       <c r="E2" s="101" t="s">
         <v>44</v>
@@ -1932,13 +1999,13 @@
       <c r="M2" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="185" t="s">
         <v>68</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="P2" s="190" t="s">
         <v>83</v>
       </c>
       <c r="Q2" s="102" t="s">
@@ -1953,21 +2020,21 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="145" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="35">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
@@ -1975,7 +2042,9 @@
       <c r="E4" s="135">
         <v>10</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="39">
+        <v>10</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1986,25 +2055,25 @@
         <v>89</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="80">
-        <v>0.55625000000000002</v>
+      <c r="N4" s="186">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P4" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2083,9 @@
       <c r="E5" s="135">
         <v>10</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="128">
+        <v>22</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2027,30 +2098,32 @@
       <c r="J5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="L5" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="80">
-        <v>0.55625000000000002</v>
+      <c r="N5" s="186">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P5" s="80">
-        <v>0.53472222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="135">
         <v>10</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="129">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2063,26 +2136,23 @@
       <c r="J6" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="30" t="s">
+      <c r="L6" s="181" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="80">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>130</v>
+      <c r="N6" s="186">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P6" s="80">
-        <v>0.5083333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,10 +2162,12 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="142">
         <v>3</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="129">
+        <v>7</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2106,25 +2178,28 @@
         <v>105</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="30" t="s">
+      <c r="L7" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="80">
-        <v>0.56458333333333333</v>
+      <c r="N7" s="186">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="P7" s="80">
-        <v>0.56458333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,16 +2219,16 @@
       <c r="J8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="30" t="s">
+      <c r="L8" s="181" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="186">
         <v>0.55625000000000002</v>
       </c>
       <c r="P8" s="80">
@@ -2169,7 +2244,7 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5070</v>
+        <v>5200</v>
       </c>
       <c r="E9" s="34">
         <v>25</v>
@@ -2178,42 +2253,42 @@
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="H9" s="189" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="186">
         <v>0.55625000000000002</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="P9" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="34">
         <v>70</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39">
+        <v>70</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2226,23 +2301,23 @@
       <c r="J10" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="30" t="s">
+      <c r="L10" s="181" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="80">
-        <v>0.55625000000000002</v>
+      <c r="N10" s="186">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P10" s="80">
-        <v>0.78472222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2253,10 +2328,12 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="142">
         <v>2</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39">
+        <v>1</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2267,39 +2344,39 @@
         <v>116</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="182" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="80">
-        <v>0.56458333333333333</v>
+      <c r="N11" s="186">
+        <v>0.83333333333333337</v>
       </c>
       <c r="P11" s="80">
-        <v>0.56458333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
-      <c r="N12" s="24"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2308,15 +2385,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5070</v>
+        <v>5200</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="144"/>
+      <c r="J13" s="143"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="144"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2324,11 +2401,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="144"/>
+      <c r="J14" s="143"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="144"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2342,12 +2419,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="144"/>
+      <c r="J15" s="143"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="144"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2366,8 +2443,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="144"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2380,14 +2457,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="144"/>
+      <c r="J18" s="143"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="144"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="144"/>
+      <c r="J19" s="143"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2409,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,18 +2512,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="160"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="161"/>
-      <c r="J1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="159"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2464,7 +2541,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="154">
+      <c r="B2" s="153">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2491,26 +2568,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="162">
+      <c r="K2" s="161">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="164">
+      <c r="L2" s="163">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="157">
+      <c r="M2" s="156">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J24)</f>
-        <v>5030</v>
+        <f>SUM(E2:J25)</f>
+        <v>5160</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="156"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2525,13 +2602,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="158"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="157"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="155"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2546,9 +2623,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="158"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2630,7 +2707,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="166">
+      <c r="B7" s="165">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2647,22 +2724,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="168">
+      <c r="K7" s="167">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="170">
+      <c r="L7" s="169">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="172">
+      <c r="M7" s="171">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="167"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2683,9 +2760,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="173"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="172"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2765,7 +2842,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="166">
+      <c r="B11" s="165">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2792,7 +2869,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2849,7 +2926,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="166">
+      <c r="B14" s="165">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2872,7 +2949,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="167"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2896,7 +2973,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="154">
+      <c r="B16" s="153">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -2927,7 +3004,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="156"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -2945,7 +3022,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="154">
+      <c r="B18" s="153">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -2974,7 +3051,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="155"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3034,7 +3111,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="152">
+      <c r="B21" s="151">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3062,7 +3139,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="153"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3114,33 +3191,65 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132">
+      <c r="B24" s="147">
         <v>16</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59">
+      <c r="C24" s="173"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71">
         <v>75</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="71">
         <v>70</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="71">
         <v>30</v>
       </c>
-      <c r="I24" s="142">
+      <c r="I24" s="77">
         <v>5</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="71">
         <v>25</v>
       </c>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="148"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="18">
+        <v>130</v>
+      </c>
+      <c r="E25" s="18">
+        <v>22</v>
+      </c>
+      <c r="F25" s="18">
+        <v>10</v>
+      </c>
+      <c r="G25" s="18">
+        <v>70</v>
+      </c>
+      <c r="H25" s="18">
+        <v>20</v>
+      </c>
+      <c r="I25" s="18">
+        <v>7</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -5644,10 +5753,10 @@
       <c r="AV23" s="51"/>
     </row>
     <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="150" t="s">
+      <c r="AG24" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="151"/>
+      <c r="AH24" s="150"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF66DF-CB01-40F2-9A95-D5D2E432374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9636D59-6D4A-4BCA-AF7F-37141B44ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="140">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1515,96 +1515,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1644,13 +1554,103 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1936,7 +1936,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="O13" sqref="O13:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1953,7 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="184" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="154" customWidth="1"/>
     <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
@@ -1970,7 +1970,7 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="147">
+      <c r="C2" s="165">
         <f>B3+B4</f>
         <v>1800</v>
       </c>
@@ -1999,13 +1999,13 @@
       <c r="M2" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="185" t="s">
+      <c r="N2" s="155" t="s">
         <v>68</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="190" t="s">
+      <c r="P2" s="159" t="s">
         <v>83</v>
       </c>
       <c r="Q2" s="102" t="s">
@@ -2020,19 +2020,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="163" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="148"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="35">
         <v>300</v>
       </c>
@@ -2057,16 +2057,16 @@
       <c r="J4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="175" t="s">
+      <c r="K4" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="177" t="s">
+      <c r="L4" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="178" t="s">
+      <c r="M4" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="186">
+      <c r="N4" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="P4" s="80">
@@ -2098,16 +2098,16 @@
       <c r="J5" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="175" t="s">
+      <c r="K5" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="179" t="s">
+      <c r="L5" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="180" t="s">
+      <c r="M5" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="186">
+      <c r="N5" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="P5" s="80">
@@ -2136,16 +2136,16 @@
       <c r="J6" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="175" t="s">
+      <c r="K6" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="181" t="s">
+      <c r="L6" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="180" t="s">
+      <c r="M6" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="186">
+      <c r="N6" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="P6" s="80">
@@ -2180,16 +2180,16 @@
       <c r="J7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="175" t="s">
+      <c r="K7" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="181" t="s">
+      <c r="L7" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="186">
+      <c r="N7" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2219,20 +2219,20 @@
       <c r="J8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="175" t="s">
+      <c r="K8" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="181" t="s">
+      <c r="L8" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="180" t="s">
+      <c r="M8" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="186">
+      <c r="N8" s="156">
         <v>0.55625000000000002</v>
       </c>
       <c r="P8" s="80">
-        <v>0.55625000000000002</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>134</v>
@@ -2253,30 +2253,32 @@
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="158" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="175" t="s">
+      <c r="J9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="181" t="s">
+      <c r="L9" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="180" t="s">
+      <c r="M9" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="186">
+      <c r="N9" s="156">
         <v>0.55625000000000002</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="P9" s="80">
-        <v>0.55625000000000002</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>134</v>
@@ -2301,16 +2303,16 @@
       <c r="J10" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="176" t="s">
+      <c r="K10" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="181" t="s">
+      <c r="L10" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="180" t="s">
+      <c r="M10" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="186">
+      <c r="N10" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="P10" s="80">
@@ -2344,18 +2346,18 @@
         <v>116</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="182" t="s">
+      <c r="L11" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="183" t="s">
+      <c r="M11" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="186">
+      <c r="N11" s="156">
         <v>0.83333333333333337</v>
       </c>
       <c r="P11" s="80">
@@ -2366,17 +2368,17 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="150"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>335</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
-      <c r="N12" s="187"/>
+      <c r="N12" s="157"/>
       <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2389,11 +2391,11 @@
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="143"/>
+      <c r="J13" s="160"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="144"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="162"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2401,11 +2403,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="143"/>
+      <c r="J14" s="160"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="144"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2419,12 +2421,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="143"/>
+      <c r="J15" s="160"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="144"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="162"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2443,8 +2445,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="144"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="162"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2457,14 +2459,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="143"/>
+      <c r="J18" s="160"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="144"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="162"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="143"/>
+      <c r="J19" s="160"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2512,18 +2514,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="159"/>
+      <c r="F1" s="177"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="158" t="s">
+      <c r="H1" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="160"/>
-      <c r="J1" s="159"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="177"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2543,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="171">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2568,15 +2570,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="161">
+      <c r="K2" s="179">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="163">
+      <c r="L2" s="181">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="156">
+      <c r="M2" s="174">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2587,7 +2589,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="155"/>
+      <c r="B3" s="173"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2602,13 +2604,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="157"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="175"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="154"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2623,9 +2625,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="157"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="175"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2707,7 +2709,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="165">
+      <c r="B7" s="183">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2724,22 +2726,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="167">
+      <c r="K7" s="185">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="169">
+      <c r="L7" s="187">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="171">
+      <c r="M7" s="189">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="166"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2760,9 +2762,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="172"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2842,7 +2844,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="165">
+      <c r="B11" s="183">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2869,7 +2871,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="166"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2926,7 +2928,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="165">
+      <c r="B14" s="183">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2949,7 +2951,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="166"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2973,7 +2975,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="153">
+      <c r="B16" s="171">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3004,7 +3006,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="155"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -3022,7 +3024,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="153">
+      <c r="B18" s="171">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3051,7 +3053,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="154"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3111,7 +3113,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="151">
+      <c r="B21" s="169">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3139,7 +3141,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="152"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3191,10 +3193,10 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="147">
+      <c r="B24" s="165">
         <v>16</v>
       </c>
-      <c r="C24" s="173"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71">
@@ -3220,8 +3222,8 @@
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="174"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="18">
         <v>130</v>
       </c>
@@ -3249,16 +3251,16 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="K7:K8"/>
@@ -5753,10 +5755,10 @@
       <c r="AV23" s="51"/>
     </row>
     <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="149" t="s">
+      <c r="AG24" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="150"/>
+      <c r="AH24" s="168"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9636D59-6D4A-4BCA-AF7F-37141B44ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0287313-BB55-4371-883E-1486D323B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="141">
   <si>
     <t>UnSettled</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>Al Jazeera E</t>
+  </si>
+  <si>
+    <t>France 24 F</t>
   </si>
 </sst>
 </file>
@@ -1587,46 +1590,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1936,7 +1939,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O15"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2263,7 @@
         <v>115</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="K9" s="145" t="s">
         <v>129</v>
@@ -2278,7 +2281,7 @@
         <v>126</v>
       </c>
       <c r="P9" s="80">
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>134</v>
@@ -2514,18 +2517,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="177"/>
+      <c r="F1" s="170"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="177"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="170"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="172">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2570,15 +2573,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="179">
+      <c r="K2" s="175">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="181">
+      <c r="L2" s="177">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="174">
+      <c r="M2" s="181">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2604,13 +2607,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="175"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="172"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2625,9 +2628,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="175"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="182"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2975,7 +2978,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171">
+      <c r="B16" s="172">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3024,7 +3027,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171">
+      <c r="B18" s="172">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3053,7 +3056,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="172"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3113,7 +3116,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="169">
+      <c r="B21" s="179">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3141,7 +3144,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="170"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3251,11 +3254,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -3267,6 +3265,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0287313-BB55-4371-883E-1486D323B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6AD70-EC90-4CC0-AFE3-92CF73B0D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="141">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1200,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,42 +1590,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,6 +1633,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1939,7 +1966,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +2004,7 @@
         <f>B3+B4</f>
         <v>1800</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="201" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="105"/>
@@ -2019,7 +2046,7 @@
       </c>
       <c r="T2" s="100">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2069,9 +2096,7 @@
       <c r="M4" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="156">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N4" s="156"/>
       <c r="P4" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2110,9 +2135,7 @@
       <c r="M5" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="156">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N5" s="156"/>
       <c r="P5" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2148,9 +2171,7 @@
       <c r="M6" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="156">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N6" s="156"/>
       <c r="P6" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2192,12 +2213,7 @@
       <c r="M7" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="156">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="N7" s="156"/>
       <c r="P7" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2231,9 +2247,7 @@
       <c r="M8" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="156">
-        <v>0.55625000000000002</v>
-      </c>
+      <c r="N8" s="156"/>
       <c r="P8" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2274,12 +2288,7 @@
       <c r="M9" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="156">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="N9" s="156"/>
       <c r="P9" s="80">
         <v>0.8666666666666667</v>
       </c>
@@ -2315,9 +2324,7 @@
       <c r="M10" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="156">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N10" s="156"/>
       <c r="P10" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2360,9 +2367,7 @@
       <c r="M11" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="156">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N11" s="156"/>
       <c r="P11" s="80">
         <v>0.83333333333333337</v>
       </c>
@@ -2517,18 +2522,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="170"/>
+      <c r="F1" s="185"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="169" t="s">
+      <c r="H1" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="171"/>
-      <c r="J1" s="170"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="185"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2551,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="172">
+      <c r="B2" s="171">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2573,15 +2578,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="175">
+      <c r="K2" s="187">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="177">
+      <c r="L2" s="189">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="181">
+      <c r="M2" s="174">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2607,13 +2612,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="182"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="175"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="174"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2628,9 +2633,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="182"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="175"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2712,7 +2717,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="176">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2729,22 +2734,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="185">
+      <c r="K7" s="178">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="187">
+      <c r="L7" s="180">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="189">
+      <c r="M7" s="182">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="184"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2765,9 +2770,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="190"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="183"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2847,7 +2852,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="183">
+      <c r="B11" s="176">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2874,7 +2879,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="184"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2931,7 +2936,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="183">
+      <c r="B14" s="176">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2954,7 +2959,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2978,7 +2983,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="172">
+      <c r="B16" s="171">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3027,7 +3032,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172">
+      <c r="B18" s="171">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3056,7 +3061,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="174"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3116,7 +3121,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="179">
+      <c r="B21" s="169">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3144,7 +3149,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="180"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3254,6 +3259,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -3265,11 +3275,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3279,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:BV24"/>
   <sheetViews>
-    <sheetView topLeftCell="AC6" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4830,7 +4835,7 @@
       </c>
       <c r="AC14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="AG14" s="101" t="s">
         <v>44</v>
@@ -4875,7 +4880,52 @@
       <c r="AU14" s="45"/>
       <c r="AV14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
+      </c>
+      <c r="AZ14" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD14" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG14" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH14" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI14" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ14" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK14" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="100">
+        <f ca="1">TODAY()</f>
+        <v>45277</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4917,6 +4967,22 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="25"/>
       <c r="AV15" s="51"/>
+      <c r="AZ15" s="138"/>
+      <c r="BA15" s="191"/>
+      <c r="BB15" s="192"/>
+      <c r="BC15" s="193"/>
+      <c r="BD15" s="194"/>
+      <c r="BE15" s="191"/>
+      <c r="BF15" s="192"/>
+      <c r="BG15" s="195"/>
+      <c r="BH15" s="195"/>
+      <c r="BI15" s="197"/>
+      <c r="BJ15" s="195"/>
+      <c r="BK15" s="195"/>
+      <c r="BL15" s="195"/>
+      <c r="BM15" s="193"/>
+      <c r="BN15" s="192"/>
+      <c r="BO15" s="51"/>
     </row>
     <row r="16" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="112"/>
@@ -5027,8 +5093,46 @@
         <v>112</v>
       </c>
       <c r="AV16" s="51"/>
-    </row>
-    <row r="17" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ16" s="135">
+        <v>10</v>
+      </c>
+      <c r="BA16" s="39">
+        <v>10</v>
+      </c>
+      <c r="BB16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD16" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF16" s="145" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG16" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH16" s="148" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI16" s="198"/>
+      <c r="BJ16" s="195"/>
+      <c r="BK16" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL16" s="195"/>
+      <c r="BM16" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN16" s="192"/>
+      <c r="BO16" s="51"/>
+    </row>
+    <row r="17" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107">
         <v>-2</v>
       </c>
@@ -5139,8 +5243,46 @@
         <v>112</v>
       </c>
       <c r="AV17" s="51"/>
-    </row>
-    <row r="18" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ17" s="135">
+        <v>10</v>
+      </c>
+      <c r="BA17" s="128">
+        <v>22</v>
+      </c>
+      <c r="BB17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC17" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD17" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF17" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG17" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH17" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI17" s="198"/>
+      <c r="BJ17" s="195"/>
+      <c r="BK17" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL17" s="195"/>
+      <c r="BM17" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN17" s="192"/>
+      <c r="BO17" s="51"/>
+    </row>
+    <row r="18" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
       <c r="B18" s="38">
         <v>20</v>
@@ -5251,8 +5393,46 @@
         <v>112</v>
       </c>
       <c r="AV18" s="51"/>
-    </row>
-    <row r="19" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ18" s="135">
+        <v>10</v>
+      </c>
+      <c r="BA18" s="129">
+        <v>20</v>
+      </c>
+      <c r="BB18" s="196" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC18" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD18" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE18" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF18" s="145" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG18" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH18" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI18" s="198"/>
+      <c r="BJ18" s="195"/>
+      <c r="BK18" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL18" s="195"/>
+      <c r="BM18" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN18" s="192"/>
+      <c r="BO18" s="51"/>
+    </row>
+    <row r="19" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="112"/>
       <c r="B19" s="38">
         <v>10</v>
@@ -5359,8 +5539,46 @@
         <v>112</v>
       </c>
       <c r="AV19" s="51"/>
-    </row>
-    <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ19" s="142">
+        <v>3</v>
+      </c>
+      <c r="BA19" s="129">
+        <v>7</v>
+      </c>
+      <c r="BB19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC19" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD19" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE19" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF19" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG19" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH19" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI19" s="198"/>
+      <c r="BJ19" s="195"/>
+      <c r="BK19" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL19" s="195"/>
+      <c r="BM19" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN19" s="192"/>
+      <c r="BO19" s="51"/>
+    </row>
+    <row r="20" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="112"/>
       <c r="B20" s="38">
         <v>25</v>
@@ -5467,8 +5685,44 @@
         <v>112</v>
       </c>
       <c r="AV20" s="51"/>
-    </row>
-    <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ20" s="34">
+        <v>75</v>
+      </c>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC20" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD20" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF20" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG20" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH20" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI20" s="198"/>
+      <c r="BJ20" s="195"/>
+      <c r="BK20" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL20" s="195"/>
+      <c r="BM20" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN20" s="192"/>
+      <c r="BO20" s="51"/>
+    </row>
+    <row r="21" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="112"/>
       <c r="B21" s="38">
         <v>95</v>
@@ -5577,8 +5831,44 @@
         <v>127</v>
       </c>
       <c r="AV21" s="51"/>
-    </row>
-    <row r="22" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ21" s="34">
+        <v>25</v>
+      </c>
+      <c r="BA21" s="128"/>
+      <c r="BB21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC21" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD21" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE21" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF21" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG21" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH21" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI21" s="198"/>
+      <c r="BJ21" s="195"/>
+      <c r="BK21" s="199">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="BL21" s="195"/>
+      <c r="BM21" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN21" s="192"/>
+      <c r="BO21" s="51"/>
+    </row>
+    <row r="22" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="112"/>
       <c r="B22" s="38">
         <v>70</v>
@@ -5685,8 +5975,46 @@
         <v>127</v>
       </c>
       <c r="AV22" s="51"/>
-    </row>
-    <row r="23" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ22" s="34">
+        <v>70</v>
+      </c>
+      <c r="BA22" s="39">
+        <v>70</v>
+      </c>
+      <c r="BB22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC22" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD22" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE22" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF22" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG22" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH22" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI22" s="198"/>
+      <c r="BJ22" s="195"/>
+      <c r="BK22" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL22" s="195"/>
+      <c r="BM22" s="193" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN22" s="192"/>
+      <c r="BO22" s="51"/>
+    </row>
+    <row r="23" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115"/>
       <c r="B23" s="34" t="s">
         <v>4</v>
@@ -5702,7 +6030,9 @@
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
       <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
+      <c r="K23" s="117" t="s">
+        <v>107</v>
+      </c>
       <c r="L23" s="116"/>
       <c r="M23" s="117"/>
       <c r="N23" s="104"/>
@@ -5720,7 +6050,9 @@
       <c r="V23" s="67"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
+      <c r="Y23" s="67" t="s">
+        <v>106</v>
+      </c>
       <c r="Z23" s="52"/>
       <c r="AA23" s="67"/>
       <c r="AB23" s="104"/>
@@ -5756,8 +6088,46 @@
         <v>127</v>
       </c>
       <c r="AV23" s="51"/>
-    </row>
-    <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ23" s="142">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="39">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC23" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD23" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE23" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF23" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG23" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH23" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI23" s="198"/>
+      <c r="BJ23" s="195"/>
+      <c r="BK23" s="199">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL23" s="195"/>
+      <c r="BM23" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN23" s="192"/>
+      <c r="BO23" s="51"/>
+    </row>
+    <row r="24" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG24" s="167" t="s">
         <v>4</v>
       </c>
@@ -5778,11 +6148,37 @@
       <c r="AS24" s="67"/>
       <c r="AT24" s="116"/>
       <c r="AU24" s="52"/>
-      <c r="AV24" s="53"/>
+      <c r="AV24" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ24" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA24" s="168"/>
+      <c r="BB24" s="9">
+        <f>SUM(AZ16:BA23)</f>
+        <v>335</v>
+      </c>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="139"/>
+      <c r="BE24" s="81"/>
+      <c r="BF24" s="52"/>
+      <c r="BG24" s="140"/>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="200"/>
+      <c r="BJ24" s="117"/>
+      <c r="BK24" s="67"/>
+      <c r="BL24" s="67"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="52"/>
+      <c r="BO24" s="53" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B6AD70-EC90-4CC0-AFE3-92CF73B0D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4C135-84A9-4423-8C26-57B5D488B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="141">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1200,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1563,6 +1563,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,20 +1596,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1635,53 +1662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,7 +1949,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,11 +1983,11 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="165">
+      <c r="C2" s="167">
         <f>B3+B4</f>
-        <v>1800</v>
-      </c>
-      <c r="E2" s="201" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E2" s="161" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="105"/>
@@ -2050,31 +2033,29 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="166"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="35">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="135">
-        <v>10</v>
-      </c>
-      <c r="F4" s="39">
-        <v>10</v>
-      </c>
+      <c r="E4" s="194">
+        <v>20</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2091,15 +2072,15 @@
         <v>118</v>
       </c>
       <c r="L4" s="147" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M4" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="156"/>
-      <c r="P4" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N4" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P4" s="80"/>
       <c r="R4" s="25" t="s">
         <v>134</v>
       </c>
@@ -2109,11 +2090,9 @@
         <v>-2</v>
       </c>
       <c r="E5" s="135">
-        <v>10</v>
-      </c>
-      <c r="F5" s="128">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F5" s="128"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2135,10 +2114,10 @@
       <c r="M5" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="156"/>
-      <c r="P5" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N5" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P5" s="80"/>
       <c r="R5" s="25" t="s">
         <v>134</v>
       </c>
@@ -2147,9 +2126,7 @@
       <c r="E6" s="135">
         <v>10</v>
       </c>
-      <c r="F6" s="129">
-        <v>20</v>
-      </c>
+      <c r="F6" s="129"/>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2165,16 +2142,16 @@
       <c r="K6" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="151" t="s">
-        <v>21</v>
+      <c r="L6" s="147" t="s">
+        <v>94</v>
       </c>
       <c r="M6" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="156"/>
-      <c r="P6" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N6" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P6" s="80"/>
       <c r="R6" s="25" t="s">
         <v>134</v>
       </c>
@@ -2187,11 +2164,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="142">
-        <v>3</v>
-      </c>
-      <c r="F7" s="129">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="129"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2213,17 +2188,20 @@
       <c r="M7" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="P7" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N7" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="80"/>
       <c r="R7" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="34">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="9" t="s">
@@ -2247,10 +2225,10 @@
       <c r="M8" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="P8" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N8" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P8" s="80"/>
       <c r="R8" s="25" t="s">
         <v>134</v>
       </c>
@@ -2261,12 +2239,12 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5200</v>
-      </c>
-      <c r="E9" s="34">
-        <v>25</v>
-      </c>
-      <c r="F9" s="128"/>
+        <v>5375</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="128">
+        <v>5</v>
+      </c>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2288,20 +2266,18 @@
       <c r="M9" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="P9" s="80">
-        <v>0.8666666666666667</v>
-      </c>
+      <c r="N9" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P9" s="80"/>
       <c r="R9" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34">
-        <v>70</v>
-      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="39">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
@@ -2310,7 +2286,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>94</v>
@@ -2324,10 +2300,10 @@
       <c r="M10" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="156"/>
-      <c r="P10" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N10" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="P10" s="80"/>
       <c r="R10" s="25" t="s">
         <v>138</v>
       </c>
@@ -2341,11 +2317,9 @@
         <v>0</v>
       </c>
       <c r="E11" s="142">
-        <v>2</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2367,22 +2341,25 @@
       <c r="M11" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="156"/>
-      <c r="P11" s="80">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N11" s="156">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="80"/>
       <c r="R11" s="25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="167" t="s">
+      <c r="E12" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="168"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2395,15 +2372,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5200</v>
+        <v>5375</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="160"/>
+      <c r="J13" s="162"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="162"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="164"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2411,11 +2388,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="160"/>
+      <c r="J14" s="162"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="164"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2429,12 +2406,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="160"/>
+      <c r="J15" s="162"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="162"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="164"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2453,8 +2430,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="162"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="164"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2467,14 +2444,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="160"/>
+      <c r="J18" s="162"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="162"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="164"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="160"/>
+      <c r="J19" s="162"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2496,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -2522,18 +2499,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="184" t="s">
+      <c r="E1" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="185"/>
+      <c r="F1" s="172"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="185"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="172"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +2528,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="174">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2578,26 +2555,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="187">
+      <c r="K2" s="177">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="189">
+      <c r="L2" s="179">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="174">
+      <c r="M2" s="183">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J25)</f>
-        <v>5160</v>
+        <f>SUM(E2:J26)</f>
+        <v>5335</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="173"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2612,13 +2589,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="175"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="184"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="172"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2633,9 +2610,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="175"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="184"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2717,7 +2694,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="176">
+      <c r="B7" s="185">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2734,22 +2711,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="178">
+      <c r="K7" s="187">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="180">
+      <c r="L7" s="189">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="182">
+      <c r="M7" s="191">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="177"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2770,9 +2747,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="183"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="192"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2852,7 +2829,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="176">
+      <c r="B11" s="185">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2879,7 +2856,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="177"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2936,7 +2913,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="176">
+      <c r="B14" s="185">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2959,7 +2936,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2983,7 +2960,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171">
+      <c r="B16" s="174">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3014,7 +2991,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="173"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -3032,7 +3009,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171">
+      <c r="B18" s="174">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3061,7 +3038,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="172"/>
+      <c r="B19" s="176"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3121,7 +3098,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="169">
+      <c r="B21" s="181">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3149,7 +3126,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="170"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3201,7 +3178,7 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="165">
+      <c r="B24" s="167">
         <v>16</v>
       </c>
       <c r="C24" s="143"/>
@@ -3230,7 +3207,7 @@
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="166"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="144"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3257,13 +3234,36 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="132">
+        <v>17</v>
+      </c>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193">
+        <v>35</v>
+      </c>
+      <c r="F26" s="193">
+        <v>50</v>
+      </c>
+      <c r="G26" s="193">
+        <v>40</v>
+      </c>
+      <c r="H26" s="193">
+        <v>10</v>
+      </c>
+      <c r="I26" s="193">
+        <v>20</v>
+      </c>
+      <c r="J26" s="193">
+        <v>20</v>
+      </c>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -3275,6 +3275,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4968,20 +4973,17 @@
       <c r="AT15" s="25"/>
       <c r="AV15" s="51"/>
       <c r="AZ15" s="138"/>
-      <c r="BA15" s="191"/>
-      <c r="BB15" s="192"/>
-      <c r="BC15" s="193"/>
-      <c r="BD15" s="194"/>
-      <c r="BE15" s="191"/>
-      <c r="BF15" s="192"/>
-      <c r="BG15" s="195"/>
-      <c r="BH15" s="195"/>
-      <c r="BI15" s="197"/>
-      <c r="BJ15" s="195"/>
-      <c r="BK15" s="195"/>
-      <c r="BL15" s="195"/>
-      <c r="BM15" s="193"/>
-      <c r="BN15" s="192"/>
+      <c r="BA15" s="2"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="2"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="154"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="25"/>
       <c r="BO15" s="51"/>
     </row>
     <row r="16" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5120,16 +5122,15 @@
       <c r="BH16" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="BI16" s="198"/>
-      <c r="BJ16" s="195"/>
-      <c r="BK16" s="199">
+      <c r="BI16" s="156"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL16" s="195"/>
-      <c r="BM16" s="193" t="s">
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN16" s="192"/>
       <c r="BO16" s="51"/>
     </row>
     <row r="17" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5270,16 +5271,15 @@
       <c r="BH17" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="BI17" s="198"/>
-      <c r="BJ17" s="195"/>
-      <c r="BK17" s="199">
+      <c r="BI17" s="156"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL17" s="195"/>
-      <c r="BM17" s="193" t="s">
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN17" s="192"/>
       <c r="BO17" s="51"/>
     </row>
     <row r="18" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5399,7 +5399,7 @@
       <c r="BA18" s="129">
         <v>20</v>
       </c>
-      <c r="BB18" s="196" t="s">
+      <c r="BB18" s="28" t="s">
         <v>135</v>
       </c>
       <c r="BC18" s="122" t="s">
@@ -5420,16 +5420,15 @@
       <c r="BH18" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="BI18" s="198"/>
-      <c r="BJ18" s="195"/>
-      <c r="BK18" s="199">
+      <c r="BI18" s="156"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL18" s="195"/>
-      <c r="BM18" s="193" t="s">
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN18" s="192"/>
       <c r="BO18" s="51"/>
     </row>
     <row r="19" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5566,16 +5565,15 @@
       <c r="BH19" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="BI19" s="198"/>
-      <c r="BJ19" s="195"/>
-      <c r="BK19" s="199">
+      <c r="BI19" s="156"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL19" s="195"/>
-      <c r="BM19" s="193" t="s">
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN19" s="192"/>
       <c r="BO19" s="51"/>
     </row>
     <row r="20" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5710,16 +5708,15 @@
       <c r="BH20" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="BI20" s="198"/>
-      <c r="BJ20" s="195"/>
-      <c r="BK20" s="199">
+      <c r="BI20" s="156"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL20" s="195"/>
-      <c r="BM20" s="193" t="s">
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN20" s="192"/>
       <c r="BO20" s="51"/>
     </row>
     <row r="21" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5856,16 +5853,15 @@
       <c r="BH21" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="BI21" s="198"/>
-      <c r="BJ21" s="195"/>
-      <c r="BK21" s="199">
+      <c r="BI21" s="156"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="80">
         <v>0.8666666666666667</v>
       </c>
-      <c r="BL21" s="195"/>
-      <c r="BM21" s="193" t="s">
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN21" s="192"/>
       <c r="BO21" s="51"/>
     </row>
     <row r="22" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6002,16 +5998,15 @@
       <c r="BH22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="BI22" s="198"/>
-      <c r="BJ22" s="195"/>
-      <c r="BK22" s="199">
+      <c r="BI22" s="156"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL22" s="195"/>
-      <c r="BM22" s="193" t="s">
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="BN22" s="192"/>
       <c r="BO22" s="51"/>
     </row>
     <row r="23" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6115,23 +6110,22 @@
       <c r="BH23" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="BI23" s="198"/>
-      <c r="BJ23" s="195"/>
-      <c r="BK23" s="199">
+      <c r="BI23" s="156"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="80">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BL23" s="195"/>
-      <c r="BM23" s="193" t="s">
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BN23" s="192"/>
       <c r="BO23" s="51"/>
     </row>
     <row r="24" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="167" t="s">
+      <c r="AG24" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="168"/>
+      <c r="AH24" s="170"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6151,10 +6145,10 @@
       <c r="AV24" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="167" t="s">
+      <c r="AZ24" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="168"/>
+      <c r="BA24" s="170"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6165,7 +6159,7 @@
       <c r="BF24" s="52"/>
       <c r="BG24" s="140"/>
       <c r="BH24" s="52"/>
-      <c r="BI24" s="200"/>
+      <c r="BI24" s="160"/>
       <c r="BJ24" s="117"/>
       <c r="BK24" s="67"/>
       <c r="BL24" s="67"/>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4C135-84A9-4423-8C26-57B5D488B62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F74FB-9C40-473C-A4CB-E0C704AF7C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="142">
   <si>
     <t>UnSettled</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>France 24 F</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,103 +1572,105 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,7 +1954,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,9 +1988,9 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="167">
+      <c r="C2" s="169">
         <f>B3+B4</f>
-        <v>1625</v>
+        <v>1525</v>
       </c>
       <c r="E2" s="161" t="s">
         <v>44</v>
@@ -2033,29 +2038,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="167" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="168"/>
+      <c r="C3" s="170"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
+      <c r="A4" s="168"/>
       <c r="B4" s="35">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="194">
+      <c r="E4" s="163">
         <v>20</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="39">
+        <v>5</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2080,9 +2087,11 @@
       <c r="N4" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="P4" s="80"/>
+      <c r="P4" s="156">
+        <v>0.87152777777777779</v>
+      </c>
       <c r="R4" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,7 +2101,9 @@
       <c r="E5" s="135">
         <v>40</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="128">
+        <v>10</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2117,16 +2128,20 @@
       <c r="N5" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="P5" s="80"/>
+      <c r="P5" s="156">
+        <v>0.87152777777777779</v>
+      </c>
       <c r="R5" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="135">
         <v>10</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="129">
+        <v>5</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2151,9 +2166,11 @@
       <c r="N6" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="P6" s="80"/>
+      <c r="P6" s="156">
+        <v>0.87152777777777779</v>
+      </c>
       <c r="R6" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2166,7 +2183,9 @@
       <c r="E7" s="142">
         <v>10</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="129">
+        <v>7</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2194,9 +2213,11 @@
       <c r="O7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="80"/>
+      <c r="P7" s="156">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="R7" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2228,9 +2249,9 @@
       <c r="N8" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="P8" s="80"/>
+      <c r="P8" s="156"/>
       <c r="R8" s="25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,7 +2260,7 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5375</v>
+        <v>5475</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="128">
@@ -2271,11 +2292,13 @@
       </c>
       <c r="P9" s="80"/>
       <c r="R9" s="25" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34"/>
+      <c r="E10" s="34">
+        <v>70</v>
+      </c>
       <c r="F10" s="39">
         <v>30</v>
       </c>
@@ -2305,7 +2328,7 @@
       </c>
       <c r="P10" s="80"/>
       <c r="R10" s="25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2319,7 +2342,9 @@
       <c r="E11" s="142">
         <v>10</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="39">
+        <v>3</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2347,19 +2372,21 @@
       <c r="O11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P11" s="80"/>
+      <c r="P11" s="156">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="R11" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="170"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2372,15 +2399,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5375</v>
+        <v>5475</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="162"/>
+      <c r="J13" s="164"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="164"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="166"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2388,11 +2415,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="162"/>
+      <c r="J14" s="164"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="164"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="166"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2406,12 +2433,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="162"/>
+      <c r="J15" s="164"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="164"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="166"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2430,8 +2457,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="164"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="166"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2444,14 +2471,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="162"/>
+      <c r="J18" s="164"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="164"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="166"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="162"/>
+      <c r="J19" s="164"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2473,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,18 +2526,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="172"/>
+      <c r="F1" s="189"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="172"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="189"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2555,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="174">
+      <c r="B2" s="175">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2555,26 +2582,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="177">
+      <c r="K2" s="191">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="179">
+      <c r="L2" s="193">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="183">
+      <c r="M2" s="178">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J26)</f>
-        <v>5335</v>
+        <f>SUM(E2:J27)</f>
+        <v>5435</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="175"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2589,9 +2616,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="184"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="179"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2610,9 +2637,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="184"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="179"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2694,7 +2721,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="180">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2711,22 +2738,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="187">
+      <c r="K7" s="182">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="189">
+      <c r="L7" s="184">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="191">
+      <c r="M7" s="186">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="186"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2747,9 +2774,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="192"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="187"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2829,7 +2856,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11" s="180">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2856,7 +2883,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="186"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2913,7 +2940,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="185">
+      <c r="B14" s="180">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2936,7 +2963,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2960,7 +2987,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="174">
+      <c r="B16" s="175">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -2991,7 +3018,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="175"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -3009,7 +3036,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="174">
+      <c r="B18" s="175">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3098,7 +3125,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="181">
+      <c r="B21" s="173">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3126,7 +3153,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="182"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3178,7 +3205,7 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="167">
+      <c r="B24" s="169">
         <v>16</v>
       </c>
       <c r="C24" s="143"/>
@@ -3207,7 +3234,7 @@
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="168"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="144"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3238,32 +3265,64 @@
       <c r="B26" s="132">
         <v>17</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193">
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162">
         <v>35</v>
       </c>
-      <c r="F26" s="193">
+      <c r="F26" s="162">
         <v>50</v>
       </c>
-      <c r="G26" s="193">
+      <c r="G26" s="162">
         <v>40</v>
       </c>
-      <c r="H26" s="193">
+      <c r="H26" s="162">
         <v>10</v>
       </c>
-      <c r="I26" s="193">
+      <c r="I26" s="162">
         <v>20</v>
       </c>
-      <c r="J26" s="193">
+      <c r="J26" s="162">
         <v>20</v>
       </c>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="18"/>
+      <c r="D27" s="195">
+        <v>100</v>
+      </c>
+      <c r="E27" s="196">
+        <v>5</v>
+      </c>
+      <c r="F27" s="196">
+        <v>3</v>
+      </c>
+      <c r="G27" s="196">
+        <v>70</v>
+      </c>
+      <c r="H27" s="196">
+        <v>10</v>
+      </c>
+      <c r="I27" s="18">
+        <v>7</v>
+      </c>
+      <c r="J27" s="196">
+        <v>5</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -3275,11 +3334,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6122,10 +6176,10 @@
       <c r="BO23" s="51"/>
     </row>
     <row r="24" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="169" t="s">
+      <c r="AG24" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="170"/>
+      <c r="AH24" s="172"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6145,10 +6199,10 @@
       <c r="AV24" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="169" t="s">
+      <c r="AZ24" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="170"/>
+      <c r="BA24" s="172"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F74FB-9C40-473C-A4CB-E0C704AF7C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4994D-A222-49ED-8F24-5D6AF60F323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="143">
   <si>
     <t>UnSettled</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>Rw- Mumbai</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1199,11 +1202,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,20 +1617,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1648,29 +1683,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1954,7 +1995,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +2008,7 @@
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="119" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1990,7 +2031,7 @@
       </c>
       <c r="C2" s="169">
         <f>B3+B4</f>
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="E2" s="161" t="s">
         <v>44</v>
@@ -2034,7 +2075,7 @@
       </c>
       <c r="T2" s="100">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2052,17 +2093,15 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168"/>
       <c r="B4" s="35">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="163">
-        <v>20</v>
-      </c>
-      <c r="F4" s="39">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2073,13 +2112,13 @@
         <v>89</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K4" s="145" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="L4" s="147" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M4" s="148" t="s">
         <v>30</v>
@@ -2099,11 +2138,9 @@
         <v>-2</v>
       </c>
       <c r="E5" s="135">
-        <v>40</v>
-      </c>
-      <c r="F5" s="128">
         <v>10</v>
       </c>
+      <c r="F5" s="128"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2136,12 +2173,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="135">
-        <v>10</v>
-      </c>
-      <c r="F6" s="129">
-        <v>5</v>
-      </c>
+      <c r="E6" s="135"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2154,9 +2187,7 @@
       <c r="J6" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="145" t="s">
-        <v>120</v>
-      </c>
+      <c r="K6" s="145"/>
       <c r="L6" s="147" t="s">
         <v>94</v>
       </c>
@@ -2180,12 +2211,8 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="142">
-        <v>10</v>
-      </c>
-      <c r="F7" s="129">
-        <v>7</v>
-      </c>
+      <c r="E7" s="142"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2221,9 +2248,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="34">
-        <v>50</v>
-      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="39"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
@@ -2260,12 +2285,10 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5475</v>
+        <v>5495</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="128">
-        <v>5</v>
-      </c>
+      <c r="F9" s="128"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2296,12 +2319,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34">
-        <v>70</v>
-      </c>
-      <c r="F10" s="39">
-        <v>30</v>
-      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2339,12 +2358,8 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="142">
-        <v>10</v>
-      </c>
-      <c r="F11" s="39">
-        <v>3</v>
-      </c>
+      <c r="E11" s="142"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2386,7 +2401,7 @@
       <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2399,7 +2414,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5475</v>
+        <v>5495</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
@@ -2500,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,18 +2541,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="189"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="188" t="s">
+      <c r="H1" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="190"/>
-      <c r="J1" s="189"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="174"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2570,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="175">
+      <c r="B2" s="176">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2582,21 +2597,21 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="191">
+      <c r="K2" s="179">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="193">
+      <c r="L2" s="181">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="178">
+      <c r="M2" s="185">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J27)</f>
-        <v>5435</v>
+        <f>SUM(E2:J28)</f>
+        <v>5455</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2616,13 +2631,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="179"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="176"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2637,9 +2652,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="179"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2721,7 +2736,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="180">
+      <c r="B7" s="187">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2738,22 +2753,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="182">
+      <c r="K7" s="189">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="184">
+      <c r="L7" s="191">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="186">
+      <c r="M7" s="193">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="181"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2774,9 +2789,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="183"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="187"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2856,7 +2871,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="180">
+      <c r="B11" s="187">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2883,7 +2898,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="181"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2940,7 +2955,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="180">
+      <c r="B14" s="187">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2963,7 +2978,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2987,7 +3002,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="175">
+      <c r="B16" s="176">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3036,7 +3051,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="175">
+      <c r="B18" s="176">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3065,7 +3080,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="176"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3125,7 +3140,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="173">
+      <c r="B21" s="183">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3153,7 +3168,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="174"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3262,10 +3277,10 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="132">
-        <v>17</v>
-      </c>
-      <c r="C26" s="162"/>
+      <c r="B26" s="169">
+        <v>17</v>
+      </c>
+      <c r="C26" s="204"/>
       <c r="D26" s="162"/>
       <c r="E26" s="162">
         <v>35</v>
@@ -3289,40 +3304,63 @@
       <c r="L26" s="162"/>
       <c r="M26" s="162"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="18"/>
-      <c r="D27" s="195">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="205"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="134">
         <v>100</v>
       </c>
-      <c r="E27" s="196">
+      <c r="E27" s="84">
         <v>5</v>
       </c>
-      <c r="F27" s="196">
+      <c r="F27" s="84">
         <v>3</v>
       </c>
-      <c r="G27" s="196">
+      <c r="G27" s="84">
         <v>70</v>
       </c>
-      <c r="H27" s="196">
+      <c r="H27" s="84">
         <v>10</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="84">
         <v>7</v>
       </c>
-      <c r="J27" s="196">
+      <c r="J27" s="84">
         <v>5</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="206">
+        <v>18</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="207">
+        <v>10</v>
+      </c>
+      <c r="I28" s="207">
+        <v>10</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="17">
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
@@ -3334,6 +3372,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3341,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:BV24"/>
+  <dimension ref="A1:CG24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="BN6" workbookViewId="0">
+      <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3410,7 @@
     <col min="70" max="70" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -3534,7 +3577,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26">
         <v>27</v>
       </c>
@@ -3606,7 +3649,7 @@
       <c r="BU2" s="1"/>
       <c r="BV2" s="49"/>
     </row>
-    <row r="3" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <v>20</v>
       </c>
@@ -3761,7 +3804,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
         <v>400</v>
       </c>
@@ -3934,7 +3977,7 @@
         <v>0.48888888888888887</v>
       </c>
     </row>
-    <row r="5" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
         <v>200</v>
       </c>
@@ -4087,7 +4130,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="6" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
         <v>40</v>
       </c>
@@ -4235,7 +4278,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="7" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>130</v>
       </c>
@@ -4401,7 +4444,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="8" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="50"/>
       <c r="C8" s="9">
         <f>SUM(B3:B7)</f>
@@ -4547,7 +4590,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="9" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="50"/>
       <c r="D9" s="8"/>
       <c r="I9" s="49"/>
@@ -4681,7 +4724,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="10" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4798,12 +4841,12 @@
       <c r="BU10" s="67"/>
       <c r="BV10" s="69"/>
     </row>
-    <row r="11" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="50"/>
       <c r="I11" s="51"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37">
         <v>45028</v>
       </c>
@@ -4815,8 +4858,8 @@
       <c r="H12" s="52"/>
       <c r="I12" s="53"/>
     </row>
-    <row r="13" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="101" t="s">
         <v>44</v>
@@ -4894,7 +4937,7 @@
       </c>
       <c r="AC14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="AG14" s="101" t="s">
         <v>44</v>
@@ -4939,7 +4982,7 @@
       <c r="AU14" s="45"/>
       <c r="AV14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="AZ14" s="101" t="s">
         <v>44</v>
@@ -4984,10 +5027,55 @@
       <c r="BN14" s="45"/>
       <c r="BO14" s="100">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45278</v>
+      </c>
+      <c r="BR14" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS14" s="105"/>
+      <c r="BT14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV14" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY14" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ14" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA14" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB14" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC14" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD14" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF14" s="45"/>
+      <c r="CG14" s="100">
+        <f ca="1">TODAY()</f>
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
         <v>36</v>
       </c>
@@ -5039,8 +5127,24 @@
       <c r="BL15" s="1"/>
       <c r="BM15" s="25"/>
       <c r="BO15" s="51"/>
-    </row>
-    <row r="16" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR15" s="138"/>
+      <c r="BS15" s="195"/>
+      <c r="BT15" s="196"/>
+      <c r="BU15" s="197"/>
+      <c r="BV15" s="198"/>
+      <c r="BW15" s="195"/>
+      <c r="BX15" s="196"/>
+      <c r="BY15" s="199"/>
+      <c r="BZ15" s="199"/>
+      <c r="CA15" s="200"/>
+      <c r="CB15" s="199"/>
+      <c r="CC15" s="199"/>
+      <c r="CD15" s="199"/>
+      <c r="CE15" s="197"/>
+      <c r="CF15" s="196"/>
+      <c r="CG15" s="51"/>
+    </row>
+    <row r="16" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="112"/>
       <c r="B16" s="38">
         <v>10</v>
@@ -5186,8 +5290,48 @@
         <v>134</v>
       </c>
       <c r="BO16" s="51"/>
-    </row>
-    <row r="17" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR16" s="163">
+        <v>20</v>
+      </c>
+      <c r="BS16" s="39">
+        <v>5</v>
+      </c>
+      <c r="BT16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV16" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX16" s="145" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY16" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ16" s="148" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA16" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB16" s="199"/>
+      <c r="CC16" s="201">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="CD16" s="199"/>
+      <c r="CE16" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF16" s="196"/>
+      <c r="CG16" s="51"/>
+    </row>
+    <row r="17" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="107">
         <v>-2</v>
       </c>
@@ -5335,8 +5479,48 @@
         <v>134</v>
       </c>
       <c r="BO17" s="51"/>
-    </row>
-    <row r="18" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR17" s="135">
+        <v>40</v>
+      </c>
+      <c r="BS17" s="128">
+        <v>10</v>
+      </c>
+      <c r="BT17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU17" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV17" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX17" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY17" s="149" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ17" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA17" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB17" s="199"/>
+      <c r="CC17" s="201">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="CD17" s="199"/>
+      <c r="CE17" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF17" s="196"/>
+      <c r="CG17" s="51"/>
+    </row>
+    <row r="18" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
       <c r="B18" s="38">
         <v>20</v>
@@ -5484,8 +5668,48 @@
         <v>134</v>
       </c>
       <c r="BO18" s="51"/>
-    </row>
-    <row r="19" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR18" s="135">
+        <v>10</v>
+      </c>
+      <c r="BS18" s="129">
+        <v>5</v>
+      </c>
+      <c r="BT18" s="202" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU18" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV18" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW18" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX18" s="145" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY18" s="147" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ18" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA18" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB18" s="199"/>
+      <c r="CC18" s="201">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="CD18" s="199"/>
+      <c r="CE18" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF18" s="196"/>
+      <c r="CG18" s="51"/>
+    </row>
+    <row r="19" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="112"/>
       <c r="B19" s="38">
         <v>10</v>
@@ -5629,8 +5853,50 @@
         <v>134</v>
       </c>
       <c r="BO19" s="51"/>
-    </row>
-    <row r="20" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR19" s="142">
+        <v>10</v>
+      </c>
+      <c r="BS19" s="129">
+        <v>7</v>
+      </c>
+      <c r="BT19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU19" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV19" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW19" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX19" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY19" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="BZ19" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA19" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB19" s="199" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC19" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CD19" s="199"/>
+      <c r="CE19" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF19" s="196"/>
+      <c r="CG19" s="51"/>
+    </row>
+    <row r="20" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="112"/>
       <c r="B20" s="38">
         <v>25</v>
@@ -5772,8 +6038,44 @@
         <v>134</v>
       </c>
       <c r="BO20" s="51"/>
-    </row>
-    <row r="21" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR20" s="34">
+        <v>50</v>
+      </c>
+      <c r="BS20" s="39"/>
+      <c r="BT20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU20" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV20" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX20" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY20" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ20" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA20" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB20" s="199"/>
+      <c r="CC20" s="201"/>
+      <c r="CD20" s="199"/>
+      <c r="CE20" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF20" s="196"/>
+      <c r="CG20" s="51"/>
+    </row>
+    <row r="21" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="112"/>
       <c r="B21" s="38">
         <v>95</v>
@@ -5917,8 +6219,44 @@
         <v>134</v>
       </c>
       <c r="BO21" s="51"/>
-    </row>
-    <row r="22" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR21" s="34"/>
+      <c r="BS21" s="128">
+        <v>5</v>
+      </c>
+      <c r="BT21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU21" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV21" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW21" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX21" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY21" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ21" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA21" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB21" s="199"/>
+      <c r="CC21" s="203"/>
+      <c r="CD21" s="199"/>
+      <c r="CE21" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF21" s="196"/>
+      <c r="CG21" s="51"/>
+    </row>
+    <row r="22" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="112"/>
       <c r="B22" s="38">
         <v>70</v>
@@ -6062,8 +6400,46 @@
         <v>138</v>
       </c>
       <c r="BO22" s="51"/>
-    </row>
-    <row r="23" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR22" s="34">
+        <v>70</v>
+      </c>
+      <c r="BS22" s="39">
+        <v>30</v>
+      </c>
+      <c r="BT22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU22" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV22" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW22" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX22" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY22" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ22" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA22" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB22" s="199"/>
+      <c r="CC22" s="203"/>
+      <c r="CD22" s="199"/>
+      <c r="CE22" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF22" s="196"/>
+      <c r="CG22" s="51"/>
+    </row>
+    <row r="23" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115"/>
       <c r="B23" s="34" t="s">
         <v>4</v>
@@ -6174,8 +6550,50 @@
         <v>134</v>
       </c>
       <c r="BO23" s="51"/>
-    </row>
-    <row r="24" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BR23" s="142">
+        <v>10</v>
+      </c>
+      <c r="BS23" s="39">
+        <v>3</v>
+      </c>
+      <c r="BT23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU23" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV23" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW23" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX23" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY23" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ23" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA23" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CB23" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC23" s="201">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="CD23" s="199"/>
+      <c r="CE23" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF23" s="196"/>
+      <c r="CG23" s="51"/>
+    </row>
+    <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG24" s="171" t="s">
         <v>4</v>
       </c>
@@ -6222,11 +6640,35 @@
       <c r="BO24" s="53" t="s">
         <v>127</v>
       </c>
+      <c r="BR24" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS24" s="172"/>
+      <c r="BT24" s="9">
+        <f>SUM(BR16:BS23)</f>
+        <v>275</v>
+      </c>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="139"/>
+      <c r="BW24" s="81"/>
+      <c r="BX24" s="52"/>
+      <c r="BY24" s="140"/>
+      <c r="BZ24" s="52"/>
+      <c r="CA24" s="160"/>
+      <c r="CB24" s="117"/>
+      <c r="CC24" s="67"/>
+      <c r="CD24" s="67"/>
+      <c r="CE24" s="116"/>
+      <c r="CF24" s="52"/>
+      <c r="CG24" s="104" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="BR24:BS24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4994D-A222-49ED-8F24-5D6AF60F323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723738BE-15BD-4320-AE73-4C8C0CF45C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,6 +1590,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,42 +1621,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1683,35 +1669,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,7 +1973,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2007,7 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="171">
         <f>B3+B4</f>
         <v>1505</v>
       </c>
@@ -2079,19 +2057,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="169" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
         <v>1500</v>
       </c>
-      <c r="C3" s="170"/>
+      <c r="C3" s="172"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168"/>
+      <c r="A4" s="170"/>
       <c r="B4" s="35">
         <v>5</v>
       </c>
@@ -2124,7 +2102,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P4" s="156">
         <v>0.87152777777777779</v>
@@ -2163,7 +2141,7 @@
         <v>86</v>
       </c>
       <c r="N5" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="P5" s="156">
         <v>0.87152777777777779</v>
@@ -2395,10 +2373,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="172"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>20</v>
@@ -2418,11 +2396,11 @@
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="164"/>
+      <c r="J13" s="166"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="166"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="168"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2430,11 +2408,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="164"/>
+      <c r="J14" s="166"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="166"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="168"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2448,12 +2426,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="164"/>
+      <c r="J15" s="166"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="166"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="168"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2472,8 +2450,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="166"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="168"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2486,14 +2464,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="164"/>
+      <c r="J18" s="166"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="166"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="168"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="164"/>
+      <c r="J19" s="166"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2541,18 +2519,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="174"/>
+      <c r="F1" s="192"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="175"/>
-      <c r="J1" s="174"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="192"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2570,7 +2548,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="176">
+      <c r="B2" s="178">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2597,15 +2575,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="179">
+      <c r="K2" s="194">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="181">
+      <c r="L2" s="196">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="185">
+      <c r="M2" s="181">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2616,7 +2594,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="177"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2631,13 +2609,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="178"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2652,9 +2630,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="186"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="182"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2736,7 +2714,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="183">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2753,22 +2731,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="189">
+      <c r="K7" s="185">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="187">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="189">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="188"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2789,9 +2767,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2871,7 +2849,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="183">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2898,7 +2876,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2955,7 +2933,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187">
+      <c r="B14" s="183">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2978,7 +2956,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -3002,7 +2980,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="176">
+      <c r="B16" s="178">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3033,7 +3011,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="177"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -3051,7 +3029,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="176">
+      <c r="B18" s="178">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3080,7 +3058,7 @@
       <c r="A19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="178"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3140,7 +3118,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="183">
+      <c r="B21" s="176">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3168,7 +3146,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="184"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3220,7 +3198,7 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="169">
+      <c r="B24" s="171">
         <v>16</v>
       </c>
       <c r="C24" s="143"/>
@@ -3249,7 +3227,7 @@
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="170"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="144"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3277,10 +3255,10 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="169">
-        <v>17</v>
-      </c>
-      <c r="C26" s="204"/>
+      <c r="B26" s="171">
+        <v>17</v>
+      </c>
+      <c r="C26" s="164"/>
       <c r="D26" s="162"/>
       <c r="E26" s="162">
         <v>35</v>
@@ -3308,7 +3286,7 @@
       <c r="A27" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="205"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="98"/>
       <c r="D27" s="134">
         <v>100</v>
@@ -3339,7 +3317,7 @@
       <c r="A28" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="206">
+      <c r="B28" s="165">
         <v>18</v>
       </c>
       <c r="C28" s="59"/>
@@ -3347,10 +3325,10 @@
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="207">
+      <c r="H28" s="59">
         <v>10</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="59">
         <v>10</v>
       </c>
       <c r="J28" s="59"/>
@@ -3360,11 +3338,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3372,11 +3350,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5128,20 +5106,17 @@
       <c r="BM15" s="25"/>
       <c r="BO15" s="51"/>
       <c r="BR15" s="138"/>
-      <c r="BS15" s="195"/>
-      <c r="BT15" s="196"/>
-      <c r="BU15" s="197"/>
-      <c r="BV15" s="198"/>
-      <c r="BW15" s="195"/>
-      <c r="BX15" s="196"/>
-      <c r="BY15" s="199"/>
-      <c r="BZ15" s="199"/>
-      <c r="CA15" s="200"/>
-      <c r="CB15" s="199"/>
-      <c r="CC15" s="199"/>
-      <c r="CD15" s="199"/>
-      <c r="CE15" s="197"/>
-      <c r="CF15" s="196"/>
+      <c r="BS15" s="2"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="119"/>
+      <c r="BW15" s="2"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="154"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="25"/>
       <c r="CG15" s="51"/>
     </row>
     <row r="16" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5317,18 +5292,17 @@
       <c r="BZ16" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="CA16" s="201">
+      <c r="CA16" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB16" s="199"/>
-      <c r="CC16" s="201">
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="156">
         <v>0.87152777777777779</v>
       </c>
-      <c r="CD16" s="199"/>
-      <c r="CE16" s="197" t="s">
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CF16" s="196"/>
       <c r="CG16" s="51"/>
     </row>
     <row r="17" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5506,18 +5480,17 @@
       <c r="BZ17" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="CA17" s="201">
+      <c r="CA17" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB17" s="199"/>
-      <c r="CC17" s="201">
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="156">
         <v>0.87152777777777779</v>
       </c>
-      <c r="CD17" s="199"/>
-      <c r="CE17" s="197" t="s">
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CF17" s="196"/>
       <c r="CG17" s="51"/>
     </row>
     <row r="18" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5674,7 +5647,7 @@
       <c r="BS18" s="129">
         <v>5</v>
       </c>
-      <c r="BT18" s="202" t="s">
+      <c r="BT18" s="28" t="s">
         <v>135</v>
       </c>
       <c r="BU18" s="122" t="s">
@@ -5695,18 +5668,17 @@
       <c r="BZ18" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="CA18" s="201">
+      <c r="CA18" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB18" s="199"/>
-      <c r="CC18" s="201">
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="156">
         <v>0.87152777777777779</v>
       </c>
-      <c r="CD18" s="199"/>
-      <c r="CE18" s="197" t="s">
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CF18" s="196"/>
       <c r="CG18" s="51"/>
     </row>
     <row r="19" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5880,20 +5852,19 @@
       <c r="BZ19" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="CA19" s="201">
+      <c r="CA19" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB19" s="199" t="s">
+      <c r="CB19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CC19" s="201">
+      <c r="CC19" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CD19" s="199"/>
-      <c r="CE19" s="197" t="s">
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CF19" s="196"/>
       <c r="CG19" s="51"/>
     </row>
     <row r="20" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6063,16 +6034,15 @@
       <c r="BZ20" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="CA20" s="201">
+      <c r="CA20" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB20" s="199"/>
-      <c r="CC20" s="201"/>
-      <c r="CD20" s="199"/>
-      <c r="CE20" s="197" t="s">
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="156"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CF20" s="196"/>
       <c r="CG20" s="51"/>
     </row>
     <row r="21" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6244,16 +6214,15 @@
       <c r="BZ21" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="CA21" s="201">
+      <c r="CA21" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB21" s="199"/>
-      <c r="CC21" s="203"/>
-      <c r="CD21" s="199"/>
-      <c r="CE21" s="197" t="s">
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="80"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CF21" s="196"/>
       <c r="CG21" s="51"/>
     </row>
     <row r="22" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6427,16 +6396,15 @@
       <c r="BZ22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="CA22" s="201">
+      <c r="CA22" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB22" s="199"/>
-      <c r="CC22" s="203"/>
-      <c r="CD22" s="199"/>
-      <c r="CE22" s="197" t="s">
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="80"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CF22" s="196"/>
       <c r="CG22" s="51"/>
     </row>
     <row r="23" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6577,27 +6545,26 @@
       <c r="BZ23" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="CA23" s="201">
+      <c r="CA23" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CB23" s="199" t="s">
+      <c r="CB23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CC23" s="201">
+      <c r="CC23" s="156">
         <v>0.78472222222222221</v>
       </c>
-      <c r="CD23" s="199"/>
-      <c r="CE23" s="197" t="s">
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CF23" s="196"/>
       <c r="CG23" s="51"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="171" t="s">
+      <c r="AG24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="172"/>
+      <c r="AH24" s="174"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6617,10 +6584,10 @@
       <c r="AV24" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="171" t="s">
+      <c r="AZ24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="172"/>
+      <c r="BA24" s="174"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6640,10 +6607,10 @@
       <c r="BO24" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="171" t="s">
+      <c r="BR24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="172"/>
+      <c r="BS24" s="174"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723738BE-15BD-4320-AE73-4C8C0CF45C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05727EAB-9323-4D06-8219-F1B6DFB057F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="146">
   <si>
     <t>UnSettled</t>
   </si>
@@ -465,6 +465,15 @@
   </si>
   <si>
     <t>Rw- Mumbai</t>
+  </si>
+  <si>
+    <t>TBS News</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1591,9 +1600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,23 +1627,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1669,27 +1687,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,7 +1983,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,9 +2017,9 @@
       <c r="B2" s="35">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="171">
+      <c r="C2" s="170">
         <f>B3+B4</f>
-        <v>1505</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="161" t="s">
         <v>44</v>
@@ -2057,21 +2067,21 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="168" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="35">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="172"/>
+        <v>500</v>
+      </c>
+      <c r="C3" s="171"/>
       <c r="D3" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="35">
-        <v>5</v>
+        <v>513</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>35</v>
@@ -2079,7 +2089,9 @@
       <c r="E4" s="163">
         <v>10</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="39">
+        <v>42</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="156">
-        <v>0.41666666666666669</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="P4" s="156">
         <v>0.87152777777777779</v>
@@ -2118,7 +2130,9 @@
       <c r="E5" s="135">
         <v>10</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="128">
+        <v>20</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>86</v>
       </c>
       <c r="N5" s="156">
-        <v>0.41666666666666669</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="P5" s="156">
         <v>0.87152777777777779</v>
@@ -2151,8 +2165,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="135"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="135">
+        <v>222</v>
+      </c>
+      <c r="F6" s="129">
+        <v>10</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2165,7 +2183,9 @@
       <c r="J6" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="145"/>
+      <c r="K6" s="145" t="s">
+        <v>120</v>
+      </c>
       <c r="L6" s="147" t="s">
         <v>94</v>
       </c>
@@ -2173,7 +2193,7 @@
         <v>64</v>
       </c>
       <c r="N6" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="P6" s="156">
         <v>0.87152777777777779</v>
@@ -2190,7 +2210,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="142"/>
-      <c r="F7" s="129"/>
+      <c r="F7" s="129">
+        <v>1</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
@@ -2226,8 +2248,12 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="34"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="34">
+        <v>50</v>
+      </c>
+      <c r="F8" s="39">
+        <v>10</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2250,7 +2276,7 @@
         <v>69</v>
       </c>
       <c r="N8" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="P8" s="156"/>
       <c r="R8" s="25" t="s">
@@ -2263,10 +2289,12 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5495</v>
+        <v>5987</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="128"/>
+      <c r="F9" s="128">
+        <v>25</v>
+      </c>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2289,16 +2317,18 @@
         <v>64</v>
       </c>
       <c r="N9" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="P9" s="80"/>
       <c r="R9" s="25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="34"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39">
+        <v>12</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2321,9 +2351,11 @@
         <v>66</v>
       </c>
       <c r="N10" s="156">
-        <v>0.78472222222222221</v>
-      </c>
-      <c r="P10" s="80"/>
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="P10" s="156">
+        <v>0.80972222222222223</v>
+      </c>
       <c r="R10" s="25" t="s">
         <v>141</v>
       </c>
@@ -2336,7 +2368,9 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="142"/>
+      <c r="E11" s="142">
+        <v>100</v>
+      </c>
       <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
@@ -2348,19 +2382,19 @@
         <v>116</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K11" s="145" t="s">
         <v>110</v>
       </c>
       <c r="L11" s="152" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="M11" s="153" t="s">
         <v>66</v>
       </c>
       <c r="N11" s="156">
-        <v>0.78472222222222221</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>126</v>
@@ -2373,13 +2407,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>20</v>
+        <v>512</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2392,15 +2426,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5495</v>
+        <v>5987</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="121"/>
-      <c r="J13" s="166"/>
+      <c r="J13" s="165"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="167"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2408,11 +2442,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="121"/>
-      <c r="J14" s="166"/>
+      <c r="J14" s="165"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="167"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2426,12 +2460,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="121"/>
-      <c r="J15" s="166"/>
+      <c r="J15" s="165"/>
       <c r="K15" s="121"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="167"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2450,8 +2484,8 @@
       <c r="I17" s="121"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="167"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2464,14 +2498,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="166"/>
+      <c r="J18" s="165"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="167"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="166"/>
+      <c r="J19" s="165"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2493,7 +2527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -2519,18 +2553,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="192"/>
+      <c r="F1" s="175"/>
       <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="191" t="s">
+      <c r="H1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="192"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="175"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2582,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="177">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2575,26 +2609,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="194">
+      <c r="K2" s="180">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="196">
+      <c r="L2" s="182">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="181">
+      <c r="M2" s="184">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J28)</f>
-        <v>5455</v>
+        <f>SUM(E2:J29)</f>
+        <v>5947</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="180"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2609,9 +2643,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="182"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="185"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2630,9 +2664,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="182"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="185"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2714,7 +2748,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="186">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2731,22 +2765,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="185">
+      <c r="K7" s="188">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="187">
+      <c r="L7" s="190">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="189">
+      <c r="M7" s="192">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="184"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2767,9 +2801,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="190"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="193"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2849,7 +2883,7 @@
       <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="183">
+      <c r="B11" s="186">
         <v>8</v>
       </c>
       <c r="C11" s="70"/>
@@ -2876,7 +2910,7 @@
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="184"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="92">
         <v>483</v>
       </c>
@@ -2933,7 +2967,7 @@
       <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="183">
+      <c r="B14" s="186">
         <v>10</v>
       </c>
       <c r="C14" s="97"/>
@@ -2956,7 +2990,7 @@
       <c r="A15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="98"/>
       <c r="D15" s="84">
         <v>175</v>
@@ -2980,7 +3014,7 @@
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178">
+      <c r="B16" s="177">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3011,7 +3045,7 @@
       <c r="A17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="180"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -3029,7 +3063,7 @@
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178">
+      <c r="B18" s="177">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3118,7 +3152,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="176">
+      <c r="B21" s="195">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3146,7 +3180,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="177"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3198,7 +3232,7 @@
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171">
+      <c r="B24" s="170">
         <v>16</v>
       </c>
       <c r="C24" s="143"/>
@@ -3227,7 +3261,7 @@
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="172"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="144"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3255,7 +3289,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="171">
+      <c r="B26" s="170">
         <v>17</v>
       </c>
       <c r="C26" s="164"/>
@@ -3286,7 +3320,7 @@
       <c r="A27" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="175"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="98"/>
       <c r="D27" s="134">
         <v>100</v>
@@ -3317,32 +3351,61 @@
       <c r="A28" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="165">
+      <c r="B28" s="170">
         <v>18</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59">
+      <c r="C28" s="143"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71">
         <v>10</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="71">
         <v>10</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60"/>
+      <c r="J28" s="71">
+        <v>12</v>
+      </c>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="197"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="198">
+        <v>222</v>
+      </c>
+      <c r="F29" s="198">
+        <v>50</v>
+      </c>
+      <c r="G29" s="198">
+        <v>100</v>
+      </c>
+      <c r="H29" s="198">
+        <v>63</v>
+      </c>
+      <c r="I29" s="198">
+        <v>25</v>
+      </c>
+      <c r="J29" s="198">
+        <v>20</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="18">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3350,11 +3413,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6561,10 +6624,10 @@
       <c r="CG23" s="51"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="173" t="s">
+      <c r="AG24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="174"/>
+      <c r="AH24" s="173"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6584,10 +6647,10 @@
       <c r="AV24" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="173" t="s">
+      <c r="AZ24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="174"/>
+      <c r="BA24" s="173"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6607,10 +6670,10 @@
       <c r="BO24" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="173" t="s">
+      <c r="BR24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="174"/>
+      <c r="BS24" s="173"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05727EAB-9323-4D06-8219-F1B6DFB057F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927064E-D2C5-4DB3-9C63-4CA34F7736D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="145">
   <si>
     <t>UnSettled</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>19/12/2023</t>
-  </si>
-  <si>
-    <t>Rw- Mumbai</t>
   </si>
   <si>
     <t>TBS News</t>
@@ -1226,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,6 +1684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,10 +1696,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,7 +1979,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J13" sqref="J13:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2101,7 @@
         <v>133</v>
       </c>
       <c r="K4" s="145" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="L4" s="147" t="s">
         <v>94</v>
@@ -2321,7 +2317,7 @@
       </c>
       <c r="P9" s="80"/>
       <c r="R9" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2382,13 +2378,13 @@
         <v>116</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="145" t="s">
         <v>110</v>
       </c>
       <c r="L11" s="152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M11" s="153" t="s">
         <v>66</v>
@@ -3152,7 +3148,7 @@
       <c r="A21" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="195">
+      <c r="B21" s="196">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3180,7 +3176,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="196"/>
+      <c r="B22" s="197"/>
       <c r="C22" s="133"/>
       <c r="D22" s="134">
         <v>235</v>
@@ -3320,7 +3316,7 @@
       <c r="A27" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="194"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="98"/>
       <c r="D27" s="134">
         <v>100</v>
@@ -3373,25 +3369,25 @@
       <c r="M28" s="72"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="197"/>
+      <c r="B29" s="194"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="198">
+      <c r="E29" s="18">
         <v>222</v>
       </c>
-      <c r="F29" s="198">
+      <c r="F29" s="18">
         <v>50</v>
       </c>
-      <c r="G29" s="198">
+      <c r="G29" s="18">
         <v>100</v>
       </c>
-      <c r="H29" s="198">
+      <c r="H29" s="18">
         <v>63</v>
       </c>
-      <c r="I29" s="198">
+      <c r="I29" s="18">
         <v>25</v>
       </c>
-      <c r="J29" s="198">
+      <c r="J29" s="18">
         <v>20</v>
       </c>
       <c r="K29" s="18"/>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927064E-D2C5-4DB3-9C63-4CA34F7736D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE7826-D61A-444F-9556-63A88471550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="146">
   <si>
     <t>UnSettled</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>Rw-Local</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,17 +1292,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,6 +1594,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,6 +1622,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1985,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,12 +1997,12 @@
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="154" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="152" customWidth="1"/>
     <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
@@ -2007,112 +2013,112 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="170">
+      <c r="C2" s="169">
         <f>B3+B4</f>
         <v>1013</v>
       </c>
-      <c r="E2" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="105"/>
+      <c r="E2" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="174"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="127" t="s">
+      <c r="L2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="127" t="s">
+      <c r="M2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="155" t="s">
+      <c r="N2" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="159" t="s">
+      <c r="P2" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="102" t="s">
+      <c r="Q2" s="100" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="100">
+      <c r="T2" s="98">
         <f ca="1">TODAY()</f>
         <v>45278</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>500</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="169"/>
-      <c r="B4" s="35">
+      <c r="A4" s="168"/>
+      <c r="B4" s="34">
         <v>513</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="163">
+      <c r="E4" s="161">
         <v>10</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <v>42</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="120" t="s">
+      <c r="H4" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="148" t="s">
+      <c r="M4" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="156">
+      <c r="N4" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P4" s="156">
+      <c r="P4" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R4" s="25" t="s">
@@ -2120,40 +2126,40 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="33">
+      <c r="D5" s="157">
         <v>-2</v>
       </c>
-      <c r="E5" s="135">
+      <c r="E5" s="133">
         <v>10</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="126">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="85" t="s">
+      <c r="H5" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="145" t="s">
+      <c r="K5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="149" t="s">
+      <c r="L5" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="156">
+      <c r="N5" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P5" s="156">
+      <c r="P5" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -2161,37 +2167,37 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="135">
+      <c r="E6" s="133">
         <v>222</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="127">
         <v>10</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="150" t="s">
+      <c r="L6" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="156">
+      <c r="N6" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P6" s="156">
+      <c r="P6" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R6" s="25" t="s">
@@ -2205,38 +2211,38 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="129">
+      <c r="E7" s="140"/>
+      <c r="F7" s="127">
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="145" t="s">
+      <c r="K7" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="156">
+      <c r="N7" s="154">
         <v>0.80972222222222223</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="156">
+      <c r="P7" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="R7" s="25" t="s">
@@ -2244,37 +2250,37 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>50</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="37">
         <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="85" t="s">
+      <c r="H8" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="K8" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="150" t="s">
+      <c r="M8" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="156">
+      <c r="N8" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P8" s="156"/>
+      <c r="P8" s="154"/>
       <c r="R8" s="25" t="s">
         <v>141</v>
       </c>
@@ -2287,69 +2293,69 @@
         <f>7000-C2</f>
         <v>5987</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="128">
+      <c r="E9" s="33"/>
+      <c r="F9" s="126">
         <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="158" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="85" t="s">
+      <c r="H9" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="145" t="s">
+      <c r="K9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="151" t="s">
+      <c r="L9" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="150" t="s">
+      <c r="M9" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="156">
+      <c r="N9" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P9" s="80"/>
+      <c r="P9" s="78"/>
       <c r="R9" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="34"/>
-      <c r="F10" s="39">
+      <c r="E10" s="33"/>
+      <c r="F10" s="37">
         <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="85" t="s">
+      <c r="H10" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="146" t="s">
+      <c r="K10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="151" t="s">
+      <c r="L10" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="150" t="s">
+      <c r="M10" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="156">
+      <c r="N10" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="P10" s="156">
+      <c r="P10" s="154">
         <v>0.80972222222222223</v>
       </c>
       <c r="R10" s="25" t="s">
@@ -2364,38 +2370,38 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="140">
         <v>100</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="152" t="s">
+      <c r="L11" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="153" t="s">
+      <c r="M11" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="156">
+      <c r="N11" s="154">
         <v>0.80972222222222223</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P11" s="156">
+      <c r="P11" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="R11" s="25" t="s">
@@ -2403,17 +2409,17 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="173"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>512</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
-      <c r="N12" s="157"/>
+      <c r="N12" s="155"/>
       <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2425,24 +2431,24 @@
         <v>5987</v>
       </c>
       <c r="G13" s="28"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="165"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="164"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="167"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="166"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="165"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="164"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="167"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="166"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2455,20 +2461,20 @@
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="121"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="119"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="167"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="166"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="20"/>
-      <c r="I16" s="121"/>
+      <c r="I16" s="119"/>
       <c r="L16"/>
       <c r="M16"/>
     </row>
@@ -2477,11 +2483,11 @@
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20"/>
-      <c r="I17" s="121"/>
+      <c r="I17" s="119"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="167"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="166"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2494,19 +2500,19 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="165"/>
+      <c r="J18" s="164"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="167"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="166"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="165"/>
+      <c r="J19" s="164"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
@@ -2516,6 +2522,7 @@
     <mergeCell ref="N13:N15"/>
     <mergeCell ref="O13:O15"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,24 +2550,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="54">
+      <c r="B1" s="52">
         <v>45261</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="175"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2585,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="177">
+      <c r="B2" s="178">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2605,15 +2612,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="180">
+      <c r="K2" s="181">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="182">
+      <c r="L2" s="183">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="184">
+      <c r="M2" s="185">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2624,7 +2631,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="178"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2638,14 +2645,14 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="185"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="179"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2660,38 +2667,38 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="183"/>
-      <c r="M4" s="185"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="56">
         <v>260</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="57">
         <v>500</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="57">
         <v>240</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57">
         <v>100</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="57">
         <v>50</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="57">
         <v>100</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="58">
         <v>18</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="54">
         <f>SUM(F5:J5)</f>
         <v>268</v>
       </c>
@@ -2711,23 +2718,23 @@
       <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="56">
         <v>100</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="57">
         <v>500</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="57">
         <v>400</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="57">
         <v>390</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="56">
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="54">
         <f>SUM(F6:J6)</f>
         <v>390</v>
       </c>
@@ -2744,11 +2751,11 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="186">
+      <c r="B7" s="187">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12">
         <v>20</v>
       </c>
@@ -2761,22 +2768,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="188">
+      <c r="K7" s="189">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="190">
+      <c r="L7" s="191">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="192">
+      <c r="M7" s="193">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2797,9 +2804,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="189"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="193"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2808,29 +2815,29 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69">
         <v>170</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69">
         <v>20</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="69">
         <v>25</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73">
+      <c r="J9" s="70"/>
+      <c r="K9" s="71">
         <f>SUM(E9:J9)</f>
         <v>45</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="72">
         <f>SUM(E9:J9)</f>
         <v>45</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="73">
         <f>D9-L9</f>
         <v>125</v>
       </c>
@@ -2839,134 +2846,134 @@
       <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="74">
         <v>7</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71">
+      <c r="C10" s="68"/>
+      <c r="D10" s="69">
         <v>625</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="69">
         <v>300</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="69">
         <v>15</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="69">
         <v>100</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="69">
         <v>25</v>
       </c>
-      <c r="I10" s="71">
-        <v>17</v>
-      </c>
-      <c r="J10" s="77">
+      <c r="I10" s="69">
+        <v>17</v>
+      </c>
+      <c r="J10" s="75">
         <v>15</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="69">
         <v>40</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="76">
         <v>40</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="70">
         <f>D10-L10</f>
         <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="186">
+      <c r="B11" s="187">
         <v>8</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71">
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69">
         <v>20</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69">
         <v>15</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="69">
         <v>20</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="69">
         <v>20</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="69">
         <f>SUM(E11:J11)</f>
         <v>75</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="187"/>
-      <c r="C12" s="92">
+      <c r="B12" s="188"/>
+      <c r="C12" s="90">
         <v>483</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>560</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="82">
         <v>50</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84">
+      <c r="F12" s="82"/>
+      <c r="G12" s="82">
         <v>10</v>
       </c>
-      <c r="H12" s="84">
-        <v>17</v>
-      </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="93"/>
+      <c r="H12" s="82">
+        <v>17</v>
+      </c>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="84" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84">
+      <c r="C13" s="82"/>
+      <c r="D13" s="82">
         <v>190</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <v>50</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="82">
         <v>20</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="82">
         <v>70</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <v>20</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="82">
         <v>30</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="82">
         <v>6</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="186">
+      <c r="B14" s="187">
         <v>10</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="11">
         <v>50</v>
       </c>
@@ -2983,34 +2990,34 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="84">
+      <c r="B15" s="188"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="82">
         <v>175</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84">
+      <c r="E15" s="82"/>
+      <c r="F15" s="82">
         <v>60</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="82">
         <v>70</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <v>25</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="82">
         <v>20</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="93"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="177">
+      <c r="B16" s="178">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3038,28 +3045,28 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84">
+      <c r="B17" s="179"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82">
         <v>70</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84">
+      <c r="H17" s="82"/>
+      <c r="I17" s="82">
         <v>20</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="177">
+      <c r="B18" s="178">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3085,10 +3092,10 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="179"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3107,13 +3114,13 @@
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="57"/>
+      <c r="M19" s="55"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="132">
+      <c r="B20" s="130">
         <v>13</v>
       </c>
       <c r="C20" s="13"/>
@@ -3140,15 +3147,15 @@
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="57">
+      <c r="M20" s="55">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="196">
+      <c r="B21" s="197">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3173,92 +3180,92 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="57"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="197"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134">
+      <c r="B22" s="198"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132">
         <v>235</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="132">
         <v>50</v>
       </c>
-      <c r="F22" s="134">
+      <c r="F22" s="132">
         <v>55</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="132">
         <v>70</v>
       </c>
-      <c r="H22" s="135">
+      <c r="H22" s="133">
         <v>20</v>
       </c>
-      <c r="I22" s="134">
+      <c r="I22" s="132">
         <v>20</v>
       </c>
-      <c r="J22" s="136">
+      <c r="J22" s="134">
         <v>20</v>
       </c>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="137"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="135"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79">
+      <c r="B23" s="77">
         <v>15</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="141">
+      <c r="C23" s="68"/>
+      <c r="D23" s="139">
         <v>40</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71">
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69">
         <v>20</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="69">
         <v>10</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="69">
         <v>10</v>
       </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="170">
+      <c r="B24" s="169">
         <v>16</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71">
+      <c r="C24" s="141"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69">
         <v>75</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="69">
         <v>70</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="69">
         <v>30</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="75">
         <v>5</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="69">
         <v>25</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="144"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
       </c>
@@ -3285,91 +3292,91 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="170">
-        <v>17</v>
-      </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162">
+      <c r="B26" s="169">
+        <v>17</v>
+      </c>
+      <c r="C26" s="162"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160">
         <v>35</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="160">
         <v>50</v>
       </c>
-      <c r="G26" s="162">
+      <c r="G26" s="160">
         <v>40</v>
       </c>
-      <c r="H26" s="162">
+      <c r="H26" s="160">
         <v>10</v>
       </c>
-      <c r="I26" s="162">
+      <c r="I26" s="160">
         <v>20</v>
       </c>
-      <c r="J26" s="162">
+      <c r="J26" s="160">
         <v>20</v>
       </c>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="134">
+      <c r="B27" s="196"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="132">
         <v>100</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="82">
         <v>5</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="82">
         <v>3</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="82">
         <v>70</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="82">
         <v>10</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="82">
         <v>7</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="82">
         <v>5</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="170">
+      <c r="B28" s="169">
         <v>18</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71">
+      <c r="C28" s="141"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69">
         <v>10</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="69">
         <v>10</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="69">
         <v>12</v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="194"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3448,169 +3455,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="63"/>
-      <c r="S1" s="40" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="61"/>
+      <c r="S1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="T1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="X1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AB1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="AF1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AI1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AJ1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="38" t="s">
+      <c r="AL1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="AN1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="79" t="s">
+      <c r="AO1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AP1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" s="61"/>
+      <c r="AQ1" s="59"/>
       <c r="AR1" s="8" t="s">
         <v>82</v>
       </c>
       <c r="AS1" s="1"/>
-      <c r="AT1" s="40" t="s">
+      <c r="AT1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="AU1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="34" t="s">
+      <c r="AV1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="38" t="s">
+      <c r="AW1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="AX1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="AY1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="79" t="s">
+      <c r="AZ1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="33" t="s">
         <v>68</v>
       </c>
       <c r="BB1" s="1"/>
-      <c r="BD1" s="40" t="s">
+      <c r="BD1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="BE1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BF1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="38" t="s">
+      <c r="BG1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="BH1" s="39" t="s">
+      <c r="BH1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="BI1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="79" t="s">
+      <c r="BJ1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" s="79" t="s">
+      <c r="BK1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BL1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="40" t="s">
+      <c r="BN1" s="38" t="s">
         <v>44</v>
       </c>
       <c r="BO1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BP1" s="34" t="s">
+      <c r="BP1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BQ1" s="38" t="s">
+      <c r="BQ1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="39" t="s">
+      <c r="BR1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="BS1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BT1" s="79" t="s">
+      <c r="BT1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="BU1" s="79" t="s">
+      <c r="BU1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="BV1" s="34" t="s">
+      <c r="BV1" s="33" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3618,19 +3625,19 @@
       <c r="B2" s="26">
         <v>27</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="45">
         <v>72</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="40">
         <v>23</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="26">
@@ -3648,43 +3655,43 @@
       <c r="P2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="50"/>
+      <c r="S2" s="48"/>
       <c r="V2" s="1"/>
       <c r="W2" s="2"/>
-      <c r="Y2" s="49"/>
-      <c r="AA2" s="50"/>
+      <c r="Y2" s="47"/>
+      <c r="AA2" s="48"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="2"/>
-      <c r="AG2" s="49"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="2"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="51"/>
+      <c r="AR2" s="49"/>
       <c r="AS2" s="1"/>
-      <c r="AT2" s="50"/>
+      <c r="AT2" s="48"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="2"/>
       <c r="AZ2" s="1"/>
-      <c r="BA2" s="49"/>
+      <c r="BA2" s="47"/>
       <c r="BB2" s="1"/>
-      <c r="BD2" s="50"/>
+      <c r="BD2" s="48"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="2"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="49"/>
-      <c r="BN2" s="50"/>
+      <c r="BL2" s="47"/>
+      <c r="BN2" s="48"/>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="2"/>
       <c r="BT2" s="1"/>
       <c r="BU2" s="1"/>
-      <c r="BV2" s="49"/>
+      <c r="BV2" s="47"/>
     </row>
     <row r="3" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
@@ -3696,7 +3703,7 @@
       <c r="H3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="46"/>
       <c r="K3" s="26">
         <v>20</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="P3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="62" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="26"/>
@@ -3720,7 +3727,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="20"/>
       <c r="X3" s="25"/>
-      <c r="Y3" s="48"/>
+      <c r="Y3" s="46"/>
       <c r="AA3" s="26">
         <v>15</v>
       </c>
@@ -3736,7 +3743,7 @@
       <c r="AF3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AG3" s="46" t="s">
         <v>30</v>
       </c>
       <c r="AI3" s="26">
@@ -3745,7 +3752,7 @@
       <c r="AJ3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="82" t="s">
+      <c r="AK3" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL3" s="30" t="s">
@@ -3754,17 +3761,17 @@
       <c r="AM3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="85" t="s">
+      <c r="AN3" s="83" t="s">
         <v>76</v>
       </c>
       <c r="AO3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AP3" s="80">
+      <c r="AP3" s="78">
         <v>0.87291666666666667</v>
       </c>
       <c r="AQ3" s="1"/>
-      <c r="AR3" s="88">
+      <c r="AR3" s="86">
         <f>AP3</f>
         <v>0.87291666666666667</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="AU3" s="9"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AV3" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW3" s="24" t="s">
@@ -3788,7 +3795,7 @@
       <c r="AZ3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="BA3" s="96">
+      <c r="BA3" s="94">
         <v>0.8652777777777777</v>
       </c>
       <c r="BB3" s="1"/>
@@ -3796,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="BE3" s="9"/>
-      <c r="BF3" s="82"/>
+      <c r="BF3" s="80"/>
       <c r="BG3" s="30" t="s">
         <v>93</v>
       </c>
@@ -3812,7 +3819,7 @@
       <c r="BK3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="BL3" s="96">
+      <c r="BL3" s="94">
         <v>0.77500000000000002</v>
       </c>
       <c r="BN3" s="26">
@@ -3821,7 +3828,7 @@
       <c r="BO3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BP3" s="82"/>
+      <c r="BP3" s="80"/>
       <c r="BQ3" s="30" t="s">
         <v>93</v>
       </c>
@@ -3837,7 +3844,7 @@
       <c r="BU3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="BV3" s="96">
+      <c r="BV3" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -3846,7 +3853,7 @@
         <v>400</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="35"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="24" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3863,7 @@
       <c r="H4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="49"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="26">
         <v>35</v>
       </c>
@@ -3870,7 +3877,7 @@
       <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="46" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="26">
@@ -3888,7 +3895,7 @@
       <c r="X4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="64" t="s">
+      <c r="Y4" s="62" t="s">
         <v>30</v>
       </c>
       <c r="AA4" s="26">
@@ -3906,13 +3913,13 @@
       <c r="AF4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="64" t="s">
+      <c r="AG4" s="62" t="s">
         <v>30</v>
       </c>
       <c r="AI4" s="26">
         <v>20</v>
       </c>
-      <c r="AK4" s="83" t="s">
+      <c r="AK4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="AL4" s="24" t="s">
@@ -3927,11 +3934,11 @@
       <c r="AO4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AP4" s="80">
+      <c r="AP4" s="78">
         <v>0.45833333333333331</v>
       </c>
       <c r="AQ4" s="1"/>
-      <c r="AR4" s="88">
+      <c r="AR4" s="86">
         <f>AP4+12</f>
         <v>12.458333333333334</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="AU4" s="9"/>
-      <c r="AV4" s="83" t="s">
+      <c r="AV4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="AW4" s="30" t="s">
@@ -3955,17 +3962,17 @@
       <c r="AZ4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BA4" s="96">
+      <c r="BA4" s="94">
         <v>0.49305555555555558</v>
       </c>
-      <c r="BB4" s="94">
+      <c r="BB4" s="92">
         <v>1</v>
       </c>
       <c r="BD4" s="26">
         <v>30</v>
       </c>
       <c r="BE4" s="9"/>
-      <c r="BF4" s="83" t="s">
+      <c r="BF4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="BG4" s="30" t="s">
@@ -3983,7 +3990,7 @@
       <c r="BK4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BL4" s="96">
+      <c r="BL4" s="94">
         <v>0.48888888888888887</v>
       </c>
       <c r="BN4" s="26">
@@ -3992,7 +3999,7 @@
       <c r="BO4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BP4" s="83" t="s">
+      <c r="BP4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="BQ4" s="30" t="s">
@@ -4010,7 +4017,7 @@
       <c r="BU4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BV4" s="96">
+      <c r="BV4" s="94">
         <v>0.48888888888888887</v>
       </c>
     </row>
@@ -4027,7 +4034,7 @@
       <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="26">
         <v>180</v>
       </c>
@@ -4043,7 +4050,7 @@
       <c r="P5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="33" t="s">
         <v>55</v>
       </c>
       <c r="S5" s="26">
@@ -4061,7 +4068,7 @@
       <c r="X5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="46" t="s">
         <v>58</v>
       </c>
       <c r="AA5" s="26">
@@ -4079,13 +4086,13 @@
       <c r="AF5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AG5" s="48" t="s">
+      <c r="AG5" s="46" t="s">
         <v>47</v>
       </c>
       <c r="AI5" s="26">
         <v>20</v>
       </c>
-      <c r="AK5" s="82" t="s">
+      <c r="AK5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL5" s="24" t="s">
@@ -4100,11 +4107,11 @@
       <c r="AO5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="80">
+      <c r="AP5" s="78">
         <v>0.5625</v>
       </c>
       <c r="AQ5" s="1"/>
-      <c r="AR5" s="88">
+      <c r="AR5" s="86">
         <f>AP5+12</f>
         <v>12.5625</v>
       </c>
@@ -4112,7 +4119,7 @@
       <c r="AT5" s="26">
         <v>5</v>
       </c>
-      <c r="AV5" s="82" t="s">
+      <c r="AV5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW5" s="30" t="s">
@@ -4127,12 +4134,12 @@
       <c r="AZ5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="BA5" s="96" t="s">
+      <c r="BA5" s="94" t="s">
         <v>87</v>
       </c>
       <c r="BB5" s="1"/>
       <c r="BD5" s="26"/>
-      <c r="BF5" s="82" t="s">
+      <c r="BF5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BG5" s="30"/>
@@ -4140,12 +4147,12 @@
       <c r="BI5" s="9"/>
       <c r="BJ5" s="30"/>
       <c r="BK5" s="30"/>
-      <c r="BL5" s="96"/>
+      <c r="BL5" s="94"/>
       <c r="BN5" s="26">
         <v>25</v>
       </c>
       <c r="BO5" s="28"/>
-      <c r="BP5" s="82" t="s">
+      <c r="BP5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BQ5" s="30" t="s">
@@ -4163,7 +4170,7 @@
       <c r="BU5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BV5" s="96">
+      <c r="BV5" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -4180,7 +4187,7 @@
       <c r="H6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="49"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="26">
         <v>25</v>
       </c>
@@ -4196,7 +4203,7 @@
       <c r="P6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="S6" s="26"/>
@@ -4204,7 +4211,7 @@
       <c r="V6" s="24"/>
       <c r="W6" s="20"/>
       <c r="X6" s="25"/>
-      <c r="Y6" s="64"/>
+      <c r="Y6" s="62"/>
       <c r="AA6" s="26">
         <v>17</v>
       </c>
@@ -4220,7 +4227,7 @@
       <c r="AF6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="64" t="s">
+      <c r="AG6" s="62" t="s">
         <v>22</v>
       </c>
       <c r="AI6" s="26">
@@ -4229,7 +4236,7 @@
       <c r="AJ6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="82" t="s">
+      <c r="AK6" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL6" s="24" t="s">
@@ -4244,11 +4251,11 @@
       <c r="AO6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AP6" s="80">
+      <c r="AP6" s="78">
         <v>0.5625</v>
       </c>
       <c r="AQ6" s="1"/>
-      <c r="AR6" s="88">
+      <c r="AR6" s="86">
         <f>AP6+12</f>
         <v>12.5625</v>
       </c>
@@ -4259,7 +4266,7 @@
       <c r="AU6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AV6" s="82" t="s">
+      <c r="AV6" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW6" s="30" t="s">
@@ -4274,13 +4281,13 @@
       <c r="AZ6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="BA6" s="96" t="s">
+      <c r="BA6" s="94" t="s">
         <v>87</v>
       </c>
       <c r="BB6" s="1"/>
       <c r="BD6" s="26"/>
       <c r="BE6" s="25"/>
-      <c r="BF6" s="82" t="s">
+      <c r="BF6" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BG6" s="30"/>
@@ -4288,12 +4295,12 @@
       <c r="BI6" s="9"/>
       <c r="BJ6" s="30"/>
       <c r="BK6" s="30"/>
-      <c r="BL6" s="96"/>
+      <c r="BL6" s="94"/>
       <c r="BN6" s="26">
         <v>25</v>
       </c>
       <c r="BO6" s="25"/>
-      <c r="BP6" s="82" t="s">
+      <c r="BP6" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BQ6" s="30" t="s">
@@ -4311,7 +4318,7 @@
       <c r="BU6" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="BV6" s="96">
+      <c r="BV6" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -4328,7 +4335,7 @@
       <c r="H7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="26">
@@ -4346,7 +4353,7 @@
       <c r="P7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="62" t="s">
         <v>52</v>
       </c>
       <c r="S7" s="26"/>
@@ -4354,7 +4361,7 @@
       <c r="V7" s="24"/>
       <c r="W7" s="20"/>
       <c r="X7" s="25"/>
-      <c r="Y7" s="48"/>
+      <c r="Y7" s="46"/>
       <c r="AA7" s="26">
         <v>100</v>
       </c>
@@ -4370,7 +4377,7 @@
       <c r="AF7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AG7" s="48" t="s">
+      <c r="AG7" s="46" t="s">
         <v>63</v>
       </c>
       <c r="AI7" s="26">
@@ -4379,7 +4386,7 @@
       <c r="AJ7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AK7" s="82" t="s">
+      <c r="AK7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL7" s="24" t="s">
@@ -4394,11 +4401,11 @@
       <c r="AO7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AP7" s="80">
+      <c r="AP7" s="78">
         <v>0.87291666666666667</v>
       </c>
       <c r="AQ7" s="1"/>
-      <c r="AR7" s="88">
+      <c r="AR7" s="86">
         <f>AP7+18</f>
         <v>18.872916666666665</v>
       </c>
@@ -4409,7 +4416,7 @@
       <c r="AU7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AV7" s="82" t="s">
+      <c r="AV7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW7" s="30" t="s">
@@ -4424,7 +4431,7 @@
       <c r="AZ7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="BA7" s="96">
+      <c r="BA7" s="94">
         <v>0.8652777777777777</v>
       </c>
       <c r="BB7" s="1"/>
@@ -4432,7 +4439,7 @@
         <v>25</v>
       </c>
       <c r="BE7" s="28"/>
-      <c r="BF7" s="82" t="s">
+      <c r="BF7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BG7" s="30" t="s">
@@ -4450,7 +4457,7 @@
       <c r="BK7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BL7" s="96">
+      <c r="BL7" s="94">
         <v>0.77500000000000002</v>
       </c>
       <c r="BN7" s="26">
@@ -4459,7 +4466,7 @@
       <c r="BO7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="BP7" s="82" t="s">
+      <c r="BP7" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BQ7" s="30" t="s">
@@ -4477,24 +4484,24 @@
       <c r="BU7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BV7" s="96">
+      <c r="BV7" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="8" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="9">
         <f>SUM(B3:B7)</f>
         <v>790</v>
       </c>
-      <c r="I8" s="49"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="26">
         <v>20</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="33" t="s">
         <v>56</v>
       </c>
       <c r="O8" s="20" t="s">
@@ -4503,7 +4510,7 @@
       <c r="P8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="46" t="s">
         <v>13</v>
       </c>
       <c r="S8" s="26"/>
@@ -4511,20 +4518,20 @@
       <c r="V8" s="24"/>
       <c r="W8" s="25"/>
       <c r="X8" s="28"/>
-      <c r="Y8" s="64"/>
+      <c r="Y8" s="62"/>
       <c r="AA8" s="26"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="24"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="28"/>
-      <c r="AG8" s="64"/>
+      <c r="AG8" s="62"/>
       <c r="AI8" s="26">
         <v>20</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AK8" s="82" t="s">
+      <c r="AK8" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL8" s="24" t="s">
@@ -4539,11 +4546,11 @@
       <c r="AO8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AP8" s="80">
+      <c r="AP8" s="78">
         <v>0.61805555555555558</v>
       </c>
       <c r="AQ8" s="1"/>
-      <c r="AR8" s="89">
+      <c r="AR8" s="87">
         <v>0.61805555555555558</v>
       </c>
       <c r="AS8" s="1"/>
@@ -4553,7 +4560,7 @@
       <c r="AU8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AV8" s="82" t="s">
+      <c r="AV8" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW8" s="24" t="s">
@@ -4568,7 +4575,7 @@
       <c r="AZ8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="BA8" s="96">
+      <c r="BA8" s="94">
         <v>0.8652777777777777</v>
       </c>
       <c r="BB8" s="1"/>
@@ -4578,7 +4585,7 @@
       <c r="BE8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="BF8" s="82" t="s">
+      <c r="BF8" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BG8" s="30" t="s">
@@ -4596,7 +4603,7 @@
       <c r="BK8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BL8" s="96">
+      <c r="BL8" s="94">
         <v>0.77500000000000002</v>
       </c>
       <c r="BN8" s="26">
@@ -4605,7 +4612,7 @@
       <c r="BO8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="BP8" s="82" t="s">
+      <c r="BP8" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BQ8" s="30" t="s">
@@ -4623,14 +4630,14 @@
       <c r="BU8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BV8" s="96">
+      <c r="BV8" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="9" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
+      <c r="B9" s="48"/>
       <c r="D9" s="8"/>
-      <c r="I9" s="49"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4640,25 +4647,25 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
-      <c r="Q9" s="49"/>
+      <c r="Q9" s="47"/>
       <c r="S9" s="26"/>
       <c r="U9" s="27"/>
       <c r="V9" s="30"/>
       <c r="W9" s="20"/>
       <c r="X9" s="25"/>
-      <c r="Y9" s="48"/>
+      <c r="Y9" s="46"/>
       <c r="AA9" s="26"/>
       <c r="AC9" s="27"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="25"/>
-      <c r="AG9" s="48"/>
+      <c r="AG9" s="46"/>
       <c r="AI9" s="26">
         <v>17</v>
       </c>
       <c r="AJ9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AK9" s="82" t="s">
+      <c r="AK9" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AL9" s="24" t="s">
@@ -4667,17 +4674,17 @@
       <c r="AM9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AN9" s="85" t="s">
+      <c r="AN9" s="83" t="s">
         <v>79</v>
       </c>
       <c r="AO9" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AP9" s="80">
+      <c r="AP9" s="78">
         <v>0.87291666666666667</v>
       </c>
       <c r="AQ9" s="1"/>
-      <c r="AR9" s="90">
+      <c r="AR9" s="88">
         <v>0.87291666666666667</v>
       </c>
       <c r="AS9" s="1"/>
@@ -4687,7 +4694,7 @@
       <c r="AU9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AV9" s="82" t="s">
+      <c r="AV9" s="80" t="s">
         <v>17</v>
       </c>
       <c r="AW9" s="30" t="s">
@@ -4696,13 +4703,13 @@
       <c r="AX9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AY9" s="85" t="s">
+      <c r="AY9" s="83" t="s">
         <v>84</v>
       </c>
       <c r="AZ9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="BA9" s="96">
+      <c r="BA9" s="94">
         <v>0.49305555555555558</v>
       </c>
       <c r="BB9" s="1"/>
@@ -4712,7 +4719,7 @@
       <c r="BE9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="BF9" s="82" t="s">
+      <c r="BF9" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BG9" s="30" t="s">
@@ -4721,7 +4728,7 @@
       <c r="BH9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BI9" s="85" t="s">
+      <c r="BI9" s="83" t="s">
         <v>84</v>
       </c>
       <c r="BJ9" s="30" t="s">
@@ -4730,7 +4737,7 @@
       <c r="BK9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BL9" s="96">
+      <c r="BL9" s="94">
         <v>0.77500000000000002</v>
       </c>
       <c r="BN9" s="26">
@@ -4739,7 +4746,7 @@
       <c r="BO9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="BP9" s="82" t="s">
+      <c r="BP9" s="80" t="s">
         <v>17</v>
       </c>
       <c r="BQ9" s="30" t="s">
@@ -4748,7 +4755,7 @@
       <c r="BR9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BS9" s="85" t="s">
+      <c r="BS9" s="83" t="s">
         <v>84</v>
       </c>
       <c r="BT9" s="30" t="s">
@@ -4757,7 +4764,7 @@
       <c r="BU9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BV9" s="96">
+      <c r="BV9" s="94">
         <v>0.51388888888888895</v>
       </c>
     </row>
@@ -4769,16 +4776,16 @@
         <v>790</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="I10" s="51"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="66">
+      <c r="I10" s="49"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="64">
         <v>45058</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
       <c r="S10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4786,13 +4793,13 @@
         <f>SUM(S3:S9)</f>
         <v>45</v>
       </c>
-      <c r="U10" s="52"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68">
+      <c r="U10" s="50"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="66">
         <v>45089</v>
       </c>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="69"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="67"/>
       <c r="AA10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4800,13 +4807,13 @@
         <f>SUM(AA3:AA9)</f>
         <v>467</v>
       </c>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="87">
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="85">
         <v>45119</v>
       </c>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="69"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="67"/>
       <c r="AI10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4814,18 +4821,18 @@
         <f>SUM(AI3:AI9)</f>
         <v>152</v>
       </c>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="87">
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="85">
         <v>45150</v>
       </c>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="35" t="s">
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AR10" s="53"/>
+      <c r="AR10" s="51"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="9" t="s">
         <v>4</v>
@@ -4834,15 +4841,15 @@
         <f>SUM(AT3:AT9)</f>
         <v>196</v>
       </c>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="87">
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="85">
         <v>45181</v>
       </c>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="67"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="95">
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="93">
         <v>1</v>
       </c>
       <c r="BD10" s="9" t="s">
@@ -4852,15 +4859,15 @@
         <f>SUM(BD3:BD9)</f>
         <v>205</v>
       </c>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="99">
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="97">
         <v>45270</v>
       </c>
-      <c r="BH10" s="81"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="67"/>
-      <c r="BK10" s="67"/>
-      <c r="BL10" s="69"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="65"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="67"/>
       <c r="BN10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4868,252 +4875,252 @@
         <f>SUM(BN3:BN9)</f>
         <v>250</v>
       </c>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="67"/>
-      <c r="BR10" s="87">
+      <c r="BP10" s="50"/>
+      <c r="BQ10" s="65"/>
+      <c r="BR10" s="85">
         <v>45272</v>
       </c>
-      <c r="BS10" s="52"/>
-      <c r="BT10" s="67"/>
-      <c r="BU10" s="67"/>
-      <c r="BV10" s="69"/>
+      <c r="BS10" s="50"/>
+      <c r="BT10" s="65"/>
+      <c r="BU10" s="65"/>
+      <c r="BV10" s="67"/>
     </row>
     <row r="11" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="I11" s="49"/>
       <c r="AS11" s="1"/>
     </row>
     <row r="12" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="35">
         <v>45028</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="99" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="91" t="s">
+      <c r="K14" s="109"/>
+      <c r="L14" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="102" t="s">
+      <c r="M14" s="100" t="s">
         <v>36</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="P14" s="101" t="s">
+      <c r="P14" s="99" t="s">
         <v>44</v>
       </c>
       <c r="Q14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="R14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="85" t="s">
+      <c r="S14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="V14" s="127" t="s">
+      <c r="V14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="W14" s="127" t="s">
+      <c r="W14" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="X14" s="34" t="s">
+      <c r="X14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="91" t="s">
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="AA14" s="102" t="s">
+      <c r="AA14" s="100" t="s">
         <v>36</v>
       </c>
       <c r="AB14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AC14" s="100">
+      <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
         <v>45278</v>
       </c>
-      <c r="AG14" s="101" t="s">
+      <c r="AG14" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AH14" s="105"/>
+      <c r="AH14" s="103"/>
       <c r="AI14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AJ14" s="34" t="s">
+      <c r="AJ14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AK14" s="85" t="s">
+      <c r="AK14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AL14" s="39" t="s">
+      <c r="AL14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AN14" s="127" t="s">
+      <c r="AN14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="AO14" s="127" t="s">
+      <c r="AO14" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="AP14" s="34" t="s">
+      <c r="AP14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AQ14" s="38" t="s">
+      <c r="AQ14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AR14" s="91" t="s">
+      <c r="AR14" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="AS14" s="102" t="s">
+      <c r="AS14" s="100" t="s">
         <v>36</v>
       </c>
       <c r="AT14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="100">
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
         <v>45278</v>
       </c>
-      <c r="AZ14" s="101" t="s">
+      <c r="AZ14" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="BA14" s="105"/>
+      <c r="BA14" s="103"/>
       <c r="BB14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BC14" s="34" t="s">
+      <c r="BC14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BD14" s="85" t="s">
+      <c r="BD14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="BE14" s="39" t="s">
+      <c r="BE14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="BF14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BG14" s="127" t="s">
+      <c r="BG14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="BH14" s="127" t="s">
+      <c r="BH14" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="BI14" s="155" t="s">
+      <c r="BI14" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="BJ14" s="38" t="s">
+      <c r="BJ14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="BK14" s="159" t="s">
+      <c r="BK14" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="BL14" s="102" t="s">
+      <c r="BL14" s="100" t="s">
         <v>36</v>
       </c>
       <c r="BM14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="100">
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
         <v>45278</v>
       </c>
-      <c r="BR14" s="161" t="s">
+      <c r="BR14" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="BS14" s="105"/>
+      <c r="BS14" s="103"/>
       <c r="BT14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BU14" s="34" t="s">
+      <c r="BU14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BV14" s="85" t="s">
+      <c r="BV14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="BW14" s="39" t="s">
+      <c r="BW14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="BX14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BY14" s="127" t="s">
+      <c r="BY14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="BZ14" s="127" t="s">
+      <c r="BZ14" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="CA14" s="155" t="s">
+      <c r="CA14" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="CB14" s="38" t="s">
+      <c r="CB14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="CC14" s="159" t="s">
+      <c r="CC14" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="CD14" s="102" t="s">
+      <c r="CD14" s="100" t="s">
         <v>36</v>
       </c>
       <c r="CE14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="CF14" s="45"/>
-      <c r="CG14" s="100">
+      <c r="CF14" s="43"/>
+      <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
         <v>45278</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="103" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="24"/>
@@ -5128,21 +5135,21 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="103"/>
-      <c r="P15" s="138"/>
+      <c r="N15" s="101"/>
+      <c r="P15" s="136"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="119"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="2"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="103"/>
-      <c r="AG15" s="138"/>
+      <c r="AB15" s="101"/>
+      <c r="AG15" s="136"/>
       <c r="AH15" s="2"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="119"/>
+      <c r="AK15" s="117"/>
       <c r="AL15" s="2"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -5150,43 +5157,43 @@
       <c r="AQ15" s="1"/>
       <c r="AS15" s="1"/>
       <c r="AT15" s="25"/>
-      <c r="AV15" s="51"/>
-      <c r="AZ15" s="138"/>
+      <c r="AV15" s="49"/>
+      <c r="AZ15" s="136"/>
       <c r="BA15" s="2"/>
       <c r="BC15" s="25"/>
-      <c r="BD15" s="119"/>
+      <c r="BD15" s="117"/>
       <c r="BE15" s="2"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BI15" s="154"/>
+      <c r="BI15" s="152"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
       <c r="BM15" s="25"/>
-      <c r="BO15" s="51"/>
-      <c r="BR15" s="138"/>
+      <c r="BO15" s="49"/>
+      <c r="BR15" s="136"/>
       <c r="BS15" s="2"/>
       <c r="BU15" s="25"/>
-      <c r="BV15" s="119"/>
+      <c r="BV15" s="117"/>
       <c r="BW15" s="2"/>
       <c r="BY15" s="1"/>
       <c r="BZ15" s="1"/>
-      <c r="CA15" s="154"/>
+      <c r="CA15" s="152"/>
       <c r="CB15" s="1"/>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
       <c r="CE15" s="25"/>
-      <c r="CG15" s="51"/>
+      <c r="CG15" s="49"/>
     </row>
     <row r="16" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="112"/>
-      <c r="B16" s="38">
+      <c r="A16" s="110"/>
+      <c r="B16" s="36">
         <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="104" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -5204,30 +5211,30 @@
       <c r="I16" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="113">
+      <c r="J16" s="111">
         <v>0.61805555555555558</v>
       </c>
       <c r="K16" s="24"/>
-      <c r="L16" s="113">
+      <c r="L16" s="111">
         <v>0.61805555555555558</v>
       </c>
       <c r="M16" s="24"/>
-      <c r="N16" s="103" t="s">
+      <c r="N16" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="36">
         <v>10</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="120" t="s">
+      <c r="R16" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="37" t="s">
         <v>62</v>
       </c>
       <c r="U16" s="9" t="s">
@@ -5239,31 +5246,31 @@
       <c r="W16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="80">
+      <c r="X16" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="80">
+      <c r="Z16" s="78">
         <v>0.61805555555555558</v>
       </c>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="103" t="s">
+      <c r="AB16" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG16" s="34">
+      <c r="AG16" s="33">
         <v>10</v>
       </c>
-      <c r="AH16" s="39"/>
+      <c r="AH16" s="37"/>
       <c r="AI16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AJ16" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK16" s="120" t="s">
+      <c r="AJ16" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK16" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="AL16" s="39" t="s">
+      <c r="AL16" s="37" t="s">
         <v>62</v>
       </c>
       <c r="AM16" s="9" t="s">
@@ -5275,106 +5282,106 @@
       <c r="AO16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AP16" s="80">
+      <c r="AP16" s="78">
         <v>0.38125000000000003</v>
       </c>
       <c r="AQ16" s="1"/>
-      <c r="AR16" s="80">
+      <c r="AR16" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AS16" s="1"/>
       <c r="AT16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV16" s="51"/>
-      <c r="AZ16" s="135">
+      <c r="AV16" s="49"/>
+      <c r="AZ16" s="133">
         <v>10</v>
       </c>
-      <c r="BA16" s="39">
+      <c r="BA16" s="37">
         <v>10</v>
       </c>
       <c r="BB16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BC16" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD16" s="120" t="s">
+      <c r="BC16" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD16" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="BE16" s="39" t="s">
+      <c r="BE16" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="BF16" s="145" t="s">
+      <c r="BF16" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="BG16" s="147" t="s">
+      <c r="BG16" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="BH16" s="148" t="s">
+      <c r="BH16" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="BI16" s="156"/>
+      <c r="BI16" s="154"/>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="80">
+      <c r="BK16" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL16" s="1"/>
       <c r="BM16" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO16" s="51"/>
-      <c r="BR16" s="163">
+      <c r="BO16" s="49"/>
+      <c r="BR16" s="161">
         <v>20</v>
       </c>
-      <c r="BS16" s="39">
+      <c r="BS16" s="37">
         <v>5</v>
       </c>
       <c r="BT16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BU16" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV16" s="120" t="s">
+      <c r="BU16" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV16" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="BW16" s="39" t="s">
+      <c r="BW16" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="BX16" s="145" t="s">
+      <c r="BX16" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="BY16" s="147" t="s">
+      <c r="BY16" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="BZ16" s="148" t="s">
+      <c r="BZ16" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="CA16" s="156">
+      <c r="CA16" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB16" s="1"/>
-      <c r="CC16" s="156">
+      <c r="CC16" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="CD16" s="1"/>
       <c r="CE16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CG16" s="51"/>
+      <c r="CG16" s="49"/>
     </row>
     <row r="17" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107">
+      <c r="A17" s="105">
         <v>-2</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="106" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="30" t="s">
@@ -5392,30 +5399,30 @@
       <c r="I17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="113">
+      <c r="J17" s="111">
         <v>0.53472222222222221</v>
       </c>
       <c r="K17" s="24"/>
-      <c r="L17" s="113">
+      <c r="L17" s="111">
         <v>0.53472222222222221</v>
       </c>
       <c r="M17" s="24"/>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="36">
         <v>20</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="85" t="s">
+      <c r="R17" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="37" t="s">
         <v>85</v>
       </c>
       <c r="U17" s="9" t="s">
@@ -5427,31 +5434,31 @@
       <c r="W17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="X17" s="80">
+      <c r="X17" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="80">
+      <c r="Z17" s="78">
         <v>0.53472222222222221</v>
       </c>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="103" t="s">
+      <c r="AB17" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG17" s="34">
+      <c r="AG17" s="33">
         <v>20</v>
       </c>
-      <c r="AH17" s="128"/>
+      <c r="AH17" s="126"/>
       <c r="AI17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AJ17" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK17" s="85" t="s">
+      <c r="AJ17" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK17" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="AL17" s="39" t="s">
+      <c r="AL17" s="37" t="s">
         <v>85</v>
       </c>
       <c r="AM17" s="9" t="s">
@@ -5463,107 +5470,107 @@
       <c r="AO17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AP17" s="80">
+      <c r="AP17" s="78">
         <v>0.38125000000000003</v>
       </c>
       <c r="AQ17" s="1"/>
-      <c r="AR17" s="80">
+      <c r="AR17" s="78">
         <v>0.53472222222222221</v>
       </c>
       <c r="AS17" s="1"/>
       <c r="AT17" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV17" s="51"/>
-      <c r="AZ17" s="135">
+      <c r="AV17" s="49"/>
+      <c r="AZ17" s="133">
         <v>10</v>
       </c>
-      <c r="BA17" s="128">
+      <c r="BA17" s="126">
         <v>22</v>
       </c>
       <c r="BB17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="BC17" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD17" s="85" t="s">
+      <c r="BC17" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD17" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="BE17" s="39" t="s">
+      <c r="BE17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="BF17" s="145" t="s">
+      <c r="BF17" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="BG17" s="149" t="s">
+      <c r="BG17" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="BH17" s="150" t="s">
+      <c r="BH17" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="BI17" s="156"/>
+      <c r="BI17" s="154"/>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="80">
+      <c r="BK17" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL17" s="1"/>
       <c r="BM17" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO17" s="51"/>
-      <c r="BR17" s="135">
+      <c r="BO17" s="49"/>
+      <c r="BR17" s="133">
         <v>40</v>
       </c>
-      <c r="BS17" s="128">
+      <c r="BS17" s="126">
         <v>10</v>
       </c>
       <c r="BT17" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="BU17" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV17" s="85" t="s">
+      <c r="BU17" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV17" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="BW17" s="39" t="s">
+      <c r="BW17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="BX17" s="145" t="s">
+      <c r="BX17" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="BY17" s="149" t="s">
+      <c r="BY17" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="BZ17" s="150" t="s">
+      <c r="BZ17" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="CA17" s="156">
+      <c r="CA17" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB17" s="1"/>
-      <c r="CC17" s="156">
+      <c r="CC17" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="CD17" s="1"/>
       <c r="CE17" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CG17" s="51"/>
+      <c r="CG17" s="49"/>
     </row>
     <row r="18" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="112"/>
-      <c r="B18" s="38">
+      <c r="A18" s="110"/>
+      <c r="B18" s="36">
         <v>20</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="37" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="31" t="s">
@@ -5578,30 +5585,30 @@
       <c r="I18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="113">
+      <c r="J18" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="K18" s="24"/>
-      <c r="L18" s="113">
+      <c r="L18" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="M18" s="24"/>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="36">
         <v>5</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="85" t="s">
+      <c r="R18" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="T18" s="39" t="s">
+      <c r="T18" s="37" t="s">
         <v>102</v>
       </c>
       <c r="U18" s="9" t="s">
@@ -5613,31 +5620,31 @@
       <c r="W18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="80">
+      <c r="X18" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="80">
+      <c r="Z18" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="103" t="s">
+      <c r="AB18" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG18" s="34">
+      <c r="AG18" s="33">
         <v>10</v>
       </c>
-      <c r="AH18" s="129"/>
+      <c r="AH18" s="127"/>
       <c r="AI18" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AJ18" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK18" s="85" t="s">
+      <c r="AJ18" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK18" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="AL18" s="39" t="s">
+      <c r="AL18" s="37" t="s">
         <v>102</v>
       </c>
       <c r="AM18" s="9" t="s">
@@ -5649,106 +5656,106 @@
       <c r="AO18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AP18" s="80">
+      <c r="AP18" s="78">
         <v>0.38125000000000003</v>
       </c>
       <c r="AQ18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AR18" s="80">
+      <c r="AR18" s="78">
         <v>0.5083333333333333</v>
       </c>
       <c r="AS18" s="1"/>
       <c r="AT18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV18" s="51"/>
-      <c r="AZ18" s="135">
+      <c r="AV18" s="49"/>
+      <c r="AZ18" s="133">
         <v>10</v>
       </c>
-      <c r="BA18" s="129">
+      <c r="BA18" s="127">
         <v>20</v>
       </c>
       <c r="BB18" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="BC18" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD18" s="85" t="s">
+      <c r="BC18" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD18" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BE18" s="39" t="s">
+      <c r="BE18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="BF18" s="145" t="s">
+      <c r="BF18" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="BG18" s="151" t="s">
+      <c r="BG18" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="BH18" s="150" t="s">
+      <c r="BH18" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="BI18" s="156"/>
+      <c r="BI18" s="154"/>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="80">
+      <c r="BK18" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL18" s="1"/>
       <c r="BM18" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO18" s="51"/>
-      <c r="BR18" s="135">
+      <c r="BO18" s="49"/>
+      <c r="BR18" s="133">
         <v>10</v>
       </c>
-      <c r="BS18" s="129">
+      <c r="BS18" s="127">
         <v>5</v>
       </c>
       <c r="BT18" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="BU18" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV18" s="85" t="s">
+      <c r="BU18" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV18" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BW18" s="39" t="s">
+      <c r="BW18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="BX18" s="145" t="s">
+      <c r="BX18" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="BY18" s="147" t="s">
+      <c r="BY18" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="BZ18" s="150" t="s">
+      <c r="BZ18" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="CA18" s="156">
+      <c r="CA18" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB18" s="1"/>
-      <c r="CC18" s="156">
+      <c r="CC18" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="CD18" s="1"/>
       <c r="CE18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CG18" s="51"/>
+      <c r="CG18" s="49"/>
     </row>
     <row r="19" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="38">
+      <c r="A19" s="110"/>
+      <c r="B19" s="36">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="104" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="30" t="s">
@@ -5766,30 +5773,30 @@
       <c r="I19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="113">
+      <c r="J19" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="K19" s="24"/>
-      <c r="L19" s="113">
+      <c r="L19" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="M19" s="24"/>
-      <c r="N19" s="103" t="s">
+      <c r="N19" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="36">
         <v>12</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="85" t="s">
+      <c r="R19" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="37" t="s">
         <v>20</v>
       </c>
       <c r="U19" s="9" t="s">
@@ -5801,29 +5808,29 @@
       <c r="W19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="X19" s="80">
+      <c r="X19" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="80">
+      <c r="Z19" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="103" t="s">
+      <c r="AB19" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="129"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="127"/>
       <c r="AI19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AJ19" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK19" s="85" t="s">
+      <c r="AJ19" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AL19" s="39" t="s">
+      <c r="AL19" s="37" t="s">
         <v>125</v>
       </c>
       <c r="AM19" s="9" t="s">
@@ -5835,112 +5842,112 @@
       <c r="AO19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AP19" s="80">
+      <c r="AP19" s="78">
         <v>0.38125000000000003</v>
       </c>
       <c r="AQ19" s="1"/>
-      <c r="AR19" s="80">
+      <c r="AR19" s="78">
         <v>0.38125000000000003</v>
       </c>
       <c r="AS19" s="1"/>
       <c r="AT19" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV19" s="51"/>
-      <c r="AZ19" s="142">
+      <c r="AV19" s="49"/>
+      <c r="AZ19" s="140">
         <v>3</v>
       </c>
-      <c r="BA19" s="129">
+      <c r="BA19" s="127">
         <v>7</v>
       </c>
       <c r="BB19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="BC19" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD19" s="85" t="s">
+      <c r="BC19" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="BE19" s="39" t="s">
+      <c r="BE19" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="BF19" s="145" t="s">
+      <c r="BF19" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="BG19" s="151" t="s">
+      <c r="BG19" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="BH19" s="150" t="s">
+      <c r="BH19" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="BI19" s="156"/>
+      <c r="BI19" s="154"/>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="80">
+      <c r="BK19" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL19" s="1"/>
       <c r="BM19" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO19" s="51"/>
-      <c r="BR19" s="142">
+      <c r="BO19" s="49"/>
+      <c r="BR19" s="140">
         <v>10</v>
       </c>
-      <c r="BS19" s="129">
+      <c r="BS19" s="127">
         <v>7</v>
       </c>
       <c r="BT19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="BU19" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV19" s="85" t="s">
+      <c r="BU19" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="BW19" s="39" t="s">
+      <c r="BW19" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="BX19" s="145" t="s">
+      <c r="BX19" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="BY19" s="151" t="s">
+      <c r="BY19" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="BZ19" s="150" t="s">
+      <c r="BZ19" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="CA19" s="156">
+      <c r="CA19" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CC19" s="156">
+      <c r="CC19" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CD19" s="1"/>
       <c r="CE19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CG19" s="51"/>
+      <c r="CG19" s="49"/>
     </row>
     <row r="20" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="38">
+      <c r="A20" s="110"/>
+      <c r="B20" s="36">
         <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -5949,33 +5956,33 @@
       <c r="H20" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="111">
         <v>0.53472222222222221</v>
       </c>
       <c r="K20" s="24"/>
-      <c r="L20" s="113">
+      <c r="L20" s="111">
         <v>0.53472222222222221</v>
       </c>
       <c r="M20" s="24"/>
-      <c r="N20" s="103" t="s">
+      <c r="N20" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="36">
         <v>3</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="R20" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="85" t="s">
+      <c r="R20" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="33" t="s">
         <v>62</v>
       </c>
       <c r="U20" s="9" t="s">
@@ -5987,29 +5994,29 @@
       <c r="W20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="X20" s="80">
+      <c r="X20" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="80">
+      <c r="Z20" s="78">
         <v>0.53472222222222221</v>
       </c>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="103" t="s">
+      <c r="AB20" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="39"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="37"/>
       <c r="AI20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AJ20" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK20" s="85" t="s">
+      <c r="AJ20" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="AL20" s="34" t="s">
+      <c r="AL20" s="33" t="s">
         <v>62</v>
       </c>
       <c r="AM20" s="9" t="s">
@@ -6021,98 +6028,98 @@
       <c r="AO20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AP20" s="80">
+      <c r="AP20" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AQ20" s="1"/>
-      <c r="AR20" s="80">
+      <c r="AR20" s="78">
         <v>0.53472222222222221</v>
       </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AV20" s="51"/>
-      <c r="AZ20" s="34">
+      <c r="AV20" s="49"/>
+      <c r="AZ20" s="33">
         <v>75</v>
       </c>
-      <c r="BA20" s="39"/>
+      <c r="BA20" s="37"/>
       <c r="BB20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BC20" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD20" s="85" t="s">
+      <c r="BC20" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="BE20" s="34" t="s">
+      <c r="BE20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="BF20" s="145" t="s">
+      <c r="BF20" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="BG20" s="151" t="s">
+      <c r="BG20" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="BH20" s="150" t="s">
+      <c r="BH20" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="BI20" s="156"/>
+      <c r="BI20" s="154"/>
       <c r="BJ20" s="1"/>
-      <c r="BK20" s="80">
+      <c r="BK20" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL20" s="1"/>
       <c r="BM20" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO20" s="51"/>
-      <c r="BR20" s="34">
+      <c r="BO20" s="49"/>
+      <c r="BR20" s="33">
         <v>50</v>
       </c>
-      <c r="BS20" s="39"/>
+      <c r="BS20" s="37"/>
       <c r="BT20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BU20" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV20" s="85" t="s">
+      <c r="BU20" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV20" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="BW20" s="34" t="s">
+      <c r="BW20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="BX20" s="145" t="s">
+      <c r="BX20" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="BY20" s="151" t="s">
+      <c r="BY20" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="BZ20" s="150" t="s">
+      <c r="BZ20" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="CA20" s="156">
+      <c r="CA20" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB20" s="1"/>
-      <c r="CC20" s="156"/>
+      <c r="CC20" s="154"/>
       <c r="CD20" s="1"/>
       <c r="CE20" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CG20" s="51"/>
+      <c r="CG20" s="49"/>
     </row>
     <row r="21" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="112"/>
-      <c r="B21" s="38">
+      <c r="A21" s="110"/>
+      <c r="B21" s="36">
         <v>95</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="104" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -6130,30 +6137,30 @@
       <c r="I21" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="113">
+      <c r="J21" s="111">
         <v>0.60763888888888895</v>
       </c>
       <c r="K21" s="24"/>
-      <c r="L21" s="113">
+      <c r="L21" s="111">
         <v>0.60763888888888895</v>
       </c>
       <c r="M21" s="24"/>
-      <c r="N21" s="103" t="s">
+      <c r="N21" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="36">
         <v>3</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="123" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="120" t="s">
+      <c r="R21" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="33" t="s">
         <v>111</v>
       </c>
       <c r="U21" s="9" t="s">
@@ -6165,29 +6172,29 @@
       <c r="W21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="80">
+      <c r="X21" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="80">
+      <c r="Z21" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="103" t="s">
+      <c r="AB21" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="128"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="126"/>
       <c r="AI21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AJ21" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK21" s="120" t="s">
+      <c r="AJ21" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK21" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="AL21" s="34" t="s">
+      <c r="AL21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="AM21" s="9" t="s">
@@ -6199,100 +6206,100 @@
       <c r="AO21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AP21" s="80">
+      <c r="AP21" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AQ21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AR21" s="80">
+      <c r="AR21" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AS21" s="1"/>
       <c r="AT21" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AV21" s="51"/>
-      <c r="AZ21" s="34">
+      <c r="AV21" s="49"/>
+      <c r="AZ21" s="33">
         <v>25</v>
       </c>
-      <c r="BA21" s="128"/>
+      <c r="BA21" s="126"/>
       <c r="BB21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BC21" s="158" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD21" s="85" t="s">
+      <c r="BC21" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD21" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BE21" s="34" t="s">
+      <c r="BE21" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="BF21" s="145" t="s">
+      <c r="BF21" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="BG21" s="151" t="s">
+      <c r="BG21" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="BH21" s="150" t="s">
+      <c r="BH21" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="BI21" s="156"/>
+      <c r="BI21" s="154"/>
       <c r="BJ21" s="1"/>
-      <c r="BK21" s="80">
+      <c r="BK21" s="78">
         <v>0.8666666666666667</v>
       </c>
       <c r="BL21" s="1"/>
       <c r="BM21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO21" s="51"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="128">
+      <c r="BO21" s="49"/>
+      <c r="BR21" s="33"/>
+      <c r="BS21" s="126">
         <v>5</v>
       </c>
       <c r="BT21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BU21" s="158" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV21" s="85" t="s">
+      <c r="BU21" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV21" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="BW21" s="34" t="s">
+      <c r="BW21" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="BX21" s="145" t="s">
+      <c r="BX21" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="BY21" s="151" t="s">
+      <c r="BY21" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="BZ21" s="150" t="s">
+      <c r="BZ21" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="CA21" s="156">
+      <c r="CA21" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB21" s="1"/>
-      <c r="CC21" s="80"/>
+      <c r="CC21" s="78"/>
       <c r="CD21" s="1"/>
       <c r="CE21" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CG21" s="51"/>
+      <c r="CG21" s="49"/>
     </row>
     <row r="22" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
-      <c r="B22" s="38">
+      <c r="A22" s="110"/>
+      <c r="B22" s="36">
         <v>70</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="112" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="30" t="s">
@@ -6301,7 +6308,7 @@
       <c r="F22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="83" t="s">
         <v>84</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -6310,33 +6317,33 @@
       <c r="I22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="113">
+      <c r="J22" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="K22" s="24"/>
-      <c r="L22" s="113">
+      <c r="L22" s="111">
         <v>0.70138888888888884</v>
       </c>
       <c r="M22" s="24"/>
-      <c r="N22" s="103" t="s">
+      <c r="N22" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="36">
         <v>7</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="R22" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="85" t="s">
+      <c r="R22" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="U22" s="85" t="s">
+      <c r="U22" s="83" t="s">
         <v>122</v>
       </c>
       <c r="V22" s="30" t="s">
@@ -6345,32 +6352,32 @@
       <c r="W22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="X22" s="80">
+      <c r="X22" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="80">
+      <c r="Z22" s="78">
         <v>0.85763888888888884</v>
       </c>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="103" t="s">
+      <c r="AB22" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="39"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="37"/>
       <c r="AI22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AJ22" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK22" s="85" t="s">
+      <c r="AJ22" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK22" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="AL22" s="39" t="s">
+      <c r="AL22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AM22" s="85" t="s">
+      <c r="AM22" s="83" t="s">
         <v>122</v>
       </c>
       <c r="AN22" s="30" t="s">
@@ -6379,147 +6386,147 @@
       <c r="AO22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AP22" s="80">
+      <c r="AP22" s="78">
         <v>0.5083333333333333</v>
       </c>
       <c r="AQ22" s="1"/>
-      <c r="AR22" s="80">
+      <c r="AR22" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AS22" s="1"/>
       <c r="AT22" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AV22" s="51"/>
-      <c r="AZ22" s="34">
+      <c r="AV22" s="49"/>
+      <c r="AZ22" s="33">
         <v>70</v>
       </c>
-      <c r="BA22" s="39">
+      <c r="BA22" s="37">
         <v>70</v>
       </c>
       <c r="BB22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BC22" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD22" s="85" t="s">
+      <c r="BC22" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD22" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="BE22" s="39" t="s">
+      <c r="BE22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="BF22" s="146" t="s">
+      <c r="BF22" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="BG22" s="151" t="s">
+      <c r="BG22" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="BH22" s="150" t="s">
+      <c r="BH22" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="BI22" s="156"/>
+      <c r="BI22" s="154"/>
       <c r="BJ22" s="1"/>
-      <c r="BK22" s="80">
+      <c r="BK22" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL22" s="1"/>
       <c r="BM22" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="BO22" s="51"/>
-      <c r="BR22" s="34">
+      <c r="BO22" s="49"/>
+      <c r="BR22" s="33">
         <v>70</v>
       </c>
-      <c r="BS22" s="39">
+      <c r="BS22" s="37">
         <v>30</v>
       </c>
       <c r="BT22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BU22" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV22" s="85" t="s">
+      <c r="BU22" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV22" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BW22" s="39" t="s">
+      <c r="BW22" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="BX22" s="146" t="s">
+      <c r="BX22" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="BY22" s="151" t="s">
+      <c r="BY22" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="BZ22" s="150" t="s">
+      <c r="BZ22" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="CA22" s="156">
+      <c r="CA22" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB22" s="1"/>
-      <c r="CC22" s="80"/>
+      <c r="CC22" s="78"/>
       <c r="CD22" s="1"/>
       <c r="CE22" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="CG22" s="51"/>
+      <c r="CG22" s="49"/>
     </row>
     <row r="23" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="9">
         <f>SUM(B16:B22)</f>
         <v>250</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117" t="s">
+      <c r="D23" s="114"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="104"/>
-      <c r="P23" s="34" t="s">
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="102"/>
+      <c r="P23" s="33" t="s">
         <v>4</v>
       </c>
       <c r="Q23" s="9">
         <f>SUM(P16:P22)</f>
         <v>60</v>
       </c>
-      <c r="R23" s="116"/>
-      <c r="S23" s="139"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67" t="s">
+      <c r="R23" s="114"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="104"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="39"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="102"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="37"/>
       <c r="AI23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AJ23" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK23" s="85" t="s">
+      <c r="AJ23" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK23" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="AL23" s="39" t="s">
+      <c r="AL23" s="37" t="s">
         <v>32</v>
       </c>
       <c r="AM23" s="9" t="s">
@@ -6531,7 +6538,7 @@
       <c r="AO23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AP23" s="80">
+      <c r="AP23" s="78">
         <v>0.78472222222222221</v>
       </c>
       <c r="AQ23" s="1"/>
@@ -6539,154 +6546,154 @@
       <c r="AT23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AZ23" s="142">
+      <c r="AV23" s="49"/>
+      <c r="AZ23" s="140">
         <v>2</v>
       </c>
-      <c r="BA23" s="39">
+      <c r="BA23" s="37">
         <v>1</v>
       </c>
       <c r="BB23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BC23" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD23" s="120" t="s">
+      <c r="BC23" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD23" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="BE23" s="39" t="s">
+      <c r="BE23" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="BF23" s="145" t="s">
+      <c r="BF23" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="BG23" s="152" t="s">
+      <c r="BG23" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="BH23" s="153" t="s">
+      <c r="BH23" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="BI23" s="156"/>
+      <c r="BI23" s="154"/>
       <c r="BJ23" s="1"/>
-      <c r="BK23" s="80">
+      <c r="BK23" s="78">
         <v>0.83333333333333337</v>
       </c>
       <c r="BL23" s="1"/>
       <c r="BM23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="BO23" s="51"/>
-      <c r="BR23" s="142">
+      <c r="BO23" s="49"/>
+      <c r="BR23" s="140">
         <v>10</v>
       </c>
-      <c r="BS23" s="39">
+      <c r="BS23" s="37">
         <v>3</v>
       </c>
       <c r="BT23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BU23" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV23" s="120" t="s">
+      <c r="BU23" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV23" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="BW23" s="39" t="s">
+      <c r="BW23" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="BX23" s="145" t="s">
+      <c r="BX23" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="BY23" s="152" t="s">
+      <c r="BY23" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="BZ23" s="153" t="s">
+      <c r="BZ23" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="CA23" s="156">
+      <c r="CA23" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CB23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CC23" s="156">
+      <c r="CC23" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="CD23" s="1"/>
       <c r="CE23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="CG23" s="51"/>
+      <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="172" t="s">
+      <c r="AG24" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="173"/>
+      <c r="AH24" s="172"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
       </c>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="139"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="140"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="67"/>
-      <c r="AT24" s="116"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="53" t="s">
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="138"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="172" t="s">
+      <c r="AZ24" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="173"/>
+      <c r="BA24" s="172"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
       </c>
-      <c r="BC24" s="116"/>
-      <c r="BD24" s="139"/>
-      <c r="BE24" s="81"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="140"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="160"/>
-      <c r="BJ24" s="117"/>
-      <c r="BK24" s="67"/>
-      <c r="BL24" s="67"/>
-      <c r="BM24" s="116"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="53" t="s">
+      <c r="BC24" s="114"/>
+      <c r="BD24" s="137"/>
+      <c r="BE24" s="79"/>
+      <c r="BF24" s="50"/>
+      <c r="BG24" s="138"/>
+      <c r="BH24" s="50"/>
+      <c r="BI24" s="158"/>
+      <c r="BJ24" s="115"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="114"/>
+      <c r="BN24" s="50"/>
+      <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="172" t="s">
+      <c r="BR24" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="173"/>
+      <c r="BS24" s="172"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
       </c>
-      <c r="BU24" s="116"/>
-      <c r="BV24" s="139"/>
-      <c r="BW24" s="81"/>
-      <c r="BX24" s="52"/>
-      <c r="BY24" s="140"/>
-      <c r="BZ24" s="52"/>
-      <c r="CA24" s="160"/>
-      <c r="CB24" s="117"/>
-      <c r="CC24" s="67"/>
-      <c r="CD24" s="67"/>
-      <c r="CE24" s="116"/>
-      <c r="CF24" s="52"/>
-      <c r="CG24" s="104" t="s">
+      <c r="BU24" s="114"/>
+      <c r="BV24" s="137"/>
+      <c r="BW24" s="79"/>
+      <c r="BX24" s="50"/>
+      <c r="BY24" s="138"/>
+      <c r="BZ24" s="50"/>
+      <c r="CA24" s="158"/>
+      <c r="CB24" s="115"/>
+      <c r="CC24" s="65"/>
+      <c r="CD24" s="65"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="50"/>
+      <c r="CG24" s="102" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE7826-D61A-444F-9556-63A88471550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6C0E2-6188-4730-97C8-AC055AE47D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="147">
   <si>
     <t>UnSettled</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>Rw-Local</t>
+  </si>
+  <si>
+    <t>ND TV India</t>
   </si>
 </sst>
 </file>
@@ -1630,36 +1633,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1690,16 +1684,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1985,7 +1988,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,8 +2103,8 @@
       <c r="H4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="118" t="s">
-        <v>89</v>
+      <c r="I4" s="83" t="s">
+        <v>115</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>133</v>
@@ -2110,7 +2113,7 @@
         <v>118</v>
       </c>
       <c r="L4" s="145" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="M4" s="146" t="s">
         <v>30</v>
@@ -2195,7 +2198,7 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="P6" s="154">
         <v>0.87152777777777779</v>
@@ -2556,18 +2559,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="193"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="193"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2585,7 +2588,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="179">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2612,15 +2615,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="181">
+      <c r="K2" s="195">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="183">
+      <c r="L2" s="197">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="185">
+      <c r="M2" s="182">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="179"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2646,9 +2649,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="183"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2667,9 +2670,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="186"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="183"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2751,7 +2754,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="184">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2768,22 +2771,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="189">
+      <c r="K7" s="186">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="188">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="190">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="188"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2804,9 +2807,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2886,7 +2889,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="184">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2913,7 +2916,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2970,7 +2973,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187">
+      <c r="B14" s="184">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2993,7 +2996,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3017,7 +3020,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178">
+      <c r="B16" s="179">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3048,7 +3051,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3066,7 +3069,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178">
+      <c r="B18" s="179">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3155,7 +3158,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="197">
+      <c r="B21" s="177">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3183,7 +3186,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3323,7 +3326,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3376,7 +3379,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="195"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3403,11 +3406,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3416,11 +3419,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6C0E2-6188-4730-97C8-AC055AE47D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E4F33-D489-4CF1-B151-AEC2B9ED215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="147">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1229,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,26 +1633,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,27 +1693,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2090,7 @@
       </c>
       <c r="T2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,9 +2116,7 @@
       <c r="E4" s="161">
         <v>10</v>
       </c>
-      <c r="F4" s="37">
-        <v>42</v>
-      </c>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2119,13 +2139,13 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="P4" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2133,11 +2153,9 @@
         <v>-2</v>
       </c>
       <c r="E5" s="133">
-        <v>10</v>
-      </c>
-      <c r="F5" s="126">
         <v>20</v>
       </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2160,22 +2178,20 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="P5" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="133">
-        <v>222</v>
-      </c>
-      <c r="F6" s="127">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>135</v>
       </c>
@@ -2198,13 +2214,13 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.46527777777777773</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="P6" s="154">
         <v>0.87152777777777779</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,10 +2230,10 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="127">
-        <v>1</v>
-      </c>
+      <c r="E7" s="140">
+        <v>5</v>
+      </c>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
@@ -2249,16 +2265,12 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="33">
-        <v>50</v>
-      </c>
-      <c r="F8" s="37">
-        <v>10</v>
-      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2280,12 +2292,10 @@
       <c r="M8" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="154">
-        <v>0.80972222222222223</v>
-      </c>
+      <c r="N8" s="154"/>
       <c r="P8" s="154"/>
       <c r="R8" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2297,9 +2307,7 @@
         <v>5987</v>
       </c>
       <c r="E9" s="33"/>
-      <c r="F9" s="126">
-        <v>25</v>
-      </c>
+      <c r="F9" s="126"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2321,19 +2329,17 @@
       <c r="M9" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="154">
-        <v>0.80972222222222223</v>
-      </c>
+      <c r="N9" s="154"/>
       <c r="P9" s="78"/>
       <c r="R9" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="33"/>
-      <c r="F10" s="37">
-        <v>12</v>
-      </c>
+      <c r="E10" s="33">
+        <v>70</v>
+      </c>
+      <c r="F10" s="37"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2356,13 +2362,16 @@
         <v>66</v>
       </c>
       <c r="N10" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="P10" s="154">
-        <v>0.80972222222222223</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2371,11 +2380,9 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="140">
-        <v>100</v>
-      </c>
+        <v>-110</v>
+      </c>
+      <c r="E11" s="140"/>
       <c r="F11" s="37"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
@@ -2398,17 +2405,12 @@
       <c r="M11" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="154">
-        <v>0.80972222222222223</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="N11" s="154"/>
       <c r="P11" s="154">
         <v>0.78472222222222221</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2418,7 +2420,7 @@
       <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>512</v>
+        <v>110</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2431,7 +2433,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>5987</v>
+        <v>6097</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2533,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,18 +2561,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="193"/>
+      <c r="F1" s="176"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="193"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2590,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="179">
+      <c r="B2" s="178">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2615,26 +2617,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="195">
+      <c r="K2" s="181">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="197">
+      <c r="L2" s="183">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="182">
+      <c r="M2" s="185">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J29)</f>
-        <v>5947</v>
+        <f>SUM(E2:J30)</f>
+        <v>6057</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="181"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2649,9 +2651,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="183"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2670,9 +2672,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="183"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2754,7 +2756,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="187">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2771,22 +2773,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="186">
+      <c r="K7" s="189">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="188">
+      <c r="L7" s="191">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="190">
+      <c r="M7" s="193">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="185"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2807,9 +2809,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="191"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2889,7 +2891,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="184">
+      <c r="B11" s="187">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2916,7 +2918,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="185"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2973,7 +2975,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="184">
+      <c r="B14" s="187">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2996,7 +2998,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3020,7 +3022,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="179">
+      <c r="B16" s="178">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3051,7 +3053,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="181"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3069,7 +3071,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="179">
+      <c r="B18" s="178">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3158,7 +3160,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="177">
+      <c r="B21" s="197">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3186,7 +3188,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="178"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3326,7 +3328,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="176"/>
+      <c r="B27" s="196"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3379,7 +3381,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3404,13 +3406,33 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="130">
+        <v>19</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="208">
+        <v>70</v>
+      </c>
+      <c r="H30" s="208">
+        <v>40</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3419,11 +3441,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3431,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:CG24"/>
+  <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="BN6" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,7 +5006,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5029,7 +5051,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5074,7 +5096,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5119,7 +5141,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45278</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6700,11 +6722,407 @@
         <v>134</v>
       </c>
     </row>
+    <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="174"/>
+      <c r="D26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="136"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="203"/>
+      <c r="O27" s="101"/>
+    </row>
+    <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="161">
+        <v>10</v>
+      </c>
+      <c r="C28" s="37">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L28" s="203"/>
+      <c r="M28" s="205">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="N28" s="203"/>
+      <c r="O28" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="133">
+        <v>10</v>
+      </c>
+      <c r="C29" s="126">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L29" s="203"/>
+      <c r="M29" s="205">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="N29" s="203"/>
+      <c r="O29" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="133">
+        <v>222</v>
+      </c>
+      <c r="C30" s="127">
+        <v>10</v>
+      </c>
+      <c r="D30" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="205">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="L30" s="203"/>
+      <c r="M30" s="205">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="N30" s="203"/>
+      <c r="O30" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="140"/>
+      <c r="C31" s="127">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L31" s="203" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="205">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="N31" s="203"/>
+      <c r="O31" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33">
+        <v>50</v>
+      </c>
+      <c r="C32" s="37">
+        <v>10</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L32" s="203"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="203"/>
+      <c r="O32" s="101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="33"/>
+      <c r="C33" s="126">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L33" s="203"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+      <c r="C34" s="37">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L34" s="203"/>
+      <c r="M34" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="N34" s="203"/>
+      <c r="O34" s="101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="140">
+        <v>100</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="205">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="L35" s="203" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="205">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="N35" s="203"/>
+      <c r="O35" s="101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="172"/>
+      <c r="D36" s="9">
+        <f>SUM(B28:C35)</f>
+        <v>512</v>
+      </c>
+      <c r="E36" s="114"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="102"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E4F33-D489-4CF1-B151-AEC2B9ED215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A2E5D-E39F-48AA-9B69-D39E630A2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,36 +1633,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1693,40 +1684,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,18 +2539,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="193"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="193"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2590,7 +2568,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="179">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2617,15 +2595,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="181">
+      <c r="K2" s="195">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="183">
+      <c r="L2" s="197">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="185">
+      <c r="M2" s="182">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2636,7 +2614,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="179"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2651,9 +2629,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="183"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2672,9 +2650,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="186"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="183"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2756,7 +2734,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="184">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2773,22 +2751,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="189">
+      <c r="K7" s="186">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="188">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="190">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="188"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2809,9 +2787,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2891,7 +2869,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="184">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2918,7 +2896,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2975,7 +2953,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187">
+      <c r="B14" s="184">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2998,7 +2976,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3022,7 +3000,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178">
+      <c r="B16" s="179">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3053,7 +3031,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3071,7 +3049,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178">
+      <c r="B18" s="179">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3160,7 +3138,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="197">
+      <c r="B21" s="177">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3188,7 +3166,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3328,7 +3306,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3381,7 +3359,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="195"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3414,10 +3392,10 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="208">
+      <c r="G30" s="18">
         <v>70</v>
       </c>
-      <c r="H30" s="208">
+      <c r="H30" s="18">
         <v>40</v>
       </c>
       <c r="I30" s="18"/>
@@ -3428,11 +3406,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3441,11 +3419,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3455,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6767,18 +6745,16 @@
     </row>
     <row r="27" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="136"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="203"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="203"/>
-      <c r="M27" s="203"/>
-      <c r="N27" s="203"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="101"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,14 +6785,14 @@
       <c r="J28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="205">
+      <c r="K28" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L28" s="203"/>
-      <c r="M28" s="205">
+      <c r="L28" s="1"/>
+      <c r="M28" s="154">
         <v>0.87152777777777779</v>
       </c>
-      <c r="N28" s="203"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="101" t="s">
         <v>138</v>
       </c>
@@ -6849,14 +6825,14 @@
       <c r="J29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="K29" s="205">
+      <c r="K29" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L29" s="203"/>
-      <c r="M29" s="205">
+      <c r="L29" s="1"/>
+      <c r="M29" s="154">
         <v>0.87152777777777779</v>
       </c>
-      <c r="N29" s="203"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="101" t="s">
         <v>138</v>
       </c>
@@ -6868,7 +6844,7 @@
       <c r="C30" s="127">
         <v>10</v>
       </c>
-      <c r="D30" s="206" t="s">
+      <c r="D30" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E30" s="120" t="s">
@@ -6889,14 +6865,14 @@
       <c r="J30" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="205">
+      <c r="K30" s="154">
         <v>0.46527777777777773</v>
       </c>
-      <c r="L30" s="203"/>
-      <c r="M30" s="205">
+      <c r="L30" s="1"/>
+      <c r="M30" s="154">
         <v>0.87152777777777779</v>
       </c>
-      <c r="N30" s="203"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="101" t="s">
         <v>138</v>
       </c>
@@ -6927,16 +6903,16 @@
       <c r="J31" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="205">
+      <c r="K31" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L31" s="203" t="s">
+      <c r="L31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="205">
+      <c r="M31" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="N31" s="203"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="101" t="s">
         <v>138</v>
       </c>
@@ -6969,12 +6945,12 @@
       <c r="J32" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="K32" s="205">
+      <c r="K32" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L32" s="203"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="203"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="101" t="s">
         <v>141</v>
       </c>
@@ -7005,12 +6981,12 @@
       <c r="J33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="K33" s="205">
+      <c r="K33" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L33" s="203"/>
-      <c r="M33" s="207"/>
-      <c r="N33" s="203"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="101" t="s">
         <v>144</v>
       </c>
@@ -7041,14 +7017,14 @@
       <c r="J34" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="205">
+      <c r="K34" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L34" s="203"/>
-      <c r="M34" s="205">
+      <c r="L34" s="1"/>
+      <c r="M34" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="N34" s="203"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="101" t="s">
         <v>141</v>
       </c>
@@ -7079,16 +7055,16 @@
       <c r="J35" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="205">
+      <c r="K35" s="154">
         <v>0.80972222222222223</v>
       </c>
-      <c r="L35" s="203" t="s">
+      <c r="L35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M35" s="205">
+      <c r="M35" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="N35" s="203"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="101" t="s">
         <v>138</v>
       </c>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A2E5D-E39F-48AA-9B69-D39E630A2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991B6AF3-AC16-4088-A110-F094F754906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1633,26 +1633,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,25 +1693,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C2" s="169">
         <f>B3+B4</f>
-        <v>1013</v>
+        <v>903</v>
       </c>
       <c r="E2" s="173" t="s">
         <v>145</v>
@@ -2086,7 +2086,7 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168"/>
       <c r="B4" s="34">
-        <v>513</v>
+        <v>403</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>5987</v>
+        <v>6097</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="126"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="E11" s="140"/>
       <c r="F11" s="37"/>
@@ -2516,7 +2516,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,18 +2539,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="193"/>
+      <c r="F1" s="176"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="193"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="179">
+      <c r="B2" s="178">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2595,15 +2595,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="195">
+      <c r="K2" s="181">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="197">
+      <c r="L2" s="183">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="182">
+      <c r="M2" s="185">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="181"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2629,9 +2629,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="183"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2650,9 +2650,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="183"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2734,7 +2734,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="187">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="186">
+      <c r="K7" s="189">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="188">
+      <c r="L7" s="191">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="190">
+      <c r="M7" s="193">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="185"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2787,9 +2787,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="191"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2869,7 +2869,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="184">
+      <c r="B11" s="187">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2896,7 +2896,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="185"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="184">
+      <c r="B14" s="187">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2976,7 +2976,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3000,7 +3000,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="179">
+      <c r="B16" s="178">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3031,7 +3031,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="181"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3049,7 +3049,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="179">
+      <c r="B18" s="178">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3138,7 +3138,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="177">
+      <c r="B21" s="197">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3166,7 +3166,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="178"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3306,7 +3306,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="176"/>
+      <c r="B27" s="196"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3359,7 +3359,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3406,11 +3406,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3419,11 +3419,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991B6AF3-AC16-4088-A110-F094F754906A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F4380-410B-4B3D-A1F2-38C281975590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="148">
   <si>
     <t>UnSettled</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>ND TV India</t>
+  </si>
+  <si>
+    <t>Food /BeeHub</t>
   </si>
 </sst>
 </file>
@@ -1633,36 +1636,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1693,16 +1687,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1988,7 +1991,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="O13" sqref="O13:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2001,7 @@
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2105,7 +2108,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="K4" s="143" t="s">
         <v>118</v>
@@ -2171,7 +2174,7 @@
       </c>
       <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H6" s="120" t="s">
         <v>17</v>
@@ -2180,7 +2183,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K6" s="143" t="s">
         <v>120</v>
@@ -2539,18 +2542,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="193"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="193"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2571,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="179">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2595,15 +2598,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="181">
+      <c r="K2" s="195">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="183">
+      <c r="L2" s="197">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="185">
+      <c r="M2" s="182">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="179"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2629,9 +2632,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="183"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2650,9 +2653,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="186"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="183"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2734,7 +2737,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="184">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2751,22 +2754,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="189">
+      <c r="K7" s="186">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="188">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="190">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="188"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2787,9 +2790,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="191"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2869,7 +2872,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="184">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2896,7 +2899,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2953,7 +2956,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187">
+      <c r="B14" s="184">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2976,7 +2979,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3000,7 +3003,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178">
+      <c r="B16" s="179">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3031,7 +3034,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3049,7 +3052,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178">
+      <c r="B18" s="179">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3138,7 +3141,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="197">
+      <c r="B21" s="177">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3166,7 +3169,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3306,7 +3309,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3359,7 +3362,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="195"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3406,11 +3409,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3419,11 +3422,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F4380-410B-4B3D-A1F2-38C281975590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D558B9-7FE9-4628-82A1-FB977AE12F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="148">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1232,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1636,26 +1636,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,25 +1696,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1991,7 +1988,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:O15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2024,7 @@
       </c>
       <c r="C2" s="169">
         <f>B3+B4</f>
-        <v>903</v>
+        <v>831</v>
       </c>
       <c r="E2" s="173" t="s">
         <v>145</v>
@@ -2089,7 +2086,7 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168"/>
       <c r="B4" s="34">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2097,7 +2094,9 @@
       <c r="E4" s="161">
         <v>10</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="37">
+        <v>10</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2120,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.4826388888888889</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="P4" s="154">
-        <v>0.87152777777777779</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>144</v>
@@ -2136,7 +2135,9 @@
       <c r="E5" s="133">
         <v>20</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>20</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2159,10 +2160,10 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.4826388888888889</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="P5" s="154">
-        <v>0.87152777777777779</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>144</v>
@@ -2172,7 +2173,9 @@
       <c r="E6" s="133">
         <v>5</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2195,10 +2198,10 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.4826388888888889</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="P6" s="154">
-        <v>0.87152777777777779</v>
+        <v>0.8208333333333333</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>144</v>
@@ -2251,7 +2254,9 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="33"/>
-      <c r="F8" s="37"/>
+      <c r="F8" s="37">
+        <v>10</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2273,8 +2278,12 @@
       <c r="M8" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="154"/>
-      <c r="P8" s="154"/>
+      <c r="N8" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="P8" s="154">
+        <v>0.8208333333333333</v>
+      </c>
       <c r="R8" s="25" t="s">
         <v>144</v>
       </c>
@@ -2285,10 +2294,12 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6097</v>
+        <v>6169</v>
       </c>
       <c r="E9" s="33"/>
-      <c r="F9" s="126"/>
+      <c r="F9" s="126">
+        <v>10</v>
+      </c>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2310,8 +2321,12 @@
       <c r="M9" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="154"/>
-      <c r="P9" s="78"/>
+      <c r="N9" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="P9" s="154">
+        <v>0.8208333333333333</v>
+      </c>
       <c r="R9" s="25" t="s">
         <v>144</v>
       </c>
@@ -2364,7 +2379,9 @@
         <v>0</v>
       </c>
       <c r="E11" s="140"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>2</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2386,7 +2403,9 @@
       <c r="M11" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="154"/>
+      <c r="N11" s="154">
+        <v>0.8208333333333333</v>
+      </c>
       <c r="P11" s="154">
         <v>0.78472222222222221</v>
       </c>
@@ -2401,7 +2420,7 @@
       <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2414,7 +2433,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6097</v>
+        <v>6169</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2516,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,18 +2561,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="193"/>
+      <c r="F1" s="176"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="192" t="s">
+      <c r="H1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="193"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2590,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="179">
+      <c r="B2" s="178">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2598,26 +2617,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="195">
+      <c r="K2" s="181">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="197">
+      <c r="L2" s="183">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="182">
+      <c r="M2" s="185">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J30)</f>
-        <v>6057</v>
+        <f>SUM(E2:J31)</f>
+        <v>6129</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="181"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2632,9 +2651,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="183"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2653,9 +2672,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="183"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2737,7 +2756,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="187">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2754,22 +2773,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="186">
+      <c r="K7" s="189">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="188">
+      <c r="L7" s="191">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="190">
+      <c r="M7" s="193">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="185"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2790,9 +2809,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="191"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2872,7 +2891,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="184">
+      <c r="B11" s="187">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2899,7 +2918,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="185"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2956,7 +2975,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="184">
+      <c r="B14" s="187">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2979,7 +2998,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3003,7 +3022,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="179">
+      <c r="B16" s="178">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3034,7 +3053,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="181"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3052,7 +3071,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="179">
+      <c r="B18" s="178">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3141,7 +3160,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="177">
+      <c r="B21" s="196">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3169,7 +3188,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="178"/>
+      <c r="B22" s="197"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3309,7 +3328,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="176"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3362,8 +3381,8 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
         <v>222</v>
@@ -3388,10 +3407,10 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="130">
+      <c r="B30" s="169">
         <v>19</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="142"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -3407,13 +3426,41 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="170"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
+        <v>20</v>
+      </c>
+      <c r="G31" s="18">
+        <v>20</v>
+      </c>
+      <c r="H31" s="18">
+        <v>20</v>
+      </c>
+      <c r="I31" s="18">
+        <v>10</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="19">
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3422,11 +3469,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D558B9-7FE9-4628-82A1-FB977AE12F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76307650-E213-45A5-A5E8-CE4565E1F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="149">
   <si>
     <t>UnSettled</t>
   </si>
@@ -480,13 +480,16 @@
   </si>
   <si>
     <t>Food /BeeHub</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +594,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1232,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1636,36 +1647,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,13 +1695,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1988,7 +2003,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2039,7 @@
       </c>
       <c r="C2" s="169">
         <f>B3+B4</f>
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="E2" s="173" t="s">
         <v>145</v>
@@ -2068,7 +2083,7 @@
       </c>
       <c r="T2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,7 +2101,7 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168"/>
       <c r="B4" s="34">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2094,9 +2109,7 @@
       <c r="E4" s="161">
         <v>10</v>
       </c>
-      <c r="F4" s="37">
-        <v>10</v>
-      </c>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P4" s="154">
         <v>0.8208333333333333</v>
@@ -2135,9 +2148,7 @@
       <c r="E5" s="133">
         <v>20</v>
       </c>
-      <c r="F5" s="126">
-        <v>20</v>
-      </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P5" s="154">
         <v>0.8208333333333333</v>
@@ -2171,11 +2182,9 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="133">
-        <v>5</v>
-      </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P6" s="154">
         <v>0.8208333333333333</v>
@@ -2215,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
@@ -2253,10 +2262,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="33"/>
-      <c r="F8" s="37">
-        <v>10</v>
-      </c>
+      <c r="E8" s="199">
+        <v>25</v>
+      </c>
+      <c r="F8" s="37"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2279,13 +2288,13 @@
         <v>69</v>
       </c>
       <c r="N8" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P8" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2294,12 +2303,12 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6169</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="126">
-        <v>10</v>
-      </c>
+        <v>6289</v>
+      </c>
+      <c r="E9" s="199">
+        <v>25</v>
+      </c>
+      <c r="F9" s="126"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2322,18 +2331,18 @@
         <v>64</v>
       </c>
       <c r="N9" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P9" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="33">
-        <v>70</v>
+      <c r="E10" s="140">
+        <v>10</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="9" t="s">
@@ -2358,7 +2367,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="154">
-        <v>0.4826388888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>126</v>
@@ -2378,10 +2387,10 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="37">
-        <v>2</v>
-      </c>
+      <c r="E11" s="140">
+        <v>10</v>
+      </c>
+      <c r="F11" s="37"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="N11" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="P11" s="154">
         <v>0.78472222222222221</v>
@@ -2420,7 +2429,7 @@
       <c r="F12" s="172"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2433,7 +2442,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6169</v>
+        <v>6289</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2535,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,18 +2570,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="192"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="192"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2617,26 +2626,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="181">
+      <c r="K2" s="194">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="183">
+      <c r="L2" s="196">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="185">
+      <c r="M2" s="181">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J31)</f>
-        <v>6129</v>
+        <f>SUM(E2:J32)</f>
+        <v>6249</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="179"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2651,13 +2660,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="180"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2672,9 +2681,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="186"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="182"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2756,7 +2765,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="187">
+      <c r="B7" s="183">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2773,22 +2782,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="189">
+      <c r="K7" s="185">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="191">
+      <c r="L7" s="187">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="189">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="188"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2809,9 +2818,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="190"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2891,7 +2900,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="187">
+      <c r="B11" s="183">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2918,7 +2927,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2975,7 +2984,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187">
+      <c r="B14" s="183">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -2998,7 +3007,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3053,7 +3062,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="179"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3100,7 +3109,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="180"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3160,7 +3169,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="196">
+      <c r="B21" s="176">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3188,7 +3197,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="197"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3328,7 +3337,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3453,13 +3462,38 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="130">
+        <v>20</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="198">
+        <v>50</v>
+      </c>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198">
+        <v>40</v>
+      </c>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198">
+        <v>30</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -3469,11 +3503,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3484,7 +3518,7 @@
   <dimension ref="A1:CG36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="R26" sqref="R26:AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5034,7 +5068,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5079,7 +5113,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5124,7 +5158,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5169,7 +5203,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6792,6 +6826,46 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
+      <c r="R26" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="S26" s="174"/>
+      <c r="T26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA26" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC26" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD26" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE26" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="136"/>
@@ -6806,6 +6880,18 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="101"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="2"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="25"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
@@ -6846,6 +6932,44 @@
       <c r="O28" s="101" t="s">
         <v>138</v>
       </c>
+      <c r="R28" s="161">
+        <v>10</v>
+      </c>
+      <c r="S28" s="37">
+        <v>10</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="W28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="X28" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y28" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z28" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="25" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="29" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="133">
@@ -6886,6 +7010,44 @@
       <c r="O29" s="101" t="s">
         <v>138</v>
       </c>
+      <c r="R29" s="133">
+        <v>20</v>
+      </c>
+      <c r="S29" s="126">
+        <v>20</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U29" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="W29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y29" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA29" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="25" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="133">
@@ -6925,6 +7087,44 @@
       <c r="N30" s="1"/>
       <c r="O30" s="101" t="s">
         <v>138</v>
+      </c>
+      <c r="R30" s="133">
+        <v>5</v>
+      </c>
+      <c r="S30" s="127">
+        <v>20</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="U30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="X30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y30" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA30" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6965,6 +7165,44 @@
       <c r="N31" s="1"/>
       <c r="O31" s="101" t="s">
         <v>138</v>
+      </c>
+      <c r="R31" s="140">
+        <v>5</v>
+      </c>
+      <c r="S31" s="127"/>
+      <c r="T31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="W31" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="X31" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y31" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA31" s="154">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC31" s="154">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7004,8 +7242,44 @@
       <c r="O32" s="101" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="33"/>
+      <c r="S32" s="37">
+        <v>10</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="V32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="W32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="X32" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z32" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA32" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="33"/>
       <c r="C33" s="126">
         <v>25</v>
@@ -7040,8 +7314,44 @@
       <c r="O33" s="101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="33"/>
+      <c r="S33" s="126">
+        <v>10</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U33" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="W33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y33" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z33" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA33" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33"/>
       <c r="C34" s="37">
         <v>12</v>
@@ -7078,8 +7388,46 @@
       <c r="O34" s="101" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="33">
+        <v>70</v>
+      </c>
+      <c r="S34" s="37"/>
+      <c r="T34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="W34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="X34" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y34" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z34" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA34" s="154">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC34" s="154">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="140">
         <v>100</v>
       </c>
@@ -7118,8 +7466,44 @@
       <c r="O35" s="101" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="140"/>
+      <c r="S35" s="37">
+        <v>2</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="U35" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="V35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="W35" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="X35" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z35" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="154">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="154">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="171" t="s">
         <v>4</v>
       </c>
@@ -7141,14 +7525,33 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
+      <c r="R36" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="172"/>
+      <c r="T36" s="9">
+        <f>SUM(R28:S35)</f>
+        <v>182</v>
+      </c>
+      <c r="U36" s="25"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="2"/>
+      <c r="Y36" s="30"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R36:S36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76307650-E213-45A5-A5E8-CE4565E1F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E451A87-B5D4-4D6D-B967-97F7F5C9BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="150">
   <si>
     <t>UnSettled</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>Rw- BBSR</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,6 +1617,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,23 +1653,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,31 +1713,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,7 +2009,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,7 +2020,7 @@
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2037,14 +2043,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="170">
         <f>B3+B4</f>
-        <v>711</v>
-      </c>
-      <c r="E2" s="173" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="174"/>
+      <c r="F2" s="175"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2087,21 +2093,19 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="34">
-        <v>500</v>
-      </c>
-      <c r="C3" s="170"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="34">
-        <v>211</v>
+        <v>471</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2109,7 +2113,9 @@
       <c r="E4" s="161">
         <v>10</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="37">
+        <v>10</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2132,13 +2138,13 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="P4" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,7 +2154,9 @@
       <c r="E5" s="133">
         <v>20</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>20</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2171,20 +2179,22 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="P5" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="133">
         <v>10</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2207,13 +2217,13 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="P6" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,7 +2236,9 @@
       <c r="E7" s="140">
         <v>10</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>137</v>
       </c>
       <c r="K7" s="143" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="L7" s="149" t="s">
         <v>85</v>
@@ -2249,7 +2261,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="154">
-        <v>0.4826388888888889</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
@@ -2258,11 +2270,11 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="199">
+      <c r="E8" s="164">
         <v>25</v>
       </c>
       <c r="F8" s="37"/>
@@ -2303,12 +2315,14 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6289</v>
-      </c>
-      <c r="E9" s="199">
+        <v>6529</v>
+      </c>
+      <c r="E9" s="164">
         <v>25</v>
       </c>
-      <c r="F9" s="126"/>
+      <c r="F9" s="126">
+        <v>10</v>
+      </c>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>64</v>
       </c>
       <c r="N9" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="P9" s="154">
         <v>0.8208333333333333</v>
@@ -2344,7 +2358,9 @@
       <c r="E10" s="140">
         <v>10</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37">
+        <v>70</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>126</v>
@@ -2376,7 +2392,7 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2390,7 +2406,9 @@
       <c r="E11" s="140">
         <v>10</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37">
+        <v>100</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2413,23 +2431,23 @@
         <v>66</v>
       </c>
       <c r="N11" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="P11" s="154">
-        <v>0.78472222222222221</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="172"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2442,15 +2460,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6289</v>
+        <v>6529</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
-      <c r="J13" s="164"/>
+      <c r="J13" s="165"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="167"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2458,11 +2476,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
-      <c r="J14" s="164"/>
+      <c r="J14" s="165"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="167"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2476,12 +2494,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
-      <c r="J15" s="164"/>
+      <c r="J15" s="165"/>
       <c r="K15" s="119"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="167"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2500,8 +2518,8 @@
       <c r="I17" s="119"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="167"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2514,14 +2532,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="164"/>
+      <c r="J18" s="165"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="167"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="164"/>
+      <c r="J19" s="165"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
@@ -2544,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,6 +2578,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,18 +2589,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="192"/>
+      <c r="F1" s="177"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="191" t="s">
+      <c r="H1" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="193"/>
-      <c r="J1" s="192"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="177"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2599,7 +2618,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178">
+      <c r="B2" s="179">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2626,21 +2645,21 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="194">
+      <c r="K2" s="182">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="196">
+      <c r="L2" s="184">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="181">
+      <c r="M2" s="186">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J32)</f>
-        <v>6249</v>
+        <f>SUM(E2:J33)</f>
+        <v>6489</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2660,13 +2679,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="182"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="187"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="179"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2681,9 +2700,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="182"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="187"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2765,7 +2784,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="188">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2782,22 +2801,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="185">
+      <c r="K7" s="190">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="187">
+      <c r="L7" s="192">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="189">
+      <c r="M7" s="194">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="184"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2818,9 +2837,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="186"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="190"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2900,7 +2919,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="183">
+      <c r="B11" s="188">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2927,7 +2946,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="184"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2984,7 +3003,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="183">
+      <c r="B14" s="188">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3007,7 +3026,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3031,7 +3050,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178">
+      <c r="B16" s="179">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3080,7 +3099,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178">
+      <c r="B18" s="179">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3109,7 +3128,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="179"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3169,7 +3188,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="176">
+      <c r="B21" s="197">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3197,7 +3216,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="177"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3249,7 +3268,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="169">
+      <c r="B24" s="170">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3278,7 +3297,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="170"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3306,7 +3325,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="169">
+      <c r="B26" s="170">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3337,7 +3356,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="175"/>
+      <c r="B27" s="196"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3368,7 +3387,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="169">
+      <c r="B28" s="170">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3390,7 +3409,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="170"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3416,7 +3435,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="169">
+      <c r="B30" s="170">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3439,7 +3458,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="170"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3466,34 +3485,59 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="130">
+      <c r="B32" s="170">
         <v>20</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="198">
+      <c r="F32" s="18">
         <v>50</v>
       </c>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18">
         <v>40</v>
       </c>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198">
+      <c r="I32" s="18"/>
+      <c r="J32" s="18">
         <v>30</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="199"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="200">
+        <v>100</v>
+      </c>
+      <c r="G33" s="200">
+        <v>70</v>
+      </c>
+      <c r="H33" s="200">
+        <v>30</v>
+      </c>
+      <c r="I33" s="200">
+        <v>20</v>
+      </c>
+      <c r="J33" s="200">
+        <v>20</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="20">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -3503,11 +3547,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6714,10 +6758,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="171" t="s">
+      <c r="AG24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="172"/>
+      <c r="AH24" s="173"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6737,10 +6781,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="171" t="s">
+      <c r="AZ24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="172"/>
+      <c r="BA24" s="173"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6760,10 +6804,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="171" t="s">
+      <c r="BR24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="172"/>
+      <c r="BS24" s="173"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -6786,10 +6830,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="174"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6826,10 +6870,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="173" t="s">
+      <c r="R26" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="174"/>
+      <c r="S26" s="175"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7504,10 +7548,10 @@
       </c>
     </row>
     <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="172"/>
+      <c r="C36" s="173"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -7525,10 +7569,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="171" t="s">
+      <c r="R36" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="172"/>
+      <c r="S36" s="173"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E451A87-B5D4-4D6D-B967-97F7F5C9BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914D097-C51B-4947-8C58-BB8C3C71AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="150">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1246,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,36 +1653,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1713,18 +1704,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,7 +2027,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2063,7 @@
       </c>
       <c r="C2" s="170">
         <f>B3+B4</f>
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="E2" s="174" t="s">
         <v>145</v>
@@ -2089,7 +2107,7 @@
       </c>
       <c r="T2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2105,17 +2123,13 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="169"/>
       <c r="B4" s="34">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="161">
-        <v>10</v>
-      </c>
-      <c r="F4" s="37">
-        <v>10</v>
-      </c>
+      <c r="E4" s="161"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2152,11 +2166,9 @@
         <v>-2</v>
       </c>
       <c r="E5" s="133">
-        <v>20</v>
-      </c>
-      <c r="F5" s="126">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2189,12 +2201,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="133">
-        <v>10</v>
-      </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+      <c r="E6" s="133"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2233,12 +2241,8 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140">
-        <v>10</v>
-      </c>
-      <c r="F7" s="127">
-        <v>10</v>
-      </c>
+      <c r="E7" s="140"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2315,14 +2319,10 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6529</v>
-      </c>
-      <c r="E9" s="164">
-        <v>25</v>
-      </c>
-      <c r="F9" s="126">
-        <v>10</v>
-      </c>
+        <v>6579</v>
+      </c>
+      <c r="E9" s="164"/>
+      <c r="F9" s="126"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2355,12 +2355,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="140">
-        <v>10</v>
-      </c>
-      <c r="F10" s="37">
-        <v>70</v>
-      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2403,12 +2399,8 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="140">
-        <v>10</v>
-      </c>
-      <c r="F11" s="37">
-        <v>100</v>
-      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2447,7 +2439,7 @@
       <c r="F12" s="173"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2460,7 +2452,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6529</v>
+        <v>6579</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2562,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,18 +2581,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="177"/>
+      <c r="F1" s="194"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="177"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="194"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2610,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="179">
+      <c r="B2" s="180">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2645,26 +2637,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="182">
+      <c r="K2" s="196">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="184">
+      <c r="L2" s="198">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="186">
+      <c r="M2" s="183">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J33)</f>
-        <v>6489</v>
+        <f>SUM(E2:J34)</f>
+        <v>6539</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="180"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2679,9 +2671,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="187"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="184"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2700,9 +2692,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="187"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="184"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2784,7 +2776,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="185">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2801,22 +2793,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="190">
+      <c r="K7" s="187">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="192">
+      <c r="L7" s="189">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="194">
+      <c r="M7" s="191">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="189"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2837,9 +2829,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="192"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2919,7 +2911,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="188">
+      <c r="B11" s="185">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2946,7 +2938,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="189"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3003,7 +2995,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="188">
+      <c r="B14" s="185">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3026,7 +3018,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3050,7 +3042,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="179">
+      <c r="B16" s="180">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3081,7 +3073,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="180"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3099,7 +3091,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="179">
+      <c r="B18" s="180">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3188,7 +3180,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="197">
+      <c r="B21" s="178">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3216,7 +3208,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3356,7 +3348,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3507,36 +3499,54 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="199"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="200">
+      <c r="F33" s="18">
         <v>100</v>
       </c>
-      <c r="G33" s="200">
+      <c r="G33" s="18">
         <v>70</v>
       </c>
-      <c r="H33" s="200">
+      <c r="H33" s="18">
         <v>30</v>
       </c>
-      <c r="I33" s="200">
+      <c r="I33" s="18">
         <v>20</v>
       </c>
-      <c r="J33" s="200">
+      <c r="J33" s="18">
         <v>20</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="130">
+        <v>21</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="208">
+        <v>50</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3547,11 +3557,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3561,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:AE36"/>
+    <sheetView topLeftCell="AC19" workbookViewId="0">
+      <selection activeCell="AS37" sqref="AS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,7 +5122,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5157,7 +5167,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5202,7 +5212,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5247,7 +5257,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6910,6 +6920,46 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
+      <c r="AG26" s="174" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN26" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO26" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP26" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR26" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS26" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT26" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="136"/>
@@ -6924,18 +6974,34 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="101"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="2"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="2"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="25"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="200"/>
+      <c r="T27" s="201"/>
+      <c r="U27" s="202"/>
+      <c r="V27" s="203"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="201"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="204"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="204"/>
+      <c r="AE27" s="101"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="200"/>
+      <c r="AI27" s="201"/>
+      <c r="AJ27" s="202"/>
+      <c r="AK27" s="203"/>
+      <c r="AL27" s="200"/>
+      <c r="AM27" s="201"/>
+      <c r="AN27" s="204"/>
+      <c r="AO27" s="204"/>
+      <c r="AP27" s="205"/>
+      <c r="AQ27" s="204"/>
+      <c r="AR27" s="204"/>
+      <c r="AS27" s="204"/>
+      <c r="AT27" s="101"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
@@ -7003,16 +7069,54 @@
       <c r="Z28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AA28" s="154">
+      <c r="AA28" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="154">
+      <c r="AB28" s="204"/>
+      <c r="AC28" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="25" t="s">
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="101" t="s">
         <v>144</v>
+      </c>
+      <c r="AG28" s="161">
+        <v>10</v>
+      </c>
+      <c r="AH28" s="37">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK28" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM28" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN28" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO28" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ28" s="204"/>
+      <c r="AR28" s="206">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AS28" s="204"/>
+      <c r="AT28" s="101" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7081,16 +7185,54 @@
       <c r="Z29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="AA29" s="154">
+      <c r="AA29" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="154">
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="25" t="s">
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="101" t="s">
         <v>144</v>
+      </c>
+      <c r="AG29" s="133">
+        <v>20</v>
+      </c>
+      <c r="AH29" s="126">
+        <v>20</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ29" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK29" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM29" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN29" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP29" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="206">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AS29" s="204"/>
+      <c r="AT29" s="101" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7138,7 +7280,7 @@
       <c r="S30" s="127">
         <v>20</v>
       </c>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="207" t="s">
         <v>147</v>
       </c>
       <c r="U30" s="120" t="s">
@@ -7159,16 +7301,54 @@
       <c r="Z30" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AA30" s="154">
+      <c r="AA30" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="154">
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="25" t="s">
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="101" t="s">
         <v>144</v>
+      </c>
+      <c r="AG30" s="133">
+        <v>10</v>
+      </c>
+      <c r="AH30" s="127">
+        <v>20</v>
+      </c>
+      <c r="AI30" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK30" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL30" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN30" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP30" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="206">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AS30" s="204"/>
+      <c r="AT30" s="101" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7235,18 +7415,58 @@
       <c r="Z31" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="AA31" s="154">
+      <c r="AA31" s="206">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AB31" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="AC31" s="154">
+      <c r="AC31" s="206">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="25" t="s">
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="101" t="s">
         <v>144</v>
+      </c>
+      <c r="AG31" s="140">
+        <v>10</v>
+      </c>
+      <c r="AH31" s="127">
+        <v>10</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ31" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL31" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM31" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN31" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP31" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ31" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR31" s="206">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="AS31" s="204"/>
+      <c r="AT31" s="101" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7311,19 +7531,55 @@
       <c r="Z32" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="AA32" s="154">
+      <c r="AA32" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="154">
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="25" t="s">
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG32" s="164">
+        <v>25</v>
+      </c>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM32" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN32" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO32" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP32" s="206">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="AQ32" s="204"/>
+      <c r="AR32" s="206">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AS32" s="204"/>
+      <c r="AT32" s="101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="33"/>
       <c r="C33" s="126">
         <v>25</v>
@@ -7383,19 +7639,57 @@
       <c r="Z33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AA33" s="154">
+      <c r="AA33" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="154">
+      <c r="AB33" s="204"/>
+      <c r="AC33" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="25" t="s">
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG33" s="164">
+        <v>25</v>
+      </c>
+      <c r="AH33" s="126">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ33" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM33" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN33" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO33" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP33" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ33" s="204"/>
+      <c r="AR33" s="206">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="AS33" s="204"/>
+      <c r="AT33" s="101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33"/>
       <c r="C34" s="37">
         <v>12</v>
@@ -7457,21 +7751,61 @@
       <c r="Z34" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AA34" s="154">
+      <c r="AA34" s="206">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AB34" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="AC34" s="154">
+      <c r="AC34" s="206">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="25" t="s">
+      <c r="AD34" s="204"/>
+      <c r="AE34" s="101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG34" s="140">
+        <v>10</v>
+      </c>
+      <c r="AH34" s="37">
+        <v>70</v>
+      </c>
+      <c r="AI34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK34" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM34" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN34" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO34" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP34" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ34" s="204" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR34" s="206">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="AS34" s="204"/>
+      <c r="AT34" s="101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="140">
         <v>100</v>
       </c>
@@ -7535,19 +7869,57 @@
       <c r="Z35" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA35" s="154">
+      <c r="AA35" s="206">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="154">
+      <c r="AB35" s="204"/>
+      <c r="AC35" s="206">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="25" t="s">
+      <c r="AD35" s="204"/>
+      <c r="AE35" s="101" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG35" s="140">
+        <v>10</v>
+      </c>
+      <c r="AH35" s="37">
+        <v>100</v>
+      </c>
+      <c r="AI35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ35" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL35" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM35" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN35" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO35" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP35" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AQ35" s="204"/>
+      <c r="AR35" s="206">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AS35" s="204"/>
+      <c r="AT35" s="101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="172" t="s">
         <v>4</v>
       </c>
@@ -7577,18 +7949,43 @@
         <f>SUM(R28:S35)</f>
         <v>182</v>
       </c>
-      <c r="U36" s="25"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="2"/>
-      <c r="Y36" s="30"/>
-      <c r="AA36" s="155"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="25"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="138"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="158"/>
+      <c r="AB36" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="102"/>
+      <c r="AG36" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="173"/>
+      <c r="AI36" s="9">
+        <f>SUM(AG28:AH35)</f>
+        <v>360</v>
+      </c>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="137"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="138"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="158"/>
+      <c r="AQ36" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
@@ -7596,6 +7993,8 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R36:S36"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG36:AH36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914D097-C51B-4947-8C58-BB8C3C71AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C9733-43D2-40DA-A050-ABAE00B89C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="151">
   <si>
     <t>UnSettled</t>
   </si>
@@ -486,13 +486,16 @@
   </si>
   <si>
     <t>Rw- BBSR</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +608,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1246,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1620,6 +1639,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,26 +1675,50 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1704,46 +1750,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,7 +2039,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,8 +2047,8 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
@@ -2061,14 +2073,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="170">
+      <c r="C2" s="171">
         <f>B3+B4</f>
-        <v>421</v>
-      </c>
-      <c r="E2" s="174" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="175"/>
+      <c r="F2" s="176"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2111,25 +2123,27 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="169" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="171"/>
+      <c r="C3" s="172"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="169"/>
+      <c r="A4" s="170"/>
       <c r="B4" s="34">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="161"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="165">
+        <v>10</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>94</v>
@@ -2152,13 +2166,13 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P4" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2182,9 @@
       <c r="E5" s="133">
         <v>25</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>30</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2191,18 +2207,20 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P5" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="133"/>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2225,13 +2243,13 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P6" s="154">
         <v>0.8208333333333333</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2260,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="140"/>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2285,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
@@ -2274,14 +2294,16 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="164">
         <v>25</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="177">
+        <v>70</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2307,10 +2329,10 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="P8" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2319,10 +2341,10 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6579</v>
+        <v>6729</v>
       </c>
       <c r="E9" s="164"/>
-      <c r="F9" s="126"/>
+      <c r="F9" s="178"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2345,18 +2367,18 @@
         <v>64</v>
       </c>
       <c r="N9" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P9" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="140"/>
-      <c r="F10" s="37"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2401,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>126</v>
@@ -2388,7 +2410,7 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2400,7 +2422,9 @@
         <v>0</v>
       </c>
       <c r="E11" s="140"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="165">
+        <v>10</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2423,23 +2447,23 @@
         <v>66</v>
       </c>
       <c r="N11" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P11" s="154">
         <v>0.80555555555555547</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="173"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2452,15 +2476,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6579</v>
+        <v>6729</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
-      <c r="J13" s="165"/>
+      <c r="J13" s="166"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="168"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2468,11 +2492,11 @@
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
-      <c r="J14" s="165"/>
+      <c r="J14" s="166"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="168"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2486,12 +2510,12 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
-      <c r="J15" s="165"/>
+      <c r="J15" s="166"/>
       <c r="K15" s="119"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="167"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="168"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2510,8 +2534,8 @@
       <c r="I17" s="119"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="167"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="168"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2524,19 +2548,19 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="165"/>
+      <c r="J18" s="166"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="168"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="165"/>
+      <c r="J19" s="166"/>
       <c r="L19"/>
       <c r="M19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
@@ -2547,6 +2571,7 @@
     <mergeCell ref="O13:O15"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2556,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,18 +2606,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="193" t="s">
+      <c r="E1" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="194"/>
+      <c r="F1" s="181"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="193" t="s">
+      <c r="H1" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="195"/>
-      <c r="J1" s="194"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="181"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2635,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="180">
+      <c r="B2" s="183">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2637,26 +2662,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="196">
+      <c r="K2" s="186">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="198">
+      <c r="L2" s="188">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="183">
+      <c r="M2" s="192">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
         <f>SUM(E2:J34)</f>
-        <v>6539</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="182"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2671,13 +2696,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="184"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="181"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2692,9 +2717,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="184"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="193"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2776,7 +2801,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="194">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2793,22 +2818,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="187">
+      <c r="K7" s="196">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="189">
+      <c r="L7" s="198">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="191">
+      <c r="M7" s="200">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="186"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2829,9 +2854,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="192"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="201"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2911,7 +2936,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11" s="194">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2938,7 +2963,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="186"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -2995,7 +3020,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="185">
+      <c r="B14" s="194">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3018,7 +3043,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="195"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3042,7 +3067,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="180">
+      <c r="B16" s="183">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3073,7 +3098,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="182"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3091,7 +3116,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="180">
+      <c r="B18" s="183">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3120,7 +3145,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="181"/>
+      <c r="B19" s="185"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3180,7 +3205,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="178">
+      <c r="B21" s="190">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3208,7 +3233,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="179"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3260,7 +3285,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="170">
+      <c r="B24" s="171">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3289,7 +3314,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="171"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3317,7 +3342,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="170">
+      <c r="B26" s="171">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3348,7 +3373,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="177"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3379,7 +3404,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="170">
+      <c r="B28" s="171">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3401,7 +3426,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3427,7 +3452,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="170">
+      <c r="B30" s="171">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3450,7 +3475,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="171"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3477,7 +3502,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="170">
+      <c r="B32" s="171">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3499,7 +3524,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="176"/>
+      <c r="B33" s="202"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3529,24 +3554,32 @@
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="208">
+      <c r="F34" s="18">
         <v>50</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="G34" s="18">
+        <v>70</v>
+      </c>
+      <c r="H34" s="18">
+        <v>30</v>
+      </c>
+      <c r="I34" s="18">
+        <v>20</v>
+      </c>
+      <c r="J34" s="18">
+        <v>30</v>
+      </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3557,11 +3590,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6768,10 +6801,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="172" t="s">
+      <c r="AG24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="173"/>
+      <c r="AH24" s="174"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6791,10 +6824,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="172" t="s">
+      <c r="AZ24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="173"/>
+      <c r="BA24" s="174"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6814,10 +6847,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="172" t="s">
+      <c r="BR24" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="173"/>
+      <c r="BS24" s="174"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -6840,10 +6873,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="175"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6880,10 +6913,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="174" t="s">
+      <c r="R26" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="175"/>
+      <c r="S26" s="176"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6920,10 +6953,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="174" t="s">
+      <c r="AG26" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="175"/>
+      <c r="AH26" s="176"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6975,32 +7008,28 @@
       <c r="N27" s="1"/>
       <c r="O27" s="101"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="200"/>
-      <c r="T27" s="201"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="203"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="204"/>
-      <c r="Z27" s="204"/>
-      <c r="AA27" s="205"/>
-      <c r="AB27" s="204"/>
-      <c r="AC27" s="204"/>
-      <c r="AD27" s="204"/>
+      <c r="S27" s="2"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="2"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="101"/>
       <c r="AG27" s="136"/>
-      <c r="AH27" s="200"/>
-      <c r="AI27" s="201"/>
-      <c r="AJ27" s="202"/>
-      <c r="AK27" s="203"/>
-      <c r="AL27" s="200"/>
-      <c r="AM27" s="201"/>
-      <c r="AN27" s="204"/>
-      <c r="AO27" s="204"/>
-      <c r="AP27" s="205"/>
-      <c r="AQ27" s="204"/>
-      <c r="AR27" s="204"/>
-      <c r="AS27" s="204"/>
+      <c r="AH27" s="2"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="2"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="152"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
       <c r="AT27" s="101"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7069,14 +7098,14 @@
       <c r="Z28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AA28" s="206">
+      <c r="AA28" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB28" s="204"/>
-      <c r="AC28" s="206">
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD28" s="204"/>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="101" t="s">
         <v>144</v>
       </c>
@@ -7107,14 +7136,14 @@
       <c r="AO28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AP28" s="206">
+      <c r="AP28" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ28" s="204"/>
-      <c r="AR28" s="206">
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AS28" s="204"/>
+      <c r="AS28" s="1"/>
       <c r="AT28" s="101" t="s">
         <v>148</v>
       </c>
@@ -7185,14 +7214,14 @@
       <c r="Z29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="AA29" s="206">
+      <c r="AA29" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB29" s="204"/>
-      <c r="AC29" s="206">
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD29" s="204"/>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="101" t="s">
         <v>144</v>
       </c>
@@ -7223,14 +7252,14 @@
       <c r="AO29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="AP29" s="206">
+      <c r="AP29" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ29" s="204"/>
-      <c r="AR29" s="206">
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AS29" s="204"/>
+      <c r="AS29" s="1"/>
       <c r="AT29" s="101" t="s">
         <v>148</v>
       </c>
@@ -7280,7 +7309,7 @@
       <c r="S30" s="127">
         <v>20</v>
       </c>
-      <c r="T30" s="207" t="s">
+      <c r="T30" s="28" t="s">
         <v>147</v>
       </c>
       <c r="U30" s="120" t="s">
@@ -7301,14 +7330,14 @@
       <c r="Z30" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AA30" s="206">
+      <c r="AA30" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="206">
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD30" s="204"/>
+      <c r="AD30" s="1"/>
       <c r="AE30" s="101" t="s">
         <v>144</v>
       </c>
@@ -7318,7 +7347,7 @@
       <c r="AH30" s="127">
         <v>20</v>
       </c>
-      <c r="AI30" s="207" t="s">
+      <c r="AI30" s="28" t="s">
         <v>147</v>
       </c>
       <c r="AJ30" s="120" t="s">
@@ -7339,14 +7368,14 @@
       <c r="AO30" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AP30" s="206">
+      <c r="AP30" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ30" s="204"/>
-      <c r="AR30" s="206">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AS30" s="204"/>
+      <c r="AS30" s="1"/>
       <c r="AT30" s="101" t="s">
         <v>148</v>
       </c>
@@ -7415,16 +7444,16 @@
       <c r="Z31" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="AA31" s="206">
+      <c r="AA31" s="154">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AB31" s="204" t="s">
+      <c r="AB31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC31" s="206">
+      <c r="AC31" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AD31" s="204"/>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="101" t="s">
         <v>144</v>
       </c>
@@ -7455,16 +7484,16 @@
       <c r="AO31" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="AP31" s="206">
+      <c r="AP31" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ31" s="204" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AR31" s="206">
+      <c r="AR31" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AS31" s="204"/>
+      <c r="AS31" s="1"/>
       <c r="AT31" s="101" t="s">
         <v>148</v>
       </c>
@@ -7531,14 +7560,14 @@
       <c r="Z32" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="AA32" s="206">
+      <c r="AA32" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB32" s="204"/>
-      <c r="AC32" s="206">
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD32" s="204"/>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="101" t="s">
         <v>144</v>
       </c>
@@ -7567,14 +7596,14 @@
       <c r="AO32" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="AP32" s="206">
+      <c r="AP32" s="154">
         <v>0.4861111111111111</v>
       </c>
-      <c r="AQ32" s="204"/>
-      <c r="AR32" s="206">
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AS32" s="204"/>
+      <c r="AS32" s="1"/>
       <c r="AT32" s="101" t="s">
         <v>148</v>
       </c>
@@ -7639,14 +7668,14 @@
       <c r="Z33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AA33" s="206">
+      <c r="AA33" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB33" s="204"/>
-      <c r="AC33" s="206">
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AD33" s="204"/>
+      <c r="AD33" s="1"/>
       <c r="AE33" s="101" t="s">
         <v>144</v>
       </c>
@@ -7677,14 +7706,14 @@
       <c r="AO33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="AP33" s="206">
+      <c r="AP33" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ33" s="204"/>
-      <c r="AR33" s="206">
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AS33" s="204"/>
+      <c r="AS33" s="1"/>
       <c r="AT33" s="101" t="s">
         <v>148</v>
       </c>
@@ -7751,16 +7780,16 @@
       <c r="Z34" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AA34" s="206">
+      <c r="AA34" s="154">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AB34" s="204" t="s">
+      <c r="AB34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AC34" s="206">
+      <c r="AC34" s="154">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AD34" s="204"/>
+      <c r="AD34" s="1"/>
       <c r="AE34" s="101" t="s">
         <v>144</v>
       </c>
@@ -7791,16 +7820,16 @@
       <c r="AO34" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="AP34" s="206">
+      <c r="AP34" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ34" s="204" t="s">
+      <c r="AQ34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AR34" s="206">
+      <c r="AR34" s="154">
         <v>0.4826388888888889</v>
       </c>
-      <c r="AS34" s="204"/>
+      <c r="AS34" s="1"/>
       <c r="AT34" s="101" t="s">
         <v>148</v>
       </c>
@@ -7869,14 +7898,14 @@
       <c r="Z35" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AA35" s="206">
+      <c r="AA35" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="AB35" s="204"/>
-      <c r="AC35" s="206">
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="AD35" s="204"/>
+      <c r="AD35" s="1"/>
       <c r="AE35" s="101" t="s">
         <v>144</v>
       </c>
@@ -7907,23 +7936,23 @@
       <c r="AO35" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AP35" s="206">
+      <c r="AP35" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AQ35" s="204"/>
-      <c r="AR35" s="206">
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="AS35" s="204"/>
+      <c r="AS35" s="1"/>
       <c r="AT35" s="101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="173"/>
+      <c r="C36" s="174"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -7941,10 +7970,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="172" t="s">
+      <c r="R36" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="173"/>
+      <c r="S36" s="174"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -7962,10 +7991,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="172" t="s">
+      <c r="AG36" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="173"/>
+      <c r="AH36" s="174"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C9733-43D2-40DA-A050-ABAE00B89C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B5B13-A161-4EC1-8D78-57F12614F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="153">
   <si>
     <t>UnSettled</t>
   </si>
@@ -489,13 +489,19 @@
   </si>
   <si>
     <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>23/12/2023</t>
+  </si>
+  <si>
+    <t>Bol News</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +630,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1265,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,42 +1698,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,11 +1746,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2039,7 +2075,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J13" sqref="J13:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2096,7 @@
     <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="24" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2075,7 +2111,7 @@
       </c>
       <c r="C2" s="171">
         <f>B3+B4</f>
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="E2" s="175" t="s">
         <v>145</v>
@@ -2114,12 +2150,12 @@
       <c r="Q2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="36" t="s">
         <v>108</v>
       </c>
       <c r="T2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2135,15 +2171,15 @@
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
       <c r="B4" s="34">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="165">
+      <c r="E4" s="140">
         <v>10</v>
       </c>
+      <c r="F4" s="165"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2166,12 +2202,12 @@
         <v>30</v>
       </c>
       <c r="N4" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P4" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="24" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2179,12 +2215,10 @@
       <c r="D5" s="157">
         <v>-2</v>
       </c>
-      <c r="E5" s="133">
-        <v>25</v>
-      </c>
-      <c r="F5" s="126">
-        <v>30</v>
-      </c>
+      <c r="E5" s="213">
+        <v>10</v>
+      </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2207,20 +2241,20 @@
         <v>86</v>
       </c>
       <c r="N5" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P5" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="133"/>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+      <c r="E6" s="213">
+        <v>10</v>
+      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2243,12 +2277,12 @@
         <v>64</v>
       </c>
       <c r="N6" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P6" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2259,10 +2293,10 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="127">
+      <c r="E7" s="140">
         <v>10</v>
       </c>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>130</v>
@@ -2293,17 +2327,15 @@
       <c r="P7" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="164">
-        <v>25</v>
-      </c>
-      <c r="F8" s="177">
-        <v>70</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F8" s="177"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2326,13 +2358,13 @@
         <v>69</v>
       </c>
       <c r="N8" s="154">
-        <v>0.4861111111111111</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P8" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R8" s="25" t="s">
-        <v>150</v>
+      <c r="R8" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2341,9 +2373,11 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6729</v>
-      </c>
-      <c r="E9" s="164"/>
+        <v>6909</v>
+      </c>
+      <c r="E9" s="140">
+        <v>10</v>
+      </c>
       <c r="F9" s="178"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
@@ -2355,7 +2389,7 @@
         <v>115</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="K9" s="143" t="s">
         <v>129</v>
@@ -2367,17 +2401,19 @@
         <v>64</v>
       </c>
       <c r="N9" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P9" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>150</v>
+      <c r="R9" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="140"/>
+      <c r="E10" s="212">
+        <v>70</v>
+      </c>
       <c r="F10" s="179"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
@@ -2401,16 +2437,16 @@
         <v>66</v>
       </c>
       <c r="N10" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="P10" s="154">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>150</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2421,10 +2457,10 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="165">
+      <c r="E11" s="140">
         <v>10</v>
       </c>
+      <c r="F11" s="165"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2435,7 +2471,7 @@
         <v>116</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K11" s="143" t="s">
         <v>110</v>
@@ -2447,12 +2483,12 @@
         <v>66</v>
       </c>
       <c r="N11" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="P11" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="24" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2463,7 +2499,7 @@
       <c r="F12" s="174"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12"/>
@@ -2476,7 +2512,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6729</v>
+        <v>6909</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2579,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,18 +2642,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="180" t="s">
+      <c r="E1" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="181"/>
+      <c r="F1" s="197"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="180" t="s">
+      <c r="H1" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="182"/>
-      <c r="J1" s="181"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="197"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2662,26 +2698,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="186">
+      <c r="K2" s="199">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="188">
+      <c r="L2" s="201">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="192">
+      <c r="M2" s="186">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J34)</f>
-        <v>6689</v>
+        <f>SUM(E2:J35)</f>
+        <v>6869</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="184"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2696,13 +2732,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="193"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="187"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="185"/>
+      <c r="B4" s="184"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2717,9 +2753,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="193"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="187"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2801,7 +2837,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="194">
+      <c r="B7" s="188">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2818,22 +2854,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="196">
+      <c r="K7" s="190">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="198">
+      <c r="L7" s="192">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="200">
+      <c r="M7" s="194">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="195"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2854,9 +2890,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="197"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="201"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="195"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2936,7 +2972,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="194">
+      <c r="B11" s="188">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2963,7 +2999,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="195"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3020,7 +3056,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="194">
+      <c r="B14" s="188">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3043,7 +3079,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="195"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3098,7 +3134,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="184"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3145,7 +3181,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="185"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3205,7 +3241,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="190">
+      <c r="B21" s="181">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3233,7 +3269,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="191"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3373,7 +3409,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="203"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3524,8 +3560,8 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="202"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18">
@@ -3548,38 +3584,62 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="130">
+      <c r="B34" s="34">
         <v>21</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18">
+      <c r="C34" s="96"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82">
         <v>50</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="82">
         <v>70</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="82">
         <v>30</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="82">
         <v>20</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="82">
         <v>30</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="34">
+        <v>22</v>
+      </c>
+      <c r="C35" s="142"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="211">
+        <v>50</v>
+      </c>
+      <c r="G35" s="211">
+        <v>70</v>
+      </c>
+      <c r="H35" s="211">
+        <v>40</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="211">
+        <v>20</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3590,11 +3650,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3604,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="AC19" workbookViewId="0">
-      <selection activeCell="AS37" sqref="AS37"/>
+    <sheetView topLeftCell="AS19" workbookViewId="0">
+      <selection activeCell="BH38" sqref="BH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,7 +5215,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5200,7 +5260,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5245,7 +5305,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5290,7 +5350,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6993,6 +7053,46 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
+      <c r="AW26" s="175" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX26" s="176"/>
+      <c r="AY26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD26" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE26" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF26" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH26" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI26" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ26" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="136"/>
@@ -7031,6 +7131,20 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="101"/>
+      <c r="AW27" s="136"/>
+      <c r="AX27" s="203"/>
+      <c r="AY27" s="204"/>
+      <c r="AZ27" s="205"/>
+      <c r="BA27" s="206"/>
+      <c r="BB27" s="203"/>
+      <c r="BC27" s="204"/>
+      <c r="BD27" s="207"/>
+      <c r="BE27" s="207"/>
+      <c r="BF27" s="208"/>
+      <c r="BG27" s="207"/>
+      <c r="BH27" s="207"/>
+      <c r="BI27" s="207"/>
+      <c r="BJ27" s="101"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
@@ -7147,6 +7261,42 @@
       <c r="AT28" s="101" t="s">
         <v>148</v>
       </c>
+      <c r="AW28" s="161"/>
+      <c r="AX28" s="165">
+        <v>10</v>
+      </c>
+      <c r="AY28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA28" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC28" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD28" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE28" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF28" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG28" s="207"/>
+      <c r="BH28" s="209">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="BI28" s="207"/>
+      <c r="BJ28" s="101" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="133">
@@ -7263,6 +7413,44 @@
       <c r="AT29" s="101" t="s">
         <v>148</v>
       </c>
+      <c r="AW29" s="133">
+        <v>25</v>
+      </c>
+      <c r="AX29" s="126">
+        <v>30</v>
+      </c>
+      <c r="AY29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ29" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA29" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC29" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD29" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF29" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG29" s="207"/>
+      <c r="BH29" s="209">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="BI29" s="207"/>
+      <c r="BJ29" s="101" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="30" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="133">
@@ -7378,6 +7566,42 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="101" t="s">
         <v>148</v>
+      </c>
+      <c r="AW30" s="133"/>
+      <c r="AX30" s="127">
+        <v>20</v>
+      </c>
+      <c r="AY30" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA30" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB30" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD30" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF30" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG30" s="207"/>
+      <c r="BH30" s="209">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="BI30" s="207"/>
+      <c r="BJ30" s="101" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7496,6 +7720,44 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="101" t="s">
         <v>148</v>
+      </c>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="127">
+        <v>10</v>
+      </c>
+      <c r="AY31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ31" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB31" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC31" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD31" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF31" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG31" s="207" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH31" s="209">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="BI31" s="207"/>
+      <c r="BJ31" s="101" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7607,8 +7869,46 @@
       <c r="AT32" s="101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW32" s="164">
+        <v>25</v>
+      </c>
+      <c r="AX32" s="177">
+        <v>70</v>
+      </c>
+      <c r="AY32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC32" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD32" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE32" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF32" s="209">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="BG32" s="207"/>
+      <c r="BH32" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BI32" s="207"/>
+      <c r="BJ32" s="101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="33"/>
       <c r="C33" s="126">
         <v>25</v>
@@ -7717,8 +8017,42 @@
       <c r="AT33" s="101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW33" s="164"/>
+      <c r="AX33" s="178"/>
+      <c r="AY33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ33" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA33" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC33" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD33" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE33" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF33" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG33" s="207"/>
+      <c r="BH33" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BI33" s="207"/>
+      <c r="BJ33" s="101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33"/>
       <c r="C34" s="37">
         <v>12</v>
@@ -7833,8 +8167,44 @@
       <c r="AT34" s="101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW34" s="140"/>
+      <c r="AX34" s="179"/>
+      <c r="AY34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA34" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC34" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD34" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE34" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF34" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG34" s="207" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH34" s="209">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="BI34" s="207"/>
+      <c r="BJ34" s="101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="140">
         <v>100</v>
       </c>
@@ -7947,8 +8317,44 @@
       <c r="AT35" s="101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW35" s="140"/>
+      <c r="AX35" s="165">
+        <v>10</v>
+      </c>
+      <c r="AY35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ35" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB35" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC35" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD35" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE35" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF35" s="209">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BG35" s="207"/>
+      <c r="BH35" s="209">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="BI35" s="207"/>
+      <c r="BJ35" s="101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="173" t="s">
         <v>4</v>
       </c>
@@ -8012,9 +8418,30 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
+      <c r="AW36" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX36" s="174"/>
+      <c r="AY36" s="9">
+        <f>SUM(AW28:AX35)</f>
+        <v>200</v>
+      </c>
+      <c r="AZ36" s="114"/>
+      <c r="BA36" s="137"/>
+      <c r="BB36" s="79"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="138"/>
+      <c r="BE36" s="50"/>
+      <c r="BF36" s="158"/>
+      <c r="BG36" s="115" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
@@ -8024,6 +8451,9 @@
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="AG26:AH26"/>
     <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AW26:AX26"/>
+    <mergeCell ref="AX32:AX34"/>
+    <mergeCell ref="AW36:AX36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B5B13-A161-4EC1-8D78-57F12614F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72013FC4-B047-45A6-A6E7-BA5B1FFD6DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="154">
   <si>
     <t>UnSettled</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Bol News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Desk </t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,6 +1659,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,23 +1707,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,51 +1773,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2072,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,35 +2072,36 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="152" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="152" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="171">
+      <c r="C2" s="173">
         <f>B3+B4</f>
         <v>91</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="176"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2126,50 +2111,53 @@
       <c r="I2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="M2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="N2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="153" t="s">
+      <c r="O2" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="157" t="s">
+      <c r="Q2" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="R2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="S2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="98">
+      <c r="U2" s="98">
         <f ca="1">TODAY()</f>
         <v>45282</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="171" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="172"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="172"/>
       <c r="B4" s="34">
         <v>91</v>
       </c>
@@ -2189,33 +2177,34 @@
       <c r="I4" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="83"/>
+      <c r="K4" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="143" t="s">
+      <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="145" t="s">
+      <c r="M4" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="146" t="s">
+      <c r="N4" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="154">
+      <c r="O4" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P4" s="154">
+      <c r="Q4" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="157">
         <v>-2</v>
       </c>
-      <c r="E5" s="213">
+      <c r="E5" s="167">
         <v>10</v>
       </c>
       <c r="F5" s="126"/>
@@ -2228,30 +2217,31 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="143" t="s">
+      <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="147" t="s">
+      <c r="M5" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="148" t="s">
+      <c r="N5" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="154">
+      <c r="O5" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P5" s="154">
+      <c r="Q5" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="S5" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="213">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="167">
         <v>10</v>
       </c>
       <c r="F6" s="127"/>
@@ -2264,29 +2254,30 @@
       <c r="I6" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="143" t="s">
+      <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="145" t="s">
+      <c r="M6" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="148" t="s">
+      <c r="N6" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="154">
+      <c r="O6" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P6" s="154">
+      <c r="Q6" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2306,36 +2297,37 @@
       <c r="I7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="143" t="s">
+      <c r="L7" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="L7" s="149" t="s">
+      <c r="M7" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="148" t="s">
+      <c r="N7" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="154">
+      <c r="O7" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P7" s="154">
+      <c r="Q7" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="S7" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="164">
         <v>50</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2345,29 +2337,30 @@
       <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="83"/>
+      <c r="K8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="143" t="s">
+      <c r="L8" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="149" t="s">
+      <c r="M8" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="148" t="s">
+      <c r="N8" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="154">
+      <c r="O8" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P8" s="154">
+      <c r="Q8" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="S8" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2371,7 @@
       <c r="E9" s="140">
         <v>10</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2388,33 +2381,34 @@
       <c r="I9" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="143" t="s">
+      <c r="L9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="149" t="s">
+      <c r="M9" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="148" t="s">
+      <c r="N9" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="154">
+      <c r="O9" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P9" s="154">
+      <c r="Q9" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="212">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="166">
         <v>70</v>
       </c>
-      <c r="F10" s="179"/>
+      <c r="F10" s="181"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2424,32 +2418,35 @@
       <c r="I10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="144" t="s">
+      <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="149" t="s">
+      <c r="M10" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="148" t="s">
+      <c r="N10" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="154">
+      <c r="O10" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="154">
+      <c r="Q10" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -2470,43 +2467,46 @@
       <c r="I11" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="143" t="s">
+      <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="150" t="s">
+      <c r="M11" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="151" t="s">
+      <c r="N11" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="154">
+      <c r="O11" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="P11" s="154">
+      <c r="Q11" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="S11" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="173" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>180</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="30"/>
+      <c r="N12"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -2516,25 +2516,27 @@
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
-      <c r="J13" s="166"/>
-      <c r="L13"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="168"/>
       <c r="M13"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="170"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24"/>
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
-      <c r="J14" s="166"/>
-      <c r="L14"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="168"/>
       <c r="M14"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2546,34 +2548,37 @@
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="119"/>
-      <c r="L15"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="20"/>
       <c r="I16" s="119"/>
-      <c r="L16"/>
+      <c r="J16" s="119"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20"/>
       <c r="I17" s="119"/>
-      <c r="L17"/>
+      <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -2584,27 +2589,27 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="J18" s="166"/>
-      <c r="L18"/>
+      <c r="K18" s="168"/>
       <c r="M18"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="166"/>
-      <c r="L19"/>
+      <c r="N18"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="170"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="168"/>
       <c r="M19"/>
+      <c r="N19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="K13:K15"/>
     <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="F8:F10"/>
@@ -2642,18 +2647,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="196" t="s">
+      <c r="E1" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="197"/>
+      <c r="F1" s="183"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="196" t="s">
+      <c r="H1" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="198"/>
-      <c r="J1" s="197"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="183"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2676,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="183">
+      <c r="B2" s="185">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2698,15 +2703,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="199">
+      <c r="K2" s="188">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="201">
+      <c r="L2" s="190">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="186">
+      <c r="M2" s="194">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2717,7 +2722,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="185"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2732,13 +2737,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="187"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="184"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2753,9 +2758,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="187"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="195"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2837,7 +2842,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="196">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2854,22 +2859,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="190">
+      <c r="K7" s="198">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="192">
+      <c r="L7" s="200">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="194">
+      <c r="M7" s="202">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="189"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2890,9 +2895,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="195"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="203"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2972,7 +2977,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="188">
+      <c r="B11" s="196">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -2999,7 +3004,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="189"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3056,7 +3061,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="188">
+      <c r="B14" s="196">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3079,7 +3084,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3103,7 +3108,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="183">
+      <c r="B16" s="185">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3134,7 +3139,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="185"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3152,7 +3157,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="183">
+      <c r="B18" s="185">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3181,7 +3186,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="184"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3241,7 +3246,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="181">
+      <c r="B21" s="192">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3269,7 +3274,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="182"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3321,7 +3326,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171">
+      <c r="B24" s="173">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3350,7 +3355,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="172"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3378,7 +3383,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="171">
+      <c r="B26" s="173">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3409,7 +3414,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="180"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3440,7 +3445,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="171">
+      <c r="B28" s="173">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3462,7 +3467,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="172"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3488,7 +3493,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="171">
+      <c r="B30" s="173">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3511,7 +3516,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="172"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3538,7 +3543,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="171">
+      <c r="B32" s="173">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3560,7 +3565,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="172"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3616,17 +3621,17 @@
       <c r="C35" s="142"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="211">
+      <c r="F35" s="18">
         <v>50</v>
       </c>
-      <c r="G35" s="211">
+      <c r="G35" s="18">
         <v>70</v>
       </c>
-      <c r="H35" s="211">
+      <c r="H35" s="18">
         <v>40</v>
       </c>
       <c r="I35" s="18"/>
-      <c r="J35" s="211">
+      <c r="J35" s="18">
         <v>20</v>
       </c>
       <c r="K35" s="18"/>
@@ -3635,11 +3640,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3650,11 +3655,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6861,10 +6866,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="173" t="s">
+      <c r="AG24" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="174"/>
+      <c r="AH24" s="176"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6884,10 +6889,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="173" t="s">
+      <c r="AZ24" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="174"/>
+      <c r="BA24" s="176"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6907,10 +6912,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="173" t="s">
+      <c r="BR24" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="174"/>
+      <c r="BS24" s="176"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -6933,10 +6938,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="176"/>
+      <c r="C26" s="178"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6973,10 +6978,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="175" t="s">
+      <c r="R26" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="176"/>
+      <c r="S26" s="178"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7013,10 +7018,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="175" t="s">
+      <c r="AG26" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="176"/>
+      <c r="AH26" s="178"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7053,10 +7058,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="175" t="s">
+      <c r="AW26" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="176"/>
+      <c r="AX26" s="178"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7132,18 +7137,16 @@
       <c r="AS27" s="1"/>
       <c r="AT27" s="101"/>
       <c r="AW27" s="136"/>
-      <c r="AX27" s="203"/>
-      <c r="AY27" s="204"/>
-      <c r="AZ27" s="205"/>
-      <c r="BA27" s="206"/>
-      <c r="BB27" s="203"/>
-      <c r="BC27" s="204"/>
-      <c r="BD27" s="207"/>
-      <c r="BE27" s="207"/>
-      <c r="BF27" s="208"/>
-      <c r="BG27" s="207"/>
-      <c r="BH27" s="207"/>
-      <c r="BI27" s="207"/>
+      <c r="AX27" s="2"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="117"/>
+      <c r="BB27" s="2"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="152"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
       <c r="BJ27" s="101"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7286,14 +7289,14 @@
       <c r="BE28" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="BF28" s="209">
+      <c r="BF28" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG28" s="207"/>
-      <c r="BH28" s="209">
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="BI28" s="207"/>
+      <c r="BI28" s="1"/>
       <c r="BJ28" s="101" t="s">
         <v>150</v>
       </c>
@@ -7440,14 +7443,14 @@
       <c r="BE29" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="BF29" s="209">
+      <c r="BF29" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG29" s="207"/>
-      <c r="BH29" s="209">
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="BI29" s="207"/>
+      <c r="BI29" s="1"/>
       <c r="BJ29" s="101" t="s">
         <v>150</v>
       </c>
@@ -7571,7 +7574,7 @@
       <c r="AX30" s="127">
         <v>20</v>
       </c>
-      <c r="AY30" s="210" t="s">
+      <c r="AY30" s="28" t="s">
         <v>147</v>
       </c>
       <c r="AZ30" s="120" t="s">
@@ -7592,14 +7595,14 @@
       <c r="BE30" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="BF30" s="209">
+      <c r="BF30" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG30" s="207"/>
-      <c r="BH30" s="209">
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="154">
         <v>0.8208333333333333</v>
       </c>
-      <c r="BI30" s="207"/>
+      <c r="BI30" s="1"/>
       <c r="BJ30" s="101" t="s">
         <v>150</v>
       </c>
@@ -7746,16 +7749,16 @@
       <c r="BE31" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="BF31" s="209">
+      <c r="BF31" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG31" s="207" t="s">
+      <c r="BG31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BH31" s="209">
+      <c r="BH31" s="154">
         <v>0.78472222222222221</v>
       </c>
-      <c r="BI31" s="207"/>
+      <c r="BI31" s="1"/>
       <c r="BJ31" s="101" t="s">
         <v>150</v>
       </c>
@@ -7872,7 +7875,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="177">
+      <c r="AX32" s="179">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -7896,14 +7899,14 @@
       <c r="BE32" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="BF32" s="209">
+      <c r="BF32" s="154">
         <v>0.4861111111111111</v>
       </c>
-      <c r="BG32" s="207"/>
-      <c r="BH32" s="209">
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BI32" s="207"/>
+      <c r="BI32" s="1"/>
       <c r="BJ32" s="101" t="s">
         <v>150</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="178"/>
+      <c r="AX33" s="180"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8040,14 +8043,14 @@
       <c r="BE33" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="BF33" s="209">
+      <c r="BF33" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG33" s="207"/>
-      <c r="BH33" s="209">
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BI33" s="207"/>
+      <c r="BI33" s="1"/>
       <c r="BJ33" s="101" t="s">
         <v>150</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="179"/>
+      <c r="AX34" s="181"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8190,16 +8193,16 @@
       <c r="BE34" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="BF34" s="209">
+      <c r="BF34" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG34" s="207" t="s">
+      <c r="BG34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BH34" s="209">
+      <c r="BH34" s="154">
         <v>0.4826388888888889</v>
       </c>
-      <c r="BI34" s="207"/>
+      <c r="BI34" s="1"/>
       <c r="BJ34" s="101" t="s">
         <v>150</v>
       </c>
@@ -8342,23 +8345,23 @@
       <c r="BE35" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="BF35" s="209">
+      <c r="BF35" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="BG35" s="207"/>
-      <c r="BH35" s="209">
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="154">
         <v>0.80555555555555547</v>
       </c>
-      <c r="BI35" s="207"/>
+      <c r="BI35" s="1"/>
       <c r="BJ35" s="101" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="174"/>
+      <c r="C36" s="176"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8376,10 +8379,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="173" t="s">
+      <c r="R36" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="174"/>
+      <c r="S36" s="176"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8397,10 +8400,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="173" t="s">
+      <c r="AG36" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="174"/>
+      <c r="AH36" s="176"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8418,10 +8421,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="173" t="s">
+      <c r="AW36" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="174"/>
+      <c r="AX36" s="176"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72013FC4-B047-45A6-A6E7-BA5B1FFD6DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23B72C-F643-4FB1-A7C7-C490D10B3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,42 +1707,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1773,7 +1755,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O17" sqref="O17:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2177,9 @@
       <c r="I4" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="83" t="s">
+        <v>139</v>
+      </c>
       <c r="K4" s="37" t="s">
         <v>94</v>
       </c>
@@ -2255,9 +2257,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="83"/>
-      <c r="K6" s="37" t="s">
-        <v>133</v>
-      </c>
+      <c r="K6" s="37"/>
       <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
@@ -2647,18 +2647,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="183"/>
+      <c r="F1" s="199"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="182" t="s">
+      <c r="H1" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="184"/>
-      <c r="J1" s="183"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="199"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2703,15 +2703,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="188">
+      <c r="K2" s="201">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="190">
+      <c r="L2" s="203">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="194">
+      <c r="M2" s="188">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="186"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2737,13 +2737,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="195"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="189"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="187"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2758,9 +2758,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="195"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2842,7 +2842,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="196">
+      <c r="B7" s="190">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="198">
+      <c r="K7" s="192">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="194">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="202">
+      <c r="M7" s="196">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="197"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2895,9 +2895,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="203"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="197"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2977,7 +2977,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="196">
+      <c r="B11" s="190">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3004,7 +3004,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="197"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="196">
+      <c r="B14" s="190">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3084,7 +3084,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="197"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3139,7 +3139,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="186"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3186,7 +3186,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="187"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3246,7 +3246,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="192">
+      <c r="B21" s="183">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3274,7 +3274,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="193"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3414,7 +3414,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="204"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3640,11 +3640,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3655,11 +3655,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23B72C-F643-4FB1-A7C7-C490D10B3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD953E-6463-4B5D-B485-31A4AE7F0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="154">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1707,23 +1707,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1755,25 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2256,9 @@
       <c r="I6" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="83"/>
+      <c r="J6" s="83" t="s">
+        <v>24</v>
+      </c>
       <c r="K6" s="37"/>
       <c r="L6" s="143" t="s">
         <v>120</v>
@@ -2647,18 +2649,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="198" t="s">
+      <c r="E1" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="199"/>
+      <c r="F1" s="183"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="198" t="s">
+      <c r="H1" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="200"/>
-      <c r="J1" s="199"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="183"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2703,15 +2705,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="201">
+      <c r="K2" s="188">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="203">
+      <c r="L2" s="190">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="188">
+      <c r="M2" s="194">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2722,7 +2724,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="187"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2737,13 +2739,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="186"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2758,9 +2760,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="195"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2842,7 +2844,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="190">
+      <c r="B7" s="196">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2859,22 +2861,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="192">
+      <c r="K7" s="198">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="194">
+      <c r="L7" s="200">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="196">
+      <c r="M7" s="202">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="191"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2895,9 +2897,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="193"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="197"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="203"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2977,7 +2979,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="190">
+      <c r="B11" s="196">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3004,7 +3006,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="191"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3061,7 +3063,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190">
+      <c r="B14" s="196">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3084,7 +3086,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="191"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3139,7 +3141,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="187"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3186,7 +3188,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="186"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3246,7 +3248,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="183">
+      <c r="B21" s="192">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3274,7 +3276,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="184"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3414,7 +3416,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="182"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3640,11 +3642,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3655,11 +3657,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD953E-6463-4B5D-B485-31A4AE7F0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF1C16-5669-48BB-9C3C-CD867001DE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="159">
   <si>
     <t>UnSettled</t>
   </si>
@@ -498,6 +498,21 @@
   </si>
   <si>
     <t xml:space="preserve">World Desk </t>
+  </si>
+  <si>
+    <t>ND TV 24*7</t>
+  </si>
+  <si>
+    <t>Sky News A</t>
+  </si>
+  <si>
+    <t>India TV</t>
+  </si>
+  <si>
+    <t>PTM News</t>
+  </si>
+  <si>
+    <t>France 24 ES</t>
   </si>
 </sst>
 </file>
@@ -710,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1278,11 +1293,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1665,6 +1695,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1775,6 +1808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,7 +2095,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2108,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="117" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="117" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
@@ -2094,14 +2130,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="173">
+      <c r="C2" s="174">
         <f>B3+B4</f>
-        <v>91</v>
-      </c>
-      <c r="E2" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="178"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2147,19 +2183,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="174"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
+      <c r="A4" s="173"/>
       <c r="B4" s="34">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2167,7 +2203,9 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="165">
+        <v>10</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2187,19 +2225,19 @@
         <v>118</v>
       </c>
       <c r="M4" s="145" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="N4" s="146" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="Q4" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,7 +2247,9 @@
       <c r="E5" s="167">
         <v>10</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>10</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2219,7 +2259,9 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="206" t="s">
+        <v>157</v>
+      </c>
       <c r="K5" s="37" t="s">
         <v>85</v>
       </c>
@@ -2233,33 +2275,35 @@
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="Q5" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="167">
         <v>10</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
       <c r="H6" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="83" t="s">
-        <v>115</v>
-      </c>
+      <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="37"/>
       <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
@@ -2270,13 +2314,13 @@
         <v>64</v>
       </c>
       <c r="O6" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="Q6" s="154">
-        <v>0.8208333333333333</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2289,7 +2333,9 @@
       <c r="E7" s="140">
         <v>10</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2299,9 +2345,11 @@
       <c r="I7" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="83"/>
+      <c r="J7" s="83" t="s">
+        <v>137</v>
+      </c>
       <c r="K7" s="37" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L7" s="143" t="s">
         <v>149</v>
@@ -2313,23 +2361,25 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Q7" s="154">
-        <v>0.78472222222222221</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="164">
         <v>50</v>
       </c>
-      <c r="F8" s="179"/>
+      <c r="F8" s="180">
+        <v>20</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2339,7 +2389,9 @@
       <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="83" t="s">
+        <v>143</v>
+      </c>
       <c r="K8" s="33" t="s">
         <v>62</v>
       </c>
@@ -2368,22 +2420,22 @@
       </c>
       <c r="B9" s="8">
         <f>7000-C2</f>
-        <v>6909</v>
+        <v>6989</v>
       </c>
       <c r="E9" s="140">
         <v>10</v>
       </c>
-      <c r="F9" s="180"/>
+      <c r="F9" s="181"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83" t="s">
+        <v>158</v>
+      </c>
       <c r="K9" s="33" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2462,7 @@
       <c r="E10" s="166">
         <v>70</v>
       </c>
-      <c r="F10" s="181"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2459,7 +2511,9 @@
       <c r="E11" s="140">
         <v>10</v>
       </c>
-      <c r="F11" s="165"/>
+      <c r="F11" s="165">
+        <v>10</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2485,23 +2539,23 @@
         <v>66</v>
       </c>
       <c r="O11" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="Q11" s="154">
-        <v>0.80555555555555547</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="176"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12"/>
@@ -2514,16 +2568,16 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6909</v>
+        <v>6989</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="168"/>
+      <c r="K13" s="169"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2532,11 +2586,11 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="168"/>
+      <c r="K14" s="169"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2551,12 +2605,12 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="168"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2577,8 +2631,8 @@
       <c r="J17" s="119"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2591,14 +2645,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="K18" s="168"/>
+      <c r="K18" s="169"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="168"/>
+      <c r="K19" s="169"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -2622,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -2649,18 +2703,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="183"/>
+      <c r="F1" s="184"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="182" t="s">
+      <c r="H1" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="184"/>
-      <c r="J1" s="183"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="184"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2732,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="185">
+      <c r="B2" s="186">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2705,26 +2759,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="188">
+      <c r="K2" s="189">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="190">
+      <c r="L2" s="191">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="194">
+      <c r="M2" s="195">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J35)</f>
-        <v>6869</v>
+        <f>SUM(E2:J36)</f>
+        <v>6949</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="186"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2739,13 +2793,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="195"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="196"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="187"/>
+      <c r="B4" s="188"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2760,9 +2814,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="195"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="196"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2844,7 +2898,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="196">
+      <c r="B7" s="197">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2861,22 +2915,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="198">
+      <c r="K7" s="199">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="200">
+      <c r="L7" s="201">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="202">
+      <c r="M7" s="203">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="197"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2897,9 +2951,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="199"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="203"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="204"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2979,7 +3033,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="196">
+      <c r="B11" s="197">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3006,7 +3060,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="197"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3063,7 +3117,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="196">
+      <c r="B14" s="197">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3086,7 +3140,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="197"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3110,7 +3164,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="185">
+      <c r="B16" s="186">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3141,7 +3195,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="186"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3159,7 +3213,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="185">
+      <c r="B18" s="186">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3188,7 +3242,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="187"/>
+      <c r="B19" s="188"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3248,7 +3302,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="192">
+      <c r="B21" s="193">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3276,7 +3330,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="193"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3328,7 +3382,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="173">
+      <c r="B24" s="174">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3357,7 +3411,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="174"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3385,7 +3439,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="173">
+      <c r="B26" s="174">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3416,7 +3470,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="204"/>
+      <c r="B27" s="205"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3447,7 +3501,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="173">
+      <c r="B28" s="174">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3469,7 +3523,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="174"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3495,7 +3549,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="173">
+      <c r="B30" s="174">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3518,7 +3572,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="174"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3545,7 +3599,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="173">
+      <c r="B32" s="174">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3567,7 +3621,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="174"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3616,29 +3670,53 @@
       <c r="L34" s="82"/>
       <c r="M34" s="82"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="168">
         <v>22</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18">
+      <c r="C35" s="96"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82">
         <v>50</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="82">
         <v>70</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="82">
         <v>40</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18">
+      <c r="I35" s="82"/>
+      <c r="J35" s="82">
         <v>20</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="17">
+        <v>23</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18">
+        <v>20</v>
+      </c>
+      <c r="G36" s="18">
+        <v>20</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18">
+        <v>20</v>
+      </c>
+      <c r="J36" s="18">
+        <v>20</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6868,10 +6946,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="175" t="s">
+      <c r="AG24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="176"/>
+      <c r="AH24" s="177"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6891,10 +6969,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="175" t="s">
+      <c r="AZ24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="176"/>
+      <c r="BA24" s="177"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6914,10 +6992,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="175" t="s">
+      <c r="BR24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="176"/>
+      <c r="BS24" s="177"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -6940,10 +7018,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="178"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -6980,10 +7058,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="177" t="s">
+      <c r="R26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="178"/>
+      <c r="S26" s="179"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7020,10 +7098,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="177" t="s">
+      <c r="AG26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="178"/>
+      <c r="AH26" s="179"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7060,10 +7138,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="177" t="s">
+      <c r="AW26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="178"/>
+      <c r="AX26" s="179"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7877,7 +7955,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="179">
+      <c r="AX32" s="180">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8023,7 +8101,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="180"/>
+      <c r="AX33" s="181"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8173,7 +8251,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="181"/>
+      <c r="AX34" s="182"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8360,10 +8438,10 @@
       </c>
     </row>
     <row r="36" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="175" t="s">
+      <c r="B36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="176"/>
+      <c r="C36" s="177"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8381,10 +8459,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="175" t="s">
+      <c r="R36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="176"/>
+      <c r="S36" s="177"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8402,10 +8480,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="175" t="s">
+      <c r="AG36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="176"/>
+      <c r="AH36" s="177"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8423,10 +8501,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="175" t="s">
+      <c r="AW36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="176"/>
+      <c r="AX36" s="177"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF1C16-5669-48BB-9C3C-CD867001DE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF9271-E187-40CA-A183-4F7A42AD70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="159">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1698,6 +1698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,42 +1743,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,11 +1791,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,7 +2095,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,14 +2130,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="174">
+      <c r="C2" s="175">
         <f>B3+B4</f>
         <v>11</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="179"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2179,21 +2179,21 @@
       </c>
       <c r="U2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="175"/>
+      <c r="C3" s="176"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="34">
         <v>11</v>
       </c>
@@ -2203,9 +2203,7 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="165">
-        <v>10</v>
-      </c>
+      <c r="F4" s="165"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q4" s="154">
         <v>0.76388888888888884</v>
@@ -2247,9 +2245,7 @@
       <c r="E5" s="167">
         <v>10</v>
       </c>
-      <c r="F5" s="126">
-        <v>10</v>
-      </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2259,7 +2255,7 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="J5" s="169" t="s">
         <v>157</v>
       </c>
       <c r="K5" s="37" t="s">
@@ -2275,7 +2271,7 @@
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q5" s="154">
         <v>0.76388888888888884</v>
@@ -2288,9 +2284,7 @@
       <c r="E6" s="167">
         <v>10</v>
       </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2314,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="O6" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q6" s="154">
         <v>0.76388888888888884</v>
@@ -2331,11 +2325,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="140">
-        <v>10</v>
-      </c>
-      <c r="F7" s="127">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2353,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2374,12 +2366,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="164">
-        <v>50</v>
-      </c>
-      <c r="F8" s="180">
-        <v>20</v>
-      </c>
+      <c r="E8" s="164"/>
+      <c r="F8" s="181"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2422,10 +2410,8 @@
         <f>7000-C2</f>
         <v>6989</v>
       </c>
-      <c r="E9" s="140">
-        <v>10</v>
-      </c>
-      <c r="F9" s="181"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="182"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2459,10 +2445,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="166">
-        <v>70</v>
-      </c>
-      <c r="F10" s="182"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2511,9 +2495,7 @@
       <c r="E11" s="140">
         <v>10</v>
       </c>
-      <c r="F11" s="165">
-        <v>10</v>
-      </c>
+      <c r="F11" s="165"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2539,7 +2521,7 @@
         <v>66</v>
       </c>
       <c r="O11" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q11" s="154">
         <v>0.76388888888888884</v>
@@ -2549,13 +2531,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12"/>
@@ -2573,11 +2555,11 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="169"/>
+      <c r="K13" s="170"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2586,11 +2568,11 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="169"/>
+      <c r="K14" s="170"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2605,12 +2587,12 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="169"/>
+      <c r="K15" s="170"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2631,8 +2613,8 @@
       <c r="J17" s="119"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2645,14 +2627,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="K18" s="169"/>
+      <c r="K18" s="170"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="169"/>
+      <c r="K19" s="170"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -2703,18 +2685,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="184"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="183" t="s">
+      <c r="H1" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="185"/>
-      <c r="J1" s="184"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="201"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2714,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="186">
+      <c r="B2" s="187">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2759,15 +2741,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="189">
+      <c r="K2" s="203">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="191">
+      <c r="L2" s="205">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="195">
+      <c r="M2" s="190">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2778,7 +2760,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="187"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2793,9 +2775,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="196"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="191"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2814,9 +2796,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="196"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="191"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2898,7 +2880,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="197">
+      <c r="B7" s="192">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2915,22 +2897,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="199">
+      <c r="K7" s="194">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="201">
+      <c r="L7" s="196">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="203">
+      <c r="M7" s="198">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="198"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2951,9 +2933,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="200"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="204"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3033,7 +3015,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="197">
+      <c r="B11" s="192">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3060,7 +3042,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="198"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3117,7 +3099,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="197">
+      <c r="B14" s="192">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3140,7 +3122,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="198"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3164,7 +3146,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="186">
+      <c r="B16" s="187">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3195,7 +3177,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="187"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3213,7 +3195,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="186">
+      <c r="B18" s="187">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3302,7 +3284,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="185">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3330,7 +3312,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="194"/>
+      <c r="B22" s="186"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3382,7 +3364,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="174">
+      <c r="B24" s="175">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3411,7 +3393,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="175"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3439,7 +3421,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174">
+      <c r="B26" s="175">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3470,7 +3452,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="205"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3501,7 +3483,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="174">
+      <c r="B28" s="175">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3523,7 +3505,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3549,7 +3531,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="174">
+      <c r="B30" s="175">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3572,7 +3554,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="175"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3599,7 +3581,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="174">
+      <c r="B32" s="175">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3621,7 +3603,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="175"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3720,11 +3702,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
@@ -3735,11 +3717,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3749,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG36"/>
   <sheetViews>
-    <sheetView topLeftCell="AS19" workbookViewId="0">
-      <selection activeCell="BH38" sqref="BH38"/>
+    <sheetView topLeftCell="BD19" workbookViewId="0">
+      <selection activeCell="BK33" sqref="BK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5300,7 +5282,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5345,7 +5327,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5390,7 +5372,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5435,7 +5417,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45282</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6946,10 +6928,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="176" t="s">
+      <c r="AG24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="177"/>
+      <c r="AH24" s="178"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6969,10 +6951,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="176" t="s">
+      <c r="AZ24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="177"/>
+      <c r="BA24" s="178"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6992,10 +6974,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="176" t="s">
+      <c r="BR24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="177"/>
+      <c r="BS24" s="178"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7018,10 +7000,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="179"/>
+      <c r="C26" s="180"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7058,10 +7040,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="178" t="s">
+      <c r="R26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="179"/>
+      <c r="S26" s="180"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7098,10 +7080,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="178" t="s">
+      <c r="AG26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="179"/>
+      <c r="AH26" s="180"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7138,10 +7120,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="178" t="s">
+      <c r="AW26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="179"/>
+      <c r="AX26" s="180"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7176,6 +7158,49 @@
         <v>36</v>
       </c>
       <c r="BJ26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM26" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN26" s="180"/>
+      <c r="BO26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ26" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR26" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BU26" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="BV26" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW26" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY26" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ26" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA26" s="36" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7228,6 +7253,19 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="101"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="2"/>
+      <c r="BP27" s="25"/>
+      <c r="BQ27" s="117"/>
+      <c r="BR27" s="117"/>
+      <c r="BS27" s="2"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="152"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="24"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
@@ -7380,6 +7418,47 @@
       <c r="BJ28" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM28" s="140">
+        <v>10</v>
+      </c>
+      <c r="BN28" s="165">
+        <v>10</v>
+      </c>
+      <c r="BO28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP28" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ28" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR28" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT28" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="BU28" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="BV28" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW28" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="29" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="133">
@@ -7534,6 +7613,47 @@
       <c r="BJ29" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM29" s="167">
+        <v>10</v>
+      </c>
+      <c r="BN29" s="126">
+        <v>10</v>
+      </c>
+      <c r="BO29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP29" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ29" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR29" s="169" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT29" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU29" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV29" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW29" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="30" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="133">
@@ -7685,6 +7805,45 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="101" t="s">
         <v>150</v>
+      </c>
+      <c r="BM30" s="167">
+        <v>10</v>
+      </c>
+      <c r="BN30" s="127">
+        <v>20</v>
+      </c>
+      <c r="BO30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ30" s="83"/>
+      <c r="BR30" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS30" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT30" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU30" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV30" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW30" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7842,6 +8001,49 @@
       <c r="BJ31" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM31" s="140">
+        <v>10</v>
+      </c>
+      <c r="BN31" s="127">
+        <v>10</v>
+      </c>
+      <c r="BO31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP31" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ31" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR31" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS31" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT31" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU31" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV31" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW31" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY31" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="32" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="33">
@@ -7955,7 +8157,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="180">
+      <c r="AX32" s="181">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -7990,8 +8192,49 @@
       <c r="BJ32" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM32" s="164">
+        <v>50</v>
+      </c>
+      <c r="BN32" s="181">
+        <v>20</v>
+      </c>
+      <c r="BO32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP32" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR32" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT32" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU32" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV32" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW32" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="33" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="33"/>
       <c r="C33" s="126">
         <v>25</v>
@@ -8101,7 +8344,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="181"/>
+      <c r="AX33" s="182"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8134,8 +8377,45 @@
       <c r="BJ33" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM33" s="140">
+        <v>10</v>
+      </c>
+      <c r="BN33" s="182"/>
+      <c r="BO33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP33" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ33" s="83"/>
+      <c r="BR33" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT33" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU33" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV33" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW33" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="34" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33"/>
       <c r="C34" s="37">
         <v>12</v>
@@ -8251,7 +8531,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="182"/>
+      <c r="AX34" s="183"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8286,8 +8566,49 @@
       <c r="BJ34" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM34" s="166">
+        <v>70</v>
+      </c>
+      <c r="BN34" s="183"/>
+      <c r="BO34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP34" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ34" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR34" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS34" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT34" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU34" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="BV34" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW34" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="BX34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY34" s="154">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="35" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="140">
         <v>100</v>
       </c>
@@ -8436,12 +8757,53 @@
       <c r="BJ35" s="101" t="s">
         <v>150</v>
       </c>
+      <c r="BM35" s="140">
+        <v>10</v>
+      </c>
+      <c r="BN35" s="165">
+        <v>10</v>
+      </c>
+      <c r="BO35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP35" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ35" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR35" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS35" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="BT35" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU35" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV35" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW35" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="24" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="36" spans="2:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="176" t="s">
+    <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="177"/>
+      <c r="C36" s="178"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8459,10 +8821,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="176" t="s">
+      <c r="R36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="177"/>
+      <c r="S36" s="178"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8480,10 +8842,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="176" t="s">
+      <c r="AG36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="177"/>
+      <c r="AH36" s="178"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8501,10 +8863,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="176" t="s">
+      <c r="AW36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="177"/>
+      <c r="AX36" s="178"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -8522,9 +8884,27 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
+      <c r="BM36" s="177" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN36" s="178"/>
+      <c r="BO36" s="9">
+        <f>SUM(BM28:BN35)</f>
+        <v>260</v>
+      </c>
+      <c r="BP36" s="25"/>
+      <c r="BQ36" s="117"/>
+      <c r="BR36" s="117"/>
+      <c r="BS36" s="2"/>
+      <c r="BU36" s="30"/>
+      <c r="BW36" s="155"/>
+      <c r="BX36" s="24"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
@@ -8537,6 +8917,9 @@
     <mergeCell ref="AW26:AX26"/>
     <mergeCell ref="AX32:AX34"/>
     <mergeCell ref="AW36:AX36"/>
+    <mergeCell ref="BM26:BN26"/>
+    <mergeCell ref="BN32:BN34"/>
+    <mergeCell ref="BM36:BN36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DF9271-E187-40CA-A183-4F7A42AD70F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361A5CC-FA29-4CD7-9CE1-00B886897C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="161">
   <si>
     <t>UnSettled</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>France 24 ES</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
   </si>
 </sst>
 </file>
@@ -1695,9 +1701,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1742,6 +1745,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,7 +2101,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,14 +2136,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="175">
+      <c r="C2" s="174">
         <f>B3+B4</f>
         <v>11</v>
       </c>
-      <c r="E2" s="179" t="s">
+      <c r="E2" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="180"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2183,17 +2189,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="176"/>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="175"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
+      <c r="A4" s="173"/>
       <c r="B4" s="34">
         <v>11</v>
       </c>
@@ -2203,7 +2211,9 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="165">
+        <v>20</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2229,13 +2239,13 @@
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.45833333333333331</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="Q4" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2255,9 @@
       <c r="E5" s="167">
         <v>10</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>20</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2255,7 +2267,7 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="169" t="s">
+      <c r="J5" s="168" t="s">
         <v>157</v>
       </c>
       <c r="K5" s="37" t="s">
@@ -2271,20 +2283,22 @@
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.45833333333333331</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="Q5" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="167">
         <v>10</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2296,7 +2310,7 @@
         <v>155</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
@@ -2308,13 +2322,13 @@
         <v>64</v>
       </c>
       <c r="O6" s="154">
-        <v>0.45833333333333331</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="Q6" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2327,7 +2341,9 @@
       <c r="E7" s="140">
         <v>15</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.45833333333333331</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2362,12 +2378,14 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="164"/>
-      <c r="F8" s="181"/>
+      <c r="F8" s="180">
+        <v>55</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2396,10 +2414,10 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="Q8" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2407,11 +2425,11 @@
         <v>19</v>
       </c>
       <c r="B9" s="8">
-        <f>7000-C2</f>
-        <v>6989</v>
+        <f>7200-C2</f>
+        <v>7189</v>
       </c>
       <c r="E9" s="140"/>
-      <c r="F9" s="182"/>
+      <c r="F9" s="181"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2438,15 +2456,15 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="Q9" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="166"/>
-      <c r="F10" s="183"/>
+      <c r="F10" s="182"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2478,10 +2496,10 @@
         <v>126</v>
       </c>
       <c r="Q10" s="154">
-        <v>0.79166666666666663</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2495,7 +2513,9 @@
       <c r="E11" s="140">
         <v>10</v>
       </c>
-      <c r="F11" s="165"/>
+      <c r="F11" s="165">
+        <v>20</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2521,23 +2541,23 @@
         <v>66</v>
       </c>
       <c r="O11" s="154">
-        <v>0.45833333333333331</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="Q11" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12"/>
@@ -2550,16 +2570,16 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>6989</v>
+        <v>7189</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="170"/>
+      <c r="K13" s="169"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2568,11 +2588,11 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="170"/>
+      <c r="K14" s="169"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2587,12 +2607,12 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="170"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2613,8 +2633,8 @@
       <c r="J17" s="119"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2627,14 +2647,14 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="K18" s="170"/>
+      <c r="K18" s="169"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="170"/>
+      <c r="K19" s="169"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -2658,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,8 +2774,8 @@
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J36)</f>
-        <v>6949</v>
+        <f>SUM(E2:J38)</f>
+        <v>7149</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3364,7 +3384,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="175">
+      <c r="B24" s="174">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3393,7 +3413,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3421,7 +3441,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="175">
+      <c r="B26" s="174">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3483,7 +3503,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="175">
+      <c r="B28" s="174">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3505,7 +3525,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="176"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3531,7 +3551,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="175">
+      <c r="B30" s="174">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3554,7 +3574,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3581,7 +3601,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="175">
+      <c r="B32" s="174">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3603,7 +3623,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="176"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3653,7 +3673,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="168">
+      <c r="B35" s="174">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3676,11 +3696,9 @@
       <c r="L35" s="82"/>
       <c r="M35" s="82"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
-        <v>23</v>
-      </c>
-      <c r="C36" s="18"/>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="175"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18">
@@ -3700,16 +3718,61 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="174">
+        <v>23</v>
+      </c>
+      <c r="C37" s="142"/>
+      <c r="D37" s="18">
+        <v>200</v>
+      </c>
+      <c r="E37" s="18">
+        <v>55</v>
+      </c>
+      <c r="F37" s="18">
+        <v>20</v>
+      </c>
+      <c r="G37" s="18">
+        <v>20</v>
+      </c>
+      <c r="H37" s="18">
+        <v>10</v>
+      </c>
+      <c r="I37" s="18">
+        <v>20</v>
+      </c>
+      <c r="J37" s="18">
+        <v>20</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="183"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18">
+        <v>30</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18">
+        <v>25</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3717,11 +3780,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6928,10 +6996,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="177" t="s">
+      <c r="AG24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="178"/>
+      <c r="AH24" s="177"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -6951,10 +7019,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="177" t="s">
+      <c r="AZ24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="178"/>
+      <c r="BA24" s="177"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -6974,10 +7042,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="177" t="s">
+      <c r="BR24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="178"/>
+      <c r="BS24" s="177"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7000,10 +7068,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="180"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7040,10 +7108,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="179" t="s">
+      <c r="R26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="180"/>
+      <c r="S26" s="179"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7080,10 +7148,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="179" t="s">
+      <c r="AG26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="180"/>
+      <c r="AH26" s="179"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7120,10 +7188,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="179" t="s">
+      <c r="AW26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="180"/>
+      <c r="AX26" s="179"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7160,10 +7228,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="179" t="s">
+      <c r="BM26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="180"/>
+      <c r="BN26" s="179"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7628,7 +7696,7 @@
       <c r="BQ29" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="BR29" s="169" t="s">
+      <c r="BR29" s="168" t="s">
         <v>157</v>
       </c>
       <c r="BS29" s="37" t="s">
@@ -8157,7 +8225,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="181">
+      <c r="AX32" s="180">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8195,7 +8263,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="181">
+      <c r="BN32" s="180">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8344,7 +8412,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="182"/>
+      <c r="AX33" s="181"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8380,7 +8448,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="182"/>
+      <c r="BN33" s="181"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8531,7 +8599,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="183"/>
+      <c r="AX34" s="182"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8569,7 +8637,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="183"/>
+      <c r="BN34" s="182"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8800,10 +8868,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="178"/>
+      <c r="C36" s="177"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8821,10 +8889,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="177" t="s">
+      <c r="R36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="178"/>
+      <c r="S36" s="177"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8842,10 +8910,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="177" t="s">
+      <c r="AG36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="178"/>
+      <c r="AH36" s="177"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8863,10 +8931,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="177" t="s">
+      <c r="AW36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="178"/>
+      <c r="AX36" s="177"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -8884,10 +8952,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="177" t="s">
+      <c r="BM36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="178"/>
+      <c r="BN36" s="177"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361A5CC-FA29-4CD7-9CE1-00B886897C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F45501-989C-468F-AE20-1828DE6DDD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="161">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1318,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1704,6 +1704,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,7 +1749,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2101,7 +2110,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,14 +2145,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="174">
+      <c r="C2" s="175">
         <f>B3+B4</f>
-        <v>11</v>
-      </c>
-      <c r="E2" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="179"/>
+      <c r="F2" s="180"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2185,35 +2194,33 @@
       </c>
       <c r="U2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="176"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="140">
-        <v>10</v>
-      </c>
-      <c r="F4" s="165">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F4" s="165"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2253,11 +2260,9 @@
         <v>-2</v>
       </c>
       <c r="E5" s="167">
-        <v>10</v>
-      </c>
-      <c r="F5" s="126">
         <v>20</v>
       </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2296,9 +2301,7 @@
       <c r="E6" s="167">
         <v>10</v>
       </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2339,11 +2342,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="140">
-        <v>15</v>
-      </c>
-      <c r="F7" s="127">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2382,10 +2383,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="164"/>
-      <c r="F8" s="180">
-        <v>55</v>
-      </c>
+      <c r="E8" s="184">
+        <v>25</v>
+      </c>
+      <c r="F8" s="181"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2425,11 +2426,11 @@
         <v>19</v>
       </c>
       <c r="B9" s="8">
-        <f>7200-C2</f>
-        <v>7189</v>
-      </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="181"/>
+        <f>7300-C2</f>
+        <v>7290</v>
+      </c>
+      <c r="E9" s="185"/>
+      <c r="F9" s="182"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
@@ -2463,8 +2464,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="166"/>
-      <c r="F10" s="182"/>
+      <c r="E10" s="166">
+        <v>7</v>
+      </c>
+      <c r="F10" s="183"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2511,11 +2514,9 @@
         <v>0</v>
       </c>
       <c r="E11" s="140">
-        <v>10</v>
-      </c>
-      <c r="F11" s="165">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F11" s="165"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2551,13 +2552,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12"/>
@@ -2570,16 +2571,16 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7189</v>
+        <v>7290</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="169"/>
+      <c r="K13" s="170"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2588,11 +2589,11 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="169"/>
+      <c r="K14" s="170"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2607,12 +2608,12 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="169"/>
+      <c r="K15" s="170"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2633,8 +2634,8 @@
       <c r="J17" s="119"/>
       <c r="M17"/>
       <c r="N17"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2647,19 +2648,19 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="K18" s="169"/>
+      <c r="K18" s="170"/>
       <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="169"/>
+      <c r="K19" s="170"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -2671,6 +2672,7 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2678,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,18 +2707,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="201"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="J1" s="201"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2736,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="187">
+      <c r="B2" s="190">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2761,26 +2763,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="203">
+      <c r="K2" s="206">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="205">
+      <c r="L2" s="208">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="190">
+      <c r="M2" s="193">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J38)</f>
-        <v>7149</v>
+        <f>SUM(E2:J39)</f>
+        <v>7250</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="189"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2795,13 +2797,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="191"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="194"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="188"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2816,9 +2818,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="191"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="194"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2900,7 +2902,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="192">
+      <c r="B7" s="195">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2917,22 +2919,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="194">
+      <c r="K7" s="197">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="196">
+      <c r="L7" s="199">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="198">
+      <c r="M7" s="201">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="193"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2953,9 +2955,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="195"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="199"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="202"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3035,7 +3037,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="192">
+      <c r="B11" s="195">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3062,7 +3064,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="193"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3119,7 +3121,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="192">
+      <c r="B14" s="195">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3142,7 +3144,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="193"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3166,7 +3168,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="187">
+      <c r="B16" s="190">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3197,7 +3199,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3215,7 +3217,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="187">
+      <c r="B18" s="190">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3244,7 +3246,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="188"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3304,7 +3306,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="185">
+      <c r="B21" s="188">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3332,7 +3334,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="186"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3384,7 +3386,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="174">
+      <c r="B24" s="175">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3413,7 +3415,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="175"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3441,7 +3443,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174">
+      <c r="B26" s="175">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3472,7 +3474,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3503,7 +3505,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="174">
+      <c r="B28" s="175">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3525,7 +3527,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3551,7 +3553,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="174">
+      <c r="B30" s="175">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3574,7 +3576,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="175"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3601,7 +3603,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="174">
+      <c r="B32" s="175">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3623,7 +3625,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="175"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3673,7 +3675,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="174">
+      <c r="B35" s="175">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3697,7 +3699,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="175"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3719,7 +3721,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="174">
+      <c r="B37" s="175">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3748,23 +3750,47 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="183"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="186"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82">
         <v>30</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18">
+      <c r="G38" s="82"/>
+      <c r="H38" s="82">
         <v>25</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
+        <v>24</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18">
+        <v>101</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18">
+        <v>50</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18">
+        <v>21</v>
+      </c>
+      <c r="J39" s="18">
+        <v>30</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3797,10 +3823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
-  <dimension ref="A1:CG36"/>
+  <dimension ref="A1:CG48"/>
   <sheetViews>
-    <sheetView topLeftCell="BD19" workbookViewId="0">
-      <selection activeCell="BK33" sqref="BK33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,7 +5376,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5395,7 +5421,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5440,7 +5466,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5485,7 +5511,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45283</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6996,10 +7022,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="176" t="s">
+      <c r="AG24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="177"/>
+      <c r="AH24" s="178"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7019,10 +7045,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="176" t="s">
+      <c r="AZ24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="177"/>
+      <c r="BA24" s="178"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7042,10 +7068,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="176" t="s">
+      <c r="BR24" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="177"/>
+      <c r="BS24" s="178"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7068,10 +7094,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="179"/>
+      <c r="C26" s="180"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7108,10 +7134,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="178" t="s">
+      <c r="R26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="179"/>
+      <c r="S26" s="180"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7148,10 +7174,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="178" t="s">
+      <c r="AG26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="179"/>
+      <c r="AH26" s="180"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7188,10 +7214,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="178" t="s">
+      <c r="AW26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="179"/>
+      <c r="AX26" s="180"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7228,10 +7254,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="178" t="s">
+      <c r="BM26" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="179"/>
+      <c r="BN26" s="180"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7321,7 +7347,7 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="101"/>
-      <c r="BM27" s="1"/>
+      <c r="BM27" s="136"/>
       <c r="BN27" s="2"/>
       <c r="BP27" s="25"/>
       <c r="BQ27" s="117"/>
@@ -7333,7 +7359,7 @@
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
       <c r="BZ27" s="1"/>
-      <c r="CA27" s="24"/>
+      <c r="CA27" s="46"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="161">
@@ -7524,7 +7550,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="BZ28" s="1"/>
-      <c r="CA28" s="24" t="s">
+      <c r="CA28" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7719,7 +7745,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="BZ29" s="1"/>
-      <c r="CA29" s="24" t="s">
+      <c r="CA29" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7910,7 +7936,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="BZ30" s="1"/>
-      <c r="CA30" s="24" t="s">
+      <c r="CA30" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8109,7 +8135,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="BZ31" s="1"/>
-      <c r="CA31" s="24" t="s">
+      <c r="CA31" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8225,7 +8251,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="180">
+      <c r="AX32" s="181">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8263,7 +8289,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="180">
+      <c r="BN32" s="181">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8298,7 +8324,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BZ32" s="1"/>
-      <c r="CA32" s="24" t="s">
+      <c r="CA32" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8412,7 +8438,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="181"/>
+      <c r="AX33" s="182"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8448,7 +8474,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="181"/>
+      <c r="BN33" s="182"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8479,7 +8505,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BZ33" s="1"/>
-      <c r="CA33" s="24" t="s">
+      <c r="CA33" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8599,7 +8625,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="182"/>
+      <c r="AX34" s="183"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8637,7 +8663,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="182"/>
+      <c r="BN34" s="183"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8672,7 +8698,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="BZ34" s="1"/>
-      <c r="CA34" s="24" t="s">
+      <c r="CA34" s="46" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8863,15 +8889,15 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="BZ35" s="1"/>
-      <c r="CA35" s="24" t="s">
+      <c r="CA35" s="46" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="177"/>
+      <c r="C36" s="178"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8889,10 +8915,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="176" t="s">
+      <c r="R36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="177"/>
+      <c r="S36" s="178"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8910,10 +8936,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="176" t="s">
+      <c r="AG36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="177"/>
+      <c r="AH36" s="178"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8931,10 +8957,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="176" t="s">
+      <c r="AW36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="177"/>
+      <c r="AX36" s="178"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -8952,29 +8978,444 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="176" t="s">
+      <c r="BM36" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="177"/>
+      <c r="BN36" s="178"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
       </c>
-      <c r="BP36" s="25"/>
-      <c r="BQ36" s="117"/>
-      <c r="BR36" s="117"/>
-      <c r="BS36" s="2"/>
-      <c r="BU36" s="30"/>
-      <c r="BW36" s="155"/>
-      <c r="BX36" s="24"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="24"/>
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="137"/>
+      <c r="BR36" s="137"/>
+      <c r="BS36" s="79"/>
+      <c r="BT36" s="50"/>
+      <c r="BU36" s="138"/>
+      <c r="BV36" s="50"/>
+      <c r="BW36" s="158"/>
+      <c r="BX36" s="115"/>
+      <c r="BY36" s="65"/>
+      <c r="BZ36" s="65"/>
+      <c r="CA36" s="169"/>
+    </row>
+    <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="180"/>
+      <c r="D38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="140">
+        <v>10</v>
+      </c>
+      <c r="C40" s="165">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="154">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="167">
+        <v>10</v>
+      </c>
+      <c r="C41" s="126">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="154">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="167">
+        <v>10</v>
+      </c>
+      <c r="C42" s="127">
+        <v>20</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="140">
+        <v>15</v>
+      </c>
+      <c r="C43" s="127">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="154">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="164"/>
+      <c r="C44" s="181">
+        <v>55</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="140"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="166"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="K46" s="148" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="154">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="140">
+        <v>10</v>
+      </c>
+      <c r="C47" s="165">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="154">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="178"/>
+      <c r="D48" s="9">
+        <f>SUM(B40:C47)</f>
+        <v>200</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="30"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
+  <mergeCells count="18">
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -8988,6 +9429,11 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F45501-989C-468F-AE20-1828DE6DDD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151C3AD0-88CB-493F-981E-FE2723350C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1755,7 +1755,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1767,64 +1824,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,10 +2246,10 @@
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="Q4" s="154">
-        <v>0.47222222222222227</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="S4" s="24" t="s">
         <v>159</v>
@@ -2288,10 +2288,10 @@
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="Q5" s="154">
-        <v>0.47222222222222227</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="S5" s="24" t="s">
         <v>159</v>
@@ -2325,7 +2325,7 @@
         <v>64</v>
       </c>
       <c r="O6" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="Q6" s="154">
         <v>0.85555555555555562</v>
@@ -2370,13 +2370,13 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Q7" s="154">
-        <v>0.76388888888888884</v>
+        <v>0.85555555555555562</v>
       </c>
       <c r="S7" s="24" t="s">
         <v>159</v>
@@ -2418,7 +2418,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,7 +2542,7 @@
         <v>66</v>
       </c>
       <c r="O11" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="Q11" s="154">
         <v>0.85555555555555562</v>
@@ -2707,18 +2707,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="204"/>
+      <c r="F1" s="187"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="205"/>
-      <c r="J1" s="204"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="187"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="190">
+      <c r="B2" s="189">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2763,15 +2763,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="206">
+      <c r="K2" s="192">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="194">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="193">
+      <c r="M2" s="196">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="192"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2797,9 +2797,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="194"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="197"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2818,9 +2818,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="194"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="197"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2902,7 +2902,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="195">
+      <c r="B7" s="198">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2919,22 +2919,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="197">
+      <c r="K7" s="200">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="199">
+      <c r="L7" s="202">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="201">
+      <c r="M7" s="204">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="196"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2955,9 +2955,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="202"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="205"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3037,7 +3037,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="195">
+      <c r="B11" s="198">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3064,7 +3064,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="195">
+      <c r="B14" s="198">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3144,7 +3144,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3168,7 +3168,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="190">
+      <c r="B16" s="189">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3199,7 +3199,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="192"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3217,7 +3217,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="190">
+      <c r="B18" s="189">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3306,7 +3306,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="188">
+      <c r="B21" s="207">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3334,7 +3334,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="189"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3474,7 +3474,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="187"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3751,7 +3751,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="186"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3794,11 +3794,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3806,16 +3811,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9416,6 +9416,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9429,11 +9434,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151C3AD0-88CB-493F-981E-FE2723350C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BEF97-3FA3-4646-B1A1-834D4D0EE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="163">
   <si>
     <t>UnSettled</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>AIMIM</t>
+  </si>
+  <si>
+    <t>IndiaToday</t>
   </si>
 </sst>
 </file>
@@ -1755,6 +1761,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1764,15 +1821,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1783,48 +1831,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2110,7 +2116,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,13 +2240,13 @@
         <v>139</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
       <c r="M4" s="145" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="N4" s="146" t="s">
         <v>30</v>
@@ -2272,9 +2278,7 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="168" t="s">
-        <v>157</v>
-      </c>
+      <c r="J5" s="168"/>
       <c r="K5" s="37" t="s">
         <v>85</v>
       </c>
@@ -2312,17 +2316,17 @@
       <c r="J6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="83" t="s">
-        <v>146</v>
+      <c r="K6" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="145" t="s">
-        <v>96</v>
+      <c r="M6" s="149" t="s">
+        <v>123</v>
       </c>
       <c r="N6" s="148" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O6" s="154">
         <v>0.42708333333333331</v>
@@ -2357,9 +2361,7 @@
       <c r="J7" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="37" t="s">
-        <v>156</v>
-      </c>
+      <c r="K7" s="37"/>
       <c r="L7" s="143" t="s">
         <v>149</v>
       </c>
@@ -2396,20 +2398,16 @@
       <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>62</v>
-      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="143" t="s">
         <v>121</v>
       </c>
       <c r="M8" s="149" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="N8" s="148" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="O8" s="154">
         <v>0.43402777777777773</v>
@@ -2447,8 +2445,8 @@
       <c r="L9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="149" t="s">
-        <v>78</v>
+      <c r="M9" s="145" t="s">
+        <v>22</v>
       </c>
       <c r="N9" s="148" t="s">
         <v>64</v>
@@ -2477,17 +2475,15 @@
       <c r="I10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="83"/>
+      <c r="K10" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="149" t="s">
-        <v>124</v>
+      <c r="M10" s="145" t="s">
+        <v>162</v>
       </c>
       <c r="N10" s="148" t="s">
         <v>66</v>
@@ -2529,17 +2525,15 @@
       <c r="J11" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>152</v>
-      </c>
+      <c r="K11" s="37"/>
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
       <c r="M11" s="150" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="N11" s="151" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="O11" s="154">
         <v>0.42708333333333331</v>
@@ -2707,18 +2701,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="187"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="186" t="s">
+      <c r="H1" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="187"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2736,7 +2730,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="189">
+      <c r="B2" s="190">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2763,15 +2757,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="192">
+      <c r="K2" s="206">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="194">
+      <c r="L2" s="208">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="196">
+      <c r="M2" s="193">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="190"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2797,9 +2791,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="197"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="194"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2818,9 +2812,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="197"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="194"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2902,7 +2896,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="198">
+      <c r="B7" s="195">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2919,22 +2913,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="200">
+      <c r="K7" s="197">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="202">
+      <c r="L7" s="199">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="204">
+      <c r="M7" s="201">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="199"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2955,9 +2949,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="205"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="202"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3037,7 +3031,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="198">
+      <c r="B11" s="195">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3064,7 +3058,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3121,7 +3115,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="198">
+      <c r="B14" s="195">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3144,7 +3138,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3168,7 +3162,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="189">
+      <c r="B16" s="190">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3199,7 +3193,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="190"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3217,7 +3211,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="189">
+      <c r="B18" s="190">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3306,7 +3300,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="207">
+      <c r="B21" s="188">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3334,7 +3328,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="208"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3474,7 +3468,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="206"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3751,7 +3745,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="209"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3794,16 +3788,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3811,11 +3800,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9416,11 +9410,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9434,6 +9423,11 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BEF97-3FA3-4646-B1A1-834D4D0EE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA10174B-4500-4187-8C89-E8186BF77B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="165">
   <si>
     <t>UnSettled</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>IndiaToday</t>
+  </si>
+  <si>
+    <t>France 24 E</t>
+  </si>
+  <si>
+    <t>TRT World</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1767,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1773,64 +1836,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2116,7 +2122,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2264,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2284,9 @@
       <c r="I5" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="168"/>
+      <c r="J5" s="168" t="s">
+        <v>142</v>
+      </c>
       <c r="K5" s="37" t="s">
         <v>85</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2314,7 +2322,7 @@
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>62</v>
@@ -2323,7 +2331,7 @@
         <v>120</v>
       </c>
       <c r="M6" s="149" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="N6" s="148" t="s">
         <v>69</v>
@@ -2335,7 +2343,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2381,7 +2389,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2398,7 +2406,9 @@
       <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="83" t="s">
+        <v>124</v>
+      </c>
       <c r="K8" s="33"/>
       <c r="L8" s="143" t="s">
         <v>121</v>
@@ -2437,7 +2447,7 @@
       </c>
       <c r="I9" s="83"/>
       <c r="J9" s="83" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>21</v>
@@ -2475,10 +2485,10 @@
       <c r="I10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="37" t="s">
+      <c r="J10" s="83" t="s">
         <v>123</v>
       </c>
+      <c r="K10" s="37"/>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
@@ -2523,9 +2533,11 @@
         <v>116</v>
       </c>
       <c r="J11" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="37"/>
+        <v>164</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
@@ -2701,18 +2713,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="204"/>
+      <c r="F1" s="187"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="205"/>
-      <c r="J1" s="204"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="187"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2742,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="190">
+      <c r="B2" s="189">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2757,15 +2769,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="206">
+      <c r="K2" s="192">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="194">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="193">
+      <c r="M2" s="196">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2776,7 +2788,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="192"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2791,9 +2803,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="194"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="197"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2812,9 +2824,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="194"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="197"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2896,7 +2908,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="195">
+      <c r="B7" s="198">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2913,22 +2925,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="197">
+      <c r="K7" s="200">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="199">
+      <c r="L7" s="202">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="201">
+      <c r="M7" s="204">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="196"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2949,9 +2961,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="202"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="205"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3031,7 +3043,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="195">
+      <c r="B11" s="198">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3058,7 +3070,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3115,7 +3127,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="195">
+      <c r="B14" s="198">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3138,7 +3150,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3162,7 +3174,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="190">
+      <c r="B16" s="189">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3193,7 +3205,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="192"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3211,7 +3223,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="190">
+      <c r="B18" s="189">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3300,7 +3312,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="188">
+      <c r="B21" s="207">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3328,7 +3340,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="189"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3468,7 +3480,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="187"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3745,7 +3757,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="186"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3788,11 +3800,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3800,16 +3817,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9410,6 +9422,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9423,11 +9440,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA10174B-4500-4187-8C89-E8186BF77B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07471591-9074-4941-A2F0-25FF2D3ED25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="167">
   <si>
     <t>UnSettled</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>TRT World</t>
+  </si>
+  <si>
+    <t>Rw - Kota</t>
+  </si>
+  <si>
+    <t>Rw - Kolkata</t>
   </si>
 </sst>
 </file>
@@ -743,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1332,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1767,36 +1786,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,16 +1837,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2121,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,11 +2346,11 @@
         <v>17</v>
       </c>
       <c r="I6" s="83"/>
-      <c r="J6" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>62</v>
+      <c r="J6" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>133</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
@@ -2361,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="124" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I7" s="83" t="s">
         <v>105</v>
@@ -2371,9 +2396,9 @@
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="M7" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="211" t="s">
         <v>85</v>
       </c>
       <c r="N7" s="148" t="s">
@@ -2401,22 +2426,24 @@
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I8" s="83" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="33"/>
+        <v>163</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="L8" s="143" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="148" t="s">
+      <c r="N8" s="210" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="154">
@@ -2443,20 +2470,18 @@
         <v>71</v>
       </c>
       <c r="H9" s="156" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I9" s="83"/>
       <c r="J9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="K9" s="33"/>
       <c r="L9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="145" t="s">
-        <v>22</v>
+      <c r="M9" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="N9" s="148" t="s">
         <v>64</v>
@@ -2480,11 +2505,9 @@
         <v>81</v>
       </c>
       <c r="H10" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I10" s="83"/>
       <c r="J10" s="83" t="s">
         <v>123</v>
       </c>
@@ -2535,8 +2558,8 @@
       <c r="J11" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>155</v>
+      <c r="K11" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="L11" s="143" t="s">
         <v>110</v>
@@ -2654,6 +2677,7 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
+      <c r="J18" s="119"/>
       <c r="K18" s="170"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -2688,7 +2712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -2713,18 +2737,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="187"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="186" t="s">
+      <c r="H1" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="187"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2766,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="189">
+      <c r="B2" s="190">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2769,15 +2793,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="192">
+      <c r="K2" s="206">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="194">
+      <c r="L2" s="208">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="196">
+      <c r="M2" s="193">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2788,7 +2812,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="190"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2803,9 +2827,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="197"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="194"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2824,9 +2848,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="197"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="194"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2908,7 +2932,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="198">
+      <c r="B7" s="195">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2925,22 +2949,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="200">
+      <c r="K7" s="197">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="202">
+      <c r="L7" s="199">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="204">
+      <c r="M7" s="201">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="199"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2961,9 +2985,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="205"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="202"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3043,7 +3067,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="198">
+      <c r="B11" s="195">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3070,7 +3094,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3127,7 +3151,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="198">
+      <c r="B14" s="195">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3150,7 +3174,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3174,7 +3198,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="189">
+      <c r="B16" s="190">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3205,7 +3229,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="190"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3223,7 +3247,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="189">
+      <c r="B18" s="190">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3312,7 +3336,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="207">
+      <c r="B21" s="188">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3340,7 +3364,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="208"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3480,7 +3504,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="206"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3757,7 +3781,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="209"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3800,16 +3824,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3817,11 +3836,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3831,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:P48"/>
     </sheetView>
   </sheetViews>
@@ -9422,11 +9446,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9440,6 +9459,11 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07471591-9074-4941-A2F0-25FF2D3ED25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53604C0-FD23-47D8-8185-6CE11170E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="172">
   <si>
     <t>UnSettled</t>
   </si>
@@ -536,14 +536,29 @@
     <t>Rw - Kota</t>
   </si>
   <si>
-    <t>Rw - Kolkata</t>
+    <t>WL F Media</t>
+  </si>
+  <si>
+    <t>WL F IT</t>
+  </si>
+  <si>
+    <t>Spouse WL Police</t>
+  </si>
+  <si>
+    <t>Rw - BBSR</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>WL MatriX ShieldW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +695,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1349,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1739,9 +1761,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1786,7 +1805,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1798,71 +1874,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2146,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,10 +2221,10 @@
     <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="208" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="152" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1" customWidth="1"/>
@@ -2182,14 +2242,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="175">
+      <c r="C2" s="174">
         <f>B3+B4</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="180"/>
+      <c r="F2" s="179"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2262,7 @@
       <c r="J2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="209" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -2211,7 +2271,7 @@
       <c r="M2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="213" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="153" t="s">
@@ -2235,21 +2295,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="176"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
+      <c r="A4" s="173"/>
       <c r="B4" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2257,7 +2317,9 @@
       <c r="E4" s="140">
         <v>25</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="165">
+        <v>20</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2265,25 +2327,25 @@
         <v>17</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="211" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="145" t="s">
+      <c r="M4" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="146" t="s">
+      <c r="N4" s="214" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.42708333333333331</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q4" s="154">
         <v>0.42708333333333331</v>
@@ -2299,33 +2361,35 @@
       <c r="E5" s="167">
         <v>20</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>10</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
       <c r="H5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="83" t="s">
-        <v>113</v>
+      <c r="I5" s="211" t="s">
+        <v>166</v>
       </c>
       <c r="J5" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="211" t="s">
         <v>85</v>
       </c>
       <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="147" t="s">
+      <c r="M5" s="227" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="148" t="s">
+      <c r="N5" s="215" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.42708333333333331</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q5" s="154">
         <v>0.42708333333333331</v>
@@ -2335,34 +2399,39 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="221">
+        <v>500</v>
+      </c>
       <c r="E6" s="167">
         <v>10</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
       <c r="H6" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="211" t="s">
         <v>133</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="149" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="148" t="s">
+      <c r="M6" s="33"/>
+      <c r="N6" s="218" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="154">
-        <v>0.42708333333333331</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q6" s="154">
         <v>0.85555555555555562</v>
@@ -2381,31 +2450,33 @@
       <c r="E7" s="140">
         <v>7</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="124" t="s">
-        <v>36</v>
+      <c r="H7" s="107" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="J7" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="M7" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="148" t="s">
+      <c r="N7" s="216" t="s">
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.42708333333333331</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2418,10 +2489,12 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="184">
+      <c r="E8" s="183">
         <v>25</v>
       </c>
-      <c r="F8" s="181"/>
+      <c r="F8" s="180">
+        <v>55</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2507,7 @@
       <c r="J8" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="209" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="143" t="s">
@@ -2443,11 +2516,11 @@
       <c r="M8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="210" t="s">
+      <c r="N8" s="216" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q8" s="154">
         <v>0.85555555555555562</v>
@@ -2461,10 +2534,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="8">
-        <f>7300-C2</f>
-        <v>7290</v>
-      </c>
-      <c r="E9" s="185"/>
+        <f>7000+B6-C2</f>
+        <v>7485</v>
+      </c>
+      <c r="E9" s="184"/>
       <c r="F9" s="182"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
@@ -2472,57 +2545,65 @@
       <c r="H9" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="211" t="s">
+        <v>166</v>
+      </c>
       <c r="J9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="222" t="s">
+        <v>62</v>
+      </c>
       <c r="L9" s="143" t="s">
         <v>129</v>
       </c>
       <c r="M9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="148" t="s">
+      <c r="N9" s="215" t="s">
         <v>64</v>
       </c>
       <c r="O9" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q9" s="154">
-        <v>0.85555555555555562</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="166">
         <v>7</v>
       </c>
-      <c r="F10" s="183"/>
+      <c r="F10" s="219">
+        <v>70</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="37"/>
+      <c r="I10" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="223"/>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
       <c r="M10" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="148" t="s">
+      <c r="N10" s="215" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="154">
-        <v>0.43402777777777773</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>126</v>
@@ -2531,7 +2612,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2545,33 +2626,31 @@
       <c r="E11" s="140">
         <v>7</v>
       </c>
-      <c r="F11" s="165"/>
+      <c r="F11" s="165">
+        <v>10</v>
+      </c>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>62</v>
-      </c>
+      <c r="I11" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="226"/>
+      <c r="K11" s="224"/>
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
       <c r="M11" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="151" t="s">
+      <c r="N11" s="217" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
-        <v>0.42708333333333331</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="Q11" s="154">
         <v>0.85555555555555562</v>
@@ -2581,16 +2660,15 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="178"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="M12" s="30"/>
-      <c r="N12"/>
       <c r="O12" s="155"/>
       <c r="P12" s="24"/>
     </row>
@@ -2600,16 +2678,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7290</v>
+        <v>7485</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="170"/>
+      <c r="K13" s="210"/>
       <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="172"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="171"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2618,11 +2695,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="170"/>
+      <c r="K14" s="210"/>
       <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="172"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="171"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2637,12 +2713,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="170"/>
+      <c r="K15" s="210"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="172"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="171"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2652,7 +2727,6 @@
       <c r="I16" s="119"/>
       <c r="J16" s="119"/>
       <c r="M16"/>
-      <c r="N16"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
@@ -2662,9 +2736,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="172"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="171"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2677,20 +2750,19 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="170"/>
+      <c r="K18" s="210"/>
       <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="170"/>
+      <c r="K19" s="210"/>
       <c r="M19"/>
-      <c r="N19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -2701,8 +2773,10 @@
     <mergeCell ref="P13:P15"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="F8:F10"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,9 +2784,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -2737,18 +2811,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="204"/>
+      <c r="F1" s="186"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="205"/>
-      <c r="J1" s="204"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="186"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2766,7 +2840,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="190">
+      <c r="B2" s="188">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2793,26 +2867,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="206">
+      <c r="K2" s="191">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="193">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="193">
+      <c r="M2" s="195">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J39)</f>
-        <v>7250</v>
+        <f>SUM(E2:J40)</f>
+        <v>7445</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="192"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2827,13 +2901,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="194"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="196"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="191"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2848,9 +2922,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="194"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="196"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2932,7 +3006,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="195">
+      <c r="B7" s="197">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -2949,22 +3023,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="197">
+      <c r="K7" s="199">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="199">
+      <c r="L7" s="201">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="201">
+      <c r="M7" s="203">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="196"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -2985,9 +3059,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="198"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="202"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="204"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3067,7 +3141,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="195">
+      <c r="B11" s="197">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3094,7 +3168,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3151,7 +3225,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="195">
+      <c r="B14" s="197">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3174,7 +3248,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3198,7 +3272,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="190">
+      <c r="B16" s="188">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3229,7 +3303,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="192"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3247,7 +3321,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="190">
+      <c r="B18" s="188">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3276,7 +3350,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3336,7 +3410,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="188">
+      <c r="B21" s="206">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3364,7 +3438,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="189"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3416,7 +3490,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="175">
+      <c r="B24" s="174">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3445,7 +3519,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3473,7 +3547,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="175">
+      <c r="B26" s="174">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3504,7 +3578,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="187"/>
+      <c r="B27" s="205"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3535,7 +3609,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="175">
+      <c r="B28" s="174">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3557,7 +3631,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="176"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3583,7 +3657,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="175">
+      <c r="B30" s="174">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3606,7 +3680,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="176"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3633,7 +3707,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="175">
+      <c r="B32" s="174">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3655,7 +3729,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="176"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3705,7 +3779,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="175">
+      <c r="B35" s="174">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3729,7 +3803,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="176"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3751,7 +3825,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="175">
+      <c r="B37" s="174">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3780,9 +3854,9 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="186"/>
-      <c r="C38" s="82"/>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="175"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
       <c r="F38" s="82">
@@ -3799,10 +3873,10 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
+      <c r="B39" s="174">
         <v>24</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="142"/>
       <c r="D39" s="18">
         <v>101</v>
       </c>
@@ -3822,13 +3896,47 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
+    <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="175"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="18">
+        <v>210</v>
+      </c>
+      <c r="E40" s="18">
+        <v>55</v>
+      </c>
+      <c r="F40" s="220">
+        <v>20</v>
+      </c>
+      <c r="G40" s="220">
+        <v>70</v>
+      </c>
+      <c r="H40" s="220">
+        <v>20</v>
+      </c>
+      <c r="I40" s="220">
+        <v>20</v>
+      </c>
+      <c r="J40" s="220">
+        <v>10</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+  <mergeCells count="23">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B11:B12"/>
@@ -3836,16 +3944,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7052,10 +7155,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="177" t="s">
+      <c r="AG24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="178"/>
+      <c r="AH24" s="177"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7075,10 +7178,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="177" t="s">
+      <c r="AZ24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="178"/>
+      <c r="BA24" s="177"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7098,10 +7201,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="177" t="s">
+      <c r="BR24" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="178"/>
+      <c r="BS24" s="177"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7124,10 +7227,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="180"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7164,10 +7267,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="179" t="s">
+      <c r="R26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="180"/>
+      <c r="S26" s="179"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7204,10 +7307,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="179" t="s">
+      <c r="AG26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="180"/>
+      <c r="AH26" s="179"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7244,10 +7347,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="179" t="s">
+      <c r="AW26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="180"/>
+      <c r="AX26" s="179"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7284,10 +7387,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="179" t="s">
+      <c r="BM26" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="180"/>
+      <c r="BN26" s="179"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8281,7 +8384,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="181">
+      <c r="AX32" s="180">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8319,7 +8422,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="181">
+      <c r="BN32" s="180">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8468,7 +8571,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="182"/>
+      <c r="AX33" s="181"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8504,7 +8607,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="182"/>
+      <c r="BN33" s="181"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8655,7 +8758,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="183"/>
+      <c r="AX34" s="182"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8693,7 +8796,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="183"/>
+      <c r="BN34" s="182"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8924,10 +9027,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="178"/>
+      <c r="C36" s="177"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -8945,10 +9048,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="177" t="s">
+      <c r="R36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="178"/>
+      <c r="S36" s="177"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -8966,10 +9069,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="177" t="s">
+      <c r="AG36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="178"/>
+      <c r="AH36" s="177"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -8987,10 +9090,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="177" t="s">
+      <c r="AW36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="178"/>
+      <c r="AX36" s="177"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9008,10 +9111,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="177" t="s">
+      <c r="BM36" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="178"/>
+      <c r="BN36" s="177"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9031,10 +9134,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="180"/>
+      <c r="C38" s="179"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9264,7 +9367,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="181">
+      <c r="C44" s="180">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9305,7 +9408,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="182"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9342,7 +9445,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="183"/>
+      <c r="C46" s="182"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9425,10 +9528,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="178"/>
+      <c r="C48" s="177"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9446,6 +9549,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9459,11 +9567,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53604C0-FD23-47D8-8185-6CE11170E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CEA5B-C07C-466C-93B1-83BF8EEF3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>WL MatriX ShieldW</t>
+  </si>
+  <si>
+    <t>WL F Sports</t>
+  </si>
+  <si>
+    <t>Wion</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1760,6 +1766,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1790,138 +1825,106 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2207,7 +2210,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K13" sqref="K13:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,7 +2224,7 @@
     <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="208" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2242,14 +2245,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="174">
+      <c r="C2" s="185">
         <f>B3+B4</f>
         <v>15</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="179"/>
+      <c r="F2" s="190"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="J2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="209" t="s">
+      <c r="K2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -2271,7 +2274,7 @@
       <c r="M2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="213" t="s">
+      <c r="N2" s="172" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="153" t="s">
@@ -2295,19 +2298,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="183" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="34">
         <v>15</v>
       </c>
@@ -2326,22 +2329,22 @@
       <c r="H4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="83" t="s">
-        <v>105</v>
+      <c r="I4" s="170" t="s">
+        <v>172</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="170" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="212" t="s">
+      <c r="M4" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="214" t="s">
+      <c r="N4" s="173" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="154">
@@ -2370,22 +2373,22 @@
       <c r="H5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="211" t="s">
+      <c r="I5" s="170" t="s">
         <v>166</v>
       </c>
       <c r="J5" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="211" t="s">
+      <c r="K5" s="170" t="s">
         <v>85</v>
       </c>
       <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="227" t="s">
+      <c r="M5" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="215" t="s">
+      <c r="N5" s="174" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="154">
@@ -2399,7 +2402,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="221">
+      <c r="B6" s="1">
         <v>500</v>
       </c>
       <c r="E6" s="167">
@@ -2414,20 +2417,22 @@
       <c r="H6" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="I6" s="170" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="211" t="s">
+      <c r="K6" s="170" t="s">
         <v>133</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="218" t="s">
+      <c r="M6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="N6" s="177" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="154">
@@ -2465,14 +2470,16 @@
       <c r="J7" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="83"/>
+      <c r="K7" s="83" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="143" t="s">
         <v>169</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="216" t="s">
+      <c r="N7" s="175" t="s">
         <v>90</v>
       </c>
       <c r="O7" s="154">
@@ -2489,25 +2496,25 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="183">
+      <c r="E8" s="191">
         <v>25</v>
       </c>
-      <c r="F8" s="180">
+      <c r="F8" s="193">
         <v>55</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="223" t="s">
+        <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="143" t="s">
@@ -2516,7 +2523,7 @@
       <c r="M8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="216" t="s">
+      <c r="N8" s="175" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="154">
@@ -2537,21 +2544,19 @@
         <f>7000+B6-C2</f>
         <v>7485</v>
       </c>
-      <c r="E9" s="184"/>
-      <c r="F9" s="182"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="156" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="211" t="s">
-        <v>166</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I9" s="224"/>
       <c r="J9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="222" t="s">
+      <c r="K9" s="220" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
@@ -2560,7 +2565,7 @@
       <c r="M9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="215" t="s">
+      <c r="N9" s="174" t="s">
         <v>64</v>
       </c>
       <c r="O9" s="154">
@@ -2577,29 +2582,31 @@
       <c r="E10" s="166">
         <v>7</v>
       </c>
-      <c r="F10" s="219">
+      <c r="F10" s="178">
         <v>70</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="225" t="s">
+      <c r="J10" s="222" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="223"/>
+      <c r="K10" s="219" t="s">
+        <v>124</v>
+      </c>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
       <c r="M10" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="N10" s="215" t="s">
+      <c r="N10" s="174" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="154">
@@ -2638,15 +2645,19 @@
       <c r="I11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="226"/>
-      <c r="K11" s="224"/>
+      <c r="J11" s="221" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="220" t="s">
+        <v>173</v>
+      </c>
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
       <c r="M11" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="217" t="s">
+      <c r="N11" s="176" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
@@ -2660,10 +2671,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="188"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>296</v>
@@ -2683,10 +2694,10 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="210"/>
+      <c r="K13" s="180"/>
       <c r="M13"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="182"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2695,10 +2706,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="210"/>
+      <c r="K14" s="180"/>
       <c r="M14"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="182"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2713,11 +2724,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="210"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="182"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2736,8 +2747,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="182"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2752,17 +2763,17 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="210"/>
+      <c r="K18" s="180"/>
       <c r="M18"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="210"/>
+      <c r="K19" s="180"/>
       <c r="M19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -2775,8 +2786,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2811,18 +2821,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="185" t="s">
+      <c r="E1" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="186"/>
+      <c r="F1" s="212"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="186"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="212"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +2850,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="188">
+      <c r="B2" s="198">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2867,15 +2877,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="191">
+      <c r="K2" s="214">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="193">
+      <c r="L2" s="216">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="195">
+      <c r="M2" s="201">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2886,7 +2896,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="189"/>
+      <c r="B3" s="200"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2901,13 +2911,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="196"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="202"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="190"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2922,9 +2932,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="196"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="202"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3006,7 +3016,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="197">
+      <c r="B7" s="203">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3023,22 +3033,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="199">
+      <c r="K7" s="205">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="201">
+      <c r="L7" s="207">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="203">
+      <c r="M7" s="209">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="198"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3059,9 +3069,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="200"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="204"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="210"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3141,7 +3151,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="197">
+      <c r="B11" s="203">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3168,7 +3178,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="198"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3225,7 +3235,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="197">
+      <c r="B14" s="203">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3248,7 +3258,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="198"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3272,7 +3282,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="188">
+      <c r="B16" s="198">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3303,7 +3313,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="200"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3321,7 +3331,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="188">
+      <c r="B18" s="198">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3350,7 +3360,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="190"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3410,7 +3420,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="206">
+      <c r="B21" s="196">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3438,7 +3448,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="207"/>
+      <c r="B22" s="197"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3490,7 +3500,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="174">
+      <c r="B24" s="185">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3519,7 +3529,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="175"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3547,7 +3557,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174">
+      <c r="B26" s="185">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3578,7 +3588,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="205"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3609,7 +3619,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="174">
+      <c r="B28" s="185">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3631,7 +3641,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="175"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3657,7 +3667,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="174">
+      <c r="B30" s="185">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3680,7 +3690,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="175"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3707,7 +3717,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="174">
+      <c r="B32" s="185">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3729,7 +3739,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="175"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3779,7 +3789,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="174">
+      <c r="B35" s="185">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3803,7 +3813,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="175"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3825,7 +3835,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="174">
+      <c r="B37" s="185">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3855,7 +3865,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="175"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3873,7 +3883,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="174">
+      <c r="B39" s="185">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3897,7 +3907,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="175"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="142"/>
       <c r="D40" s="18">
         <v>210</v>
@@ -3905,19 +3915,19 @@
       <c r="E40" s="18">
         <v>55</v>
       </c>
-      <c r="F40" s="220">
+      <c r="F40" s="18">
         <v>20</v>
       </c>
-      <c r="G40" s="220">
+      <c r="G40" s="18">
         <v>70</v>
       </c>
-      <c r="H40" s="220">
+      <c r="H40" s="18">
         <v>20</v>
       </c>
-      <c r="I40" s="220">
+      <c r="I40" s="18">
         <v>20</v>
       </c>
-      <c r="J40" s="220">
+      <c r="J40" s="18">
         <v>10</v>
       </c>
       <c r="K40" s="18"/>
@@ -3926,16 +3936,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3944,11 +3949,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7155,10 +7165,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="176" t="s">
+      <c r="AG24" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="177"/>
+      <c r="AH24" s="188"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7178,10 +7188,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="176" t="s">
+      <c r="AZ24" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="177"/>
+      <c r="BA24" s="188"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7201,10 +7211,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="176" t="s">
+      <c r="BR24" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="177"/>
+      <c r="BS24" s="188"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7227,10 +7237,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="179"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7267,10 +7277,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="178" t="s">
+      <c r="R26" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="179"/>
+      <c r="S26" s="190"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7307,10 +7317,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="178" t="s">
+      <c r="AG26" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="179"/>
+      <c r="AH26" s="190"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7347,10 +7357,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="178" t="s">
+      <c r="AW26" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="179"/>
+      <c r="AX26" s="190"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7387,10 +7397,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="178" t="s">
+      <c r="BM26" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="179"/>
+      <c r="BN26" s="190"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8384,7 +8394,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="180">
+      <c r="AX32" s="193">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8422,7 +8432,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="180">
+      <c r="BN32" s="193">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8571,7 +8581,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="181"/>
+      <c r="AX33" s="218"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8607,7 +8617,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="181"/>
+      <c r="BN33" s="218"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8758,7 +8768,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="182"/>
+      <c r="AX34" s="194"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8796,7 +8806,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="182"/>
+      <c r="BN34" s="194"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9027,10 +9037,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="177"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9048,10 +9058,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="176" t="s">
+      <c r="R36" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="177"/>
+      <c r="S36" s="188"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9069,10 +9079,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="176" t="s">
+      <c r="AG36" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="177"/>
+      <c r="AH36" s="188"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9090,10 +9100,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="176" t="s">
+      <c r="AW36" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="177"/>
+      <c r="AX36" s="188"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9111,10 +9121,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="176" t="s">
+      <c r="BM36" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="177"/>
+      <c r="BN36" s="188"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9134,10 +9144,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="178" t="s">
+      <c r="B38" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="179"/>
+      <c r="C38" s="190"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9367,7 +9377,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="180">
+      <c r="C44" s="193">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9408,7 +9418,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="181"/>
+      <c r="C45" s="218"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9445,7 +9455,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="182"/>
+      <c r="C46" s="194"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9528,10 +9538,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="177"/>
+      <c r="C48" s="188"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9549,11 +9559,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9567,6 +9572,11 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CEA5B-C07C-466C-93B1-83BF8EEF3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F53BFF-E31C-489A-B91E-551D0401B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="173">
   <si>
     <t>UnSettled</t>
   </si>
@@ -545,19 +545,16 @@
     <t>Spouse WL Police</t>
   </si>
   <si>
-    <t>Rw - BBSR</t>
-  </si>
-  <si>
     <t>26/12/2023</t>
   </si>
   <si>
-    <t>WL MatriX ShieldW</t>
-  </si>
-  <si>
     <t>WL F Sports</t>
   </si>
   <si>
     <t>Wion</t>
+  </si>
+  <si>
+    <t>Rw - Kolkata</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1794,6 +1791,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1837,6 +1843,72 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1846,85 +1918,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2210,7 +2204,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,14 +2239,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="185">
+      <c r="C2" s="188">
         <f>B3+B4</f>
         <v>15</v>
       </c>
-      <c r="E2" s="189" t="s">
+      <c r="E2" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="190"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2298,19 +2292,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="186" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="189"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
+      <c r="A4" s="187"/>
       <c r="B4" s="34">
         <v>15</v>
       </c>
@@ -2330,7 +2324,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="170" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>139</v>
@@ -2430,7 +2424,7 @@
         <v>120</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N6" s="177" t="s">
         <v>69</v>
@@ -2464,17 +2458,17 @@
       <c r="H7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="83" t="s">
-        <v>171</v>
+      <c r="I7" s="170" t="s">
+        <v>166</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="K7" s="83" t="s">
         <v>70</v>
       </c>
       <c r="L7" s="143" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>85</v>
@@ -2496,10 +2490,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="191">
+      <c r="E8" s="194">
         <v>25</v>
       </c>
-      <c r="F8" s="193">
+      <c r="F8" s="196">
         <v>55</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -2508,7 +2502,7 @@
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="223" t="s">
+      <c r="I8" s="198" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2544,19 +2538,19 @@
         <f>7000+B6-C2</f>
         <v>7485</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="194"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="224"/>
+      <c r="I9" s="199"/>
       <c r="J9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="220" t="s">
+      <c r="K9" s="181" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
@@ -2575,7 +2569,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,10 +2588,10 @@
       <c r="I10" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="222" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" s="219" t="s">
+      <c r="J10" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="180" t="s">
         <v>124</v>
       </c>
       <c r="L10" s="144" t="s">
@@ -2619,7 +2613,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,11 +2639,11 @@
       <c r="I11" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="221" t="s">
+      <c r="J11" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="220" t="s">
-        <v>173</v>
+      <c r="K11" s="181" t="s">
+        <v>171</v>
       </c>
       <c r="L11" s="143" t="s">
         <v>110</v>
@@ -2671,10 +2665,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="187" t="s">
+      <c r="E12" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="188"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>296</v>
@@ -2694,10 +2688,10 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="180"/>
+      <c r="K13" s="183"/>
       <c r="M13"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="182"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2706,10 +2700,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="180"/>
+      <c r="K14" s="183"/>
       <c r="M14"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="182"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="185"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2724,11 +2718,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="180"/>
+      <c r="K15" s="183"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="182"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="185"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2747,8 +2741,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="182"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="185"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2763,13 +2757,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="180"/>
+      <c r="K18" s="183"/>
       <c r="M18"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="185"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="180"/>
+      <c r="K19" s="183"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2821,18 +2815,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="212"/>
+      <c r="F1" s="201"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="211" t="s">
+      <c r="H1" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="213"/>
-      <c r="J1" s="212"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="201"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2844,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="198">
+      <c r="B2" s="203">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2877,15 +2871,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="214">
+      <c r="K2" s="206">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="216">
+      <c r="L2" s="208">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="201">
+      <c r="M2" s="210">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2896,7 +2890,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="200"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2911,13 +2905,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="202"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="211"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="199"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2932,9 +2926,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="202"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="211"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3016,7 +3010,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="203">
+      <c r="B7" s="212">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3033,22 +3027,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="205">
+      <c r="K7" s="214">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="207">
+      <c r="L7" s="216">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="209">
+      <c r="M7" s="218">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="204"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3069,9 +3063,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="206"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="210"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="219"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3151,7 +3145,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="203">
+      <c r="B11" s="212">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3178,7 +3172,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="204"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3235,7 +3229,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="203">
+      <c r="B14" s="212">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3258,7 +3252,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="204"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3282,7 +3276,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="198">
+      <c r="B16" s="203">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3313,7 +3307,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="200"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3331,7 +3325,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="198">
+      <c r="B18" s="203">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3360,7 +3354,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="199"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3420,7 +3414,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="196">
+      <c r="B21" s="221">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3448,7 +3442,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="197"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3500,7 +3494,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="185">
+      <c r="B24" s="188">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3529,7 +3523,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="186"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3557,7 +3551,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="185">
+      <c r="B26" s="188">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3588,7 +3582,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3619,7 +3613,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="185">
+      <c r="B28" s="188">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3641,7 +3635,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="186"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3667,7 +3661,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="185">
+      <c r="B30" s="188">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3690,7 +3684,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3717,7 +3711,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="185">
+      <c r="B32" s="188">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3739,7 +3733,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="186"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3789,7 +3783,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="185">
+      <c r="B35" s="188">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3813,7 +3807,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="186"/>
+      <c r="B36" s="189"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3835,7 +3829,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="185">
+      <c r="B37" s="188">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3865,7 +3859,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="186"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3883,7 +3877,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="185">
+      <c r="B39" s="188">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3907,7 +3901,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="186"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="142"/>
       <c r="D40" s="18">
         <v>210</v>
@@ -3936,11 +3930,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3949,16 +3948,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7165,10 +7159,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="187" t="s">
+      <c r="AG24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="188"/>
+      <c r="AH24" s="191"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7188,10 +7182,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="187" t="s">
+      <c r="AZ24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="188"/>
+      <c r="BA24" s="191"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7211,10 +7205,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="187" t="s">
+      <c r="BR24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="188"/>
+      <c r="BS24" s="191"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7237,10 +7231,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="189" t="s">
+      <c r="B26" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="190"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7277,10 +7271,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="189" t="s">
+      <c r="R26" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="190"/>
+      <c r="S26" s="193"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7317,10 +7311,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="189" t="s">
+      <c r="AG26" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="190"/>
+      <c r="AH26" s="193"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7357,10 +7351,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="189" t="s">
+      <c r="AW26" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="190"/>
+      <c r="AX26" s="193"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7397,10 +7391,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="189" t="s">
+      <c r="BM26" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="190"/>
+      <c r="BN26" s="193"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8394,7 +8388,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="193">
+      <c r="AX32" s="196">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8432,7 +8426,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="193">
+      <c r="BN32" s="196">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8581,7 +8575,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="218"/>
+      <c r="AX33" s="223"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8617,7 +8611,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="218"/>
+      <c r="BN33" s="223"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8768,7 +8762,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="194"/>
+      <c r="AX34" s="197"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8806,7 +8800,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="194"/>
+      <c r="BN34" s="197"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9037,10 +9031,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="191"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9058,10 +9052,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="187" t="s">
+      <c r="R36" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="188"/>
+      <c r="S36" s="191"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9079,10 +9073,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="187" t="s">
+      <c r="AG36" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="188"/>
+      <c r="AH36" s="191"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9100,10 +9094,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="187" t="s">
+      <c r="AW36" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="188"/>
+      <c r="AX36" s="191"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9121,10 +9115,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="187" t="s">
+      <c r="BM36" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="188"/>
+      <c r="BN36" s="191"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9144,10 +9138,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="190"/>
+      <c r="C38" s="193"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9377,7 +9371,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="193">
+      <c r="C44" s="196">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9418,7 +9412,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="218"/>
+      <c r="C45" s="223"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9455,7 +9449,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="194"/>
+      <c r="C46" s="197"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9538,10 +9532,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="187" t="s">
+      <c r="B48" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="188"/>
+      <c r="C48" s="191"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9559,6 +9553,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9572,11 +9571,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F53BFF-E31C-489A-B91E-551D0401B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E25851-5707-476F-BFA0-577C070FE906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>Rw - Kolkata</t>
+  </si>
+  <si>
+    <t>WL F Lawyer</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1843,11 +1846,53 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1858,15 +1903,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1879,47 +1915,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2204,7 +2210,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K18" sqref="K18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2294,7 @@
       </c>
       <c r="U2" s="98">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2418,7 +2424,7 @@
         <v>155</v>
       </c>
       <c r="K6" s="170" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="L6" s="143" t="s">
         <v>120</v>
@@ -2459,13 +2465,13 @@
         <v>17</v>
       </c>
       <c r="I7" s="170" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>70</v>
+        <v>163</v>
+      </c>
+      <c r="K7" s="180" t="s">
+        <v>124</v>
       </c>
       <c r="L7" s="143" t="s">
         <v>172</v>
@@ -2502,11 +2508,11 @@
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="198" t="s">
+      <c r="I8" s="222" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>47</v>
@@ -2546,12 +2552,12 @@
       <c r="H9" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="199"/>
+      <c r="I9" s="223"/>
       <c r="J9" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="181" t="s">
-        <v>62</v>
+      <c r="K9" s="224" t="s">
+        <v>164</v>
       </c>
       <c r="L9" s="143" t="s">
         <v>129</v>
@@ -2591,8 +2597,8 @@
       <c r="J10" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="180" t="s">
-        <v>124</v>
+      <c r="K10" s="181" t="s">
+        <v>62</v>
       </c>
       <c r="L10" s="144" t="s">
         <v>122</v>
@@ -2815,18 +2821,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="201"/>
+      <c r="F1" s="215"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="J1" s="201"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="215"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2850,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203">
+      <c r="B2" s="201">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2871,15 +2877,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="206">
+      <c r="K2" s="217">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="219">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="210">
+      <c r="M2" s="204">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2890,7 +2896,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="204"/>
+      <c r="B3" s="203"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2905,13 +2911,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="211"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="205"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="205"/>
+      <c r="B4" s="202"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2926,9 +2932,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="211"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="205"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3010,7 +3016,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="212">
+      <c r="B7" s="206">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3027,22 +3033,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="214">
+      <c r="K7" s="208">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="216">
+      <c r="L7" s="210">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="218">
+      <c r="M7" s="212">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="213"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3063,9 +3069,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="215"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="219"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="213"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3145,7 +3151,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="212">
+      <c r="B11" s="206">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3172,7 +3178,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="213"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3229,7 +3235,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="212">
+      <c r="B14" s="206">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3252,7 +3258,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="213"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3276,7 +3282,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="203">
+      <c r="B16" s="201">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3307,7 +3313,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="204"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3325,7 +3331,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="203">
+      <c r="B18" s="201">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3354,7 +3360,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="205"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3414,7 +3420,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="221">
+      <c r="B21" s="199">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3442,7 +3448,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3582,7 +3588,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="220"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3930,16 +3936,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3948,11 +3949,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5513,7 +5519,7 @@
       </c>
       <c r="AC14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="AG14" s="99" t="s">
         <v>44</v>
@@ -5558,7 +5564,7 @@
       <c r="AU14" s="43"/>
       <c r="AV14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="AZ14" s="99" t="s">
         <v>44</v>
@@ -5603,7 +5609,7 @@
       <c r="BN14" s="43"/>
       <c r="BO14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="BR14" s="159" t="s">
         <v>44</v>
@@ -5648,7 +5654,7 @@
       <c r="CF14" s="43"/>
       <c r="CG14" s="98">
         <f ca="1">TODAY()</f>
-        <v>45284</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8575,7 +8581,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="223"/>
+      <c r="AX33" s="221"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8611,7 +8617,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="223"/>
+      <c r="BN33" s="221"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9412,7 +9418,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="223"/>
+      <c r="C45" s="221"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9553,11 +9559,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9571,6 +9572,11 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E25851-5707-476F-BFA0-577C070FE906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63E6C1-6DC7-42A5-BD2B-487F3EA3A3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -527,9 +527,6 @@
     <t>IndiaToday</t>
   </si>
   <si>
-    <t>France 24 E</t>
-  </si>
-  <si>
     <t>TRT World</t>
   </si>
   <si>
@@ -557,7 +554,10 @@
     <t>Rw - Kolkata</t>
   </si>
   <si>
-    <t>WL F Lawyer</t>
+    <t>MatriX ShieldW</t>
+  </si>
+  <si>
+    <t>ND TV24*7</t>
   </si>
 </sst>
 </file>
@@ -1803,6 +1803,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1846,6 +1849,72 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1855,77 +1924,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,14 +2245,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="188">
+      <c r="C2" s="189">
         <f>B3+B4</f>
         <v>15</v>
       </c>
-      <c r="E2" s="192" t="s">
+      <c r="E2" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="193"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2298,19 +2298,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="34">
         <v>15</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>139</v>
@@ -2374,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="168" t="s">
         <v>142</v>
@@ -2418,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6" s="83" t="s">
         <v>155</v>
@@ -2430,7 +2430,7 @@
         <v>120</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="177" t="s">
         <v>69</v>
@@ -2465,16 +2465,16 @@
         <v>17</v>
       </c>
       <c r="I7" s="170" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="180" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="180" t="s">
-        <v>124</v>
-      </c>
       <c r="L7" s="143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>85</v>
@@ -2496,10 +2496,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="194">
+      <c r="E8" s="195">
         <v>25</v>
       </c>
-      <c r="F8" s="196">
+      <c r="F8" s="197">
         <v>55</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -2508,7 +2508,7 @@
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="222" t="s">
+      <c r="I8" s="199" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2518,7 +2518,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M8" s="33" t="s">
         <v>94</v>
@@ -2544,20 +2544,20 @@
         <f>7000+B6-C2</f>
         <v>7485</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="197"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="223"/>
-      <c r="J9" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="224" t="s">
-        <v>164</v>
+      <c r="I9" s="200"/>
+      <c r="J9" s="183" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="181" t="s">
+        <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
         <v>129</v>
@@ -2575,7 +2575,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2592,14 +2592,12 @@
         <v>17</v>
       </c>
       <c r="I10" s="170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="181" t="s">
-        <v>62</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K10" s="181"/>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2643,13 +2641,13 @@
         <v>17</v>
       </c>
       <c r="I11" s="83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="182" t="s">
         <v>158</v>
       </c>
       <c r="K11" s="181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L11" s="143" t="s">
         <v>110</v>
@@ -2671,10 +2669,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="191"/>
+      <c r="F12" s="192"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>296</v>
@@ -2694,10 +2692,10 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="183"/>
+      <c r="K13" s="184"/>
       <c r="M13"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="186"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2706,10 +2704,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="183"/>
+      <c r="K14" s="184"/>
       <c r="M14"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="186"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2724,11 +2722,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="183"/>
+      <c r="K15" s="184"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2747,8 +2745,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="186"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2763,13 +2761,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="183"/>
+      <c r="K18" s="184"/>
       <c r="M18"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="186"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="183"/>
+      <c r="K19" s="184"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2821,18 +2819,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="215"/>
+      <c r="F1" s="202"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="214" t="s">
+      <c r="H1" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="215"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="202"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2848,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="201">
+      <c r="B2" s="204">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2877,15 +2875,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="217">
+      <c r="K2" s="207">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="219">
+      <c r="L2" s="209">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="204">
+      <c r="M2" s="211">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2896,7 +2894,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="203"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2911,13 +2909,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="205"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="202"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2932,9 +2930,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="205"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="212"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3016,7 +3014,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="206">
+      <c r="B7" s="213">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3033,22 +3031,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="208">
+      <c r="K7" s="215">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="210">
+      <c r="L7" s="217">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="212">
+      <c r="M7" s="219">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="207"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3069,9 +3067,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="209"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="213"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="220"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3151,7 +3149,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="206">
+      <c r="B11" s="213">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3178,7 +3176,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="207"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3235,7 +3233,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="206">
+      <c r="B14" s="213">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3258,7 +3256,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="207"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3282,7 +3280,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="201">
+      <c r="B16" s="204">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3313,7 +3311,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="203"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3331,7 +3329,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="201">
+      <c r="B18" s="204">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3360,7 +3358,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="202"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3420,7 +3418,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="199">
+      <c r="B21" s="222">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3448,7 +3446,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="200"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3500,7 +3498,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="188">
+      <c r="B24" s="189">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3529,7 +3527,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="189"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3557,7 +3555,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="188">
+      <c r="B26" s="189">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3588,7 +3586,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="198"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3619,7 +3617,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="188">
+      <c r="B28" s="189">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3641,7 +3639,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="189"/>
+      <c r="B29" s="190"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3667,7 +3665,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="188">
+      <c r="B30" s="189">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3690,7 +3688,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="189"/>
+      <c r="B31" s="190"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3717,7 +3715,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="188">
+      <c r="B32" s="189">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3739,7 +3737,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="189"/>
+      <c r="B33" s="190"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3789,7 +3787,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="188">
+      <c r="B35" s="189">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3813,7 +3811,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="189"/>
+      <c r="B36" s="190"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3835,7 +3833,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="188">
+      <c r="B37" s="189">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3865,7 +3863,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="189"/>
+      <c r="B38" s="190"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3883,7 +3881,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="188">
+      <c r="B39" s="189">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3907,7 +3905,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="189"/>
+      <c r="B40" s="190"/>
       <c r="C40" s="142"/>
       <c r="D40" s="18">
         <v>210</v>
@@ -3936,11 +3934,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3949,16 +3952,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7165,10 +7163,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="190" t="s">
+      <c r="AG24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="191"/>
+      <c r="AH24" s="192"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7188,10 +7186,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="190" t="s">
+      <c r="AZ24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="191"/>
+      <c r="BA24" s="192"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7211,10 +7209,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="190" t="s">
+      <c r="BR24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="191"/>
+      <c r="BS24" s="192"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7237,10 +7235,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="193"/>
+      <c r="C26" s="194"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7277,10 +7275,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="192" t="s">
+      <c r="R26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="193"/>
+      <c r="S26" s="194"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7317,10 +7315,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="192" t="s">
+      <c r="AG26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="193"/>
+      <c r="AH26" s="194"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7357,10 +7355,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="192" t="s">
+      <c r="AW26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="193"/>
+      <c r="AX26" s="194"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7397,10 +7395,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="192" t="s">
+      <c r="BM26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="193"/>
+      <c r="BN26" s="194"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8394,7 +8392,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="196">
+      <c r="AX32" s="197">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8432,7 +8430,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="196">
+      <c r="BN32" s="197">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8581,7 +8579,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="221"/>
+      <c r="AX33" s="224"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8617,7 +8615,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="221"/>
+      <c r="BN33" s="224"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8768,7 +8766,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="197"/>
+      <c r="AX34" s="198"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8806,7 +8804,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="197"/>
+      <c r="BN34" s="198"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9037,10 +9035,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="191"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9058,10 +9056,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="190" t="s">
+      <c r="R36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="191"/>
+      <c r="S36" s="192"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9079,10 +9077,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="190" t="s">
+      <c r="AG36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="191"/>
+      <c r="AH36" s="192"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9100,10 +9098,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="190" t="s">
+      <c r="AW36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="191"/>
+      <c r="AX36" s="192"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9121,10 +9119,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="190" t="s">
+      <c r="BM36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="191"/>
+      <c r="BN36" s="192"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9144,10 +9142,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="192" t="s">
+      <c r="B38" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="193"/>
+      <c r="C38" s="194"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9377,7 +9375,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="196">
+      <c r="C44" s="197">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9418,7 +9416,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="221"/>
+      <c r="C45" s="224"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9455,7 +9453,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="197"/>
+      <c r="C46" s="198"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9538,10 +9536,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="190" t="s">
+      <c r="B48" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="191"/>
+      <c r="C48" s="192"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9559,6 +9557,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9572,11 +9575,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63E6C1-6DC7-42A5-BD2B-487F3EA3A3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19CAD22-BFE0-4E45-8199-C4A9C56706D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1377,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1855,6 +1855,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,15 +1912,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1885,46 +1924,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2210,7 +2234,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,12 +2341,8 @@
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="140">
-        <v>25</v>
-      </c>
-      <c r="F4" s="165">
-        <v>20</v>
-      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="165"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2361,12 +2381,8 @@
       <c r="D5" s="157">
         <v>-2</v>
       </c>
-      <c r="E5" s="167">
-        <v>20</v>
-      </c>
-      <c r="F5" s="126">
-        <v>10</v>
-      </c>
+      <c r="E5" s="167"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2405,12 +2421,8 @@
       <c r="B6" s="1">
         <v>500</v>
       </c>
-      <c r="E6" s="167">
-        <v>10</v>
-      </c>
-      <c r="F6" s="127">
-        <v>20</v>
-      </c>
+      <c r="E6" s="167"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2452,12 +2464,8 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140">
-        <v>7</v>
-      </c>
-      <c r="F7" s="127">
-        <v>10</v>
-      </c>
+      <c r="E7" s="140"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2496,12 +2504,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="195">
-        <v>25</v>
-      </c>
-      <c r="F8" s="197">
-        <v>55</v>
-      </c>
+      <c r="E8" s="195"/>
+      <c r="F8" s="197"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
@@ -2556,7 +2560,7 @@
       <c r="J9" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="181" t="s">
+      <c r="K9" s="233" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
@@ -2579,12 +2583,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="166">
-        <v>7</v>
-      </c>
-      <c r="F10" s="178">
-        <v>70</v>
-      </c>
+      <c r="E10" s="166"/>
+      <c r="F10" s="178"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="J10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="181"/>
+      <c r="K10" s="234"/>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
@@ -2628,12 +2628,8 @@
         <f>B9-B13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="140">
-        <v>7</v>
-      </c>
-      <c r="F11" s="165">
-        <v>10</v>
-      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
@@ -2675,7 +2671,7 @@
       <c r="F12" s="192"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="M12" s="30"/>
       <c r="O12" s="155"/>
@@ -2771,7 +2767,7 @@
       <c r="M19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -2785,6 +2781,7 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2819,18 +2816,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="202"/>
+      <c r="F1" s="218"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="203"/>
-      <c r="J1" s="202"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="218"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2875,15 +2872,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="207">
+      <c r="K2" s="220">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="209">
+      <c r="L2" s="222">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="211">
+      <c r="M2" s="207">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="205"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2909,13 +2906,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="212"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="206"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2930,9 +2927,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="212"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="208"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3014,7 +3011,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="213">
+      <c r="B7" s="209">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3031,22 +3028,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="215">
+      <c r="K7" s="211">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="217">
+      <c r="L7" s="213">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="219">
+      <c r="M7" s="215">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="214"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3067,9 +3064,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="216"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="220"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="216"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3149,7 +3146,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="213">
+      <c r="B11" s="209">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3176,7 +3173,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3233,7 +3230,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="213">
+      <c r="B14" s="209">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3256,7 +3253,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3311,7 +3308,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="205"/>
+      <c r="B17" s="206"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3358,7 +3355,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="206"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3418,7 +3415,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="222">
+      <c r="B21" s="202">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3446,7 +3443,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="223"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3586,7 +3583,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="221"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3934,16 +3931,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3952,11 +3944,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3966,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF39B9-450C-4C51-9807-7AFD5CC29C14}">
   <dimension ref="A1:CG48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:P48"/>
+    <sheetView topLeftCell="S29" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9185,21 +9182,81 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
+      <c r="S38" s="193" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="194"/>
+      <c r="U38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA38" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB38" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC38" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE38" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF38" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG38" s="36" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="2"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="24"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="225"/>
+      <c r="I39" s="226"/>
+      <c r="J39" s="229"/>
+      <c r="K39" s="229"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="229"/>
+      <c r="N39" s="229"/>
+      <c r="O39" s="229"/>
+      <c r="P39" s="46"/>
+      <c r="S39" s="136"/>
+      <c r="T39" s="225"/>
+      <c r="U39" s="226"/>
+      <c r="V39" s="227"/>
+      <c r="W39" s="228"/>
+      <c r="X39" s="228"/>
+      <c r="Y39" s="226"/>
+      <c r="Z39" s="226"/>
+      <c r="AA39" s="229"/>
+      <c r="AB39" s="225"/>
+      <c r="AC39" s="230"/>
+      <c r="AD39" s="229"/>
+      <c r="AE39" s="229"/>
+      <c r="AF39" s="229"/>
+      <c r="AG39" s="46"/>
     </row>
     <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="140">
@@ -9232,16 +9289,57 @@
       <c r="K40" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="154">
+      <c r="L40" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="154">
+      <c r="M40" s="229"/>
+      <c r="N40" s="231">
         <v>0.47222222222222227</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="24" t="s">
+      <c r="O40" s="229"/>
+      <c r="P40" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S40" s="140">
+        <v>25</v>
+      </c>
+      <c r="T40" s="165">
+        <v>20</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" s="170" t="s">
+        <v>169</v>
+      </c>
+      <c r="X40" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y40" s="170" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z40" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA40" s="171" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB40" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC40" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD40" s="229"/>
+      <c r="AE40" s="231">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="AF40" s="229"/>
+      <c r="AG40" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9275,16 +9373,57 @@
       <c r="K41" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="154">
+      <c r="L41" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="154">
+      <c r="M41" s="229"/>
+      <c r="N41" s="231">
         <v>0.47222222222222227</v>
       </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="24" t="s">
+      <c r="O41" s="229"/>
+      <c r="P41" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S41" s="167">
+        <v>20</v>
+      </c>
+      <c r="T41" s="126">
+        <v>10</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="V41" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="W41" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="X41" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y41" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z41" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA41" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB41" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC41" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD41" s="229"/>
+      <c r="AE41" s="231">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="AF41" s="229"/>
+      <c r="AG41" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9294,7 +9433,7 @@
       <c r="C42" s="127">
         <v>20</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="232" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="120" t="s">
@@ -9316,16 +9455,57 @@
       <c r="K42" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="L42" s="154">
+      <c r="L42" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="154">
+      <c r="M42" s="229"/>
+      <c r="N42" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="24" t="s">
+      <c r="O42" s="229"/>
+      <c r="P42" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S42" s="167">
+        <v>10</v>
+      </c>
+      <c r="T42" s="127">
+        <v>20</v>
+      </c>
+      <c r="U42" s="232" t="s">
+        <v>147</v>
+      </c>
+      <c r="V42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="W42" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="X42" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y42" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z42" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA42" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB42" s="177" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC42" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD42" s="229"/>
+      <c r="AE42" s="231">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AF42" s="229"/>
+      <c r="AG42" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9359,18 +9539,61 @@
       <c r="K43" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="L43" s="154">
+      <c r="L43" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="154">
+      <c r="N43" s="231">
         <v>0.76388888888888884</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="24" t="s">
+      <c r="O43" s="229"/>
+      <c r="P43" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S43" s="140">
+        <v>7</v>
+      </c>
+      <c r="T43" s="127">
+        <v>10</v>
+      </c>
+      <c r="U43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" s="170" t="s">
+        <v>172</v>
+      </c>
+      <c r="X43" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y43" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z43" s="143" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA43" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB43" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC43" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD43" s="229" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE43" s="231">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AF43" s="229"/>
+      <c r="AG43" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9402,16 +9625,57 @@
       <c r="K44" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="154">
+      <c r="L44" s="231">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="154">
+      <c r="M44" s="229"/>
+      <c r="N44" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="24" t="s">
+      <c r="O44" s="229"/>
+      <c r="P44" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S44" s="195">
+        <v>25</v>
+      </c>
+      <c r="T44" s="197">
+        <v>55</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V44" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="W44" s="199" t="s">
+        <v>105</v>
+      </c>
+      <c r="X44" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA44" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" s="175" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC44" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD44" s="229"/>
+      <c r="AE44" s="231">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AF44" s="229"/>
+      <c r="AG44" s="46" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9439,16 +9703,51 @@
       <c r="K45" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="154">
+      <c r="L45" s="231">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="154">
+      <c r="M45" s="229"/>
+      <c r="N45" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="24" t="s">
+      <c r="O45" s="229"/>
+      <c r="P45" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S45" s="196"/>
+      <c r="T45" s="198"/>
+      <c r="U45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V45" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="W45" s="200"/>
+      <c r="X45" s="183" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y45" s="181" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z45" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB45" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC45" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD45" s="229"/>
+      <c r="AE45" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AF45" s="229"/>
+      <c r="AG45" s="46" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9478,18 +9777,59 @@
       <c r="K46" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L46" s="154">
+      <c r="L46" s="231">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="229" t="s">
         <v>126</v>
       </c>
-      <c r="N46" s="154">
+      <c r="N46" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="24" t="s">
+      <c r="O46" s="229"/>
+      <c r="P46" s="46" t="s">
         <v>159</v>
+      </c>
+      <c r="S46" s="166">
+        <v>7</v>
+      </c>
+      <c r="T46" s="178">
+        <v>70</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V46" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="W46" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="X46" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y46" s="181"/>
+      <c r="Z46" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA46" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB46" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC46" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD46" s="229" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE46" s="231">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AF46" s="229"/>
+      <c r="AG46" s="46" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9523,15 +9863,56 @@
       <c r="K47" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L47" s="154">
+      <c r="L47" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="154">
+      <c r="M47" s="229"/>
+      <c r="N47" s="231">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="24" t="s">
+      <c r="O47" s="229"/>
+      <c r="P47" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="S47" s="140">
+        <v>7</v>
+      </c>
+      <c r="T47" s="165">
+        <v>10</v>
+      </c>
+      <c r="U47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V47" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="W47" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="X47" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y47" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z47" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA47" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB47" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC47" s="231">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="AD47" s="229"/>
+      <c r="AE47" s="231">
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="AF47" s="229"/>
+      <c r="AG47" s="46" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9544,24 +9925,41 @@
         <f>SUM(B40:C47)</f>
         <v>200</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="2"/>
-      <c r="J48" s="30"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="24"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="158"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="169"/>
+      <c r="S48" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="192"/>
+      <c r="U48" s="9">
+        <f>SUM(S40:T47)</f>
+        <v>296</v>
+      </c>
+      <c r="V48" s="114"/>
+      <c r="W48" s="137"/>
+      <c r="X48" s="137"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="138"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="158"/>
+      <c r="AD48" s="115"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
+  <mergeCells count="23">
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9575,6 +9973,16 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19CAD22-BFE0-4E45-8199-C4A9C56706D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F6A72-F129-431C-9E50-C7836C1191B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -777,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1373,11 +1373,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1855,6 +1868,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,91 +1937,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2233,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,23 +2339,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="107" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I4" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="83" t="s">
-        <v>139</v>
-      </c>
+      <c r="J4" s="83"/>
       <c r="K4" s="170" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="171" t="s">
-        <v>22</v>
-      </c>
+      <c r="M4" s="171"/>
       <c r="N4" s="173" t="s">
         <v>30</v>
       </c>
@@ -2401,10 +2389,8 @@
       <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="179" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" s="174" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="175" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="154">
@@ -2478,9 +2464,7 @@
       <c r="J7" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="180" t="s">
-        <v>173</v>
-      </c>
+      <c r="K7" s="180"/>
       <c r="L7" s="143" t="s">
         <v>171</v>
       </c>
@@ -2560,14 +2544,14 @@
       <c r="J9" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="233" t="s">
+      <c r="K9" s="181" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
         <v>129</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="174" t="s">
         <v>64</v>
@@ -2597,14 +2581,12 @@
       <c r="J10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="234"/>
+      <c r="K10" s="180"/>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="174" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="175" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="154">
@@ -2648,10 +2630,10 @@
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="150" t="s">
+      <c r="M11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="176" t="s">
+      <c r="N11" s="225" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
@@ -2767,7 +2749,7 @@
       <c r="M19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -2781,7 +2763,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2791,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -2816,18 +2797,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="217" t="s">
+      <c r="E1" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="218"/>
+      <c r="F1" s="202"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="217" t="s">
+      <c r="H1" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="218"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="202"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2872,15 +2853,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="220">
+      <c r="K2" s="207">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="222">
+      <c r="L2" s="209">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="207">
+      <c r="M2" s="211">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2891,7 +2872,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="206"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2906,13 +2887,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="205"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2927,9 +2908,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="212"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3011,7 +2992,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="209">
+      <c r="B7" s="213">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3028,22 +3009,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="211">
+      <c r="K7" s="215">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="213">
+      <c r="L7" s="217">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="215">
+      <c r="M7" s="219">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="210"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3064,9 +3045,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="212"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="220"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3146,7 +3127,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="213">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3173,7 +3154,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="210"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3230,7 +3211,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="209">
+      <c r="B14" s="213">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3253,7 +3234,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="210"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3308,7 +3289,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="206"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3355,7 +3336,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="205"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3415,7 +3396,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="202">
+      <c r="B21" s="222">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3443,7 +3424,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="203"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3583,7 +3564,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="201"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3931,11 +3912,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3944,16 +3930,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9228,34 +9209,29 @@
     </row>
     <row r="39" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="136"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="225"/>
-      <c r="I39" s="226"/>
-      <c r="J39" s="229"/>
-      <c r="K39" s="229"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="229"/>
-      <c r="N39" s="229"/>
-      <c r="O39" s="229"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="46"/>
       <c r="S39" s="136"/>
-      <c r="T39" s="225"/>
-      <c r="U39" s="226"/>
-      <c r="V39" s="227"/>
-      <c r="W39" s="228"/>
-      <c r="X39" s="228"/>
-      <c r="Y39" s="226"/>
-      <c r="Z39" s="226"/>
-      <c r="AA39" s="229"/>
-      <c r="AB39" s="225"/>
-      <c r="AC39" s="230"/>
-      <c r="AD39" s="229"/>
-      <c r="AE39" s="229"/>
-      <c r="AF39" s="229"/>
+      <c r="T39" s="2"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="46"/>
     </row>
     <row r="40" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9289,14 +9265,14 @@
       <c r="K40" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="231">
+      <c r="L40" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M40" s="229"/>
-      <c r="N40" s="231">
+      <c r="M40" s="1"/>
+      <c r="N40" s="154">
         <v>0.47222222222222227</v>
       </c>
-      <c r="O40" s="229"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="46" t="s">
         <v>159</v>
       </c>
@@ -9330,14 +9306,14 @@
       <c r="AB40" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="AC40" s="231">
+      <c r="AC40" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD40" s="229"/>
-      <c r="AE40" s="231">
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="154">
         <v>0.42708333333333331</v>
       </c>
-      <c r="AF40" s="229"/>
+      <c r="AF40" s="1"/>
       <c r="AG40" s="46" t="s">
         <v>160</v>
       </c>
@@ -9373,14 +9349,14 @@
       <c r="K41" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="231">
+      <c r="L41" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M41" s="229"/>
-      <c r="N41" s="231">
+      <c r="M41" s="1"/>
+      <c r="N41" s="154">
         <v>0.47222222222222227</v>
       </c>
-      <c r="O41" s="229"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="46" t="s">
         <v>159</v>
       </c>
@@ -9414,14 +9390,14 @@
       <c r="AB41" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="AC41" s="231">
+      <c r="AC41" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD41" s="229"/>
-      <c r="AE41" s="231">
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="154">
         <v>0.42708333333333331</v>
       </c>
-      <c r="AF41" s="229"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="46" t="s">
         <v>160</v>
       </c>
@@ -9433,7 +9409,7 @@
       <c r="C42" s="127">
         <v>20</v>
       </c>
-      <c r="D42" s="232" t="s">
+      <c r="D42" s="28" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="120" t="s">
@@ -9455,14 +9431,14 @@
       <c r="K42" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="L42" s="231">
+      <c r="L42" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M42" s="229"/>
-      <c r="N42" s="231">
+      <c r="M42" s="1"/>
+      <c r="N42" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O42" s="229"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="46" t="s">
         <v>159</v>
       </c>
@@ -9472,7 +9448,7 @@
       <c r="T42" s="127">
         <v>20</v>
       </c>
-      <c r="U42" s="232" t="s">
+      <c r="U42" s="28" t="s">
         <v>147</v>
       </c>
       <c r="V42" s="120" t="s">
@@ -9496,14 +9472,14 @@
       <c r="AB42" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="AC42" s="231">
+      <c r="AC42" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD42" s="229"/>
-      <c r="AE42" s="231">
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="AF42" s="229"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="46" t="s">
         <v>160</v>
       </c>
@@ -9539,16 +9515,16 @@
       <c r="K43" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="L43" s="231">
+      <c r="L43" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M43" s="229" t="s">
+      <c r="M43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="231">
+      <c r="N43" s="154">
         <v>0.76388888888888884</v>
       </c>
-      <c r="O43" s="229"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="46" t="s">
         <v>159</v>
       </c>
@@ -9582,16 +9558,16 @@
       <c r="AB43" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="AC43" s="231">
+      <c r="AC43" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD43" s="229" t="s">
+      <c r="AD43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AE43" s="231">
+      <c r="AE43" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="AF43" s="229"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="46" t="s">
         <v>160</v>
       </c>
@@ -9625,14 +9601,14 @@
       <c r="K44" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="231">
+      <c r="L44" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M44" s="229"/>
-      <c r="N44" s="231">
+      <c r="M44" s="1"/>
+      <c r="N44" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O44" s="229"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
@@ -9666,14 +9642,14 @@
       <c r="AB44" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="AC44" s="231">
+      <c r="AC44" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD44" s="229"/>
-      <c r="AE44" s="231">
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="AF44" s="229"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="46" t="s">
         <v>160</v>
       </c>
@@ -9703,14 +9679,14 @@
       <c r="K45" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="L45" s="231">
+      <c r="L45" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M45" s="229"/>
-      <c r="N45" s="231">
+      <c r="M45" s="1"/>
+      <c r="N45" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O45" s="229"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
@@ -9738,14 +9714,14 @@
       <c r="AB45" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="AC45" s="231">
+      <c r="AC45" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD45" s="229"/>
-      <c r="AE45" s="231">
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AF45" s="229"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="46" t="s">
         <v>168</v>
       </c>
@@ -9777,16 +9753,16 @@
       <c r="K46" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L46" s="231">
+      <c r="L46" s="154">
         <v>0.43402777777777773</v>
       </c>
-      <c r="M46" s="229" t="s">
+      <c r="M46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N46" s="231">
+      <c r="N46" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O46" s="229"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="46" t="s">
         <v>159</v>
       </c>
@@ -9818,16 +9794,16 @@
       <c r="AB46" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AC46" s="231">
+      <c r="AC46" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD46" s="229" t="s">
+      <c r="AD46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE46" s="231">
+      <c r="AE46" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="AF46" s="229"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="46" t="s">
         <v>168</v>
       </c>
@@ -9863,14 +9839,14 @@
       <c r="K47" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="L47" s="231">
+      <c r="L47" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="M47" s="229"/>
-      <c r="N47" s="231">
+      <c r="M47" s="1"/>
+      <c r="N47" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="O47" s="229"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="46" t="s">
         <v>160</v>
       </c>
@@ -9904,14 +9880,14 @@
       <c r="AB47" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="AC47" s="231">
+      <c r="AC47" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="AD47" s="229"/>
-      <c r="AE47" s="231">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="AF47" s="229"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="46" t="s">
         <v>160</v>
       </c>
@@ -9960,6 +9936,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9973,16 +9959,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F6A72-F129-431C-9E50-C7836C1191B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C00C8F-384B-406D-8096-02E7656347CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1390,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1819,6 +1819,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1868,6 +1871,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1877,15 +1928,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1898,50 +1940,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2225,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,14 +2265,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="189">
+      <c r="C2" s="190">
         <f>B3+B4</f>
         <v>15</v>
       </c>
-      <c r="E2" s="193" t="s">
+      <c r="E2" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="194"/>
+      <c r="F2" s="195"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2314,31 +2318,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="188" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="34">
         <v>15</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="140"/>
+      <c r="E4" s="140">
+        <v>10</v>
+      </c>
       <c r="F4" s="165"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="156" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="170" t="s">
@@ -2356,7 +2362,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q4" s="154">
         <v>0.42708333333333331</v>
@@ -2369,7 +2375,9 @@
       <c r="D5" s="157">
         <v>-2</v>
       </c>
-      <c r="E5" s="167"/>
+      <c r="E5" s="167">
+        <v>10</v>
+      </c>
       <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
         <v>136</v>
@@ -2394,7 +2402,7 @@
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q5" s="154">
         <v>0.42708333333333331</v>
@@ -2405,9 +2413,11 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>500</v>
-      </c>
-      <c r="E6" s="167"/>
+        <v>600</v>
+      </c>
+      <c r="E6" s="167">
+        <v>10</v>
+      </c>
       <c r="F6" s="127"/>
       <c r="G6" s="28" t="s">
         <v>147</v>
@@ -2434,7 +2444,7 @@
         <v>69</v>
       </c>
       <c r="O6" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q6" s="154">
         <v>0.85555555555555562</v>
@@ -2450,7 +2460,9 @@
       <c r="B7" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="140"/>
+      <c r="E7" s="140">
+        <v>10</v>
+      </c>
       <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
@@ -2475,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2488,15 +2500,17 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="195"/>
-      <c r="F8" s="197"/>
+      <c r="E8" s="196">
+        <v>50</v>
+      </c>
+      <c r="F8" s="198"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="199" t="s">
+      <c r="I8" s="200" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2515,13 +2529,13 @@
         <v>30</v>
       </c>
       <c r="O8" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q8" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2530,17 +2544,17 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>7485</v>
-      </c>
-      <c r="E9" s="196"/>
-      <c r="F9" s="198"/>
+        <v>7585</v>
+      </c>
+      <c r="E9" s="197"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="200"/>
+      <c r="H9" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="201"/>
       <c r="J9" s="183" t="s">
         <v>163</v>
       </c>
@@ -2557,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="O9" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q9" s="154">
         <v>0.79861111111111116</v>
@@ -2567,7 +2581,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="166"/>
+      <c r="E10" s="166">
+        <v>10</v>
+      </c>
       <c r="F10" s="178"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
@@ -2581,7 +2597,9 @@
       <c r="J10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="180"/>
+      <c r="K10" s="181" t="s">
+        <v>170</v>
+      </c>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
@@ -2589,9 +2607,7 @@
       <c r="N10" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="154">
-        <v>0.79861111111111116</v>
-      </c>
+      <c r="O10" s="154"/>
       <c r="P10" s="1" t="s">
         <v>126</v>
       </c>
@@ -2615,29 +2631,25 @@
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="107" t="s">
-        <v>17</v>
+      <c r="H11" s="227" t="s">
+        <v>36</v>
       </c>
       <c r="I11" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="182" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="181" t="s">
-        <v>170</v>
-      </c>
+      <c r="J11" s="182"/>
+      <c r="K11" s="181"/>
       <c r="L11" s="143" t="s">
         <v>110</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="225" t="s">
+      <c r="N11" s="184" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
-        <v>0.79861111111111116</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="Q11" s="154">
         <v>0.85555555555555562</v>
@@ -2647,13 +2659,13 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="191" t="s">
+      <c r="E12" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="192"/>
+      <c r="F12" s="193"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="30"/>
       <c r="O12" s="155"/>
@@ -2665,15 +2677,15 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7485</v>
+        <v>7585</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="184"/>
+      <c r="K13" s="185"/>
       <c r="M13"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="187"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2682,10 +2694,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="184"/>
+      <c r="K14" s="185"/>
       <c r="M14"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="186"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="187"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2700,11 +2712,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="184"/>
+      <c r="K15" s="185"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="187"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2723,8 +2735,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="187"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2739,13 +2751,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="184"/>
+      <c r="K18" s="185"/>
       <c r="M18"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="186"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="187"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="184"/>
+      <c r="K19" s="185"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2770,9 +2782,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -2797,18 +2809,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="202"/>
+      <c r="F1" s="219"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="203"/>
-      <c r="J1" s="202"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="219"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2826,7 +2838,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="204">
+      <c r="B2" s="205">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2853,26 +2865,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="207">
+      <c r="K2" s="221">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="209">
+      <c r="L2" s="223">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="211">
+      <c r="M2" s="208">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J40)</f>
-        <v>7445</v>
+        <f>SUM(E2:J41)</f>
+        <v>7545</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="205"/>
+      <c r="B3" s="207"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2887,9 +2899,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="212"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="209"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -2908,9 +2920,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="212"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="209"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -2992,7 +3004,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="213">
+      <c r="B7" s="210">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3009,22 +3021,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="215">
+      <c r="K7" s="212">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="217">
+      <c r="L7" s="214">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="219">
+      <c r="M7" s="216">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="214"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3045,9 +3057,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="216"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="220"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="217"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3127,7 +3139,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="213">
+      <c r="B11" s="210">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3154,7 +3166,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3211,7 +3223,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="213">
+      <c r="B14" s="210">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3234,7 +3246,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3258,7 +3270,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="204">
+      <c r="B16" s="205">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3289,7 +3301,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="205"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3307,7 +3319,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="204">
+      <c r="B18" s="205">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3396,7 +3408,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="222">
+      <c r="B21" s="203">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3424,7 +3436,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="223"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3476,7 +3488,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="189">
+      <c r="B24" s="190">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3505,7 +3517,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="190"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3533,7 +3545,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="189">
+      <c r="B26" s="190">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3564,7 +3576,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="221"/>
+      <c r="B27" s="202"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3595,7 +3607,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="189">
+      <c r="B28" s="190">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3617,7 +3629,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="190"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3643,7 +3655,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="189">
+      <c r="B30" s="190">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3666,7 +3678,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="190"/>
+      <c r="B31" s="191"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3693,7 +3705,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="189">
+      <c r="B32" s="190">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3715,7 +3727,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="190"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3765,7 +3777,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="189">
+      <c r="B35" s="190">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3789,7 +3801,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="190"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3811,7 +3823,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="189">
+      <c r="B37" s="190">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3841,7 +3853,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="190"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3859,7 +3871,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="189">
+      <c r="B39" s="190">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3883,45 +3895,64 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="190"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="18">
+      <c r="B40" s="202"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="82">
         <v>210</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="82">
         <v>55</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="82">
         <v>20</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="82">
         <v>70</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="82">
         <v>20</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="82">
         <v>20</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="82">
         <v>10</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="34">
+        <v>25</v>
+      </c>
+      <c r="C41" s="142"/>
+      <c r="D41" s="226">
+        <v>100</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18">
+        <v>50</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18">
+        <v>20</v>
+      </c>
+      <c r="J41" s="18">
+        <v>30</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3930,11 +3961,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7141,10 +7177,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="191" t="s">
+      <c r="AG24" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="192"/>
+      <c r="AH24" s="193"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7164,10 +7200,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="191" t="s">
+      <c r="AZ24" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="192"/>
+      <c r="BA24" s="193"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7187,10 +7223,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="191" t="s">
+      <c r="BR24" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="192"/>
+      <c r="BS24" s="193"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7213,10 +7249,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="194"/>
+      <c r="C26" s="195"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7253,10 +7289,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="193" t="s">
+      <c r="R26" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="194"/>
+      <c r="S26" s="195"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7293,10 +7329,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="193" t="s">
+      <c r="AG26" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="194"/>
+      <c r="AH26" s="195"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7333,10 +7369,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="193" t="s">
+      <c r="AW26" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="194"/>
+      <c r="AX26" s="195"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7373,10 +7409,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="193" t="s">
+      <c r="BM26" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="194"/>
+      <c r="BN26" s="195"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8370,7 +8406,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="197">
+      <c r="AX32" s="198">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8408,7 +8444,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="197">
+      <c r="BN32" s="198">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8557,7 +8593,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="224"/>
+      <c r="AX33" s="225"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8593,7 +8629,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="224"/>
+      <c r="BN33" s="225"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8744,7 +8780,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="198"/>
+      <c r="AX34" s="199"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8782,7 +8818,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="198"/>
+      <c r="BN34" s="199"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9013,10 +9049,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="192"/>
+      <c r="C36" s="193"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9034,10 +9070,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="191" t="s">
+      <c r="R36" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="192"/>
+      <c r="S36" s="193"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9055,10 +9091,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="191" t="s">
+      <c r="AG36" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="192"/>
+      <c r="AH36" s="193"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9076,10 +9112,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="191" t="s">
+      <c r="AW36" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="192"/>
+      <c r="AX36" s="193"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9097,10 +9133,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="191" t="s">
+      <c r="BM36" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="192"/>
+      <c r="BN36" s="193"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9120,10 +9156,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="194"/>
+      <c r="C38" s="195"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9163,10 +9199,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="193" t="s">
+      <c r="S38" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="194"/>
+      <c r="T38" s="195"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9574,7 +9610,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="197">
+      <c r="C44" s="198">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9612,10 +9648,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="195">
+      <c r="S44" s="196">
         <v>25</v>
       </c>
-      <c r="T44" s="197">
+      <c r="T44" s="198">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -9624,7 +9660,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="199" t="s">
+      <c r="W44" s="200" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -9656,7 +9692,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="224"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9690,15 +9726,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="196"/>
-      <c r="T45" s="198"/>
+      <c r="S45" s="197"/>
+      <c r="T45" s="199"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="200"/>
+      <c r="W45" s="201"/>
       <c r="X45" s="183" t="s">
         <v>163</v>
       </c>
@@ -9728,7 +9764,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="198"/>
+      <c r="C46" s="199"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9893,10 +9929,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="191" t="s">
+      <c r="B48" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="192"/>
+      <c r="C48" s="193"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9913,10 +9949,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="169"/>
-      <c r="S48" s="191" t="s">
+      <c r="S48" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="192"/>
+      <c r="T48" s="193"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -9936,16 +9972,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9959,6 +9985,16 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C00C8F-384B-406D-8096-02E7656347CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D217B43-F3A1-419A-ADF2-2074D26D180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="174">
   <si>
     <t>UnSettled</t>
   </si>
@@ -1390,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1822,6 +1822,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1871,6 +1874,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1880,72 +1943,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2230,7 +2229,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,14 +2264,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="190">
+      <c r="C2" s="191">
         <f>B3+B4</f>
         <v>15</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="195"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2318,19 +2317,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="189" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="192"/>
       <c r="D3" s="163" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="189"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="34">
         <v>15</v>
       </c>
@@ -2350,14 +2349,18 @@
       <c r="I4" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="83"/>
+      <c r="J4" s="83" t="s">
+        <v>139</v>
+      </c>
       <c r="K4" s="170" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="171"/>
+      <c r="M4" s="170" t="s">
+        <v>156</v>
+      </c>
       <c r="N4" s="173" t="s">
         <v>30</v>
       </c>
@@ -2500,17 +2503,17 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="196">
+      <c r="E8" s="197">
         <v>50</v>
       </c>
-      <c r="F8" s="198"/>
+      <c r="F8" s="199"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="200" t="s">
+      <c r="I8" s="201" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2546,15 +2549,15 @@
         <f>7000+B6-C2</f>
         <v>7585</v>
       </c>
-      <c r="E9" s="197"/>
-      <c r="F9" s="199"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="200"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="201"/>
+      <c r="I9" s="202"/>
       <c r="J9" s="183" t="s">
         <v>163</v>
       </c>
@@ -2631,7 +2634,7 @@
       <c r="G11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="227" t="s">
+      <c r="H11" s="185" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="83" t="s">
@@ -2659,10 +2662,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="192" t="s">
+      <c r="E12" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="193"/>
+      <c r="F12" s="194"/>
       <c r="G12" s="9">
         <f>SUM(E4:F11)</f>
         <v>100</v>
@@ -2682,10 +2685,10 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="185"/>
+      <c r="K13" s="186"/>
       <c r="M13"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="188"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
@@ -2694,10 +2697,10 @@
       <c r="F14" s="20"/>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="185"/>
+      <c r="K14" s="186"/>
       <c r="M14"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2712,11 +2715,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="185"/>
+      <c r="K15" s="186"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2735,8 +2738,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2751,13 +2754,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="185"/>
+      <c r="K18" s="186"/>
       <c r="M18"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="185"/>
+      <c r="K19" s="186"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2809,18 +2812,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="219"/>
+      <c r="F1" s="204"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="220"/>
-      <c r="J1" s="219"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="204"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2841,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205">
+      <c r="B2" s="206">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2865,15 +2868,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="221">
+      <c r="K2" s="209">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="223">
+      <c r="L2" s="211">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="208">
+      <c r="M2" s="213">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2899,13 +2902,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="209"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="214"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="206"/>
+      <c r="B4" s="208"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2920,9 +2923,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="209"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="214"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3004,7 +3007,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="210">
+      <c r="B7" s="215">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3021,22 +3024,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="212">
+      <c r="K7" s="217">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="214">
+      <c r="L7" s="219">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="216">
+      <c r="M7" s="221">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="211"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3057,9 +3060,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="213"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="217"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="222"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3139,7 +3142,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="210">
+      <c r="B11" s="215">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3166,7 +3169,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="211"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="210">
+      <c r="B14" s="215">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3246,7 +3249,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="211"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3270,7 +3273,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="205">
+      <c r="B16" s="206">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3319,7 +3322,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="205">
+      <c r="B18" s="206">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3348,7 +3351,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="206"/>
+      <c r="B19" s="208"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3408,7 +3411,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="203">
+      <c r="B21" s="224">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3436,7 +3439,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="204"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3488,7 +3491,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="190">
+      <c r="B24" s="191">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3517,7 +3520,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="191"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3545,7 +3548,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="190">
+      <c r="B26" s="191">
         <v>17</v>
       </c>
       <c r="C26" s="162"/>
@@ -3576,7 +3579,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="202"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3607,7 +3610,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="190">
+      <c r="B28" s="191">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3629,7 +3632,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="191"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3655,7 +3658,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="190">
+      <c r="B30" s="191">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3678,7 +3681,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="191"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3705,7 +3708,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="190">
+      <c r="B32" s="191">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3727,7 +3730,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="191"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3777,7 +3780,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="190">
+      <c r="B35" s="191">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3801,7 +3804,7 @@
       <c r="M35" s="82"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="191"/>
+      <c r="B36" s="192"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3823,7 +3826,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="190">
+      <c r="B37" s="191">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3853,7 +3856,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="191"/>
+      <c r="B38" s="192"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3871,7 +3874,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="190">
+      <c r="B39" s="191">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3895,7 +3898,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="202"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -3927,7 +3930,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
-      <c r="D41" s="226">
+      <c r="D41" s="18">
         <v>100</v>
       </c>
       <c r="E41" s="18"/>
@@ -3948,11 +3951,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="B14:B15"/>
@@ -3961,16 +3969,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7177,10 +7180,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="192" t="s">
+      <c r="AG24" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="193"/>
+      <c r="AH24" s="194"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7200,10 +7203,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="192" t="s">
+      <c r="AZ24" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="193"/>
+      <c r="BA24" s="194"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7223,10 +7226,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="192" t="s">
+      <c r="BR24" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="193"/>
+      <c r="BS24" s="194"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7249,10 +7252,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="194" t="s">
+      <c r="B26" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="195"/>
+      <c r="C26" s="196"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7289,10 +7292,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="194" t="s">
+      <c r="R26" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="195"/>
+      <c r="S26" s="196"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7329,10 +7332,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="194" t="s">
+      <c r="AG26" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="195"/>
+      <c r="AH26" s="196"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7369,10 +7372,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="194" t="s">
+      <c r="AW26" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="195"/>
+      <c r="AX26" s="196"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7409,10 +7412,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="194" t="s">
+      <c r="BM26" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="195"/>
+      <c r="BN26" s="196"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8406,7 +8409,7 @@
       <c r="AW32" s="164">
         <v>25</v>
       </c>
-      <c r="AX32" s="198">
+      <c r="AX32" s="199">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8444,7 +8447,7 @@
       <c r="BM32" s="164">
         <v>50</v>
       </c>
-      <c r="BN32" s="198">
+      <c r="BN32" s="199">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8593,7 +8596,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="164"/>
-      <c r="AX33" s="225"/>
+      <c r="AX33" s="226"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8629,7 +8632,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="225"/>
+      <c r="BN33" s="226"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="199"/>
+      <c r="AX34" s="200"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8818,7 +8821,7 @@
       <c r="BM34" s="166">
         <v>70</v>
       </c>
-      <c r="BN34" s="199"/>
+      <c r="BN34" s="200"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9049,10 +9052,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="193"/>
+      <c r="C36" s="194"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9070,10 +9073,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="192" t="s">
+      <c r="R36" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="193"/>
+      <c r="S36" s="194"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9091,10 +9094,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="192" t="s">
+      <c r="AG36" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="193"/>
+      <c r="AH36" s="194"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9112,10 +9115,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="192" t="s">
+      <c r="AW36" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="193"/>
+      <c r="AX36" s="194"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9133,10 +9136,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="192" t="s">
+      <c r="BM36" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="193"/>
+      <c r="BN36" s="194"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9156,10 +9159,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="195"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9199,10 +9202,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="194" t="s">
+      <c r="S38" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="195"/>
+      <c r="T38" s="196"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9610,7 +9613,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="164"/>
-      <c r="C44" s="198">
+      <c r="C44" s="199">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9648,10 +9651,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="196">
+      <c r="S44" s="197">
         <v>25</v>
       </c>
-      <c r="T44" s="198">
+      <c r="T44" s="199">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -9660,7 +9663,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="200" t="s">
+      <c r="W44" s="201" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -9692,7 +9695,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="225"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9726,15 +9729,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="197"/>
-      <c r="T45" s="199"/>
+      <c r="S45" s="198"/>
+      <c r="T45" s="200"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="201"/>
+      <c r="W45" s="202"/>
       <c r="X45" s="183" t="s">
         <v>163</v>
       </c>
@@ -9764,7 +9767,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="166"/>
-      <c r="C46" s="199"/>
+      <c r="C46" s="200"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9929,10 +9932,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="193"/>
+      <c r="C48" s="194"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9949,10 +9952,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="169"/>
-      <c r="S48" s="192" t="s">
+      <c r="S48" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="193"/>
+      <c r="T48" s="194"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -9972,6 +9975,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -9985,16 +9998,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D217B43-F3A1-419A-ADF2-2074D26D180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2B012-3467-46B0-ADFD-331DE75F9FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="176">
   <si>
     <t>UnSettled</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>ND TV24*7</t>
+  </si>
+  <si>
+    <t>Rw- Ganjam</t>
+  </si>
+  <si>
+    <t>Error Fix</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1381,6 +1387,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1390,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1738,9 +1753,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,11 +1831,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1946,6 +1955,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2229,7 +2259,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,14 +2294,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="191">
+      <c r="C2" s="189">
         <f>B3+B4</f>
-        <v>15</v>
-      </c>
-      <c r="E2" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="196"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2293,7 +2323,7 @@
       <c r="M2" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="172" t="s">
+      <c r="N2" s="171" t="s">
         <v>92</v>
       </c>
       <c r="O2" s="153" t="s">
@@ -2302,7 +2332,7 @@
       <c r="P2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="157" t="s">
+      <c r="Q2" s="156" t="s">
         <v>83</v>
       </c>
       <c r="R2" s="100" t="s">
@@ -2317,21 +2347,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="163" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -2339,29 +2369,29 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="165"/>
+      <c r="F4" s="164"/>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="170" t="s">
+      <c r="I4" s="169" t="s">
         <v>169</v>
       </c>
       <c r="J4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="169" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="170" t="s">
+      <c r="M4" s="169" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="173" t="s">
+      <c r="N4" s="172" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="154">
@@ -2375,11 +2405,11 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="157">
+      <c r="D5" s="156">
         <v>-2</v>
       </c>
-      <c r="E5" s="167">
-        <v>10</v>
+      <c r="E5" s="166">
+        <v>20</v>
       </c>
       <c r="F5" s="126"/>
       <c r="G5" s="9" t="s">
@@ -2388,20 +2418,20 @@
       <c r="H5" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="168" t="s">
+      <c r="J5" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="170" t="s">
+      <c r="K5" s="169" t="s">
         <v>85</v>
       </c>
       <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
       <c r="M5" s="37"/>
-      <c r="N5" s="175" t="s">
+      <c r="N5" s="174" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="154">
@@ -2418,7 +2448,7 @@
       <c r="B6" s="1">
         <v>600</v>
       </c>
-      <c r="E6" s="167">
+      <c r="E6" s="166">
         <v>10</v>
       </c>
       <c r="F6" s="127"/>
@@ -2428,13 +2458,13 @@
       <c r="H6" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="170" t="s">
+      <c r="I6" s="169" t="s">
         <v>166</v>
       </c>
       <c r="J6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="170" t="s">
+      <c r="K6" s="169" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="143" t="s">
@@ -2443,7 +2473,7 @@
       <c r="M6" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="177" t="s">
+      <c r="N6" s="176" t="s">
         <v>69</v>
       </c>
       <c r="O6" s="154">
@@ -2464,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="140">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="9" t="s">
@@ -2473,24 +2503,24 @@
       <c r="H7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="170" t="s">
+      <c r="I7" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="180"/>
+      <c r="K7" s="179"/>
       <c r="L7" s="143" t="s">
         <v>171</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="175" t="s">
+      <c r="N7" s="174" t="s">
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2503,17 +2533,17 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="197">
+      <c r="E8" s="195">
         <v>50</v>
       </c>
-      <c r="F8" s="199"/>
+      <c r="F8" s="197"/>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="201" t="s">
+      <c r="I8" s="199" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2528,7 +2558,7 @@
       <c r="M8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="175" t="s">
+      <c r="N8" s="174" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="154">
@@ -2547,21 +2577,21 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>7585</v>
-      </c>
-      <c r="E9" s="198"/>
-      <c r="F9" s="200"/>
+        <v>7600</v>
+      </c>
+      <c r="E9" s="196"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="202"/>
-      <c r="J9" s="183" t="s">
+      <c r="I9" s="200"/>
+      <c r="J9" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="181" t="s">
+      <c r="K9" s="180" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="143" t="s">
@@ -2570,7 +2600,7 @@
       <c r="M9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="174" t="s">
+      <c r="N9" s="173" t="s">
         <v>64</v>
       </c>
       <c r="O9" s="154">
@@ -2584,30 +2614,30 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="166">
+      <c r="E10" s="165">
         <v>10</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="177"/>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="170" t="s">
+      <c r="I10" s="169" t="s">
         <v>165</v>
       </c>
       <c r="J10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="181" t="s">
+      <c r="K10" s="180" t="s">
         <v>170</v>
       </c>
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
       <c r="M10" s="33"/>
-      <c r="N10" s="175" t="s">
+      <c r="N10" s="174" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="154"/>
@@ -2627,32 +2657,34 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="140">
+        <v>10</v>
+      </c>
+      <c r="F11" s="225"/>
+      <c r="G11" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="185" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="182"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="143" t="s">
+      <c r="J11" s="226"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="184" t="s">
+      <c r="N11" s="229" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="Q11" s="154">
         <v>0.85555555555555562</v>
@@ -2662,17 +2694,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="193" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="194"/>
-      <c r="G12" s="9">
-        <f>SUM(E4:F11)</f>
-        <v>100</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="O12" s="155"/>
+      <c r="E12" s="77">
+        <v>3</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="231" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="232" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="154">
+        <v>0.65069444444444446</v>
+      </c>
       <c r="P12" s="24"/>
+      <c r="S12" s="24" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -2685,22 +2733,28 @@
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="186"/>
+      <c r="K13" s="184"/>
       <c r="M13"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="188"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="186"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="192"/>
+      <c r="G14" s="9">
+        <f>SUM(E4:F12)</f>
+        <v>115</v>
+      </c>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="186"/>
+      <c r="K14" s="184"/>
       <c r="M14"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="188"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="186"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2715,11 +2769,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="186"/>
+      <c r="K15" s="184"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="188"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="186"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2738,8 +2792,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="187"/>
-      <c r="P17" s="188"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="186"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2754,13 +2808,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="186"/>
+      <c r="K18" s="184"/>
       <c r="M18"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="188"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="186"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="186"/>
+      <c r="K19" s="184"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2773,7 +2827,7 @@
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="O13:O15"/>
     <mergeCell ref="P13:P15"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
@@ -2785,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,18 +2866,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="204"/>
+      <c r="F1" s="202"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="205"/>
-      <c r="J1" s="204"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="202"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2895,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="206">
+      <c r="B2" s="204">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2868,15 +2922,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="209">
+      <c r="K2" s="207">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="211">
+      <c r="L2" s="209">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="213">
+      <c r="M2" s="211">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2887,7 +2941,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="207"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2902,13 +2956,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="214"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="208"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2923,9 +2977,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="212"/>
-      <c r="M4" s="214"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="212"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3007,7 +3061,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="215">
+      <c r="B7" s="213">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3024,22 +3078,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="217">
+      <c r="K7" s="215">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="219">
+      <c r="L7" s="217">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="221">
+      <c r="M7" s="219">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="216"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3060,9 +3114,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="218"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="222"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="220"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3142,7 +3196,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="215">
+      <c r="B11" s="213">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3169,7 +3223,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="216"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3226,7 +3280,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="215">
+      <c r="B14" s="213">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3249,7 +3303,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="216"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3273,7 +3327,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="206">
+      <c r="B16" s="204">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3304,7 +3358,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="207"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3322,7 +3376,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="206">
+      <c r="B18" s="204">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3351,7 +3405,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3411,7 +3465,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="224">
+      <c r="B21" s="222">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3439,7 +3493,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="225"/>
+      <c r="B22" s="223"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3491,7 +3545,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="191">
+      <c r="B24" s="189">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3520,7 +3574,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="192"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3548,38 +3602,38 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="191">
-        <v>17</v>
-      </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160">
+      <c r="B26" s="189">
+        <v>17</v>
+      </c>
+      <c r="C26" s="161"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159">
         <v>35</v>
       </c>
-      <c r="F26" s="160">
+      <c r="F26" s="159">
         <v>50</v>
       </c>
-      <c r="G26" s="160">
+      <c r="G26" s="159">
         <v>40</v>
       </c>
-      <c r="H26" s="160">
+      <c r="H26" s="159">
         <v>10</v>
       </c>
-      <c r="I26" s="160">
+      <c r="I26" s="159">
         <v>20</v>
       </c>
-      <c r="J26" s="160">
+      <c r="J26" s="159">
         <v>20</v>
       </c>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="223"/>
+      <c r="B27" s="221"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3610,7 +3664,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="191">
+      <c r="B28" s="189">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3632,7 +3686,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="192"/>
+      <c r="B29" s="190"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3658,7 +3712,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="191">
+      <c r="B30" s="189">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3681,7 +3735,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="192"/>
+      <c r="B31" s="190"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3708,7 +3762,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="191">
+      <c r="B32" s="189">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3729,8 +3783,8 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="192"/>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="190"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3753,7 +3807,10 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="84" t="s">
+        <v>1</v>
+      </c>
       <c r="B34" s="34">
         <v>21</v>
       </c>
@@ -3779,8 +3836,8 @@
       <c r="L34" s="82"/>
       <c r="M34" s="82"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="191">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="189">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3803,8 +3860,11 @@
       <c r="L35" s="82"/>
       <c r="M35" s="82"/>
     </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="192"/>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="190"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3825,8 +3885,8 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="191">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="189">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3855,8 +3915,11 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="192"/>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="190"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3873,8 +3936,8 @@
       <c r="L38" s="82"/>
       <c r="M38" s="82"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="191">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="189">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3897,8 +3960,11 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="223"/>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="221"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -3925,8 +3991,8 @@
       <c r="L40" s="82"/>
       <c r="M40" s="82"/>
     </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="34">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="189">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -3949,8 +4015,28 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="190"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="233">
+        <v>15</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -5612,7 +5698,7 @@
       <c r="BJ14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="BK14" s="157" t="s">
+      <c r="BK14" s="156" t="s">
         <v>83</v>
       </c>
       <c r="BL14" s="100" t="s">
@@ -5626,7 +5712,7 @@
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
-      <c r="BR14" s="159" t="s">
+      <c r="BR14" s="158" t="s">
         <v>44</v>
       </c>
       <c r="BS14" s="103"/>
@@ -5657,7 +5743,7 @@
       <c r="CB14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="CC14" s="157" t="s">
+      <c r="CC14" s="156" t="s">
         <v>83</v>
       </c>
       <c r="CD14" s="100" t="s">
@@ -5884,7 +5970,7 @@
         <v>134</v>
       </c>
       <c r="BO16" s="49"/>
-      <c r="BR16" s="161">
+      <c r="BR16" s="160">
         <v>20</v>
       </c>
       <c r="BS16" s="37">
@@ -6780,7 +6866,7 @@
       <c r="BB21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BC21" s="156" t="s">
+      <c r="BC21" s="155" t="s">
         <v>17</v>
       </c>
       <c r="BD21" s="83" t="s">
@@ -6815,7 +6901,7 @@
       <c r="BT21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BU21" s="156" t="s">
+      <c r="BU21" s="155" t="s">
         <v>17</v>
       </c>
       <c r="BV21" s="83" t="s">
@@ -7180,10 +7266,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="193" t="s">
+      <c r="AG24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="194"/>
+      <c r="AH24" s="192"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7203,10 +7289,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="193" t="s">
+      <c r="AZ24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="194"/>
+      <c r="BA24" s="192"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7217,7 +7303,7 @@
       <c r="BF24" s="50"/>
       <c r="BG24" s="138"/>
       <c r="BH24" s="50"/>
-      <c r="BI24" s="158"/>
+      <c r="BI24" s="157"/>
       <c r="BJ24" s="115"/>
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
@@ -7226,10 +7312,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="193" t="s">
+      <c r="BR24" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="194"/>
+      <c r="BS24" s="192"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7240,7 +7326,7 @@
       <c r="BX24" s="50"/>
       <c r="BY24" s="138"/>
       <c r="BZ24" s="50"/>
-      <c r="CA24" s="158"/>
+      <c r="CA24" s="157"/>
       <c r="CB24" s="115"/>
       <c r="CC24" s="65"/>
       <c r="CD24" s="65"/>
@@ -7252,10 +7338,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="196"/>
+      <c r="C26" s="194"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7283,7 +7369,7 @@
       <c r="L26" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="157" t="s">
+      <c r="M26" s="156" t="s">
         <v>83</v>
       </c>
       <c r="N26" s="100" t="s">
@@ -7292,10 +7378,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="195" t="s">
+      <c r="R26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="196"/>
+      <c r="S26" s="194"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7323,7 +7409,7 @@
       <c r="AB26" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AC26" s="157" t="s">
+      <c r="AC26" s="156" t="s">
         <v>83</v>
       </c>
       <c r="AD26" s="100" t="s">
@@ -7332,10 +7418,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="195" t="s">
+      <c r="AG26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="196"/>
+      <c r="AH26" s="194"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7363,7 +7449,7 @@
       <c r="AQ26" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AR26" s="157" t="s">
+      <c r="AR26" s="156" t="s">
         <v>83</v>
       </c>
       <c r="AS26" s="100" t="s">
@@ -7372,10 +7458,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="195" t="s">
+      <c r="AW26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="196"/>
+      <c r="AX26" s="194"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7403,7 +7489,7 @@
       <c r="BG26" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="BH26" s="157" t="s">
+      <c r="BH26" s="156" t="s">
         <v>83</v>
       </c>
       <c r="BI26" s="100" t="s">
@@ -7412,10 +7498,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="195" t="s">
+      <c r="BM26" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="196"/>
+      <c r="BN26" s="194"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7446,7 +7532,7 @@
       <c r="BX26" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="BY26" s="157" t="s">
+      <c r="BY26" s="156" t="s">
         <v>83</v>
       </c>
       <c r="BZ26" s="100" t="s">
@@ -7520,7 +7606,7 @@
       <c r="CA27" s="46"/>
     </row>
     <row r="28" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="161">
+      <c r="B28" s="160">
         <v>10</v>
       </c>
       <c r="C28" s="37">
@@ -7558,7 +7644,7 @@
       <c r="O28" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="R28" s="161">
+      <c r="R28" s="160">
         <v>10</v>
       </c>
       <c r="S28" s="37">
@@ -7596,7 +7682,7 @@
       <c r="AE28" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="AG28" s="161">
+      <c r="AG28" s="160">
         <v>10</v>
       </c>
       <c r="AH28" s="37">
@@ -7634,8 +7720,8 @@
       <c r="AT28" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="AW28" s="161"/>
-      <c r="AX28" s="165">
+      <c r="AW28" s="160"/>
+      <c r="AX28" s="164">
         <v>10</v>
       </c>
       <c r="AY28" s="9" t="s">
@@ -7673,7 +7759,7 @@
       <c r="BM28" s="140">
         <v>10</v>
       </c>
-      <c r="BN28" s="165">
+      <c r="BN28" s="164">
         <v>10</v>
       </c>
       <c r="BO28" s="9" t="s">
@@ -7865,7 +7951,7 @@
       <c r="BJ29" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="BM29" s="167">
+      <c r="BM29" s="166">
         <v>10</v>
       </c>
       <c r="BN29" s="126">
@@ -7880,7 +7966,7 @@
       <c r="BQ29" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="BR29" s="168" t="s">
+      <c r="BR29" s="167" t="s">
         <v>157</v>
       </c>
       <c r="BS29" s="37" t="s">
@@ -8058,7 +8144,7 @@
       <c r="BJ30" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="BM30" s="167">
+      <c r="BM30" s="166">
         <v>10</v>
       </c>
       <c r="BN30" s="127">
@@ -8370,7 +8456,7 @@
       <c r="AE32" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="AG32" s="164">
+      <c r="AG32" s="163">
         <v>25</v>
       </c>
       <c r="AH32" s="37"/>
@@ -8406,10 +8492,10 @@
       <c r="AT32" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="AW32" s="164">
+      <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="199">
+      <c r="AX32" s="197">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8444,10 +8530,10 @@
       <c r="BJ32" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="BM32" s="164">
+      <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="199">
+      <c r="BN32" s="197">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8494,7 +8580,7 @@
       <c r="D33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="156" t="s">
+      <c r="E33" s="155" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="83" t="s">
@@ -8528,7 +8614,7 @@
       <c r="T33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U33" s="156" t="s">
+      <c r="U33" s="155" t="s">
         <v>17</v>
       </c>
       <c r="V33" s="83" t="s">
@@ -8557,7 +8643,7 @@
       <c r="AE33" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="AG33" s="164">
+      <c r="AG33" s="163">
         <v>25</v>
       </c>
       <c r="AH33" s="126">
@@ -8566,7 +8652,7 @@
       <c r="AI33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AJ33" s="156" t="s">
+      <c r="AJ33" s="155" t="s">
         <v>17</v>
       </c>
       <c r="AK33" s="83" t="s">
@@ -8595,12 +8681,12 @@
       <c r="AT33" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="AW33" s="164"/>
-      <c r="AX33" s="226"/>
+      <c r="AW33" s="163"/>
+      <c r="AX33" s="224"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AZ33" s="156" t="s">
+      <c r="AZ33" s="155" t="s">
         <v>17</v>
       </c>
       <c r="BA33" s="83" t="s">
@@ -8632,11 +8718,11 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="226"/>
+      <c r="BN33" s="224"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BP33" s="156" t="s">
+      <c r="BP33" s="155" t="s">
         <v>17</v>
       </c>
       <c r="BQ33" s="83"/>
@@ -8783,7 +8869,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="200"/>
+      <c r="AX34" s="198"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8818,10 +8904,10 @@
       <c r="BJ34" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="BM34" s="166">
+      <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="200"/>
+      <c r="BN34" s="198"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8974,7 +9060,7 @@
         <v>148</v>
       </c>
       <c r="AW35" s="140"/>
-      <c r="AX35" s="165">
+      <c r="AX35" s="164">
         <v>10</v>
       </c>
       <c r="AY35" s="9" t="s">
@@ -9012,7 +9098,7 @@
       <c r="BM35" s="140">
         <v>10</v>
       </c>
-      <c r="BN35" s="165">
+      <c r="BN35" s="164">
         <v>10</v>
       </c>
       <c r="BO35" s="9" t="s">
@@ -9052,10 +9138,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="193" t="s">
+      <c r="B36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="194"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9068,15 +9154,15 @@
       <c r="H36" s="50"/>
       <c r="I36" s="138"/>
       <c r="J36" s="50"/>
-      <c r="K36" s="158"/>
+      <c r="K36" s="157"/>
       <c r="L36" s="115"/>
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="193" t="s">
+      <c r="R36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="194"/>
+      <c r="S36" s="192"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9087,17 +9173,17 @@
       <c r="X36" s="50"/>
       <c r="Y36" s="138"/>
       <c r="Z36" s="50"/>
-      <c r="AA36" s="158"/>
+      <c r="AA36" s="157"/>
       <c r="AB36" s="115" t="s">
         <v>141</v>
       </c>
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="193" t="s">
+      <c r="AG36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="194"/>
+      <c r="AH36" s="192"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9108,17 +9194,17 @@
       <c r="AM36" s="50"/>
       <c r="AN36" s="138"/>
       <c r="AO36" s="50"/>
-      <c r="AP36" s="158"/>
+      <c r="AP36" s="157"/>
       <c r="AQ36" s="115" t="s">
         <v>144</v>
       </c>
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="193" t="s">
+      <c r="AW36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="194"/>
+      <c r="AX36" s="192"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9129,17 +9215,17 @@
       <c r="BC36" s="50"/>
       <c r="BD36" s="138"/>
       <c r="BE36" s="50"/>
-      <c r="BF36" s="158"/>
+      <c r="BF36" s="157"/>
       <c r="BG36" s="115" t="s">
         <v>148</v>
       </c>
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="193" t="s">
+      <c r="BM36" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="194"/>
+      <c r="BN36" s="192"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9151,18 +9237,18 @@
       <c r="BT36" s="50"/>
       <c r="BU36" s="138"/>
       <c r="BV36" s="50"/>
-      <c r="BW36" s="158"/>
+      <c r="BW36" s="157"/>
       <c r="BX36" s="115"/>
       <c r="BY36" s="65"/>
       <c r="BZ36" s="65"/>
-      <c r="CA36" s="169"/>
+      <c r="CA36" s="168"/>
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="195" t="s">
+      <c r="B38" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="196"/>
+      <c r="C38" s="194"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9193,7 +9279,7 @@
       <c r="M38" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="N38" s="157" t="s">
+      <c r="N38" s="156" t="s">
         <v>83</v>
       </c>
       <c r="O38" s="100" t="s">
@@ -9202,10 +9288,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="195" t="s">
+      <c r="S38" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="196"/>
+      <c r="T38" s="194"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9227,7 +9313,7 @@
       <c r="AA38" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="AB38" s="172" t="s">
+      <c r="AB38" s="171" t="s">
         <v>92</v>
       </c>
       <c r="AC38" s="153" t="s">
@@ -9236,7 +9322,7 @@
       <c r="AD38" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AE38" s="157" t="s">
+      <c r="AE38" s="156" t="s">
         <v>83</v>
       </c>
       <c r="AF38" s="100" t="s">
@@ -9277,7 +9363,7 @@
       <c r="B40" s="140">
         <v>10</v>
       </c>
-      <c r="C40" s="165">
+      <c r="C40" s="164">
         <v>20</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -9318,7 +9404,7 @@
       <c r="S40" s="140">
         <v>25</v>
       </c>
-      <c r="T40" s="165">
+      <c r="T40" s="164">
         <v>20</v>
       </c>
       <c r="U40" s="9" t="s">
@@ -9327,22 +9413,22 @@
       <c r="V40" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W40" s="170" t="s">
+      <c r="W40" s="169" t="s">
         <v>169</v>
       </c>
       <c r="X40" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="Y40" s="170" t="s">
+      <c r="Y40" s="169" t="s">
         <v>156</v>
       </c>
       <c r="Z40" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AA40" s="171" t="s">
+      <c r="AA40" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="AB40" s="173" t="s">
+      <c r="AB40" s="172" t="s">
         <v>30</v>
       </c>
       <c r="AC40" s="154">
@@ -9358,7 +9444,7 @@
       </c>
     </row>
     <row r="41" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="167">
+      <c r="B41" s="166">
         <v>10</v>
       </c>
       <c r="C41" s="126">
@@ -9373,7 +9459,7 @@
       <c r="F41" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="168" t="s">
+      <c r="G41" s="167" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="37" t="s">
@@ -9399,7 +9485,7 @@
       <c r="P41" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S41" s="167">
+      <c r="S41" s="166">
         <v>20</v>
       </c>
       <c r="T41" s="126">
@@ -9411,22 +9497,22 @@
       <c r="V41" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W41" s="170" t="s">
+      <c r="W41" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="X41" s="168" t="s">
+      <c r="X41" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="Y41" s="170" t="s">
+      <c r="Y41" s="169" t="s">
         <v>85</v>
       </c>
       <c r="Z41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="AA41" s="179" t="s">
+      <c r="AA41" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="AB41" s="174" t="s">
+      <c r="AB41" s="173" t="s">
         <v>86</v>
       </c>
       <c r="AC41" s="154">
@@ -9442,7 +9528,7 @@
       </c>
     </row>
     <row r="42" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="167">
+      <c r="B42" s="166">
         <v>10</v>
       </c>
       <c r="C42" s="127">
@@ -9481,7 +9567,7 @@
       <c r="P42" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S42" s="167">
+      <c r="S42" s="166">
         <v>10</v>
       </c>
       <c r="T42" s="127">
@@ -9493,13 +9579,13 @@
       <c r="V42" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="W42" s="170" t="s">
+      <c r="W42" s="169" t="s">
         <v>166</v>
       </c>
       <c r="X42" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="Y42" s="170" t="s">
+      <c r="Y42" s="169" t="s">
         <v>96</v>
       </c>
       <c r="Z42" s="143" t="s">
@@ -9508,7 +9594,7 @@
       <c r="AA42" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="AB42" s="177" t="s">
+      <c r="AB42" s="176" t="s">
         <v>69</v>
       </c>
       <c r="AC42" s="154">
@@ -9579,13 +9665,13 @@
       <c r="V43" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W43" s="170" t="s">
+      <c r="W43" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="X43" s="180" t="s">
+      <c r="X43" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="Y43" s="180" t="s">
+      <c r="Y43" s="179" t="s">
         <v>173</v>
       </c>
       <c r="Z43" s="143" t="s">
@@ -9594,7 +9680,7 @@
       <c r="AA43" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AB43" s="175" t="s">
+      <c r="AB43" s="174" t="s">
         <v>90</v>
       </c>
       <c r="AC43" s="154">
@@ -9612,8 +9698,8 @@
       </c>
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="164"/>
-      <c r="C44" s="199">
+      <c r="B44" s="163"/>
+      <c r="C44" s="197">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9651,10 +9737,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="197">
+      <c r="S44" s="195">
         <v>25</v>
       </c>
-      <c r="T44" s="199">
+      <c r="T44" s="197">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -9663,7 +9749,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="201" t="s">
+      <c r="W44" s="199" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -9678,7 +9764,7 @@
       <c r="AA44" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AB44" s="175" t="s">
+      <c r="AB44" s="174" t="s">
         <v>30</v>
       </c>
       <c r="AC44" s="154">
@@ -9695,11 +9781,11 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="226"/>
+      <c r="C45" s="224"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="156" t="s">
+      <c r="E45" s="155" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="83"/>
@@ -9729,19 +9815,19 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="198"/>
-      <c r="T45" s="200"/>
+      <c r="S45" s="196"/>
+      <c r="T45" s="198"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="V45" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="W45" s="202"/>
-      <c r="X45" s="183" t="s">
+      <c r="V45" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="W45" s="200"/>
+      <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="Y45" s="181" t="s">
+      <c r="Y45" s="180" t="s">
         <v>62</v>
       </c>
       <c r="Z45" s="143" t="s">
@@ -9750,7 +9836,7 @@
       <c r="AA45" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AB45" s="174" t="s">
+      <c r="AB45" s="173" t="s">
         <v>64</v>
       </c>
       <c r="AC45" s="154">
@@ -9766,8 +9852,8 @@
       </c>
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="166"/>
-      <c r="C46" s="200"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="198"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -9805,10 +9891,10 @@
       <c r="P46" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S46" s="166">
+      <c r="S46" s="165">
         <v>7</v>
       </c>
-      <c r="T46" s="178">
+      <c r="T46" s="177">
         <v>70</v>
       </c>
       <c r="U46" s="9" t="s">
@@ -9817,20 +9903,20 @@
       <c r="V46" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="W46" s="170" t="s">
+      <c r="W46" s="169" t="s">
         <v>165</v>
       </c>
       <c r="X46" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="Y46" s="181"/>
+      <c r="Y46" s="180"/>
       <c r="Z46" s="144" t="s">
         <v>122</v>
       </c>
       <c r="AA46" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="AB46" s="174" t="s">
+      <c r="AB46" s="173" t="s">
         <v>66</v>
       </c>
       <c r="AC46" s="154">
@@ -9851,7 +9937,7 @@
       <c r="B47" s="140">
         <v>10</v>
       </c>
-      <c r="C47" s="165">
+      <c r="C47" s="164">
         <v>20</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -9892,7 +9978,7 @@
       <c r="S47" s="140">
         <v>7</v>
       </c>
-      <c r="T47" s="165">
+      <c r="T47" s="164">
         <v>10</v>
       </c>
       <c r="U47" s="9" t="s">
@@ -9904,10 +9990,10 @@
       <c r="W47" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="X47" s="182" t="s">
+      <c r="X47" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="Y47" s="181" t="s">
+      <c r="Y47" s="180" t="s">
         <v>170</v>
       </c>
       <c r="Z47" s="143" t="s">
@@ -9916,7 +10002,7 @@
       <c r="AA47" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="AB47" s="176" t="s">
+      <c r="AB47" s="175" t="s">
         <v>161</v>
       </c>
       <c r="AC47" s="154">
@@ -9932,10 +10018,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="193" t="s">
+      <c r="B48" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="194"/>
+      <c r="C48" s="192"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -9947,15 +10033,15 @@
       <c r="I48" s="50"/>
       <c r="J48" s="138"/>
       <c r="K48" s="50"/>
-      <c r="L48" s="158"/>
+      <c r="L48" s="157"/>
       <c r="M48" s="115"/>
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
-      <c r="P48" s="169"/>
-      <c r="S48" s="193" t="s">
+      <c r="P48" s="168"/>
+      <c r="S48" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="194"/>
+      <c r="T48" s="192"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -9967,11 +10053,11 @@
       <c r="Z48" s="50"/>
       <c r="AA48" s="138"/>
       <c r="AB48" s="79"/>
-      <c r="AC48" s="158"/>
+      <c r="AC48" s="157"/>
       <c r="AD48" s="115"/>
       <c r="AE48" s="65"/>
       <c r="AF48" s="65"/>
-      <c r="AG48" s="169"/>
+      <c r="AG48" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2B012-3467-46B0-ADFD-331DE75F9FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB3B90-95F6-4501-B8C5-5EEFA38D7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,6 +1834,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1883,6 +1903,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1892,15 +1960,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1913,67 +1972,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2259,7 +2262,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,14 +2297,14 @@
       <c r="B2" s="34">
         <v>40.380000000000003</v>
       </c>
-      <c r="C2" s="189">
+      <c r="C2" s="197">
         <f>B3+B4</f>
         <v>0</v>
       </c>
-      <c r="E2" s="193" t="s">
+      <c r="E2" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="194"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="26" t="s">
         <v>43</v>
       </c>
@@ -2347,19 +2350,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="195" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="198"/>
       <c r="D3" s="162" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="34">
         <v>0</v>
       </c>
@@ -2369,7 +2372,9 @@
       <c r="E4" s="140">
         <v>10</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="164">
+        <v>20</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2411,7 +2416,9 @@
       <c r="E5" s="166">
         <v>20</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="126">
+        <v>70</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>136</v>
       </c>
@@ -2446,12 +2453,14 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>600</v>
+        <v>790</v>
       </c>
       <c r="E6" s="166">
         <v>10</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="127">
+        <v>20</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>147</v>
       </c>
@@ -2496,7 +2505,9 @@
       <c r="E7" s="140">
         <v>2</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="127">
+        <v>10</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2533,17 +2544,19 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="195">
+      <c r="E8" s="203">
         <v>50</v>
       </c>
-      <c r="F8" s="197"/>
+      <c r="F8" s="205">
+        <v>10</v>
+      </c>
       <c r="G8" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="199" t="s">
+      <c r="I8" s="207" t="s">
         <v>105</v>
       </c>
       <c r="J8" s="83" t="s">
@@ -2577,17 +2590,17 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>7600</v>
-      </c>
-      <c r="E9" s="196"/>
-      <c r="F9" s="198"/>
+        <v>7790</v>
+      </c>
+      <c r="E9" s="204"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="200"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="182" t="s">
         <v>163</v>
       </c>
@@ -2657,12 +2670,14 @@
       </c>
       <c r="B11" s="8">
         <f>B9-B13</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" s="140">
         <v>10</v>
       </c>
-      <c r="F11" s="225"/>
+      <c r="F11" s="184">
+        <v>60</v>
+      </c>
       <c r="G11" s="41" t="s">
         <v>128</v>
       </c>
@@ -2672,15 +2687,15 @@
       <c r="I11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="226"/>
+      <c r="J11" s="185"/>
       <c r="K11" s="182"/>
-      <c r="L11" s="227" t="s">
+      <c r="L11" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="228" t="s">
+      <c r="M11" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="229" t="s">
+      <c r="N11" s="188" t="s">
         <v>161</v>
       </c>
       <c r="O11" s="154">
@@ -2704,14 +2719,14 @@
       <c r="H12" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="231" t="s">
+      <c r="L12" s="190" t="s">
         <v>174</v>
       </c>
       <c r="M12" s="33"/>
-      <c r="N12" s="232" t="s">
+      <c r="N12" s="191" t="s">
         <v>65</v>
       </c>
       <c r="O12" s="154">
@@ -2728,33 +2743,33 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7585</v>
+        <v>7790</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="184"/>
+      <c r="K13" s="192"/>
       <c r="M13"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="186"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="194"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="191" t="s">
+      <c r="E14" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="192"/>
+      <c r="F14" s="200"/>
       <c r="G14" s="9">
         <f>SUM(E4:F12)</f>
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
-      <c r="K14" s="184"/>
+      <c r="K14" s="192"/>
       <c r="M14"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="186"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="194"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -2769,11 +2784,11 @@
       <c r="F15" s="20"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="184"/>
+      <c r="K15" s="192"/>
       <c r="L15" s="119"/>
       <c r="M15"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="186"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="194"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
@@ -2792,8 +2807,8 @@
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
       <c r="M17"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="186"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="194"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -2808,13 +2823,13 @@
       <c r="F18" s="20"/>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="184"/>
+      <c r="K18" s="192"/>
       <c r="M18"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="186"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="194"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="184"/>
+      <c r="K19" s="192"/>
       <c r="M19"/>
     </row>
   </sheetData>
@@ -2839,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,18 +2881,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="202"/>
+      <c r="F1" s="226"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="203"/>
-      <c r="J1" s="202"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="226"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +2910,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="204">
+      <c r="B2" s="212">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2922,26 +2937,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="207">
+      <c r="K2" s="228">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="209">
+      <c r="L2" s="230">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="211">
+      <c r="M2" s="215">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
-        <f>SUM(E2:J41)</f>
-        <v>7545</v>
+        <f>SUM(E2:J43)</f>
+        <v>7750</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="205"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2956,13 +2971,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="212"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="216"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="206"/>
+      <c r="B4" s="213"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2977,9 +2992,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="212"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="216"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3061,7 +3076,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="213">
+      <c r="B7" s="217">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3078,22 +3093,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="215">
+      <c r="K7" s="219">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="217">
+      <c r="L7" s="221">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="219">
+      <c r="M7" s="223">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="214"/>
+      <c r="B8" s="218"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3114,9 +3129,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="216"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="220"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="224"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3196,7 +3211,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="213">
+      <c r="B11" s="217">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3223,7 +3238,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
+      <c r="B12" s="218"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3280,7 +3295,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="213">
+      <c r="B14" s="217">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3303,7 +3318,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3327,7 +3342,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="204">
+      <c r="B16" s="212">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3358,7 +3373,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="205"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3376,7 +3391,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="204">
+      <c r="B18" s="212">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3405,7 +3420,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="206"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3465,7 +3480,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="222">
+      <c r="B21" s="210">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3493,7 +3508,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="223"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3545,7 +3560,7 @@
       <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="189">
+      <c r="B24" s="197">
         <v>16</v>
       </c>
       <c r="C24" s="141"/>
@@ -3574,7 +3589,7 @@
       <c r="A25" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="190"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="142"/>
       <c r="D25" s="18">
         <v>130</v>
@@ -3602,7 +3617,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="189">
+      <c r="B26" s="197">
         <v>17</v>
       </c>
       <c r="C26" s="161"/>
@@ -3633,7 +3648,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="221"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3664,7 +3679,7 @@
       <c r="A28" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="189">
+      <c r="B28" s="197">
         <v>18</v>
       </c>
       <c r="C28" s="141"/>
@@ -3686,7 +3701,7 @@
       <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="190"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="142"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18">
@@ -3712,7 +3727,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="189">
+      <c r="B30" s="197">
         <v>19</v>
       </c>
       <c r="C30" s="142"/>
@@ -3735,7 +3750,7 @@
       <c r="A31" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="190"/>
+      <c r="B31" s="198"/>
       <c r="C31" s="142"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3762,7 +3777,7 @@
       <c r="A32" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="189">
+      <c r="B32" s="197">
         <v>20</v>
       </c>
       <c r="C32" s="142"/>
@@ -3784,7 +3799,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="190"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="142"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3837,7 +3852,7 @@
       <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="189">
+      <c r="B35" s="197">
         <v>22</v>
       </c>
       <c r="C35" s="96"/>
@@ -3864,7 +3879,7 @@
       <c r="A36" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="190"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="142"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3886,7 +3901,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="189">
+      <c r="B37" s="197">
         <v>23</v>
       </c>
       <c r="C37" s="142"/>
@@ -3919,7 +3934,7 @@
       <c r="A38" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="190"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="96"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -3937,7 +3952,7 @@
       <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="189">
+      <c r="B39" s="197">
         <v>24</v>
       </c>
       <c r="C39" s="142"/>
@@ -3964,7 +3979,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="221"/>
+      <c r="B40" s="209"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -3992,7 +4007,7 @@
       <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="189">
+      <c r="B41" s="197">
         <v>25</v>
       </c>
       <c r="C41" s="142"/>
@@ -4019,7 +4034,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="190"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4027,25 +4042,46 @@
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="233">
+      <c r="J42" s="18">
         <v>15</v>
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="233"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="234">
+        <v>190</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="234">
+        <v>60</v>
+      </c>
+      <c r="G43" s="18">
+        <v>70</v>
+      </c>
+      <c r="H43" s="18">
+        <v>20</v>
+      </c>
+      <c r="I43" s="234">
+        <v>20</v>
+      </c>
+      <c r="J43" s="234">
+        <v>20</v>
+      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4055,11 +4091,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7266,10 +7307,10 @@
       <c r="CG23" s="49"/>
     </row>
     <row r="24" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="191" t="s">
+      <c r="AG24" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AH24" s="192"/>
+      <c r="AH24" s="200"/>
       <c r="AI24" s="9">
         <f>SUM(AG16:AH23)</f>
         <v>40</v>
@@ -7289,10 +7330,10 @@
       <c r="AV24" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AZ24" s="191" t="s">
+      <c r="AZ24" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="BA24" s="192"/>
+      <c r="BA24" s="200"/>
       <c r="BB24" s="9">
         <f>SUM(AZ16:BA23)</f>
         <v>335</v>
@@ -7312,10 +7353,10 @@
       <c r="BO24" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="BR24" s="191" t="s">
+      <c r="BR24" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="BS24" s="192"/>
+      <c r="BS24" s="200"/>
       <c r="BT24" s="9">
         <f>SUM(BR16:BS23)</f>
         <v>275</v>
@@ -7338,10 +7379,10 @@
     </row>
     <row r="25" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="194"/>
+      <c r="C26" s="202"/>
       <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7378,10 +7419,10 @@
       <c r="O26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="193" t="s">
+      <c r="R26" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="S26" s="194"/>
+      <c r="S26" s="202"/>
       <c r="T26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7418,10 +7459,10 @@
       <c r="AE26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AG26" s="193" t="s">
+      <c r="AG26" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="AH26" s="194"/>
+      <c r="AH26" s="202"/>
       <c r="AI26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7458,10 +7499,10 @@
       <c r="AT26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" s="193" t="s">
+      <c r="AW26" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="AX26" s="194"/>
+      <c r="AX26" s="202"/>
       <c r="AY26" s="26" t="s">
         <v>43</v>
       </c>
@@ -7498,10 +7539,10 @@
       <c r="BJ26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="BM26" s="193" t="s">
+      <c r="BM26" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="BN26" s="194"/>
+      <c r="BN26" s="202"/>
       <c r="BO26" s="26" t="s">
         <v>43</v>
       </c>
@@ -8495,7 +8536,7 @@
       <c r="AW32" s="163">
         <v>25</v>
       </c>
-      <c r="AX32" s="197">
+      <c r="AX32" s="205">
         <v>70</v>
       </c>
       <c r="AY32" s="9" t="s">
@@ -8533,7 +8574,7 @@
       <c r="BM32" s="163">
         <v>50</v>
       </c>
-      <c r="BN32" s="197">
+      <c r="BN32" s="205">
         <v>20</v>
       </c>
       <c r="BO32" s="9" t="s">
@@ -8682,7 +8723,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="224"/>
+      <c r="AX33" s="232"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8718,7 +8759,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="224"/>
+      <c r="BN33" s="232"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8869,7 +8910,7 @@
         <v>148</v>
       </c>
       <c r="AW34" s="140"/>
-      <c r="AX34" s="198"/>
+      <c r="AX34" s="206"/>
       <c r="AY34" s="9" t="s">
         <v>81</v>
       </c>
@@ -8907,7 +8948,7 @@
       <c r="BM34" s="165">
         <v>70</v>
       </c>
-      <c r="BN34" s="198"/>
+      <c r="BN34" s="206"/>
       <c r="BO34" s="9" t="s">
         <v>81</v>
       </c>
@@ -9138,10 +9179,10 @@
       </c>
     </row>
     <row r="36" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="191" t="s">
+      <c r="B36" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="192"/>
+      <c r="C36" s="200"/>
       <c r="D36" s="9">
         <f>SUM(B28:C35)</f>
         <v>512</v>
@@ -9159,10 +9200,10 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="102"/>
-      <c r="R36" s="191" t="s">
+      <c r="R36" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="192"/>
+      <c r="S36" s="200"/>
       <c r="T36" s="9">
         <f>SUM(R28:S35)</f>
         <v>182</v>
@@ -9180,10 +9221,10 @@
       <c r="AC36" s="65"/>
       <c r="AD36" s="65"/>
       <c r="AE36" s="102"/>
-      <c r="AG36" s="191" t="s">
+      <c r="AG36" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="192"/>
+      <c r="AH36" s="200"/>
       <c r="AI36" s="9">
         <f>SUM(AG28:AH35)</f>
         <v>360</v>
@@ -9201,10 +9242,10 @@
       <c r="AR36" s="65"/>
       <c r="AS36" s="65"/>
       <c r="AT36" s="102"/>
-      <c r="AW36" s="191" t="s">
+      <c r="AW36" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AX36" s="192"/>
+      <c r="AX36" s="200"/>
       <c r="AY36" s="9">
         <f>SUM(AW28:AX35)</f>
         <v>200</v>
@@ -9222,10 +9263,10 @@
       <c r="BH36" s="65"/>
       <c r="BI36" s="65"/>
       <c r="BJ36" s="102"/>
-      <c r="BM36" s="191" t="s">
+      <c r="BM36" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="BN36" s="192"/>
+      <c r="BN36" s="200"/>
       <c r="BO36" s="9">
         <f>SUM(BM28:BN35)</f>
         <v>260</v>
@@ -9245,10 +9286,10 @@
     </row>
     <row r="37" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="194"/>
+      <c r="C38" s="202"/>
       <c r="D38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9288,10 +9329,10 @@
       <c r="P38" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="193" t="s">
+      <c r="S38" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="T38" s="194"/>
+      <c r="T38" s="202"/>
       <c r="U38" s="26" t="s">
         <v>43</v>
       </c>
@@ -9699,7 +9740,7 @@
     </row>
     <row r="44" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="163"/>
-      <c r="C44" s="197">
+      <c r="C44" s="205">
         <v>55</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -9737,10 +9778,10 @@
       <c r="P44" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S44" s="195">
+      <c r="S44" s="203">
         <v>25</v>
       </c>
-      <c r="T44" s="197">
+      <c r="T44" s="205">
         <v>55</v>
       </c>
       <c r="U44" s="9" t="s">
@@ -9749,7 +9790,7 @@
       <c r="V44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="W44" s="199" t="s">
+      <c r="W44" s="207" t="s">
         <v>105</v>
       </c>
       <c r="X44" s="83" t="s">
@@ -9781,7 +9822,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="224"/>
+      <c r="C45" s="232"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -9815,15 +9856,15 @@
       <c r="P45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="S45" s="196"/>
-      <c r="T45" s="198"/>
+      <c r="S45" s="204"/>
+      <c r="T45" s="206"/>
       <c r="U45" s="9" t="s">
         <v>71</v>
       </c>
       <c r="V45" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="W45" s="200"/>
+      <c r="W45" s="208"/>
       <c r="X45" s="182" t="s">
         <v>163</v>
       </c>
@@ -9853,7 +9894,7 @@
     </row>
     <row r="46" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="165"/>
-      <c r="C46" s="198"/>
+      <c r="C46" s="206"/>
       <c r="D46" s="9" t="s">
         <v>81</v>
       </c>
@@ -10018,10 +10059,10 @@
       </c>
     </row>
     <row r="48" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="191" t="s">
+      <c r="B48" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="192"/>
+      <c r="C48" s="200"/>
       <c r="D48" s="9">
         <f>SUM(B40:C47)</f>
         <v>200</v>
@@ -10038,10 +10079,10 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="168"/>
-      <c r="S48" s="191" t="s">
+      <c r="S48" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="192"/>
+      <c r="T48" s="200"/>
       <c r="U48" s="9">
         <f>SUM(S40:T47)</f>
         <v>296</v>
@@ -10061,16 +10102,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10084,6 +10115,16 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB3B90-95F6-4501-B8C5-5EEFA38D7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EEFC86-90E6-4259-B319-A153F798C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="178">
   <si>
     <t>UnSettled</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>Error Fix</t>
+  </si>
+  <si>
+    <t>France 24</t>
+  </si>
+  <si>
+    <t>Rbangla</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1903,6 +1909,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1912,73 +1978,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2262,7 +2267,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,13 +2405,13 @@
         <v>30</v>
       </c>
       <c r="O4" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q4" s="154">
         <v>0.42708333333333331</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2437,23 +2442,25 @@
       <c r="L5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="179" t="s">
+        <v>137</v>
+      </c>
       <c r="N5" s="174" t="s">
         <v>86</v>
       </c>
       <c r="O5" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q5" s="154">
         <v>0.42708333333333331</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="E6" s="166">
         <v>10</v>
@@ -2486,13 +2493,13 @@
         <v>69</v>
       </c>
       <c r="O6" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q6" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2520,7 +2527,9 @@
       <c r="J7" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="179"/>
+      <c r="K7" s="179" t="s">
+        <v>177</v>
+      </c>
       <c r="L7" s="143" t="s">
         <v>171</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="154">
-        <v>0.65069444444444446</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>130</v>
@@ -2540,7 +2549,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2575,7 +2584,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q8" s="154">
         <v>0.85555555555555562</v>
@@ -2590,7 +2599,7 @@
       </c>
       <c r="B9" s="8">
         <f>7000+B6-C2</f>
-        <v>7790</v>
+        <v>7860</v>
       </c>
       <c r="E9" s="204"/>
       <c r="F9" s="206"/>
@@ -2617,7 +2626,7 @@
         <v>64</v>
       </c>
       <c r="O9" s="154">
-        <v>0.4548611111111111</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q9" s="154">
         <v>0.79861111111111116</v>
@@ -2630,7 +2639,9 @@
       <c r="E10" s="165">
         <v>10</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="177">
+        <v>70</v>
+      </c>
       <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
@@ -2649,11 +2660,15 @@
       <c r="L10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="33" t="s">
+        <v>123</v>
+      </c>
       <c r="N10" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="154"/>
+      <c r="O10" s="154">
+        <v>0.8125</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>126</v>
       </c>
@@ -2687,8 +2702,12 @@
       <c r="I11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="185"/>
-      <c r="K11" s="182"/>
+      <c r="J11" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="182" t="s">
+        <v>143</v>
+      </c>
       <c r="L11" s="186" t="s">
         <v>110</v>
       </c>
@@ -2699,13 +2718,13 @@
         <v>161</v>
       </c>
       <c r="O11" s="154">
-        <v>0.65069444444444446</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="Q11" s="154">
         <v>0.85555555555555562</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2730,11 +2749,14 @@
         <v>65</v>
       </c>
       <c r="O12" s="154">
-        <v>0.65069444444444446</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P12" s="24"/>
+      <c r="Q12" s="154">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="S12" s="24" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2743,7 +2765,7 @@
       </c>
       <c r="B13" s="8">
         <f>B18+Purchase!O2</f>
-        <v>7790</v>
+        <v>7860</v>
       </c>
       <c r="G13" s="28"/>
       <c r="I13" s="119"/>
@@ -2762,7 +2784,7 @@
       <c r="F14" s="200"/>
       <c r="G14" s="9">
         <f>SUM(E4:F12)</f>
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
@@ -2856,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0951DD9-29CF-40D7-AA95-AE74BC805B9C}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,18 +2903,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="226"/>
+      <c r="F1" s="210"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="225" t="s">
+      <c r="H1" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="226"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="210"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2937,26 +2959,26 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="228">
+      <c r="K2" s="215">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="230">
+      <c r="L2" s="217">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="215">
+      <c r="M2" s="219">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
       <c r="O2">
         <f>SUM(E2:J43)</f>
-        <v>7750</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="214"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2971,13 +2993,13 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="220"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="213"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5">
         <v>500</v>
@@ -2992,9 +3014,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="220"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3076,7 +3098,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="217">
+      <c r="B7" s="221">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3093,22 +3115,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="219">
+      <c r="K7" s="223">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="221">
+      <c r="L7" s="225">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="223">
+      <c r="M7" s="227">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="218"/>
+      <c r="B8" s="222"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3129,9 +3151,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="220"/>
-      <c r="L8" s="222"/>
-      <c r="M8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="228"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3211,7 +3233,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="217">
+      <c r="B11" s="221">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3238,7 +3260,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="218"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3295,7 +3317,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="217">
+      <c r="B14" s="221">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3318,7 +3340,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3373,7 +3395,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="214"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3420,7 +3442,7 @@
       <c r="A19" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="213"/>
+      <c r="B19" s="214"/>
       <c r="C19" s="13"/>
       <c r="D19" s="18">
         <v>100</v>
@@ -3480,7 +3502,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="210">
+      <c r="B21" s="230">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3508,7 +3530,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="211"/>
+      <c r="B22" s="231"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3648,7 +3670,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="209"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -3979,7 +4001,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="209"/>
+      <c r="B40" s="229"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4034,12 +4056,14 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="209"/>
+      <c r="B42" s="229"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18">
+        <v>70</v>
+      </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18">
@@ -4050,13 +4074,13 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="233"/>
+      <c r="B43" s="232"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="234">
+      <c r="D43" s="18">
         <v>190</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="234">
+      <c r="F43" s="18">
         <v>60</v>
       </c>
       <c r="G43" s="18">
@@ -4065,10 +4089,10 @@
       <c r="H43" s="18">
         <v>20</v>
       </c>
-      <c r="I43" s="234">
+      <c r="I43" s="18">
         <v>20</v>
       </c>
-      <c r="J43" s="234">
+      <c r="J43" s="18">
         <v>20</v>
       </c>
       <c r="K43" s="18"/>
@@ -4077,11 +4101,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4091,16 +4120,11 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8723,7 +8747,7 @@
         <v>148</v>
       </c>
       <c r="AW33" s="163"/>
-      <c r="AX33" s="232"/>
+      <c r="AX33" s="233"/>
       <c r="AY33" s="9" t="s">
         <v>71</v>
       </c>
@@ -8759,7 +8783,7 @@
       <c r="BM33" s="140">
         <v>10</v>
       </c>
-      <c r="BN33" s="232"/>
+      <c r="BN33" s="233"/>
       <c r="BO33" s="9" t="s">
         <v>71</v>
       </c>
@@ -9822,7 +9846,7 @@
     </row>
     <row r="45" spans="2:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="140"/>
-      <c r="C45" s="232"/>
+      <c r="C45" s="233"/>
       <c r="D45" s="9" t="s">
         <v>71</v>
       </c>
@@ -10102,6 +10126,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10115,16 +10149,6 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Usage_S_1.0.4.xlsx
+++ b/Usage_S_1.0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EEFC86-90E6-4259-B319-A153F798C32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C226C29-4D3B-4B81-B49F-11CE6185B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="180">
   <si>
     <t>UnSettled</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>Rbangla</t>
+  </si>
+  <si>
+    <t>NE Live</t>
+  </si>
+  <si>
+    <t>22 Error Fix</t>
   </si>
 </sst>
 </file>
@@ -1387,22 +1393,22 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1411,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1847,17 +1853,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1909,6 +1915,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1918,15 +1975,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1939,49 +1987,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2264,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,25 +2313,26 @@
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="152" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="235" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="152" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>45</v>
       </c>
@@ -2309,52 +2346,53 @@
       <c r="E2" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="234"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="N2" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="171" t="s">
+      <c r="O2" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="153" t="s">
+      <c r="P2" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="156" t="s">
+      <c r="R2" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="100" t="s">
+      <c r="S2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="T2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="U2" s="98">
+      <c r="V2" s="98">
         <f ca="1">TODAY()</f>
         <v>45285</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="195" t="s">
         <v>37</v>
       </c>
@@ -2366,7 +2404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="196"/>
       <c r="B4" s="34">
         <v>0</v>
@@ -2380,41 +2418,44 @@
       <c r="F4" s="164">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="164">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="K4" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="169" t="s">
+      <c r="L4" s="169" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="143" t="s">
+      <c r="M4" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="169" t="s">
+      <c r="N4" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="172" t="s">
+      <c r="O4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="154">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="Q4" s="154">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="S4" s="24" t="s">
+      <c r="P4" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="R4" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="T4" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="156">
         <v>-2</v>
       </c>
@@ -2424,41 +2465,44 @@
       <c r="F5" s="126">
         <v>70</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="126">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="169" t="s">
+      <c r="I5" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="167" t="s">
+      <c r="K5" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="169" t="s">
+      <c r="L5" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="M5" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="179" t="s">
+      <c r="N5" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="174" t="s">
+      <c r="O5" s="242" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="154">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="Q5" s="154">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="S5" s="24" t="s">
+      <c r="P5" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="R5" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="T5" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>860</v>
       </c>
@@ -2468,41 +2512,42 @@
       <c r="F6" s="127">
         <v>20</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="127"/>
+      <c r="H6" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="169" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="K6" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="169" t="s">
+      <c r="L6" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="M6" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="N6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="176" t="s">
+      <c r="O6" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="154">
+      <c r="P6" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q6" s="154">
+      <c r="R6" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2515,85 +2560,87 @@
       <c r="F7" s="127">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="127"/>
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="169" t="s">
+      <c r="I7" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="K7" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="L7" s="179" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="143" t="s">
+      <c r="M7" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="N7" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="174" t="s">
+      <c r="O7" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="154">
+      <c r="P7" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="154">
+      <c r="R7" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="T7" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="203">
         <v>50</v>
       </c>
       <c r="F8" s="205">
         <v>10</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="190"/>
+      <c r="H8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="207" t="s">
+      <c r="I8" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="K8" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="143" t="s">
+      <c r="M8" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="N8" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="174" t="s">
+      <c r="O8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="154">
+      <c r="P8" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q8" s="154">
+      <c r="R8" s="154">
         <v>0.85555555555555562</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="T8" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2603,83 +2650,87 @@
       </c>
       <c r="E9" s="204"/>
       <c r="F9" s="206"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="191"/>
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="208"/>
-      <c r="J9" s="182" t="s">
+      <c r="I9" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="208"/>
+      <c r="K9" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="180" t="s">
+      <c r="L9" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="143" t="s">
+      <c r="M9" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="N9" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="173" t="s">
+      <c r="O9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="154">
+      <c r="P9" s="154">
         <v>0.79166666666666663</v>
       </c>
-      <c r="Q9" s="154">
+      <c r="R9" s="154">
         <v>0.79861111111111116</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="165">
         <v>10</v>
       </c>
       <c r="F10" s="177">
         <v>70</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="177">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="169" t="s">
+      <c r="I10" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="K10" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="144" t="s">
+      <c r="L10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="N10" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="174" t="s">
+      <c r="O10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="154">
-        <v>0.8125</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q10" s="154">
-        <v>0.85555555555555562</v>
-      </c>
-      <c r="S10" s="24" t="s">
+      <c r="R10" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="T10" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -2693,73 +2744,87 @@
       <c r="F11" s="184">
         <v>60</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="184">
+        <v>5</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="185" t="s">
+      <c r="K11" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="186" t="s">
+      <c r="L11" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="187" t="s">
+      <c r="N11" s="238" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="188" t="s">
+      <c r="O11" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="O11" s="154">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="Q11" s="154">
-        <v>0.85555555555555562</v>
-      </c>
-      <c r="S11" s="24" t="s">
+      <c r="P11" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="R11" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="T11" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="77">
         <v>3</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="164"/>
+      <c r="G12" s="164">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="190" t="s">
+      <c r="I12" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="239" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="191" t="s">
+      <c r="N12" s="237" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="154">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="154">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S12" s="24" t="s">
+      <c r="P12" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="154">
+        <v>0.84375</v>
+      </c>
+      <c r="T12" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -2767,33 +2832,34 @@
         <f>B18+Purchase!O2</f>
         <v>7860</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="I13" s="119"/>
+      <c r="H13" s="28"/>
       <c r="J13" s="119"/>
-      <c r="K13" s="192"/>
-      <c r="M13"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="194"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="119"/>
+      <c r="L13" s="192"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="194"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="199" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="200"/>
-      <c r="G14" s="9">
-        <f>SUM(E4:F12)</f>
-        <v>375</v>
-      </c>
-      <c r="I14" s="119"/>
+      <c r="G14" s="189" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(E4:G12)</f>
+        <v>395</v>
+      </c>
       <c r="J14" s="119"/>
-      <c r="K14" s="192"/>
-      <c r="M14"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="194"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="240"/>
+      <c r="L14" s="192"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="194"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2804,35 +2870,35 @@
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="20"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="20"/>
       <c r="J15" s="119"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="119"/>
-      <c r="M15"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="194"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K15" s="241"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="119"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="194"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24"/>
       <c r="F16" s="20"/>
-      <c r="I16" s="119"/>
+      <c r="G16" s="20"/>
       <c r="J16" s="119"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="240"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20"/>
-      <c r="I17" s="119"/>
+      <c r="G17" s="20"/>
       <c r="J17" s="119"/>
-      <c r="M17"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="194"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="119"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="194"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -2843,32 +2909,31 @@
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20"/>
-      <c r="I18" s="119"/>
+      <c r="G18" s="20"/>
       <c r="J18" s="119"/>
-      <c r="K18" s="192"/>
-      <c r="M18"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="194"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="192"/>
-      <c r="M19"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="192"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="194"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="L13:L15"/>
     <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q15"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2903,18 +2968,18 @@
       <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="210"/>
+      <c r="F1" s="227"/>
       <c r="G1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="211"/>
-      <c r="J1" s="210"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="227"/>
       <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
@@ -2932,7 +2997,7 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="212">
+      <c r="B2" s="213">
         <v>2</v>
       </c>
       <c r="C2" s="12">
@@ -2959,15 +3024,15 @@
       <c r="J2" s="10">
         <v>20</v>
       </c>
-      <c r="K2" s="215">
+      <c r="K2" s="229">
         <f>SUM(F2:J4)</f>
         <v>312</v>
       </c>
-      <c r="L2" s="217">
+      <c r="L2" s="231">
         <f>SUM(E2:J4)</f>
         <v>1152</v>
       </c>
-      <c r="M2" s="219">
+      <c r="M2" s="216">
         <f>SUM(D2:D4)-L2</f>
         <v>348</v>
       </c>
@@ -2978,7 +3043,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="213"/>
+      <c r="B3" s="215"/>
       <c r="C3" s="13">
         <v>350</v>
       </c>
@@ -2993,9 +3058,9 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="55"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="220"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="217"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
@@ -3014,9 +3079,9 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="220"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="217"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
@@ -3098,7 +3163,7 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="221">
+      <c r="B7" s="218">
         <v>5</v>
       </c>
       <c r="C7" s="12"/>
@@ -3115,22 +3180,22 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="223">
+      <c r="K7" s="220">
         <f>SUM(F7:J8)</f>
         <v>270</v>
       </c>
-      <c r="L7" s="225">
+      <c r="L7" s="222">
         <f>SUM(E7:J8)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="227">
+      <c r="M7" s="224">
         <f>D8-L7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="222"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
         <v>500</v>
@@ -3151,9 +3216,9 @@
       <c r="J8" s="4">
         <v>10</v>
       </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="228"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="225"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3233,7 +3298,7 @@
       <c r="A11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="221">
+      <c r="B11" s="218">
         <v>8</v>
       </c>
       <c r="C11" s="68"/>
@@ -3260,7 +3325,7 @@
       <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="222"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="90">
         <v>483</v>
       </c>
@@ -3317,7 +3382,7 @@
       <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="221">
+      <c r="B14" s="218">
         <v>10</v>
       </c>
       <c r="C14" s="95"/>
@@ -3340,7 +3405,7 @@
       <c r="A15" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="222"/>
+      <c r="B15" s="219"/>
       <c r="C15" s="96"/>
       <c r="D15" s="82">
         <v>175</v>
@@ -3364,7 +3429,7 @@
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="212">
+      <c r="B16" s="213">
         <v>11</v>
       </c>
       <c r="C16" s="18"/>
@@ -3395,7 +3460,7 @@
       <c r="A17" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="213"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -3413,7 +3478,7 @@
       <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="212">
+      <c r="B18" s="213">
         <v>12</v>
       </c>
       <c r="C18" s="12"/>
@@ -3502,7 +3567,7 @@
       <c r="A21" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="230">
+      <c r="B21" s="211">
         <v>14</v>
       </c>
       <c r="C21" s="13"/>
@@ -3530,7 +3595,7 @@
       <c r="M21" s="55"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="231"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132">
         <v>235</v>
@@ -3670,7 +3735,7 @@
       <c r="A27" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="229"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="96"/>
       <c r="D27" s="132">
         <v>100</v>
@@ -4001,7 +4066,7 @@
       <c r="A40" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="229"/>
+      <c r="B40" s="209"/>
       <c r="C40" s="96"/>
       <c r="D40" s="82">
         <v>210</v>
@@ -4056,7 +4121,7 @@
       <c r="A42" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="229"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="142"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -4074,7 +4139,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="232"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18">
         <v>190</v>
@@ -4101,16 +4166,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="M2:M4"/>
@@ -4120,11 +4180,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10126,16 +10191,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S48:T48"/>
     <mergeCell ref="BR24:BS24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
@@ -10149,6 +10204,16 @@
     <mergeCell ref="BM26:BN26"/>
     <mergeCell ref="BN32:BN34"/>
     <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S48:T48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
